--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194076F3-BB5C-B541-B491-91E3871B48BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552F6B4-12D6-B647-8391-3562F2A2DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-980" yWindow="-19400" windowWidth="30240" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="385">
   <si>
     <t>编号</t>
   </si>
@@ -1274,6 +1274,10 @@
   </si>
   <si>
     <t>BBC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史频道</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1626,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3101,14 +3105,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
+    <row r="135" spans="1:3" s="4" customFormat="1" ht="17">
+      <c r="A135" s="4">
         <v>139</v>
       </c>
-      <c r="B135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B135" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3446,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552F6B4-12D6-B647-8391-3562F2A2DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4171E5B5-4466-FD44-A17E-A82FA80766FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-980" yWindow="-19400" windowWidth="30240" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-260" yWindow="-17840" windowWidth="30240" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1353,6 +1353,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1630,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
@@ -3450,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4063,23 +4066,23 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
+    <row r="31" spans="1:6" s="4" customFormat="1">
+      <c r="A31" s="7">
         <v>10686</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
         <v>149</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4171E5B5-4466-FD44-A17E-A82FA80766FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8626FDB9-5492-E64C-9642-CE98E697A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-260" yWindow="-17840" windowWidth="30240" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-20600" windowWidth="30240" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
-    <sheet name="company" sheetId="3" r:id="rId2"/>
-    <sheet name="movies" sheetId="2" r:id="rId3"/>
+    <sheet name="newcpy" sheetId="4" r:id="rId2"/>
+    <sheet name="company" sheetId="3" r:id="rId3"/>
+    <sheet name="movies" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="387">
   <si>
     <t>编号</t>
   </si>
@@ -1280,12 +1281,19 @@
     <t>历史频道</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Warner Bros. Pictures</t>
+  </si>
+  <si>
+    <t>DC Films</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1320,6 +1328,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1341,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1356,6 +1370,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1631,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B145" sqref="A1:C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3350,6 +3365,28 @@
         <v>382</v>
       </c>
     </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>161</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>162</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3357,6 +3394,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF30E892-35C5-5F41-83CC-F6DF654C35B0}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E559E5-A9BB-3D44-A273-65544BA4DBEF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3449,11 +3535,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8626FDB9-5492-E64C-9642-CE98E697A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A9AF2C-69A6-6142-B18D-CE2A0078174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="-20600" windowWidth="30240" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-20600" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="390">
   <si>
     <t>编号</t>
   </si>
@@ -1288,12 +1288,22 @@
     <t>DC Films</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Marvel Studios</t>
+  </si>
+  <si>
+    <t>Kevin Feige Productions</t>
+  </si>
+  <si>
+    <t>Kevin Feige Productions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1334,6 +1344,12 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1355,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1371,6 +1387,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1646,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B145" sqref="A1:C158"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3387,6 +3404,28 @@
         <v>386</v>
       </c>
     </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>163</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>164</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3397,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF30E892-35C5-5F41-83CC-F6DF654C35B0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,29 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A9AF2C-69A6-6142-B18D-CE2A0078174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20251D1C-B9FA-404C-9F72-2D6E7AAA98FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="-20600" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
     <sheet name="newcpy" sheetId="4" r:id="rId2"/>
     <sheet name="company" sheetId="3" r:id="rId3"/>
     <sheet name="movies" sheetId="2" r:id="rId4"/>
+    <sheet name="movie" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Wang, Emma</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B079A2BC-0DA2-764E-979C-77165990C464}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wang, Emma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">aka </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>迷雾追魂手</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="405">
   <si>
     <t>编号</t>
   </si>
@@ -1298,12 +1351,57 @@
     <t>Kevin Feige Productions</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>墨水心</t>
+  </si>
+  <si>
+    <t>实习生</t>
+  </si>
+  <si>
+    <t>致命拜访</t>
+  </si>
+  <si>
+    <t>正义铁巨人</t>
+  </si>
+  <si>
+    <t>逃出克隆岛</t>
+  </si>
+  <si>
+    <t>西部英雄约拿·哈克斯</t>
+  </si>
+  <si>
+    <t>法官老爸</t>
+  </si>
+  <si>
+    <t>水中女妖</t>
+  </si>
+  <si>
+    <t>夜行人生</t>
+  </si>
+  <si>
+    <t>特工狂花</t>
+  </si>
+  <si>
+    <t>危机最前线</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯2</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯3</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯：狂暴之路</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1350,16 +1448,48 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1367,11 +1497,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1388,6 +1533,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1665,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1895,7 +2046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="16" customHeight="1">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3578,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5615,4 +5766,116 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9342B1-AE64-AC44-A0A5-64C84AC7BDFC}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20251D1C-B9FA-404C-9F72-2D6E7AAA98FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -23,60 +17,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Wang, Emma</author>
-  </authors>
-  <commentList>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B079A2BC-0DA2-764E-979C-77165990C464}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wang, Emma:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">aka </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>迷雾追魂手</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="402">
   <si>
     <t>编号</t>
   </si>
@@ -546,14 +488,33 @@
     <t>优尼影视</t>
   </si>
   <si>
+    <t>儒意</t>
+  </si>
+  <si>
+    <t>Warner Bros. Pictures</t>
+  </si>
+  <si>
+    <t>DC Films</t>
+  </si>
+  <si>
+    <t>Marvel Studios</t>
+  </si>
+  <si>
+    <t>Kevin Feige Productions</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>movie_id(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>影片编号</t>
@@ -562,20 +523,24 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>movie_name</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（影片名称）</t>
@@ -583,13 +548,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>影片类型</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -597,7 +567,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：电影</t>
@@ -606,7 +575,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -614,7 +583,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：季播剧</t>
@@ -622,13 +590,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>company_id</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权公司编号）</t>
@@ -636,13 +608,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>copyright_start_time</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权开始日期）</t>
@@ -650,13 +626,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>copyright_end_time</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权结束日期）</t>
@@ -1323,85 +1303,62 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>儒意</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史频道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warner Bros. Pictures</t>
-  </si>
-  <si>
-    <t>DC Films</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marvel Studios</t>
-  </si>
-  <si>
-    <t>Kevin Feige Productions</t>
-  </si>
-  <si>
-    <t>Kevin Feige Productions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水心</t>
-  </si>
-  <si>
-    <t>实习生</t>
-  </si>
-  <si>
-    <t>致命拜访</t>
-  </si>
-  <si>
-    <t>正义铁巨人</t>
-  </si>
-  <si>
-    <t>逃出克隆岛</t>
-  </si>
-  <si>
-    <t>西部英雄约拿·哈克斯</t>
-  </si>
-  <si>
-    <t>法官老爸</t>
-  </si>
-  <si>
-    <t>水中女妖</t>
-  </si>
-  <si>
-    <t>夜行人生</t>
-  </si>
-  <si>
-    <t>特工狂花</t>
-  </si>
-  <si>
-    <t>危机最前线</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯2</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯3</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯：狂暴之路</t>
+    <t>哈利·波特与密室</t>
+  </si>
+  <si>
+    <t>哈利·波特与死亡圣器(上)</t>
+  </si>
+  <si>
+    <t>哈利·波特与死亡圣器(下)</t>
+  </si>
+  <si>
+    <t>哈利·波特与火焰杯</t>
+  </si>
+  <si>
+    <t>哈利·波特与混血王子</t>
+  </si>
+  <si>
+    <t>哈利·波特与凤凰社</t>
+  </si>
+  <si>
+    <t>哈利·波特与阿兹卡班的囚徒</t>
+  </si>
+  <si>
+    <t>哈利·波特与魔法石</t>
+  </si>
+  <si>
+    <t>躲藏</t>
+  </si>
+  <si>
+    <t>暴力史</t>
+  </si>
+  <si>
+    <t>我是传奇</t>
+  </si>
+  <si>
+    <t>我是山姆</t>
+  </si>
+  <si>
+    <t>海洋深处</t>
+  </si>
+  <si>
+    <t>超级魔术师</t>
+  </si>
+  <si>
+    <t>告密者</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1410,72 +1367,201 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="9.8"/>
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,8 +1574,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1512,9 +1784,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1524,33 +2038,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1808,32 +2366,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.3359375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2046,7 +2604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" customHeight="1">
+    <row r="21" ht="16" customHeight="1" spans="1:3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2061,8 +2619,8 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>383</v>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2992,7 +3550,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>111</v>
       </c>
@@ -3022,7 +3580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>114</v>
       </c>
@@ -3030,7 +3588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>115</v>
       </c>
@@ -3291,14 +3849,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="4" customFormat="1" ht="17">
-      <c r="A135" s="4">
+    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="5">
         <v>139</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="B135" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3522,15 +4080,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="4" customFormat="1" ht="17">
-      <c r="A156" s="4">
+    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="5">
         <v>160</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>382</v>
+      <c r="B156" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3538,10 +4096,10 @@
         <v>161</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3549,58 +4107,59 @@
         <v>162</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>387</v>
+      <c r="B159" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>389</v>
+      <c r="B160" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF30E892-35C5-5F41-83CC-F6DF654C35B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3609,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3620,36 +4179,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E559E5-A9BB-3D44-A273-65544BA4DBEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3720,46 +4280,47 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.83203125" customWidth="1"/>
+    <col min="2" max="3" width="41.3359375" customWidth="1"/>
+    <col min="4" max="4" width="33.3359375" customWidth="1"/>
+    <col min="5" max="5" width="45.3359375" customWidth="1"/>
+    <col min="6" max="6" width="53.8359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" ht="17" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3767,7 +4328,7 @@
         <v>10009</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -3776,10 +4337,10 @@
         <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3787,7 +4348,7 @@
         <v>10022</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -3796,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3807,7 +4368,7 @@
         <v>10083</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -3816,10 +4377,10 @@
         <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3827,7 +4388,7 @@
         <v>10117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -3836,10 +4397,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3847,7 +4408,7 @@
         <v>10161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3856,10 +4417,10 @@
         <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3867,7 +4428,7 @@
         <v>10174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -3876,10 +4437,10 @@
         <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3887,7 +4448,7 @@
         <v>10190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3896,10 +4457,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3907,7 +4468,7 @@
         <v>10222</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -3916,10 +4477,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3927,7 +4488,7 @@
         <v>10225</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -3936,10 +4497,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3947,7 +4508,7 @@
         <v>10226</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3956,10 +4517,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3967,7 +4528,7 @@
         <v>10227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -3976,10 +4537,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3987,7 +4548,7 @@
         <v>10231</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -3996,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4007,7 +4568,7 @@
         <v>10232</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -4016,10 +4577,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4027,7 +4588,7 @@
         <v>10236</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4036,10 +4597,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4047,7 +4608,7 @@
         <v>10239</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4056,10 +4617,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4067,7 +4628,7 @@
         <v>10266</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -4076,10 +4637,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4087,7 +4648,7 @@
         <v>10300</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -4096,10 +4657,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4107,7 +4668,7 @@
         <v>10399</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4116,10 +4677,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4127,7 +4688,7 @@
         <v>10427</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4136,10 +4697,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4147,7 +4708,7 @@
         <v>10430</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -4156,10 +4717,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4167,7 +4728,7 @@
         <v>10453</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -4176,10 +4737,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4187,7 +4748,7 @@
         <v>10454</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4196,10 +4757,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4207,7 +4768,7 @@
         <v>10463</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4216,10 +4777,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4227,7 +4788,7 @@
         <v>10592</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4236,10 +4797,10 @@
         <v>149</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4247,7 +4808,7 @@
         <v>10595</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4256,10 +4817,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4267,7 +4828,7 @@
         <v>10607</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -4276,10 +4837,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4287,7 +4848,7 @@
         <v>10646</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -4296,10 +4857,10 @@
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4307,7 +4868,7 @@
         <v>10649</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -4316,10 +4877,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4327,7 +4888,7 @@
         <v>10650</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -4336,30 +4897,30 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1">
-      <c r="A31" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="1" spans="1:6">
+      <c r="A31" s="6">
         <v>10686</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>149</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
+      <c r="E31" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4367,7 +4928,7 @@
         <v>10734</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -4376,10 +4937,10 @@
         <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4387,7 +4948,7 @@
         <v>10735</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -4396,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4407,7 +4968,7 @@
         <v>10737</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -4416,10 +4977,10 @@
         <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4427,7 +4988,7 @@
         <v>10738</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -4436,10 +4997,10 @@
         <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4447,7 +5008,7 @@
         <v>10758</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -4456,10 +5017,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4467,7 +5028,7 @@
         <v>10768</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -4476,10 +5037,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4487,7 +5048,7 @@
         <v>10772</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -4496,10 +5057,10 @@
         <v>146</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4507,7 +5068,7 @@
         <v>10776</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -4516,10 +5077,10 @@
         <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4527,7 +5088,7 @@
         <v>10791</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -4536,10 +5097,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4547,7 +5108,7 @@
         <v>10793</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -4556,10 +5117,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4567,7 +5128,7 @@
         <v>10820</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -4576,10 +5137,10 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4587,7 +5148,7 @@
         <v>10824</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -4596,10 +5157,10 @@
         <v>149</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4607,7 +5168,7 @@
         <v>10826</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -4616,10 +5177,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4627,7 +5188,7 @@
         <v>10828</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -4636,10 +5197,10 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4647,7 +5208,7 @@
         <v>10838</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -4656,10 +5217,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4667,7 +5228,7 @@
         <v>10857</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -4676,10 +5237,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4687,7 +5248,7 @@
         <v>10868</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -4696,10 +5257,10 @@
         <v>149</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4707,7 +5268,7 @@
         <v>10877</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -4716,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4727,7 +5288,7 @@
         <v>10930</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -4736,10 +5297,10 @@
         <v>149</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4747,7 +5308,7 @@
         <v>11105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -4756,10 +5317,10 @@
         <v>149</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4767,7 +5328,7 @@
         <v>11117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -4776,10 +5337,10 @@
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4787,7 +5348,7 @@
         <v>11123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -4796,10 +5357,10 @@
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4807,7 +5368,7 @@
         <v>11125</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -4816,10 +5377,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4827,7 +5388,7 @@
         <v>11159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -4836,10 +5397,10 @@
         <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4847,7 +5408,7 @@
         <v>11196</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -4856,10 +5417,10 @@
         <v>146</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4867,7 +5428,7 @@
         <v>11203</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -4876,10 +5437,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4887,7 +5448,7 @@
         <v>11208</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -4896,10 +5457,10 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4907,7 +5468,7 @@
         <v>11250</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -4916,10 +5477,10 @@
         <v>118</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4927,7 +5488,7 @@
         <v>11252</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -4936,10 +5497,10 @@
         <v>118</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4947,7 +5508,7 @@
         <v>11253</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -4956,10 +5517,10 @@
         <v>118</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4967,7 +5528,7 @@
         <v>11884</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -4976,10 +5537,10 @@
         <v>124</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4987,7 +5548,7 @@
         <v>12254</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
@@ -4996,10 +5557,10 @@
         <v>118</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5007,7 +5568,7 @@
         <v>15222</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -5016,10 +5577,10 @@
         <v>122</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5027,7 +5588,7 @@
         <v>19065</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
@@ -5036,10 +5597,10 @@
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5047,7 +5608,7 @@
         <v>20959</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
@@ -5056,10 +5617,10 @@
         <v>122</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5067,7 +5628,7 @@
         <v>26539</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
@@ -5076,10 +5637,10 @@
         <v>122</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5087,7 +5648,7 @@
         <v>34284</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
@@ -5096,10 +5657,10 @@
         <v>122</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5107,7 +5668,7 @@
         <v>36717</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
@@ -5116,10 +5677,10 @@
         <v>122</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5127,7 +5688,7 @@
         <v>37426</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
@@ -5136,10 +5697,10 @@
         <v>122</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5147,7 +5708,7 @@
         <v>37678</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
@@ -5156,10 +5717,10 @@
         <v>122</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5167,7 +5728,7 @@
         <v>38345</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
@@ -5176,10 +5737,10 @@
         <v>122</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5187,7 +5748,7 @@
         <v>38455</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
@@ -5196,10 +5757,10 @@
         <v>122</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5207,7 +5768,7 @@
         <v>38695</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C74" s="1">
         <v>3</v>
@@ -5216,10 +5777,10 @@
         <v>122</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5227,7 +5788,7 @@
         <v>38732</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
@@ -5236,10 +5797,10 @@
         <v>122</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5247,7 +5808,7 @@
         <v>38865</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -5256,10 +5817,10 @@
         <v>122</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5267,7 +5828,7 @@
         <v>39709</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C77" s="1">
         <v>3</v>
@@ -5276,10 +5837,10 @@
         <v>122</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5287,7 +5848,7 @@
         <v>39743</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
@@ -5296,10 +5857,10 @@
         <v>122</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5307,7 +5868,7 @@
         <v>41443</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
@@ -5316,10 +5877,10 @@
         <v>122</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5327,7 +5888,7 @@
         <v>47125</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -5336,10 +5897,10 @@
         <v>150</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5347,7 +5908,7 @@
         <v>47259</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C81" s="1">
         <v>3</v>
@@ -5356,10 +5917,10 @@
         <v>150</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5367,7 +5928,7 @@
         <v>47572</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C82" s="1">
         <v>3</v>
@@ -5376,10 +5937,10 @@
         <v>150</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5387,7 +5948,7 @@
         <v>47618</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C83" s="1">
         <v>3</v>
@@ -5396,10 +5957,10 @@
         <v>150</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5407,7 +5968,7 @@
         <v>47678</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C84" s="1">
         <v>3</v>
@@ -5416,10 +5977,10 @@
         <v>150</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5427,7 +5988,7 @@
         <v>48183</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C85" s="1">
         <v>3</v>
@@ -5436,10 +5997,10 @@
         <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5447,7 +6008,7 @@
         <v>48303</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C86" s="1">
         <v>3</v>
@@ -5456,10 +6017,10 @@
         <v>150</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5467,7 +6028,7 @@
         <v>48365</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>
@@ -5476,10 +6037,10 @@
         <v>150</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5487,7 +6048,7 @@
         <v>48565</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C88" s="1">
         <v>3</v>
@@ -5496,10 +6057,10 @@
         <v>150</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5507,7 +6068,7 @@
         <v>48816</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C89" s="1">
         <v>3</v>
@@ -5516,10 +6077,10 @@
         <v>150</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5527,7 +6088,7 @@
         <v>48864</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C90" s="1">
         <v>3</v>
@@ -5536,10 +6097,10 @@
         <v>150</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5547,7 +6108,7 @@
         <v>48919</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C91" s="1">
         <v>3</v>
@@ -5556,10 +6117,10 @@
         <v>150</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5567,7 +6128,7 @@
         <v>48955</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C92" s="1">
         <v>3</v>
@@ -5576,10 +6137,10 @@
         <v>150</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5587,7 +6148,7 @@
         <v>49009</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C93" s="1">
         <v>3</v>
@@ -5596,10 +6157,10 @@
         <v>150</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5607,7 +6168,7 @@
         <v>49039</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
@@ -5616,10 +6177,10 @@
         <v>150</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5627,7 +6188,7 @@
         <v>49071</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C95" s="1">
         <v>3</v>
@@ -5636,10 +6197,10 @@
         <v>150</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5647,7 +6208,7 @@
         <v>49551</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
@@ -5656,10 +6217,10 @@
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5667,7 +6228,7 @@
         <v>50038</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C97" s="1">
         <v>3</v>
@@ -5676,10 +6237,10 @@
         <v>150</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5687,7 +6248,7 @@
         <v>51577</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C98" s="1">
         <v>3</v>
@@ -5696,10 +6257,10 @@
         <v>150</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5707,7 +6268,7 @@
         <v>51835</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
@@ -5716,10 +6277,10 @@
         <v>150</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5727,7 +6288,7 @@
         <v>52026</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
@@ -5736,10 +6297,10 @@
         <v>150</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5747,7 +6308,7 @@
         <v>52459</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C101" s="1">
         <v>3</v>
@@ -5756,126 +6317,126 @@
         <v>150</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9342B1-AE64-AC44-A0A5-64C84AC7BDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" ht="17" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" ht="14.4" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="2:2">
+      <c r="B5" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="11" t="s">
+    <row r="6" ht="14.4" spans="2:2">
+      <c r="B6" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="11" t="s">
+    <row r="7" ht="14.4" spans="2:2">
+      <c r="B7" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="11" t="s">
+    <row r="8" ht="14.4" spans="2:2">
+      <c r="B8" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="11" t="s">
+    <row r="9" ht="14.4" spans="2:2">
+      <c r="B9" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="11" t="s">
+    <row r="10" ht="14.4" spans="2:2">
+      <c r="B10" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="11" t="s">
+    <row r="11" ht="14.4" spans="2:2">
+      <c r="B11" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="11" t="s">
+    <row r="12" ht="14.4" spans="2:2">
+      <c r="B12" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="11" t="s">
+    <row r="13" ht="14.4" spans="2:2">
+      <c r="B13" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="11" t="s">
+    <row r="14" ht="14.4" spans="2:2">
+      <c r="B14" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="11" t="s">
+    <row r="15" ht="14.4" spans="2:2">
+      <c r="B15" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="11" t="s">
+    <row r="16" ht="14.4" spans="2:2">
+      <c r="B16" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -15,6 +15,38 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wang, Emma</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Wang, Emma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+aka 迷雾追魂手</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,49 +1335,49 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>哈利·波特与密室</t>
-  </si>
-  <si>
-    <t>哈利·波特与死亡圣器(上)</t>
-  </si>
-  <si>
-    <t>哈利·波特与死亡圣器(下)</t>
-  </si>
-  <si>
-    <t>哈利·波特与火焰杯</t>
-  </si>
-  <si>
-    <t>哈利·波特与混血王子</t>
-  </si>
-  <si>
-    <t>哈利·波特与凤凰社</t>
-  </si>
-  <si>
-    <t>哈利·波特与阿兹卡班的囚徒</t>
-  </si>
-  <si>
-    <t>哈利·波特与魔法石</t>
-  </si>
-  <si>
-    <t>躲藏</t>
-  </si>
-  <si>
-    <t>暴力史</t>
-  </si>
-  <si>
-    <t>我是传奇</t>
-  </si>
-  <si>
-    <t>我是山姆</t>
-  </si>
-  <si>
-    <t>海洋深处</t>
-  </si>
-  <si>
-    <t>超级魔术师</t>
-  </si>
-  <si>
-    <t>告密者</t>
+    <t>墨水心</t>
+  </si>
+  <si>
+    <t>实习生</t>
+  </si>
+  <si>
+    <t>致命拜访</t>
+  </si>
+  <si>
+    <t>正义铁巨人</t>
+  </si>
+  <si>
+    <t>逃出克隆岛</t>
+  </si>
+  <si>
+    <t>西部英雄约拿·哈克斯</t>
+  </si>
+  <si>
+    <t>法官老爸</t>
+  </si>
+  <si>
+    <t>水中女妖</t>
+  </si>
+  <si>
+    <t>夜行人生</t>
+  </si>
+  <si>
+    <t>特工狂花</t>
+  </si>
+  <si>
+    <t>危机最前线</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯2</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯3</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯：狂暴之路</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1390,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1371,12 +1403,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1559,6 +1591,17 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -6335,7 +6378,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6401,12 +6444,12 @@
       </c>
     </row>
     <row r="10" ht="14.4" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="11" ht="14.4" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6416,17 +6459,17 @@
       </c>
     </row>
     <row r="13" ht="14.4" spans="2:2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="14" ht="14.4" spans="2:2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="15" ht="14.4" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6438,5 +6481,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="5">
+    <comment s:ref="B14" rgbClr="000000"/>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -17,40 +17,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Wang, Emma</author>
-  </authors>
-  <commentList>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Wang, Emma:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-aka 迷雾追魂手</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="537">
   <si>
     <t>编号</t>
   </si>
@@ -1335,49 +1303,454 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>墨水心</t>
-  </si>
-  <si>
-    <t>实习生</t>
-  </si>
-  <si>
-    <t>致命拜访</t>
-  </si>
-  <si>
-    <t>正义铁巨人</t>
-  </si>
-  <si>
-    <t>逃出克隆岛</t>
-  </si>
-  <si>
-    <t>西部英雄约拿·哈克斯</t>
-  </si>
-  <si>
-    <t>法官老爸</t>
-  </si>
-  <si>
-    <t>水中女妖</t>
-  </si>
-  <si>
-    <t>夜行人生</t>
-  </si>
-  <si>
-    <t>特工狂花</t>
-  </si>
-  <si>
-    <t>危机最前线</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯2</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯3</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯：狂暴之路</t>
+    <t>斯米蒂</t>
+  </si>
+  <si>
+    <t>生物课堂101</t>
+  </si>
+  <si>
+    <t>火烧摩天楼</t>
+  </si>
+  <si>
+    <t>最差女主角</t>
+  </si>
+  <si>
+    <t>香肠派对</t>
+  </si>
+  <si>
+    <t>硬核亨利</t>
+  </si>
+  <si>
+    <t>斯诺登</t>
+  </si>
+  <si>
+    <t>生死之墙</t>
+  </si>
+  <si>
+    <t>梦之安魂曲</t>
+  </si>
+  <si>
+    <t>死亡诗社</t>
+  </si>
+  <si>
+    <t>过关斩将</t>
+  </si>
+  <si>
+    <t>公平游戏</t>
+  </si>
+  <si>
+    <t>决胜巅峰</t>
+  </si>
+  <si>
+    <t>地心营救</t>
+  </si>
+  <si>
+    <t>红色之州</t>
+  </si>
+  <si>
+    <t>废纸板拳击手</t>
+  </si>
+  <si>
+    <t>扭转钱坤</t>
+  </si>
+  <si>
+    <t>哈拉上路</t>
+  </si>
+  <si>
+    <t>势不两立</t>
+  </si>
+  <si>
+    <t>赏金杀手</t>
+  </si>
+  <si>
+    <t>四喜临门</t>
+  </si>
+  <si>
+    <t>缘分天注定</t>
+  </si>
+  <si>
+    <t>顽石之拳</t>
+  </si>
+  <si>
+    <t>底特律</t>
+  </si>
+  <si>
+    <t>劫数</t>
+  </si>
+  <si>
+    <t>冲动</t>
+  </si>
+  <si>
+    <t>咱可不是猫</t>
+  </si>
+  <si>
+    <t>金衣女人</t>
+  </si>
+  <si>
+    <t>钝感之爱</t>
+  </si>
+  <si>
+    <t>无理之人</t>
+  </si>
+  <si>
+    <t>这是你的死亡</t>
+  </si>
+  <si>
+    <t>维基解密</t>
+  </si>
+  <si>
+    <t>呆呆向前冲</t>
+  </si>
+  <si>
+    <t>面对巨人</t>
+  </si>
+  <si>
+    <t>马克·费尔特：扳倒白宫之人</t>
+  </si>
+  <si>
+    <t>法外游侠</t>
+  </si>
+  <si>
+    <t>和你一样</t>
+  </si>
+  <si>
+    <t>V字仇杀队</t>
+  </si>
+  <si>
+    <t>同为异类</t>
+  </si>
+  <si>
+    <t>琼斯的自由国度</t>
+  </si>
+  <si>
+    <t>死囚之舞</t>
+  </si>
+  <si>
+    <t>燃情主厨</t>
+  </si>
+  <si>
+    <t>米其林情缘</t>
+  </si>
+  <si>
+    <t>血与蜜之地</t>
+  </si>
+  <si>
+    <t>大开眼界</t>
+  </si>
+  <si>
+    <t>蓝色茉莉</t>
+  </si>
+  <si>
+    <t>索马里海盗</t>
+  </si>
+  <si>
+    <t>勇士</t>
+  </si>
+  <si>
+    <t>燃烧的平原</t>
+  </si>
+  <si>
+    <t>间谍之桥</t>
+  </si>
+  <si>
+    <t>叶落无痕</t>
+  </si>
+  <si>
+    <t>选秀日</t>
+  </si>
+  <si>
+    <t>尼克松</t>
+  </si>
+  <si>
+    <t>面纱</t>
+  </si>
+  <si>
+    <t>圣人文森特</t>
+  </si>
+  <si>
+    <t>母与子</t>
+  </si>
+  <si>
+    <t>甜蜜地狱之家</t>
+  </si>
+  <si>
+    <t>热泪伤痕</t>
+  </si>
+  <si>
+    <t>查帕奎迪克事件</t>
+  </si>
+  <si>
+    <t>摩纳哥王妃</t>
+  </si>
+  <si>
+    <t>谋杀未遂</t>
+  </si>
+  <si>
+    <t>模范家庭</t>
+  </si>
+  <si>
+    <t>巨猩乔扬</t>
+  </si>
+  <si>
+    <t>狐狸猎手</t>
+  </si>
+  <si>
+    <t>威慑与恐吓</t>
+  </si>
+  <si>
+    <t>例外</t>
+  </si>
+  <si>
+    <t>玻璃城堡</t>
+  </si>
+  <si>
+    <t>彼铁卢</t>
+  </si>
+  <si>
+    <t>重返荣耀</t>
+  </si>
+  <si>
+    <t>乌云背后的幸福线</t>
+  </si>
+  <si>
+    <t>五尺天涯</t>
+  </si>
+  <si>
+    <t>朗读者</t>
+  </si>
+  <si>
+    <t>欢迎来到马文镇</t>
+  </si>
+  <si>
+    <t>最佳敌人</t>
+  </si>
+  <si>
+    <t>后来</t>
+  </si>
+  <si>
+    <t>遗失的环节</t>
+  </si>
+  <si>
+    <t>超大号美人</t>
+  </si>
+  <si>
+    <t>汪星卧底</t>
+  </si>
+  <si>
+    <t>不可能的事</t>
+  </si>
+  <si>
+    <t>犬之岛</t>
+  </si>
+  <si>
+    <t>飞机总动员</t>
+  </si>
+  <si>
+    <t>赤胆豪情</t>
+  </si>
+  <si>
+    <t>良知堡垒</t>
+  </si>
+  <si>
+    <t>托尔金</t>
+  </si>
+  <si>
+    <t>狗狗旅馆</t>
+  </si>
+  <si>
+    <t>小狗本吉</t>
+  </si>
+  <si>
+    <t>老雷斯的故事</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阿呆与阿瓜2</t>
+  </si>
+  <si>
+    <t>蜻蜓侠</t>
+  </si>
+  <si>
+    <t>极速蜗牛</t>
+  </si>
+  <si>
+    <t>表情奇幻冒险</t>
+  </si>
+  <si>
+    <t>性别为本</t>
+  </si>
+  <si>
+    <t>终极笑探</t>
+  </si>
+  <si>
+    <t>斯塔比中士</t>
+  </si>
+  <si>
+    <t>电力之战</t>
+  </si>
+  <si>
+    <t>史努比：花生大电影</t>
+  </si>
+  <si>
+    <t>魔法电波</t>
+  </si>
+  <si>
+    <t>蜜蜂总动员</t>
+  </si>
+  <si>
+    <t>电影人生</t>
+  </si>
+  <si>
+    <t>卢斯</t>
+  </si>
+  <si>
+    <t>恩赐妙手：班·卡森医师</t>
+  </si>
+  <si>
+    <t>誓言</t>
+  </si>
+  <si>
+    <t>布莱恩·班克斯</t>
+  </si>
+  <si>
+    <t>酷刑报告</t>
+  </si>
+  <si>
+    <t>战胜自我</t>
+  </si>
+  <si>
+    <t>圣诞恋爱季</t>
+  </si>
+  <si>
+    <t>爸爸的好儿子</t>
+  </si>
+  <si>
+    <t>超乎想象</t>
+  </si>
+  <si>
+    <t>小富翁里奇</t>
+  </si>
+  <si>
+    <t>井下9人</t>
+  </si>
+  <si>
+    <t>疯狂原始人</t>
+  </si>
+  <si>
+    <t>大而不倒</t>
+  </si>
+  <si>
+    <t>定制伴郎</t>
+  </si>
+  <si>
+    <t>超人之死与超人归来</t>
+  </si>
+  <si>
+    <t>遗产</t>
+  </si>
+  <si>
+    <t>奇鞋妙旅</t>
+  </si>
+  <si>
+    <t>好小子们</t>
+  </si>
+  <si>
+    <t>终极细胞战</t>
+  </si>
+  <si>
+    <t>第零军团</t>
+  </si>
+  <si>
+    <t>破碎的玻璃</t>
+  </si>
+  <si>
+    <t>空难余波</t>
+  </si>
+  <si>
+    <t>米奇和熊</t>
+  </si>
+  <si>
+    <t>碳变：义体置换</t>
+  </si>
+  <si>
+    <t>甜蜜十一月</t>
+  </si>
+  <si>
+    <t>人力资本</t>
+  </si>
+  <si>
+    <t>从不，很少，有时，总是</t>
+  </si>
+  <si>
+    <t>我仍然相信</t>
+  </si>
+  <si>
+    <t>真人快打传奇：蝎子的复仇</t>
+  </si>
+  <si>
+    <t>倾听男人心</t>
+  </si>
+  <si>
+    <t>亨利之书</t>
+  </si>
+  <si>
+    <t>黑暗正义联盟：天启星战争</t>
+  </si>
+  <si>
+    <t>丑娃娃</t>
+  </si>
+  <si>
+    <t>车道</t>
+  </si>
+  <si>
+    <t>捍卫家园</t>
+  </si>
+  <si>
+    <t>勇气</t>
+  </si>
+  <si>
+    <t>雪莉</t>
+  </si>
+  <si>
+    <t>心琴调音师</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>跟随节拍跳起来</t>
+  </si>
+  <si>
+    <t>长路简史</t>
+  </si>
+  <si>
+    <t>雪人情缘</t>
+  </si>
+  <si>
+    <t>法蒂玛</t>
+  </si>
+  <si>
+    <t>天才小吉他手</t>
+  </si>
+  <si>
+    <t>我非笼鸟</t>
+  </si>
+  <si>
+    <t>校巴人生</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>触礁</t>
+  </si>
+  <si>
+    <t>史酷比（2020）</t>
+  </si>
+  <si>
+    <t>企业动物</t>
+  </si>
+  <si>
+    <t>人生急转弯</t>
   </si>
 </sst>
 </file>
@@ -1385,12 +1758,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1402,15 +1775,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1426,11 +1795,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -1442,32 +1806,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1478,9 +1821,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,69 +1837,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,10 +1859,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1593,18 +1875,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1613,25 +1959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,19 +1983,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,7 +2013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,7 +2025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,13 +2049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,7 +2061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,37 +2091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,7 +2115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,24 +2139,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1814,25 +2154,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,21 +2179,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,6 +2209,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1902,178 +2227,178 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2081,21 +2406,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2428,13 +2748,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2662,7 +2982,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -3892,14 +4212,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="5">
+    <row r="135" s="4" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="4">
         <v>139</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4123,14 +4443,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="5">
+    <row r="156" s="4" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="4">
         <v>160</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4138,10 +4458,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4149,10 +4469,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4160,10 +4480,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4171,10 +4491,10 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4196,13 +4516,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4210,10 +4530,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4221,10 +4541,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4246,13 +4566,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4946,23 +5266,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="6">
+    <row r="31" s="4" customFormat="1" spans="1:6">
+      <c r="A31" s="5">
         <v>10686</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>149</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6375,10 +6695,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6403,101 +6723,758 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="2:2">
+    <row r="2" ht="16.8" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="2:2">
+    <row r="3" ht="16.8" spans="2:2">
       <c r="B3" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="2:2">
+    <row r="4" ht="16.8" spans="2:2">
       <c r="B4" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="2:2">
+    <row r="5" ht="16.8" spans="2:2">
       <c r="B5" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="2:2">
+    <row r="6" ht="16.8" spans="2:2">
       <c r="B6" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="2:2">
+    <row r="7" ht="16.8" spans="2:2">
       <c r="B7" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="2:2">
+    <row r="8" ht="16.8" spans="2:2">
       <c r="B8" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="2:2">
+    <row r="9" ht="16.8" spans="2:2">
       <c r="B9" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="2:2">
+    <row r="10" ht="16.8" spans="2:2">
       <c r="B10" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="2:2">
+    <row r="11" ht="16.8" spans="2:2">
       <c r="B11" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="2:2">
+    <row r="12" ht="16.8" spans="2:2">
       <c r="B12" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="2:2">
+    <row r="13" ht="16.8" spans="2:2">
       <c r="B13" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="2:2">
+    <row r="14" ht="16.8" spans="2:2">
       <c r="B14" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="2:2">
+    <row r="15" ht="16.8" spans="2:2">
       <c r="B15" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="2:2">
-      <c r="B16" s="4" t="s">
+    <row r="16" ht="16.8" spans="2:2">
+      <c r="B16" s="3" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="2:2">
+      <c r="B33" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="2:2">
+      <c r="B35" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="2:2">
+      <c r="B36" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="2:2">
+      <c r="B37" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="2:2">
+      <c r="B39" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="2:2">
+      <c r="B40" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="2:2">
+      <c r="B41" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="2:2">
+      <c r="B42" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="2:2">
+      <c r="B43" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="2:2">
+      <c r="B44" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="2:2">
+      <c r="B45" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="2:2">
+      <c r="B46" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="2:2">
+      <c r="B47" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="2:2">
+      <c r="B48" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="2:2">
+      <c r="B49" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="2:2">
+      <c r="B50" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="2:2">
+      <c r="B51" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="2:2">
+      <c r="B53" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="2:2">
+      <c r="B55" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="2:2">
+      <c r="B57" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="2:2">
+      <c r="B58" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="2:2">
+      <c r="B59" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="2:2">
+      <c r="B60" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="2:2">
+      <c r="B61" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="2:2">
+      <c r="B62" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="2:2">
+      <c r="B63" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="2:2">
+      <c r="B64" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="2:2">
+      <c r="B65" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="2:2">
+      <c r="B66" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="2:2">
+      <c r="B67" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="2:2">
+      <c r="B68" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" ht="16.8" spans="2:2">
+      <c r="B69" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="2:2">
+      <c r="B70" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" ht="16.8" spans="2:2">
+      <c r="B71" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="2:2">
+      <c r="B72" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="2:2">
+      <c r="B73" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="2:2">
+      <c r="B74" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="2:2">
+      <c r="B75" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="2:2">
+      <c r="B76" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="2:2">
+      <c r="B77" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="2:2">
+      <c r="B78" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" ht="16.8" spans="2:2">
+      <c r="B79" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" ht="16.8" spans="2:2">
+      <c r="B80" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" ht="16.8" spans="2:2">
+      <c r="B81" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" ht="16.8" spans="2:2">
+      <c r="B82" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="83" ht="16.8" spans="2:2">
+      <c r="B83" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" ht="16.8" spans="2:2">
+      <c r="B84" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="85" ht="16.8" spans="2:2">
+      <c r="B85" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86" ht="16.8" spans="2:2">
+      <c r="B86" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" ht="16.8" spans="2:2">
+      <c r="B87" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" ht="16.8" spans="2:2">
+      <c r="B88" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" ht="16.8" spans="2:2">
+      <c r="B89" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" ht="16.8" spans="2:2">
+      <c r="B90" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" ht="16.8" spans="2:2">
+      <c r="B91" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" ht="16.8" spans="2:2">
+      <c r="B92" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" ht="16.8" spans="2:2">
+      <c r="B93" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" ht="16.8" spans="2:2">
+      <c r="B94" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" ht="16.8" spans="2:2">
+      <c r="B95" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" ht="16.8" spans="2:2">
+      <c r="B96" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" ht="16.8" spans="2:2">
+      <c r="B97" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" ht="16.8" spans="2:2">
+      <c r="B98" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" ht="16.8" spans="2:2">
+      <c r="B99" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" ht="16.8" spans="2:2">
+      <c r="B100" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" ht="16.8" spans="2:2">
+      <c r="B101" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" ht="16.8" spans="2:2">
+      <c r="B102" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" ht="16.8" spans="2:2">
+      <c r="B103" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="104" ht="16.8" spans="2:2">
+      <c r="B104" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="105" ht="16.8" spans="2:2">
+      <c r="B105" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" ht="16.8" spans="2:2">
+      <c r="B106" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" ht="16.8" spans="2:2">
+      <c r="B107" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="108" ht="16.8" spans="2:2">
+      <c r="B108" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="109" ht="16.8" spans="2:2">
+      <c r="B109" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="110" ht="16.8" spans="2:2">
+      <c r="B110" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" ht="16.8" spans="2:2">
+      <c r="B111" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="112" ht="16.8" spans="2:2">
+      <c r="B112" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" ht="16.8" spans="2:2">
+      <c r="B113" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="114" ht="16.8" spans="2:2">
+      <c r="B114" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" ht="16.8" spans="2:2">
+      <c r="B115" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" ht="16.8" spans="2:2">
+      <c r="B116" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="117" ht="16.8" spans="2:2">
+      <c r="B117" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="118" ht="16.8" spans="2:2">
+      <c r="B118" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="119" ht="16.8" spans="2:2">
+      <c r="B119" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="120" ht="16.8" spans="2:2">
+      <c r="B120" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="121" ht="16.8" spans="2:2">
+      <c r="B121" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" ht="16.8" spans="2:2">
+      <c r="B122" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="123" ht="16.8" spans="2:2">
+      <c r="B123" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="124" ht="16.8" spans="2:2">
+      <c r="B124" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" ht="16.8" spans="2:2">
+      <c r="B125" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="126" ht="16.8" spans="2:2">
+      <c r="B126" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="127" ht="16.8" spans="2:2">
+      <c r="B127" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="128" ht="16.8" spans="2:2">
+      <c r="B128" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="129" ht="16.8" spans="2:2">
+      <c r="B129" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="130" ht="16.8" spans="2:2">
+      <c r="B130" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" ht="16.8" spans="2:2">
+      <c r="B131" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="132" ht="16.8" spans="2:2">
+      <c r="B132" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="133" ht="16.8" spans="2:2">
+      <c r="B133" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="134" ht="16.8" spans="2:2">
+      <c r="B134" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="135" ht="16.8" spans="2:2">
+      <c r="B135" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="136" ht="16.8" spans="2:2">
+      <c r="B136" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="137" ht="16.8" spans="2:2">
+      <c r="B137" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" ht="16.8" spans="2:2">
+      <c r="B138" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="139" ht="16.8" spans="2:2">
+      <c r="B139" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="140" ht="16.8" spans="2:2">
+      <c r="B140" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="141" ht="16.8" spans="2:2">
+      <c r="B141" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="142" ht="16.8" spans="2:2">
+      <c r="B142" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="143" ht="16.8" spans="2:2">
+      <c r="B143" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="144" ht="16.8" spans="2:2">
+      <c r="B144" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" ht="16.8" spans="2:2">
+      <c r="B145" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="146" ht="16.8" spans="2:2">
+      <c r="B146" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="147" ht="16.8" spans="2:2">
+      <c r="B147" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="148" ht="16.8" spans="2:2">
+      <c r="B148" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" ht="16.8" spans="2:2">
+      <c r="B149" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" ht="16.8" spans="2:2">
+      <c r="B150" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="151" ht="16.8" spans="2:2">
+      <c r="B151" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <commentList sheetStid="5">
-    <comment s:ref="B14" rgbClr="000000"/>
-  </commentList>
-</comments>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="511">
   <si>
     <t>编号</t>
   </si>
@@ -1303,84 +1303,6 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>斯米蒂</t>
-  </si>
-  <si>
-    <t>生物课堂101</t>
-  </si>
-  <si>
-    <t>火烧摩天楼</t>
-  </si>
-  <si>
-    <t>最差女主角</t>
-  </si>
-  <si>
-    <t>香肠派对</t>
-  </si>
-  <si>
-    <t>硬核亨利</t>
-  </si>
-  <si>
-    <t>斯诺登</t>
-  </si>
-  <si>
-    <t>生死之墙</t>
-  </si>
-  <si>
-    <t>梦之安魂曲</t>
-  </si>
-  <si>
-    <t>死亡诗社</t>
-  </si>
-  <si>
-    <t>过关斩将</t>
-  </si>
-  <si>
-    <t>公平游戏</t>
-  </si>
-  <si>
-    <t>决胜巅峰</t>
-  </si>
-  <si>
-    <t>地心营救</t>
-  </si>
-  <si>
-    <t>红色之州</t>
-  </si>
-  <si>
-    <t>废纸板拳击手</t>
-  </si>
-  <si>
-    <t>扭转钱坤</t>
-  </si>
-  <si>
-    <t>哈拉上路</t>
-  </si>
-  <si>
-    <t>势不两立</t>
-  </si>
-  <si>
-    <t>赏金杀手</t>
-  </si>
-  <si>
-    <t>四喜临门</t>
-  </si>
-  <si>
-    <t>缘分天注定</t>
-  </si>
-  <si>
-    <t>顽石之拳</t>
-  </si>
-  <si>
-    <t>底特律</t>
-  </si>
-  <si>
-    <t>劫数</t>
-  </si>
-  <si>
-    <t>冲动</t>
-  </si>
-  <si>
     <t>咱可不是猫</t>
   </si>
   <si>
@@ -1758,10 +1680,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1806,9 +1728,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1816,6 +1737,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1836,16 +1780,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1868,10 +1812,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1882,15 +1833,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,45 +1867,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,7 +1887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,7 +1899,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,31 +2019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,13 +2031,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,103 +2055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,6 +2072,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2169,30 +2124,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2202,6 +2133,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2226,175 +2172,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6695,10 +6617,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7343,136 +7265,6 @@
         <v>510</v>
       </c>
     </row>
-    <row r="126" ht="16.8" spans="2:2">
-      <c r="B126" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="127" ht="16.8" spans="2:2">
-      <c r="B127" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="128" ht="16.8" spans="2:2">
-      <c r="B128" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="129" ht="16.8" spans="2:2">
-      <c r="B129" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="130" ht="16.8" spans="2:2">
-      <c r="B130" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="131" ht="16.8" spans="2:2">
-      <c r="B131" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="132" ht="16.8" spans="2:2">
-      <c r="B132" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="133" ht="16.8" spans="2:2">
-      <c r="B133" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="134" ht="16.8" spans="2:2">
-      <c r="B134" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="135" ht="16.8" spans="2:2">
-      <c r="B135" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="136" ht="16.8" spans="2:2">
-      <c r="B136" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="137" ht="16.8" spans="2:2">
-      <c r="B137" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="138" ht="16.8" spans="2:2">
-      <c r="B138" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="139" ht="16.8" spans="2:2">
-      <c r="B139" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="140" ht="16.8" spans="2:2">
-      <c r="B140" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="141" ht="16.8" spans="2:2">
-      <c r="B141" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="142" ht="16.8" spans="2:2">
-      <c r="B142" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="143" ht="16.8" spans="2:2">
-      <c r="B143" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="144" ht="16.8" spans="2:2">
-      <c r="B144" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="145" ht="16.8" spans="2:2">
-      <c r="B145" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="146" ht="16.8" spans="2:2">
-      <c r="B146" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="147" ht="16.8" spans="2:2">
-      <c r="B147" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="148" ht="16.8" spans="2:2">
-      <c r="B148" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="149" ht="16.8" spans="2:2">
-      <c r="B149" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="150" ht="16.8" spans="2:2">
-      <c r="B150" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="151" ht="16.8" spans="2:2">
-      <c r="B151" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
+    <workbookView windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="404">
   <si>
     <t>编号</t>
   </si>
@@ -1303,376 +1303,55 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>咱可不是猫</t>
-  </si>
-  <si>
-    <t>金衣女人</t>
-  </si>
-  <si>
-    <t>钝感之爱</t>
-  </si>
-  <si>
-    <t>无理之人</t>
-  </si>
-  <si>
-    <t>这是你的死亡</t>
-  </si>
-  <si>
-    <t>维基解密</t>
-  </si>
-  <si>
-    <t>呆呆向前冲</t>
-  </si>
-  <si>
-    <t>面对巨人</t>
-  </si>
-  <si>
-    <t>马克·费尔特：扳倒白宫之人</t>
-  </si>
-  <si>
-    <t>法外游侠</t>
-  </si>
-  <si>
-    <t>和你一样</t>
-  </si>
-  <si>
-    <t>V字仇杀队</t>
-  </si>
-  <si>
-    <t>同为异类</t>
-  </si>
-  <si>
-    <t>琼斯的自由国度</t>
-  </si>
-  <si>
-    <t>死囚之舞</t>
-  </si>
-  <si>
-    <t>燃情主厨</t>
-  </si>
-  <si>
-    <t>米其林情缘</t>
-  </si>
-  <si>
-    <t>血与蜜之地</t>
-  </si>
-  <si>
-    <t>大开眼界</t>
-  </si>
-  <si>
-    <t>蓝色茉莉</t>
-  </si>
-  <si>
-    <t>索马里海盗</t>
-  </si>
-  <si>
-    <t>勇士</t>
-  </si>
-  <si>
-    <t>燃烧的平原</t>
-  </si>
-  <si>
-    <t>间谍之桥</t>
-  </si>
-  <si>
-    <t>叶落无痕</t>
-  </si>
-  <si>
-    <t>选秀日</t>
-  </si>
-  <si>
-    <t>尼克松</t>
-  </si>
-  <si>
-    <t>面纱</t>
-  </si>
-  <si>
-    <t>圣人文森特</t>
-  </si>
-  <si>
-    <t>母与子</t>
-  </si>
-  <si>
-    <t>甜蜜地狱之家</t>
-  </si>
-  <si>
-    <t>热泪伤痕</t>
-  </si>
-  <si>
-    <t>查帕奎迪克事件</t>
-  </si>
-  <si>
-    <t>摩纳哥王妃</t>
-  </si>
-  <si>
-    <t>谋杀未遂</t>
-  </si>
-  <si>
-    <t>模范家庭</t>
-  </si>
-  <si>
-    <t>巨猩乔扬</t>
-  </si>
-  <si>
-    <t>狐狸猎手</t>
-  </si>
-  <si>
-    <t>威慑与恐吓</t>
-  </si>
-  <si>
-    <t>例外</t>
-  </si>
-  <si>
-    <t>玻璃城堡</t>
-  </si>
-  <si>
-    <t>彼铁卢</t>
-  </si>
-  <si>
-    <t>重返荣耀</t>
-  </si>
-  <si>
-    <t>乌云背后的幸福线</t>
-  </si>
-  <si>
-    <t>五尺天涯</t>
-  </si>
-  <si>
-    <t>朗读者</t>
-  </si>
-  <si>
-    <t>欢迎来到马文镇</t>
-  </si>
-  <si>
-    <t>最佳敌人</t>
-  </si>
-  <si>
-    <t>后来</t>
-  </si>
-  <si>
-    <t>遗失的环节</t>
-  </si>
-  <si>
-    <t>超大号美人</t>
-  </si>
-  <si>
-    <t>汪星卧底</t>
-  </si>
-  <si>
-    <t>不可能的事</t>
-  </si>
-  <si>
-    <t>犬之岛</t>
-  </si>
-  <si>
-    <t>飞机总动员</t>
-  </si>
-  <si>
-    <t>赤胆豪情</t>
-  </si>
-  <si>
-    <t>良知堡垒</t>
-  </si>
-  <si>
-    <t>托尔金</t>
-  </si>
-  <si>
-    <t>狗狗旅馆</t>
-  </si>
-  <si>
-    <t>小狗本吉</t>
-  </si>
-  <si>
-    <t>老雷斯的故事</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阿呆与阿瓜2</t>
-  </si>
-  <si>
-    <t>蜻蜓侠</t>
-  </si>
-  <si>
-    <t>极速蜗牛</t>
-  </si>
-  <si>
-    <t>表情奇幻冒险</t>
-  </si>
-  <si>
-    <t>性别为本</t>
-  </si>
-  <si>
-    <t>终极笑探</t>
-  </si>
-  <si>
-    <t>斯塔比中士</t>
-  </si>
-  <si>
-    <t>电力之战</t>
-  </si>
-  <si>
-    <t>史努比：花生大电影</t>
-  </si>
-  <si>
-    <t>魔法电波</t>
-  </si>
-  <si>
-    <t>蜜蜂总动员</t>
-  </si>
-  <si>
-    <t>电影人生</t>
-  </si>
-  <si>
-    <t>卢斯</t>
-  </si>
-  <si>
-    <t>恩赐妙手：班·卡森医师</t>
-  </si>
-  <si>
-    <t>誓言</t>
-  </si>
-  <si>
-    <t>布莱恩·班克斯</t>
-  </si>
-  <si>
-    <t>酷刑报告</t>
-  </si>
-  <si>
-    <t>战胜自我</t>
-  </si>
-  <si>
-    <t>圣诞恋爱季</t>
-  </si>
-  <si>
-    <t>爸爸的好儿子</t>
-  </si>
-  <si>
-    <t>超乎想象</t>
-  </si>
-  <si>
-    <t>小富翁里奇</t>
-  </si>
-  <si>
-    <t>井下9人</t>
-  </si>
-  <si>
-    <t>疯狂原始人</t>
-  </si>
-  <si>
-    <t>大而不倒</t>
-  </si>
-  <si>
-    <t>定制伴郎</t>
-  </si>
-  <si>
-    <t>超人之死与超人归来</t>
-  </si>
-  <si>
-    <t>遗产</t>
-  </si>
-  <si>
-    <t>奇鞋妙旅</t>
-  </si>
-  <si>
-    <t>好小子们</t>
-  </si>
-  <si>
-    <t>终极细胞战</t>
-  </si>
-  <si>
-    <t>第零军团</t>
-  </si>
-  <si>
-    <t>破碎的玻璃</t>
-  </si>
-  <si>
-    <t>空难余波</t>
-  </si>
-  <si>
-    <t>米奇和熊</t>
-  </si>
-  <si>
-    <t>碳变：义体置换</t>
-  </si>
-  <si>
-    <t>甜蜜十一月</t>
-  </si>
-  <si>
-    <t>人力资本</t>
-  </si>
-  <si>
-    <t>从不，很少，有时，总是</t>
-  </si>
-  <si>
-    <t>我仍然相信</t>
-  </si>
-  <si>
-    <t>真人快打传奇：蝎子的复仇</t>
-  </si>
-  <si>
-    <t>倾听男人心</t>
-  </si>
-  <si>
-    <t>亨利之书</t>
-  </si>
-  <si>
-    <t>黑暗正义联盟：天启星战争</t>
-  </si>
-  <si>
-    <t>丑娃娃</t>
-  </si>
-  <si>
-    <t>车道</t>
-  </si>
-  <si>
-    <t>捍卫家园</t>
-  </si>
-  <si>
-    <t>勇气</t>
-  </si>
-  <si>
-    <t>雪莉</t>
-  </si>
-  <si>
-    <t>心琴调音师</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>跟随节拍跳起来</t>
-  </si>
-  <si>
-    <t>长路简史</t>
-  </si>
-  <si>
-    <t>雪人情缘</t>
-  </si>
-  <si>
-    <t>法蒂玛</t>
-  </si>
-  <si>
-    <t>天才小吉他手</t>
-  </si>
-  <si>
-    <t>我非笼鸟</t>
-  </si>
-  <si>
-    <t>校巴人生</t>
-  </si>
-  <si>
-    <t>爆炸</t>
-  </si>
-  <si>
-    <t>触礁</t>
-  </si>
-  <si>
-    <t>史酷比（2020）</t>
-  </si>
-  <si>
-    <t>企业动物</t>
-  </si>
-  <si>
-    <t>人生急转弯</t>
+    <t>The Big Everything</t>
+  </si>
+  <si>
+    <t>Tank 432</t>
+  </si>
+  <si>
+    <t>The Trace</t>
+  </si>
+  <si>
+    <t>Boy Missing/Secuestro</t>
+  </si>
+  <si>
+    <t>Murder in the Lens</t>
+  </si>
+  <si>
+    <t>Last Breath</t>
+  </si>
+  <si>
+    <t>Hunting Season</t>
+  </si>
+  <si>
+    <t>Painkillers</t>
+  </si>
+  <si>
+    <t>Silencio</t>
+  </si>
+  <si>
+    <t>The Contractor</t>
+  </si>
+  <si>
+    <t>The Advent Calendar</t>
+  </si>
+  <si>
+    <t>The Stranger in Our Bed</t>
+  </si>
+  <si>
+    <t>First Oscar</t>
+  </si>
+  <si>
+    <t>The Survivor</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t>V2 Escape from Hell</t>
+  </si>
+  <si>
+    <t>Offbeat Cops</t>
   </si>
 </sst>
 </file>
@@ -1680,12 +1359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1694,6 +1373,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1729,7 +1414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,6 +1422,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1752,19 +1477,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1777,45 +1511,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1833,40 +1528,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,7 +1566,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,19 +1644,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,31 +1692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,7 +1710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1965,7 +1722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,67 +1734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2047,26 +1750,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2075,11 +1760,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2104,21 +1819,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2155,15 +1855,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2172,155 +1863,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2328,16 +2028,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2670,13 +2373,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2904,7 +2607,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -4134,14 +3837,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="4" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="4">
+    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="5">
         <v>139</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4365,14 +4068,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="4" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="4">
+    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="5">
         <v>160</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="10" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4380,10 +4083,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4391,10 +4094,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4402,10 +4105,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4413,10 +4116,10 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4438,13 +4141,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4452,10 +4155,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4463,10 +4166,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4488,13 +4191,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5188,23 +4891,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="5">
+    <row r="31" s="5" customFormat="1" spans="1:6">
+      <c r="A31" s="6">
         <v>10686</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>149</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6620,7 +6323,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6645,625 +6348,411 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="2:2">
+    <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="2:2">
+    <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="2:2">
+    <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="2:2">
+    <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="2:2">
+    <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="2:2">
+    <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="2:2">
+    <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="2:2">
+    <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="2:2">
+    <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="2:2">
+    <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="13" ht="16.8" spans="2:2">
+    <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="14" ht="16.8" spans="2:2">
+    <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="2:2">
+    <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="2:2">
+    <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="2:2">
+    <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="2:2">
+    <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" ht="16.8" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" ht="16.8" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>406</v>
-      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" ht="16.8" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>407</v>
-      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" ht="16.8" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>408</v>
-      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" ht="16.8" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>409</v>
-      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" ht="16.8" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" ht="16.8" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>411</v>
-      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" ht="16.8" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" ht="16.8" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" ht="16.8" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" ht="16.8" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>415</v>
-      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" ht="16.8" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>416</v>
-      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" ht="16.8" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" ht="16.8" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>418</v>
-      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" ht="16.8" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>419</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" ht="16.8" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>420</v>
-      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" ht="16.8" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>421</v>
-      </c>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" ht="16.8" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>422</v>
-      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" ht="16.8" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>423</v>
-      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" ht="16.8" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>424</v>
-      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" ht="16.8" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>425</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" ht="16.8" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" ht="16.8" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>427</v>
-      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" ht="16.8" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>428</v>
-      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>429</v>
-      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" ht="16.8" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>430</v>
-      </c>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" ht="16.8" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>431</v>
-      </c>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" ht="16.8" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>432</v>
-      </c>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" ht="16.8" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>433</v>
-      </c>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" ht="16.8" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>434</v>
-      </c>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>435</v>
-      </c>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" ht="16.8" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>436</v>
-      </c>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" ht="16.8" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" ht="16.8" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>438</v>
-      </c>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" ht="16.8" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>439</v>
-      </c>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" ht="16.8" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>440</v>
-      </c>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" ht="16.8" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>441</v>
-      </c>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" ht="16.8" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" ht="16.8" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>443</v>
-      </c>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" ht="16.8" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" ht="16.8" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>445</v>
-      </c>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>446</v>
-      </c>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" ht="16.8" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>447</v>
-      </c>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" ht="16.8" spans="2:2">
-      <c r="B63" s="3" t="s">
-        <v>448</v>
-      </c>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" ht="16.8" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>449</v>
-      </c>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" ht="16.8" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>450</v>
-      </c>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" ht="16.8" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>451</v>
-      </c>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" ht="16.8" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>452</v>
-      </c>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" ht="16.8" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>453</v>
-      </c>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" ht="16.8" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>454</v>
-      </c>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" ht="16.8" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>455</v>
-      </c>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" ht="16.8" spans="2:2">
-      <c r="B71" s="3" t="s">
-        <v>456</v>
-      </c>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" ht="16.8" spans="2:2">
-      <c r="B72" s="3" t="s">
-        <v>457</v>
-      </c>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" ht="16.8" spans="2:2">
-      <c r="B73" s="3" t="s">
-        <v>458</v>
-      </c>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" ht="16.8" spans="2:2">
-      <c r="B74" s="3" t="s">
-        <v>459</v>
-      </c>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" ht="16.8" spans="2:2">
-      <c r="B75" s="3" t="s">
-        <v>460</v>
-      </c>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" ht="16.8" spans="2:2">
-      <c r="B76" s="3" t="s">
-        <v>461</v>
-      </c>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" ht="16.8" spans="2:2">
-      <c r="B77" s="3" t="s">
-        <v>462</v>
-      </c>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" ht="16.8" spans="2:2">
-      <c r="B78" s="3" t="s">
-        <v>463</v>
-      </c>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" ht="16.8" spans="2:2">
-      <c r="B79" s="3" t="s">
-        <v>464</v>
-      </c>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" ht="16.8" spans="2:2">
-      <c r="B80" s="3" t="s">
-        <v>465</v>
-      </c>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" ht="16.8" spans="2:2">
-      <c r="B81" s="3" t="s">
-        <v>466</v>
-      </c>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" ht="16.8" spans="2:2">
-      <c r="B82" s="3" t="s">
-        <v>467</v>
-      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" ht="16.8" spans="2:2">
-      <c r="B83" s="3" t="s">
-        <v>468</v>
-      </c>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" ht="16.8" spans="2:2">
-      <c r="B84" s="3" t="s">
-        <v>469</v>
-      </c>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" ht="16.8" spans="2:2">
-      <c r="B85" s="3" t="s">
-        <v>470</v>
-      </c>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" ht="16.8" spans="2:2">
-      <c r="B86" s="3" t="s">
-        <v>471</v>
-      </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" ht="16.8" spans="2:2">
-      <c r="B87" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" ht="16.8" spans="2:2">
-      <c r="B88" s="3" t="s">
-        <v>473</v>
-      </c>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" ht="16.8" spans="2:2">
-      <c r="B89" s="3" t="s">
-        <v>474</v>
-      </c>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" ht="16.8" spans="2:2">
-      <c r="B90" s="3" t="s">
-        <v>475</v>
-      </c>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" ht="16.8" spans="2:2">
-      <c r="B91" s="3" t="s">
-        <v>476</v>
-      </c>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" ht="16.8" spans="2:2">
-      <c r="B92" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" ht="16.8" spans="2:2">
-      <c r="B93" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" ht="16.8" spans="2:2">
-      <c r="B94" s="3" t="s">
-        <v>479</v>
-      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" ht="16.8" spans="2:2">
-      <c r="B95" s="3" t="s">
-        <v>480</v>
-      </c>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" ht="16.8" spans="2:2">
-      <c r="B96" s="3" t="s">
-        <v>481</v>
-      </c>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" ht="16.8" spans="2:2">
-      <c r="B97" s="3" t="s">
-        <v>482</v>
-      </c>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" ht="16.8" spans="2:2">
-      <c r="B98" s="3" t="s">
-        <v>483</v>
-      </c>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" ht="16.8" spans="2:2">
-      <c r="B99" s="3" t="s">
-        <v>484</v>
-      </c>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" ht="16.8" spans="2:2">
-      <c r="B100" s="3" t="s">
-        <v>485</v>
-      </c>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" ht="16.8" spans="2:2">
-      <c r="B101" s="3" t="s">
-        <v>486</v>
-      </c>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" ht="16.8" spans="2:2">
-      <c r="B102" s="3" t="s">
-        <v>487</v>
-      </c>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" ht="16.8" spans="2:2">
-      <c r="B103" s="3" t="s">
-        <v>488</v>
-      </c>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" ht="16.8" spans="2:2">
-      <c r="B104" s="3" t="s">
-        <v>489</v>
-      </c>
+      <c r="B104" s="4"/>
     </row>
     <row r="105" ht="16.8" spans="2:2">
-      <c r="B105" s="3" t="s">
-        <v>490</v>
-      </c>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" ht="16.8" spans="2:2">
-      <c r="B106" s="3" t="s">
-        <v>491</v>
-      </c>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" ht="16.8" spans="2:2">
-      <c r="B107" s="3" t="s">
-        <v>492</v>
-      </c>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" ht="16.8" spans="2:2">
-      <c r="B108" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" ht="16.8" spans="2:2">
-      <c r="B109" s="3" t="s">
-        <v>494</v>
-      </c>
+      <c r="B109" s="4"/>
     </row>
     <row r="110" ht="16.8" spans="2:2">
-      <c r="B110" s="3" t="s">
-        <v>495</v>
-      </c>
+      <c r="B110" s="4"/>
     </row>
     <row r="111" ht="16.8" spans="2:2">
-      <c r="B111" s="3" t="s">
-        <v>496</v>
-      </c>
+      <c r="B111" s="4"/>
     </row>
     <row r="112" ht="16.8" spans="2:2">
-      <c r="B112" s="3" t="s">
-        <v>497</v>
-      </c>
+      <c r="B112" s="4"/>
     </row>
     <row r="113" ht="16.8" spans="2:2">
-      <c r="B113" s="3" t="s">
-        <v>498</v>
-      </c>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" ht="16.8" spans="2:2">
-      <c r="B114" s="3" t="s">
-        <v>499</v>
-      </c>
+      <c r="B114" s="4"/>
     </row>
     <row r="115" ht="16.8" spans="2:2">
-      <c r="B115" s="3" t="s">
-        <v>500</v>
-      </c>
+      <c r="B115" s="4"/>
     </row>
     <row r="116" ht="16.8" spans="2:2">
-      <c r="B116" s="3" t="s">
-        <v>501</v>
-      </c>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" ht="16.8" spans="2:2">
-      <c r="B117" s="3" t="s">
-        <v>502</v>
-      </c>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" ht="16.8" spans="2:2">
-      <c r="B118" s="3" t="s">
-        <v>503</v>
-      </c>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" ht="16.8" spans="2:2">
-      <c r="B119" s="3" t="s">
-        <v>504</v>
-      </c>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" ht="16.8" spans="2:2">
-      <c r="B120" s="3" t="s">
-        <v>505</v>
-      </c>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" ht="16.8" spans="2:2">
-      <c r="B121" s="3" t="s">
-        <v>506</v>
-      </c>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" ht="16.8" spans="2:2">
-      <c r="B122" s="3" t="s">
-        <v>507</v>
-      </c>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" ht="16.8" spans="2:2">
-      <c r="B123" s="3" t="s">
-        <v>508</v>
-      </c>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" ht="16.8" spans="2:2">
-      <c r="B124" s="3" t="s">
-        <v>509</v>
-      </c>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" ht="16.8" spans="2:2">
-      <c r="B125" s="3" t="s">
-        <v>510</v>
-      </c>
+      <c r="B125" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
   <si>
     <t>编号</t>
   </si>
@@ -1349,9 +1349,6 @@
   </si>
   <si>
     <t>V2 Escape from Hell</t>
-  </si>
-  <si>
-    <t>Offbeat Cops</t>
   </si>
 </sst>
 </file>
@@ -6323,7 +6320,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6429,9 +6426,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="4"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
   <si>
     <t>编号</t>
   </si>
@@ -1303,52 +1303,7 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>The Big Everything</t>
-  </si>
-  <si>
-    <t>Tank 432</t>
-  </si>
-  <si>
-    <t>The Trace</t>
-  </si>
-  <si>
-    <t>Boy Missing/Secuestro</t>
-  </si>
-  <si>
-    <t>Murder in the Lens</t>
-  </si>
-  <si>
-    <t>Last Breath</t>
-  </si>
-  <si>
-    <t>Hunting Season</t>
-  </si>
-  <si>
-    <t>Painkillers</t>
-  </si>
-  <si>
-    <t>Silencio</t>
-  </si>
-  <si>
-    <t>The Contractor</t>
-  </si>
-  <si>
-    <t>The Advent Calendar</t>
-  </si>
-  <si>
-    <t>The Stranger in Our Bed</t>
-  </si>
-  <si>
-    <t>First Oscar</t>
-  </si>
-  <si>
-    <t>The Survivor</t>
-  </si>
-  <si>
-    <t>Burial</t>
-  </si>
-  <si>
-    <t>V2 Escape from Hell</t>
+    <t>Offbeat Cops</t>
   </si>
 </sst>
 </file>
@@ -6320,7 +6275,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6351,79 +6306,49 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>390</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>391</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>399</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>400</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>401</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -6275,7 +6275,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6305,54 +6305,6 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
-    </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="4"/>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14220" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
   <si>
     <t>编号</t>
   </si>
@@ -1303,7 +1303,52 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>Offbeat Cops</t>
+    <t>The Big Everything</t>
+  </si>
+  <si>
+    <t>Tank 432</t>
+  </si>
+  <si>
+    <t>The Trace</t>
+  </si>
+  <si>
+    <t>Boy Missing/Secuestro</t>
+  </si>
+  <si>
+    <t>Murder in the Lens</t>
+  </si>
+  <si>
+    <t>Last Breath</t>
+  </si>
+  <si>
+    <t>Hunting Season</t>
+  </si>
+  <si>
+    <t>Painkillers</t>
+  </si>
+  <si>
+    <t>Silencio</t>
+  </si>
+  <si>
+    <t>The Contractor</t>
+  </si>
+  <si>
+    <t>The Advent Calendar</t>
+  </si>
+  <si>
+    <t>The Stranger in Our Bed</t>
+  </si>
+  <si>
+    <t>First Oscar</t>
+  </si>
+  <si>
+    <t>The Survivor</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t>V2 Escape from Hell</t>
   </si>
 </sst>
 </file>
@@ -6275,7 +6320,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6305,6 +6350,81 @@
         <v>387</v>
       </c>
     </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+    </row>
     <row r="19" ht="16.8" spans="2:2">
       <c r="B19" s="4"/>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="393">
   <si>
     <t>编号</t>
   </si>
@@ -1303,36 +1303,6 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>The Big Everything</t>
-  </si>
-  <si>
-    <t>Tank 432</t>
-  </si>
-  <si>
-    <t>The Trace</t>
-  </si>
-  <si>
-    <t>Boy Missing/Secuestro</t>
-  </si>
-  <si>
-    <t>Murder in the Lens</t>
-  </si>
-  <si>
-    <t>Last Breath</t>
-  </si>
-  <si>
-    <t>Hunting Season</t>
-  </si>
-  <si>
-    <t>Painkillers</t>
-  </si>
-  <si>
-    <t>Silencio</t>
-  </si>
-  <si>
-    <t>The Contractor</t>
-  </si>
-  <si>
     <t>The Advent Calendar</t>
   </si>
   <si>
@@ -1361,7 +1331,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1370,12 +1340,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1748,27 +1712,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1872,152 +1821,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2025,19 +1974,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2370,13 +2316,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2604,7 +2550,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -3834,14 +3780,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="5">
+    <row r="135" s="4" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="4">
         <v>139</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4065,14 +4011,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="5">
+    <row r="156" s="4" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="4">
         <v>160</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4080,10 +4026,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4091,10 +4037,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4102,10 +4048,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4113,10 +4059,10 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4138,13 +4084,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4152,10 +4098,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4163,10 +4109,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4188,13 +4134,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4888,23 +4834,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="6">
+    <row r="31" s="4" customFormat="1" spans="1:6">
+      <c r="A31" s="5">
         <v>10686</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>149</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6320,7 +6266,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6346,7 +6292,7 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6375,376 +6321,326 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-    </row>
     <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" ht="16.8" spans="2:2">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" ht="16.8" spans="2:2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" ht="16.8" spans="2:2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" ht="16.8" spans="2:2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" ht="16.8" spans="2:2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" ht="16.8" spans="2:2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" ht="16.8" spans="2:2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" ht="16.8" spans="2:2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" ht="16.8" spans="2:2">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" ht="16.8" spans="2:2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" ht="16.8" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" ht="16.8" spans="2:2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" ht="16.8" spans="2:2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" ht="16.8" spans="2:2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" ht="16.8" spans="2:2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" ht="16.8" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" ht="16.8" spans="2:2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" ht="16.8" spans="2:2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" ht="16.8" spans="2:2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" ht="16.8" spans="2:2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" ht="16.8" spans="2:2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" ht="16.8" spans="2:2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" ht="16.8" spans="2:2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" ht="16.8" spans="2:2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" ht="16.8" spans="2:2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" ht="16.8" spans="2:2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" ht="16.8" spans="2:2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" ht="16.8" spans="2:2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" ht="16.8" spans="2:2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" ht="16.8" spans="2:2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" ht="16.8" spans="2:2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" ht="16.8" spans="2:2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" ht="16.8" spans="2:2">
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" ht="16.8" spans="2:2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" ht="16.8" spans="2:2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" ht="16.8" spans="2:2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" ht="16.8" spans="2:2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" ht="16.8" spans="2:2">
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" ht="16.8" spans="2:2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" ht="16.8" spans="2:2">
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" ht="16.8" spans="2:2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" ht="16.8" spans="2:2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" ht="16.8" spans="2:2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" ht="16.8" spans="2:2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" ht="16.8" spans="2:2">
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" ht="16.8" spans="2:2">
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" ht="16.8" spans="2:2">
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" ht="16.8" spans="2:2">
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" ht="16.8" spans="2:2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" ht="16.8" spans="2:2">
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" ht="16.8" spans="2:2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" ht="16.8" spans="2:2">
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" ht="16.8" spans="2:2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" ht="16.8" spans="2:2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" ht="16.8" spans="2:2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" ht="16.8" spans="2:2">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" ht="16.8" spans="2:2">
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" ht="16.8" spans="2:2">
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" ht="16.8" spans="2:2">
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" ht="16.8" spans="2:2">
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" ht="16.8" spans="2:2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" ht="16.8" spans="2:2">
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" ht="16.8" spans="2:2">
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" ht="16.8" spans="2:2">
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" ht="16.8" spans="2:2">
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" ht="16.8" spans="2:2">
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" ht="16.8" spans="2:2">
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" ht="16.8" spans="2:2">
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" ht="16.8" spans="2:2">
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" ht="16.8" spans="2:2">
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" ht="16.8" spans="2:2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" ht="16.8" spans="2:2">
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" ht="16.8" spans="2:2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" ht="16.8" spans="2:2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" ht="16.8" spans="2:2">
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" ht="16.8" spans="2:2">
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" ht="16.8" spans="2:2">
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" ht="16.8" spans="2:2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" ht="16.8" spans="2:2">
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" ht="16.8" spans="2:2">
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" ht="16.8" spans="2:2">
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" ht="16.8" spans="2:2">
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" ht="16.8" spans="2:2">
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" ht="16.8" spans="2:2">
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" ht="16.8" spans="2:2">
-      <c r="B107" s="4"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" ht="16.8" spans="2:2">
-      <c r="B108" s="4"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" ht="16.8" spans="2:2">
-      <c r="B109" s="4"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" ht="16.8" spans="2:2">
-      <c r="B110" s="4"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" ht="16.8" spans="2:2">
-      <c r="B111" s="4"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" ht="16.8" spans="2:2">
-      <c r="B112" s="4"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" ht="16.8" spans="2:2">
-      <c r="B113" s="4"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" ht="16.8" spans="2:2">
-      <c r="B114" s="4"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" ht="16.8" spans="2:2">
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" ht="16.8" spans="2:2">
-      <c r="B116" s="4"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" ht="16.8" spans="2:2">
-      <c r="B117" s="4"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" ht="16.8" spans="2:2">
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" ht="16.8" spans="2:2">
-      <c r="B119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" ht="16.8" spans="2:2">
-      <c r="B120" s="4"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" ht="16.8" spans="2:2">
-      <c r="B121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" ht="16.8" spans="2:2">
-      <c r="B122" s="4"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" ht="16.8" spans="2:2">
-      <c r="B123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" ht="16.8" spans="2:2">
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" ht="16.8" spans="2:2">
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
   <si>
     <t>编号</t>
   </si>
@@ -1303,22 +1303,7 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>The Advent Calendar</t>
-  </si>
-  <si>
-    <t>The Stranger in Our Bed</t>
-  </si>
-  <si>
-    <t>First Oscar</t>
-  </si>
-  <si>
-    <t>The Survivor</t>
-  </si>
-  <si>
-    <t>Burial</t>
-  </si>
-  <si>
-    <t>V2 Escape from Hell</t>
+    <t>Offbeat Cops</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1316,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1340,6 +1325,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1712,12 +1703,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1821,152 +1827,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1974,16 +1980,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2316,13 +2325,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2550,7 +2559,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -3780,14 +3789,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="4" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="4">
+    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="5">
         <v>139</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4011,14 +4020,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="4" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="4">
+    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="5">
         <v>160</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="10" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4026,10 +4035,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4037,10 +4046,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4048,10 +4057,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4059,10 +4068,10 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4084,13 +4093,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4098,10 +4107,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4109,10 +4118,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4134,13 +4143,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4834,23 +4843,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="5">
+    <row r="31" s="5" customFormat="1" spans="1:6">
+      <c r="A31" s="6">
         <v>10686</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>149</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6263,10 +6272,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6292,355 +6301,327 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>392</v>
-      </c>
+    <row r="3" ht="16.8" spans="2:2">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" ht="16.8" spans="2:2">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" ht="16.8" spans="2:2">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" ht="16.8" spans="2:2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" ht="16.8" spans="2:2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" ht="16.8" spans="2:2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" ht="16.8" spans="2:2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" ht="16.8" spans="2:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" ht="16.8" spans="2:2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" ht="16.8" spans="2:2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" ht="16.8" spans="2:2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" ht="16.8" spans="2:2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" ht="16.8" spans="2:2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" ht="16.8" spans="2:2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" ht="16.8" spans="2:2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" ht="16.8" spans="2:2">
+      <c r="B18" s="4"/>
     </row>
     <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" ht="16.8" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" ht="16.8" spans="2:2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" ht="16.8" spans="2:2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" ht="16.8" spans="2:2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" ht="16.8" spans="2:2">
-      <c r="B24" s="3"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" ht="16.8" spans="2:2">
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" ht="16.8" spans="2:2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" ht="16.8" spans="2:2">
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" ht="16.8" spans="2:2">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" ht="16.8" spans="2:2">
-      <c r="B29" s="3"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" ht="16.8" spans="2:2">
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" ht="16.8" spans="2:2">
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" ht="16.8" spans="2:2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" ht="16.8" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" ht="16.8" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" ht="16.8" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" ht="16.8" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" ht="16.8" spans="2:2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" ht="16.8" spans="2:2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" ht="16.8" spans="2:2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" ht="16.8" spans="2:2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" ht="16.8" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" ht="16.8" spans="2:2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" ht="16.8" spans="2:2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" ht="16.8" spans="2:2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" ht="16.8" spans="2:2">
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" ht="16.8" spans="2:2">
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" ht="16.8" spans="2:2">
-      <c r="B48" s="3"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" ht="16.8" spans="2:2">
-      <c r="B49" s="3"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="3"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" ht="16.8" spans="2:2">
-      <c r="B51" s="3"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" ht="16.8" spans="2:2">
-      <c r="B52" s="3"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" ht="16.8" spans="2:2">
-      <c r="B53" s="3"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" ht="16.8" spans="2:2">
-      <c r="B54" s="3"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" ht="16.8" spans="2:2">
-      <c r="B55" s="3"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" ht="16.8" spans="2:2">
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" ht="16.8" spans="2:2">
-      <c r="B57" s="3"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" ht="16.8" spans="2:2">
-      <c r="B58" s="3"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" ht="16.8" spans="2:2">
-      <c r="B59" s="3"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" ht="16.8" spans="2:2">
-      <c r="B60" s="3"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="3"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" ht="16.8" spans="2:2">
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" ht="16.8" spans="2:2">
-      <c r="B63" s="3"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" ht="16.8" spans="2:2">
-      <c r="B64" s="3"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" ht="16.8" spans="2:2">
-      <c r="B65" s="3"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" ht="16.8" spans="2:2">
-      <c r="B66" s="3"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" ht="16.8" spans="2:2">
-      <c r="B67" s="3"/>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" ht="16.8" spans="2:2">
-      <c r="B68" s="3"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" ht="16.8" spans="2:2">
-      <c r="B69" s="3"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" ht="16.8" spans="2:2">
-      <c r="B70" s="3"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" ht="16.8" spans="2:2">
-      <c r="B71" s="3"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" ht="16.8" spans="2:2">
-      <c r="B72" s="3"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" ht="16.8" spans="2:2">
-      <c r="B73" s="3"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" ht="16.8" spans="2:2">
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" ht="16.8" spans="2:2">
-      <c r="B75" s="3"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" ht="16.8" spans="2:2">
-      <c r="B76" s="3"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" ht="16.8" spans="2:2">
-      <c r="B77" s="3"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" ht="16.8" spans="2:2">
-      <c r="B78" s="3"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" ht="16.8" spans="2:2">
-      <c r="B79" s="3"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" ht="16.8" spans="2:2">
-      <c r="B80" s="3"/>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" ht="16.8" spans="2:2">
-      <c r="B81" s="3"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" ht="16.8" spans="2:2">
-      <c r="B82" s="3"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" ht="16.8" spans="2:2">
-      <c r="B83" s="3"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" ht="16.8" spans="2:2">
-      <c r="B84" s="3"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" ht="16.8" spans="2:2">
-      <c r="B85" s="3"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" ht="16.8" spans="2:2">
-      <c r="B86" s="3"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" ht="16.8" spans="2:2">
-      <c r="B87" s="3"/>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" ht="16.8" spans="2:2">
-      <c r="B88" s="3"/>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" ht="16.8" spans="2:2">
-      <c r="B89" s="3"/>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" ht="16.8" spans="2:2">
-      <c r="B90" s="3"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" ht="16.8" spans="2:2">
-      <c r="B91" s="3"/>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" ht="16.8" spans="2:2">
-      <c r="B92" s="3"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" ht="16.8" spans="2:2">
-      <c r="B93" s="3"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" ht="16.8" spans="2:2">
-      <c r="B94" s="3"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" ht="16.8" spans="2:2">
-      <c r="B95" s="3"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" ht="16.8" spans="2:2">
-      <c r="B96" s="3"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" ht="16.8" spans="2:2">
-      <c r="B97" s="3"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" ht="16.8" spans="2:2">
-      <c r="B98" s="3"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" ht="16.8" spans="2:2">
-      <c r="B99" s="3"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" ht="16.8" spans="2:2">
-      <c r="B100" s="3"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" ht="16.8" spans="2:2">
-      <c r="B101" s="3"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" ht="16.8" spans="2:2">
-      <c r="B102" s="3"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" ht="16.8" spans="2:2">
-      <c r="B103" s="3"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" ht="16.8" spans="2:2">
-      <c r="B104" s="3"/>
+      <c r="B104" s="4"/>
     </row>
     <row r="105" ht="16.8" spans="2:2">
-      <c r="B105" s="3"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" ht="16.8" spans="2:2">
-      <c r="B106" s="3"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" ht="16.8" spans="2:2">
-      <c r="B107" s="3"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" ht="16.8" spans="2:2">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" ht="16.8" spans="2:2">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" ht="16.8" spans="2:2">
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" ht="16.8" spans="2:2">
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" ht="16.8" spans="2:2">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" ht="16.8" spans="2:2">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" ht="16.8" spans="2:2">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" ht="16.8" spans="2:2">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" ht="16.8" spans="2:2">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" ht="16.8" spans="2:2">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" ht="16.8" spans="2:2">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" ht="16.8" spans="2:2">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" ht="16.8" spans="2:2">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" ht="16.8" spans="2:2">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" ht="16.8" spans="2:2">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" ht="16.8" spans="2:2">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" ht="16.8" spans="2:2">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" ht="16.8" spans="2:2">
-      <c r="B125" s="3"/>
+      <c r="B108" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
   <si>
     <t>编号</t>
   </si>
@@ -1303,7 +1303,52 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>Offbeat Cops</t>
+    <t>Tank 432</t>
+  </si>
+  <si>
+    <t>The Trace</t>
+  </si>
+  <si>
+    <t>Boy Missing/Secuestro</t>
+  </si>
+  <si>
+    <t>Murder in the Lens</t>
+  </si>
+  <si>
+    <t>Last Breath</t>
+  </si>
+  <si>
+    <t>Hunting Season</t>
+  </si>
+  <si>
+    <t>Painkillers</t>
+  </si>
+  <si>
+    <t>Silencio</t>
+  </si>
+  <si>
+    <t>The Contractor</t>
+  </si>
+  <si>
+    <t>The Advent Calendar</t>
+  </si>
+  <si>
+    <t>The Stranger in Our Bed</t>
+  </si>
+  <si>
+    <t>First Oscar</t>
+  </si>
+  <si>
+    <t>The Survivor</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t>V2 Escape from Hell</t>
+  </si>
+  <si>
+    <t>The Big Everything</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1361,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1325,12 +1370,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1703,27 +1742,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1827,152 +1851,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1980,19 +2004,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2325,13 +2346,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2559,7 +2580,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -3789,14 +3810,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="5">
+    <row r="135" s="4" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="4">
         <v>139</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4020,14 +4041,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="5">
+    <row r="156" s="4" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="4">
         <v>160</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4035,10 +4056,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4046,10 +4067,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4057,10 +4078,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4068,10 +4089,10 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4093,13 +4114,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4107,10 +4128,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4118,10 +4139,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4143,13 +4164,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4843,23 +4864,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="6">
+    <row r="31" s="4" customFormat="1" spans="1:6">
+      <c r="A31" s="5">
         <v>10686</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>149</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6272,10 +6293,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6300,328 +6321,355 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" ht="16.8" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="6" ht="16.8" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="7" ht="16.8" spans="2:2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="8" ht="16.8" spans="2:2">
-      <c r="B8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="9" ht="16.8" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="10" ht="16.8" spans="2:2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="11" ht="16.8" spans="2:2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="12" ht="16.8" spans="2:2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="13" ht="16.8" spans="2:2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="14" ht="16.8" spans="2:2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="15" ht="16.8" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" ht="16.8" spans="2:2">
-      <c r="B16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="17" ht="16.8" spans="2:2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="18" ht="16.8" spans="2:2">
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" ht="16.8" spans="2:2">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" ht="16.8" spans="2:2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" ht="16.8" spans="2:2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" ht="16.8" spans="2:2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" ht="16.8" spans="2:2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" ht="16.8" spans="2:2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" ht="16.8" spans="2:2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" ht="16.8" spans="2:2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" ht="16.8" spans="2:2">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" ht="16.8" spans="2:2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" ht="16.8" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" ht="16.8" spans="2:2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" ht="16.8" spans="2:2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" ht="16.8" spans="2:2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" ht="16.8" spans="2:2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" ht="16.8" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" ht="16.8" spans="2:2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" ht="16.8" spans="2:2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" ht="16.8" spans="2:2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" ht="16.8" spans="2:2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" ht="16.8" spans="2:2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" ht="16.8" spans="2:2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" ht="16.8" spans="2:2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" ht="16.8" spans="2:2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" ht="16.8" spans="2:2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" ht="16.8" spans="2:2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" ht="16.8" spans="2:2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" ht="16.8" spans="2:2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" ht="16.8" spans="2:2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" ht="16.8" spans="2:2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" ht="16.8" spans="2:2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" ht="16.8" spans="2:2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" ht="16.8" spans="2:2">
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" ht="16.8" spans="2:2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" ht="16.8" spans="2:2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" ht="16.8" spans="2:2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" ht="16.8" spans="2:2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" ht="16.8" spans="2:2">
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" ht="16.8" spans="2:2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" ht="16.8" spans="2:2">
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" ht="16.8" spans="2:2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" ht="16.8" spans="2:2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" ht="16.8" spans="2:2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" ht="16.8" spans="2:2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" ht="16.8" spans="2:2">
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" ht="16.8" spans="2:2">
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" ht="16.8" spans="2:2">
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" ht="16.8" spans="2:2">
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" ht="16.8" spans="2:2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" ht="16.8" spans="2:2">
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" ht="16.8" spans="2:2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" ht="16.8" spans="2:2">
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" ht="16.8" spans="2:2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" ht="16.8" spans="2:2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" ht="16.8" spans="2:2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" ht="16.8" spans="2:2">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" ht="16.8" spans="2:2">
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" ht="16.8" spans="2:2">
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" ht="16.8" spans="2:2">
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" ht="16.8" spans="2:2">
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" ht="16.8" spans="2:2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" ht="16.8" spans="2:2">
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" ht="16.8" spans="2:2">
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" ht="16.8" spans="2:2">
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" ht="16.8" spans="2:2">
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" ht="16.8" spans="2:2">
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" ht="16.8" spans="2:2">
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" ht="16.8" spans="2:2">
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" ht="16.8" spans="2:2">
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" ht="16.8" spans="2:2">
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" ht="16.8" spans="2:2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" ht="16.8" spans="2:2">
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" ht="16.8" spans="2:2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" ht="16.8" spans="2:2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" ht="16.8" spans="2:2">
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" ht="16.8" spans="2:2">
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" ht="16.8" spans="2:2">
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" ht="16.8" spans="2:2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" ht="16.8" spans="2:2">
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" ht="16.8" spans="2:2">
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" ht="16.8" spans="2:2">
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" ht="16.8" spans="2:2">
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" ht="16.8" spans="2:2">
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" ht="16.8" spans="2:2">
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" ht="16.8" spans="2:2">
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" ht="16.8" spans="2:2">
-      <c r="B108" s="4"/>
+      <c r="B107" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
   <si>
     <t>编号</t>
   </si>
@@ -1305,61 +1305,16 @@
   <si>
     <t>Tank 432</t>
   </si>
-  <si>
-    <t>The Trace</t>
-  </si>
-  <si>
-    <t>Boy Missing/Secuestro</t>
-  </si>
-  <si>
-    <t>Murder in the Lens</t>
-  </si>
-  <si>
-    <t>Last Breath</t>
-  </si>
-  <si>
-    <t>Hunting Season</t>
-  </si>
-  <si>
-    <t>Painkillers</t>
-  </si>
-  <si>
-    <t>Silencio</t>
-  </si>
-  <si>
-    <t>The Contractor</t>
-  </si>
-  <si>
-    <t>The Advent Calendar</t>
-  </si>
-  <si>
-    <t>The Stranger in Our Bed</t>
-  </si>
-  <si>
-    <t>First Oscar</t>
-  </si>
-  <si>
-    <t>The Survivor</t>
-  </si>
-  <si>
-    <t>Burial</t>
-  </si>
-  <si>
-    <t>V2 Escape from Hell</t>
-  </si>
-  <si>
-    <t>The Big Everything</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1405,14 +1360,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,9 +1414,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1443,7 +1429,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1452,38 +1438,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,7 +1461,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1513,22 +1476,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,7 +1497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,7 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,13 +1524,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,61 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,79 +1686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,26 +1706,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,6 +1739,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1809,21 +1764,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1840,159 +1780,174 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6293,10 +6248,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6327,79 +6282,49 @@
       </c>
     </row>
     <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>390</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" ht="16.8" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>391</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" ht="16.8" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" ht="16.8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" ht="16.8" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" ht="16.8" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" ht="16.8" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" ht="16.8" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" ht="16.8" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" ht="16.8" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>399</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" ht="16.8" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>400</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" ht="16.8" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>401</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" ht="16.8" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" ht="16.8" spans="2:2">
       <c r="B18" s="3"/>
@@ -6553,123 +6478,6 @@
     </row>
     <row r="68" ht="16.8" spans="2:2">
       <c r="B68" s="3"/>
-    </row>
-    <row r="69" ht="16.8" spans="2:2">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" ht="16.8" spans="2:2">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" ht="16.8" spans="2:2">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" ht="16.8" spans="2:2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" ht="16.8" spans="2:2">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" ht="16.8" spans="2:2">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" ht="16.8" spans="2:2">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" ht="16.8" spans="2:2">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" ht="16.8" spans="2:2">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" ht="16.8" spans="2:2">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" ht="16.8" spans="2:2">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" ht="16.8" spans="2:2">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" ht="16.8" spans="2:2">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" ht="16.8" spans="2:2">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" ht="16.8" spans="2:2">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" ht="16.8" spans="2:2">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" ht="16.8" spans="2:2">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" ht="16.8" spans="2:2">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" ht="16.8" spans="2:2">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" ht="16.8" spans="2:2">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" ht="16.8" spans="2:2">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" ht="16.8" spans="2:2">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" ht="16.8" spans="2:2">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" ht="16.8" spans="2:2">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" ht="16.8" spans="2:2">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" ht="16.8" spans="2:2">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" ht="16.8" spans="2:2">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" ht="16.8" spans="2:2">
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" ht="16.8" spans="2:2">
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" ht="16.8" spans="2:2">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" ht="16.8" spans="2:2">
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" ht="16.8" spans="2:2">
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" ht="16.8" spans="2:2">
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" ht="16.8" spans="2:2">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" ht="16.8" spans="2:2">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" ht="16.8" spans="2:2">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" ht="16.8" spans="2:2">
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" ht="16.8" spans="2:2">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" ht="16.8" spans="2:2">
-      <c r="B107" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
   <si>
     <t>编号</t>
   </si>
@@ -1303,7 +1303,52 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
+    <t>The Big Everything</t>
+  </si>
+  <si>
     <t>Tank 432</t>
+  </si>
+  <si>
+    <t>The Trace</t>
+  </si>
+  <si>
+    <t>Boy Missing/Secuestro</t>
+  </si>
+  <si>
+    <t>Murder in the Lens</t>
+  </si>
+  <si>
+    <t>Last Breath</t>
+  </si>
+  <si>
+    <t>Hunting Season</t>
+  </si>
+  <si>
+    <t>Painkillers</t>
+  </si>
+  <si>
+    <t>Silencio</t>
+  </si>
+  <si>
+    <t>The Contractor</t>
+  </si>
+  <si>
+    <t>The Advent Calendar</t>
+  </si>
+  <si>
+    <t>The Stranger in Our Bed</t>
+  </si>
+  <si>
+    <t>First Oscar</t>
+  </si>
+  <si>
+    <t>The Survivor</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t>V2 Escape from Hell</t>
   </si>
 </sst>
 </file>
@@ -6251,7 +6296,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6282,49 +6327,79 @@
       </c>
     </row>
     <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="6" ht="16.8" spans="2:2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="7" ht="16.8" spans="2:2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="8" ht="16.8" spans="2:2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="9" ht="16.8" spans="2:2">
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="10" ht="16.8" spans="2:2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="11" ht="16.8" spans="2:2">
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="12" ht="16.8" spans="2:2">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="13" ht="16.8" spans="2:2">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="14" ht="16.8" spans="2:2">
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="15" ht="16.8" spans="2:2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" ht="16.8" spans="2:2">
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="17" ht="16.8" spans="2:2">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="18" ht="16.8" spans="2:2">
       <c r="B18" s="3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
   <si>
     <t>编号</t>
   </si>
@@ -1303,52 +1303,7 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>The Big Everything</t>
-  </si>
-  <si>
-    <t>Tank 432</t>
-  </si>
-  <si>
-    <t>The Trace</t>
-  </si>
-  <si>
-    <t>Boy Missing/Secuestro</t>
-  </si>
-  <si>
-    <t>Murder in the Lens</t>
-  </si>
-  <si>
-    <t>Last Breath</t>
-  </si>
-  <si>
-    <t>Hunting Season</t>
-  </si>
-  <si>
-    <t>Painkillers</t>
-  </si>
-  <si>
-    <t>Silencio</t>
-  </si>
-  <si>
-    <t>The Contractor</t>
-  </si>
-  <si>
-    <t>The Advent Calendar</t>
-  </si>
-  <si>
-    <t>The Stranger in Our Bed</t>
-  </si>
-  <si>
-    <t>First Oscar</t>
-  </si>
-  <si>
-    <t>The Survivor</t>
-  </si>
-  <si>
-    <t>Burial</t>
-  </si>
-  <si>
-    <t>V2 Escape from Hell</t>
+    <t>The Breath</t>
   </si>
 </sst>
 </file>
@@ -6296,7 +6251,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6327,79 +6282,46 @@
       </c>
     </row>
     <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>390</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" ht="16.8" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>391</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" ht="16.8" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" ht="16.8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" ht="16.8" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" ht="16.8" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" ht="16.8" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" ht="16.8" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" ht="16.8" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" ht="16.8" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>399</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" ht="16.8" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>400</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" ht="16.8" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" ht="16.8" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="18" ht="16.8" spans="2:2">
       <c r="B18" s="3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1303,7 +1303,7 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>The Breath</t>
+    <t>Offbeat Cops</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1312,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1367,7 +1367,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,13 +1403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1396,11 +1411,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1420,11 +1451,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1438,33 +1469,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1481,27 +1502,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1512,7 +1512,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,25 +1638,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,145 +1686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,15 +1715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1739,17 +1730,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1771,180 +1782,169 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6251,7 +6251,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6281,81 +6281,6 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" ht="16.8" spans="2:2">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" ht="16.8" spans="2:2">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" ht="16.8" spans="2:2">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" ht="16.8" spans="2:2">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" ht="16.8" spans="2:2">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" ht="16.8" spans="2:2">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" ht="16.8" spans="2:2">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" ht="16.8" spans="2:2">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" ht="16.8" spans="2:2">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" ht="16.8" spans="2:2">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" ht="16.8" spans="2:2">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="18" ht="16.8" spans="2:2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" ht="16.8" spans="2:2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" ht="16.8" spans="2:2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" ht="16.8" spans="2:2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" ht="16.8" spans="2:2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" ht="16.8" spans="2:2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" ht="16.8" spans="2:2">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" ht="16.8" spans="2:2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" ht="16.8" spans="2:2">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" ht="16.8" spans="2:2">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" ht="16.8" spans="2:2">
-      <c r="B28" s="3"/>
-    </row>
     <row r="29" ht="16.8" spans="2:2">
       <c r="B29" s="3"/>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF300C-36FA-9A45-A5E7-8104430F42D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="14220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -507,7 +513,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>movie_id(</t>
     </r>
@@ -515,6 +521,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>影片编号</t>
@@ -523,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -533,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>movie_name</t>
     </r>
@@ -541,6 +548,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（影片名称）</t>
@@ -551,6 +559,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>影片类型</t>
@@ -559,7 +568,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -567,6 +576,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：电影</t>
@@ -575,7 +585,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -583,6 +593,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：季播剧</t>
@@ -593,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>company_id</t>
     </r>
@@ -601,6 +612,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权公司编号）</t>
@@ -611,7 +623,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>copyright_start_time</t>
     </r>
@@ -619,6 +631,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权开始日期）</t>
@@ -629,7 +642,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>copyright_end_time</t>
     </r>
@@ -637,6 +650,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权结束日期）</t>
@@ -1303,20 +1317,15 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>Offbeat Cops</t>
+    <t>警察局</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1325,12 +1334,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1338,366 +1349,47 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.8"/>
+      <sz val="9.8000000000000007"/>
       <color rgb="FF6A8759"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
+      <sz val="9.8000000000000007"/>
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1705,253 +1397,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1959,72 +1409,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2282,25 +1687,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.3359375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:3">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +1925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" ht="16" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="16" customHeight="1">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2535,7 +1940,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
@@ -3466,7 +2871,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>111</v>
       </c>
@@ -3496,7 +2901,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>114</v>
       </c>
@@ -3504,7 +2909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>115</v>
       </c>
@@ -3765,11 +3170,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="4" customFormat="1" ht="14.4" spans="1:3">
+    <row r="135" spans="1:3" s="4" customFormat="1" ht="17">
       <c r="A135" s="4">
         <v>139</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -3996,14 +3401,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="4" customFormat="1" ht="14.4" spans="1:3">
+    <row r="156" spans="1:3" s="4" customFormat="1" ht="17">
       <c r="A156" s="4">
         <v>160</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4033,10 +3438,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4044,31 +3449,30 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:3">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4102,23 +3506,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:3">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4196,30 +3599,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="3" width="41.3359375" customWidth="1"/>
-    <col min="4" max="4" width="33.3359375" customWidth="1"/>
-    <col min="5" max="5" width="45.3359375" customWidth="1"/>
-    <col min="6" max="6" width="53.8359375" customWidth="1"/>
+    <col min="2" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:6">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -4819,7 +4221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="4" customFormat="1">
       <c r="A31" s="5">
         <v>10686</v>
       </c>
@@ -6240,23 +5642,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="17" spans="1:6">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -6276,133 +5677,133 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="2:2">
+    <row r="2" spans="1:6">
       <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="29" ht="16.8" spans="2:2">
+    <row r="29" spans="2:2">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="16.8" spans="2:2">
+    <row r="30" spans="2:2">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" ht="16.8" spans="2:2">
+    <row r="31" spans="2:2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" ht="16.8" spans="2:2">
+    <row r="32" spans="2:2">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" ht="16.8" spans="2:2">
+    <row r="33" spans="2:2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" ht="16.8" spans="2:2">
+    <row r="34" spans="2:2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" ht="16.8" spans="2:2">
+    <row r="35" spans="2:2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" ht="16.8" spans="2:2">
+    <row r="36" spans="2:2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" ht="16.8" spans="2:2">
+    <row r="37" spans="2:2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" ht="16.8" spans="2:2">
+    <row r="38" spans="2:2">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" ht="16.8" spans="2:2">
+    <row r="39" spans="2:2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" ht="16.8" spans="2:2">
+    <row r="40" spans="2:2">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" ht="16.8" spans="2:2">
+    <row r="41" spans="2:2">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" ht="16.8" spans="2:2">
+    <row r="42" spans="2:2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" ht="16.8" spans="2:2">
+    <row r="43" spans="2:2">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" ht="16.8" spans="2:2">
+    <row r="44" spans="2:2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" ht="16.8" spans="2:2">
+    <row r="45" spans="2:2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" ht="16.8" spans="2:2">
+    <row r="46" spans="2:2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" ht="16.8" spans="2:2">
+    <row r="47" spans="2:2">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" ht="16.8" spans="2:2">
+    <row r="48" spans="2:2">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" ht="16.8" spans="2:2">
+    <row r="49" spans="2:2">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" ht="16.8" spans="2:2">
+    <row r="50" spans="2:2">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" ht="16.8" spans="2:2">
+    <row r="51" spans="2:2">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" ht="16.8" spans="2:2">
+    <row r="52" spans="2:2">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" ht="16.8" spans="2:2">
+    <row r="53" spans="2:2">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" ht="16.8" spans="2:2">
+    <row r="54" spans="2:2">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" ht="16.8" spans="2:2">
+    <row r="55" spans="2:2">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" ht="16.8" spans="2:2">
+    <row r="56" spans="2:2">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" ht="16.8" spans="2:2">
+    <row r="57" spans="2:2">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" ht="16.8" spans="2:2">
+    <row r="58" spans="2:2">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" ht="16.8" spans="2:2">
+    <row r="59" spans="2:2">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" ht="16.8" spans="2:2">
+    <row r="60" spans="2:2">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" ht="16.8" spans="2:2">
+    <row r="61" spans="2:2">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" ht="16.8" spans="2:2">
+    <row r="62" spans="2:2">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" ht="16.8" spans="2:2">
+    <row r="63" spans="2:2">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" ht="16.8" spans="2:2">
+    <row r="64" spans="2:2">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" ht="16.8" spans="2:2">
+    <row r="65" spans="2:2">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" ht="16.8" spans="2:2">
+    <row r="66" spans="2:2">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" ht="16.8" spans="2:2">
+    <row r="67" spans="2:2">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" ht="16.8" spans="2:2">
+    <row r="68" spans="2:2">
       <c r="B68" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/projects/likn/emdb/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF300C-36FA-9A45-A5E7-8104430F42D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="14220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="391">
   <si>
     <t>编号</t>
   </si>
@@ -513,7 +507,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>movie_id(</t>
     </r>
@@ -521,7 +515,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>影片编号</t>
@@ -530,7 +523,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -540,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>movie_name</t>
     </r>
@@ -548,7 +541,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（影片名称）</t>
@@ -559,7 +551,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>影片类型</t>
@@ -568,7 +559,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -576,7 +567,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：电影</t>
@@ -585,7 +575,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -593,7 +583,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：季播剧</t>
@@ -604,7 +593,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>company_id</t>
     </r>
@@ -612,7 +601,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权公司编号）</t>
@@ -623,7 +611,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>copyright_start_time</t>
     </r>
@@ -631,7 +619,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权开始日期）</t>
@@ -642,7 +629,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>copyright_end_time</t>
     </r>
@@ -650,7 +637,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（版权结束日期）</t>
@@ -1317,15 +1303,29 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>警察局</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>爹来靠</t>
+  </si>
+  <si>
+    <t>独立连</t>
+  </si>
+  <si>
+    <t>至死不渝</t>
+  </si>
+  <si>
+    <t>布雷特纳上校</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1334,62 +1334,396 @@
     <font>
       <sz val="11"/>
       <name val="宋体-简"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="9.8"/>
       <color rgb="FF6A8759"/>
       <name val="Courier New"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="9.8"/>
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1397,11 +1731,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1411,25 +1987,70 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1687,32 +2308,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.3359375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1925,7 +2546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" customHeight="1">
+    <row r="21" ht="16" customHeight="1" spans="1:3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2871,7 +3492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>111</v>
       </c>
@@ -2901,7 +3522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>114</v>
       </c>
@@ -2909,7 +3530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>115</v>
       </c>
@@ -3170,14 +3791,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="4" customFormat="1" ht="17">
-      <c r="A135" s="4">
+    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="5">
         <v>139</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3401,14 +4022,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="4" customFormat="1" ht="17">
-      <c r="A156" s="4">
+    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="5">
         <v>160</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3416,10 +4037,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3427,10 +4048,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3438,10 +4059,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3449,7 +4070,7 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C160" t="s">
@@ -3457,29 +4078,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3487,10 +4109,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3498,37 +4120,38 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3599,29 +4222,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.83203125" customWidth="1"/>
+    <col min="2" max="3" width="41.3359375" customWidth="1"/>
+    <col min="4" max="4" width="33.3359375" customWidth="1"/>
+    <col min="5" max="5" width="45.3359375" customWidth="1"/>
+    <col min="6" max="6" width="53.8359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" ht="17" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -4221,23 +4845,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1">
-      <c r="A31" s="5">
+    <row r="31" s="5" customFormat="1" spans="1:6">
+      <c r="A31" s="6">
         <v>10686</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>149</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5642,22 +6266,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" ht="17" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -5677,133 +6302,148 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="16.8" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="3" ht="16.8" spans="2:2">
+      <c r="B3" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="2:2">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" ht="16.8" spans="2:2">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" ht="16.8" spans="2:2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" ht="16.8" spans="2:2">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" ht="16.8" spans="2:2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" ht="16.8" spans="2:2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" ht="16.8" spans="2:2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" ht="16.8" spans="2:2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" ht="16.8" spans="2:2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" ht="16.8" spans="2:2">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" ht="16.8" spans="2:2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" ht="16.8" spans="2:2">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" ht="16.8" spans="2:2">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" ht="16.8" spans="2:2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" ht="16.8" spans="2:2">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" ht="16.8" spans="2:2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" ht="16.8" spans="2:2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" ht="16.8" spans="2:2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" ht="16.8" spans="2:2">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" ht="16.8" spans="2:2">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" ht="16.8" spans="2:2">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" ht="16.8" spans="2:2">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" ht="16.8" spans="2:2">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" ht="16.8" spans="2:2">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" ht="16.8" spans="2:2">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" ht="16.8" spans="2:2">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" ht="16.8" spans="2:2">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" ht="16.8" spans="2:2">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" ht="16.8" spans="2:2">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" ht="16.8" spans="2:2">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" ht="16.8" spans="2:2">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" ht="16.8" spans="2:2">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" ht="16.8" spans="2:2">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" ht="16.8" spans="2:2">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" ht="16.8" spans="2:2">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" ht="16.8" spans="2:2">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" ht="16.8" spans="2:2">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" ht="16.8" spans="2:2">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" ht="16.8" spans="2:2">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" ht="16.8" spans="2:2">
       <c r="B68" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
   <si>
     <t>编号</t>
   </si>
@@ -1303,16 +1303,7 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>爹来靠</t>
-  </si>
-  <si>
-    <t>独立连</t>
-  </si>
-  <si>
-    <t>至死不渝</t>
-  </si>
-  <si>
-    <t>布雷特纳上校</t>
+    <t>不洁净的血</t>
   </si>
 </sst>
 </file>
@@ -1320,12 +1311,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1342,11 +1333,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体-简"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1394,6 +1380,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1403,15 +1397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1424,9 +1410,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,7 +1444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,15 +1466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,6 +1475,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,42 +1502,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1538,7 +1512,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,49 +1632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,61 +1656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,19 +1674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,25 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,11 +1715,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,179 +1803,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1986,15 +1960,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2327,13 +2300,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3795,7 +3768,7 @@
       <c r="A135" s="5">
         <v>139</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -4026,10 +3999,10 @@
       <c r="A156" s="5">
         <v>160</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4037,10 +4010,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4048,10 +4021,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4059,10 +4032,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4070,7 +4043,7 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C160" t="s">
@@ -4095,13 +4068,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4109,10 +4082,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4120,10 +4093,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4145,13 +4118,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6277,7 +6250,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6308,19 +6281,13 @@
       </c>
     </row>
     <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>389</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="4" t="s">
-        <v>390</v>
-      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="29" ht="16.8" spans="2:2">
       <c r="B29" s="3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -1303,7 +1303,7 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>不洁净的血</t>
+    <t>我的儿子</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1374,15 +1374,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1390,6 +1421,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1404,39 +1465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,20 +1487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1482,22 +1497,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,7 +1512,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,121 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,13 +1632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,6 +1715,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1726,15 +1735,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,17 +1763,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1793,158 +1789,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6250,7 +6250,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
+    <workbookView windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="465">
   <si>
     <t>编号</t>
   </si>
@@ -1303,7 +1303,238 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
-    <t>我的儿子</t>
+    <t>周处除三害</t>
+  </si>
+  <si>
+    <t>热辣滚烫</t>
+  </si>
+  <si>
+    <t>沙丘2</t>
+  </si>
+  <si>
+    <t>哥斯拉大战金刚2：帝国崛起</t>
+  </si>
+  <si>
+    <t>戏杀</t>
+  </si>
+  <si>
+    <t>寒单</t>
+  </si>
+  <si>
+    <t>饥饿游戏：鸣鸟与蛇之歌</t>
+  </si>
+  <si>
+    <t>这个杀手不太冷静</t>
+  </si>
+  <si>
+    <t>奇迹·笨小孩</t>
+  </si>
+  <si>
+    <t>天使陷落</t>
+  </si>
+  <si>
+    <t>茶啊二中</t>
+  </si>
+  <si>
+    <t>极寒之城</t>
+  </si>
+  <si>
+    <t>深海危机</t>
+  </si>
+  <si>
+    <t>暴风</t>
+  </si>
+  <si>
+    <t>哆啦A梦：大雄的宇宙小战争2021</t>
+  </si>
+  <si>
+    <t>杀破狼2</t>
+  </si>
+  <si>
+    <t>老男孩猛龙过江</t>
+  </si>
+  <si>
+    <t>京城81号</t>
+  </si>
+  <si>
+    <t>钢的琴</t>
+  </si>
+  <si>
+    <t>寻她</t>
+  </si>
+  <si>
+    <t>宝贝计划</t>
+  </si>
+  <si>
+    <t>罪与罚</t>
+  </si>
+  <si>
+    <t>罗曼蒂克消亡史</t>
+  </si>
+  <si>
+    <t>神探</t>
+  </si>
+  <si>
+    <t>大追捕</t>
+  </si>
+  <si>
+    <t>卸甲归来</t>
+  </si>
+  <si>
+    <t>寒战</t>
+  </si>
+  <si>
+    <t>扫毒3：人在天涯</t>
+  </si>
+  <si>
+    <t>我爱你！</t>
+  </si>
+  <si>
+    <t>不止不休</t>
+  </si>
+  <si>
+    <t>忠犬八公</t>
+  </si>
+  <si>
+    <t>满江红</t>
+  </si>
+  <si>
+    <t>断网</t>
+  </si>
+  <si>
+    <t>铃芽之旅</t>
+  </si>
+  <si>
+    <t>四海</t>
+  </si>
+  <si>
+    <t>扬名立万</t>
+  </si>
+  <si>
+    <t>三贵情史</t>
+  </si>
+  <si>
+    <t>河边的错误</t>
+  </si>
+  <si>
+    <t>志愿军</t>
+  </si>
+  <si>
+    <t>坚如磐石</t>
+  </si>
+  <si>
+    <t>非诚勿扰3</t>
+  </si>
+  <si>
+    <t>浴血无名·奔袭</t>
+  </si>
+  <si>
+    <t>调职到乐队！</t>
+  </si>
+  <si>
+    <t>幸存者</t>
+  </si>
+  <si>
+    <t>末日协议</t>
+  </si>
+  <si>
+    <t>行骗天下英雄篇</t>
+  </si>
+  <si>
+    <t>罪恶围城</t>
+  </si>
+  <si>
+    <t>埋葬</t>
+  </si>
+  <si>
+    <t>第一座奥斯卡</t>
+  </si>
+  <si>
+    <t>承包商</t>
+  </si>
+  <si>
+    <t>穿墙之弹 （穿墙而行）</t>
+  </si>
+  <si>
+    <t>艾娃</t>
+  </si>
+  <si>
+    <t>闭锁病房</t>
+  </si>
+  <si>
+    <t>大创业家</t>
+  </si>
+  <si>
+    <t>私人采购员</t>
+  </si>
+  <si>
+    <t>水底禁锢</t>
+  </si>
+  <si>
+    <t>沙海漂流人</t>
+  </si>
+  <si>
+    <t>暴风雪中的白鸟</t>
+  </si>
+  <si>
+    <t>珠光宝气</t>
+  </si>
+  <si>
+    <t>生死交锋 （aka置之死地而后生）</t>
+  </si>
+  <si>
+    <t>勇闯16街区</t>
+  </si>
+  <si>
+    <t>同床异客</t>
+  </si>
+  <si>
+    <t>德维塔耶夫</t>
+  </si>
+  <si>
+    <t>老亨利</t>
+  </si>
+  <si>
+    <t>致命感应</t>
+  </si>
+  <si>
+    <t>扎克施耐德版正义联盟</t>
+  </si>
+  <si>
+    <t>绑架</t>
+  </si>
+  <si>
+    <t>黑夜传说</t>
+  </si>
+  <si>
+    <t>降灵日历</t>
+  </si>
+  <si>
+    <t>不洁净的血</t>
+  </si>
+  <si>
+    <t>逆时杀机</t>
+  </si>
+  <si>
+    <t>黑夜侵蚀世界</t>
+  </si>
+  <si>
+    <t>杀人镜头</t>
+  </si>
+  <si>
+    <t>绑架/失踪的男孩</t>
+  </si>
+  <si>
+    <t>危险止痛</t>
+  </si>
+  <si>
+    <t>狩猎季节</t>
+  </si>
+  <si>
+    <t>呼吸</t>
+  </si>
+  <si>
+    <t>痕迹</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1360,21 +1591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,14 +1605,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1403,8 +1612,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1419,6 +1650,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1429,21 +1676,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,29 +1719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1495,9 +1727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,25 +1743,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,19 +1779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,97 +1803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,7 +1827,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,13 +1869,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,15 +1934,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1763,6 +1985,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1788,112 +2034,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1902,56 +2133,56 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1959,6 +2190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2289,8 +2521,8 @@
   <sheetPr/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2300,13 +2532,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3764,14 +3996,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="5">
+    <row r="135" s="6" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="6">
         <v>139</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3995,14 +4227,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="5" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="5">
+    <row r="156" s="6" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="6">
         <v>160</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4010,10 +4242,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4021,10 +4253,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4032,10 +4264,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4043,7 +4275,7 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C160" t="s">
@@ -4068,13 +4300,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4082,10 +4314,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4093,10 +4325,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4118,13 +4350,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4818,23 +5050,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="6">
+    <row r="31" s="6" customFormat="1" spans="1:6">
+      <c r="A31" s="7">
         <v>10686</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>149</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6247,10 +6479,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6275,139 +6507,629 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="2:2">
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="16.8" spans="1:2">
+      <c r="A2" s="3">
+        <v>1046090</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="2:2">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" ht="16.8" spans="2:2">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" ht="16.8" spans="2:2">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="29" ht="16.8" spans="2:2">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" ht="16.8" spans="2:2">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" ht="16.8" spans="2:2">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" ht="16.8" spans="2:2">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" ht="16.8" spans="2:2">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" ht="16.8" spans="2:2">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" ht="16.8" spans="2:2">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" ht="16.8" spans="2:2">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" ht="16.8" spans="2:2">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" ht="16.8" spans="2:2">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" ht="16.8" spans="2:2">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" ht="16.8" spans="2:2">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" ht="16.8" spans="2:2">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" ht="16.8" spans="2:2">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" ht="16.8" spans="2:2">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" ht="16.8" spans="2:2">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" ht="16.8" spans="2:2">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" ht="16.8" spans="2:2">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" ht="16.8" spans="2:2">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" ht="16.8" spans="2:2">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" ht="16.8" spans="2:2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" ht="16.8" spans="2:2">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" ht="16.8" spans="2:2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" ht="16.8" spans="2:2">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" ht="16.8" spans="2:2">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" ht="16.8" spans="2:2">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" ht="16.8" spans="2:2">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" ht="16.8" spans="2:2">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" ht="16.8" spans="2:2">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" ht="16.8" spans="2:2">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" ht="16.8" spans="2:2">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" ht="16.8" spans="2:2">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" ht="16.8" spans="2:2">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" ht="16.8" spans="2:2">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" ht="16.8" spans="2:2">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" ht="16.8" spans="2:2">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" ht="16.8" spans="2:2">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" ht="16.8" spans="2:2">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" ht="16.8" spans="2:2">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" ht="16.8" spans="2:2">
-      <c r="B68" s="3"/>
+    <row r="3" ht="16.8" spans="1:2">
+      <c r="A3" s="3">
+        <v>1229349</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:2">
+      <c r="A4" s="3">
+        <v>693134</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:2">
+      <c r="A5" s="3">
+        <v>823464</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>1176574</v>
+      </c>
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>582311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>695721</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>923192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>803266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>423204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1149485</v>
+      </c>
+      <c r="B12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1111737</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1111644</v>
+      </c>
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>846519</v>
+      </c>
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>782054</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>331576</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>289449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>293021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>72245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1133008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>25676</v>
+      </c>
+      <c r="B22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>72074</v>
+      </c>
+      <c r="B23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>382572</v>
+      </c>
+      <c r="B24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>14016</v>
+      </c>
+      <c r="B25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>96664</v>
+      </c>
+      <c r="B26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>791900</v>
+      </c>
+      <c r="B27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>137409</v>
+      </c>
+      <c r="B28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:2">
+      <c r="A29">
+        <v>1093485</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:2">
+      <c r="A30">
+        <v>1091508</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:2">
+      <c r="A31">
+        <v>664412</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:2">
+      <c r="A32">
+        <v>1107387</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:2">
+      <c r="A33">
+        <v>1066298</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:2">
+      <c r="A34">
+        <v>741602</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:2">
+      <c r="A35">
+        <v>916224</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:2">
+      <c r="A36">
+        <v>827689</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="1:2">
+      <c r="A37">
+        <v>895435</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:2">
+      <c r="A38">
+        <v>1148812</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:2">
+      <c r="A39">
+        <v>1115379</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:2">
+      <c r="A40">
+        <v>1076500</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="1:2">
+      <c r="A41">
+        <v>661579</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:2">
+      <c r="A42">
+        <v>1211979</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="1:2">
+      <c r="A43">
+        <v>1183113</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="1:2">
+      <c r="A44">
+        <v>961381</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="1:2">
+      <c r="A45">
+        <v>606870</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="1:2">
+      <c r="A46">
+        <v>718919</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="1:2">
+      <c r="A47">
+        <v>930432</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="1:2">
+      <c r="A48">
+        <v>987507</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="1:2">
+      <c r="A49">
+        <v>715370</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="1:2">
+      <c r="A50">
+        <v>598212</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="1:2">
+      <c r="A51">
+        <v>628900</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="1:2">
+      <c r="A52">
+        <v>747546</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:2">
+      <c r="A53">
+        <v>539885</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:2">
+      <c r="A54">
+        <v>582589</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:2">
+      <c r="A55">
+        <v>310307</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:2">
+      <c r="A56">
+        <v>340676</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:2">
+      <c r="A57">
+        <v>252164</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:2">
+      <c r="A58">
+        <v>157845</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:2">
+      <c r="A59">
+        <v>157825</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:2">
+      <c r="A60">
+        <v>6093</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:2">
+      <c r="A61">
+        <v>10425</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:2">
+      <c r="A62">
+        <v>2207</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:2">
+      <c r="A63">
+        <v>993621</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:2">
+      <c r="A64">
+        <v>672475</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:2">
+      <c r="A65">
+        <v>785663</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="1:2">
+      <c r="A66">
+        <v>619778</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:2">
+      <c r="A67">
+        <v>791373</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="1:2">
+      <c r="A68">
+        <v>293768</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>277</v>
+      </c>
+      <c r="B69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>762079</v>
+      </c>
+      <c r="B70" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>582909</v>
+      </c>
+      <c r="B71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>543749</v>
+      </c>
+      <c r="B72" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>457955</v>
+      </c>
+      <c r="B73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>527004</v>
+      </c>
+      <c r="B74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>403509</v>
+      </c>
+      <c r="B75" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>524625</v>
+      </c>
+      <c r="B76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>50737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="1:2">
+      <c r="A78">
+        <v>27957</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>438154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>464</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14220" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -1543,8 +1543,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1605,7 +1605,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1620,10 +1620,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1642,9 +1643,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,25 +1667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,29 +1682,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1722,6 +1691,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,7 +1749,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,13 +1869,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,13 +1911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,133 +1923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,6 +1934,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1963,9 +1972,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1999,57 +2034,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2058,103 +2058,103 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2163,22 +2163,22 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2521,8 +2521,8 @@
   <sheetPr/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -6481,8 +6481,8 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
+    <workbookView windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -1429,28 +1429,28 @@
     <t>浴血无名·奔袭</t>
   </si>
   <si>
-    <t>调职到乐队！</t>
-  </si>
-  <si>
-    <t>幸存者</t>
-  </si>
-  <si>
-    <t>末日协议</t>
-  </si>
-  <si>
-    <t>行骗天下英雄篇</t>
-  </si>
-  <si>
-    <t>罪恶围城</t>
-  </si>
-  <si>
-    <t>埋葬</t>
-  </si>
-  <si>
-    <t>第一座奥斯卡</t>
-  </si>
-  <si>
-    <t>承包商</t>
+    <t>Offbeat Cops</t>
+  </si>
+  <si>
+    <t>The Survivor</t>
+  </si>
+  <si>
+    <t>The Deal</t>
+  </si>
+  <si>
+    <t>The Confidence Man JP: Episode of the Hero</t>
+  </si>
+  <si>
+    <t>BAD CITY</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t>First Oscar</t>
+  </si>
+  <si>
+    <t>The Contractor</t>
   </si>
   <si>
     <t>穿墙之弹 （穿墙而行）</t>
@@ -1486,13 +1486,13 @@
     <t>勇闯16街区</t>
   </si>
   <si>
-    <t>同床异客</t>
-  </si>
-  <si>
-    <t>德维塔耶夫</t>
-  </si>
-  <si>
-    <t>老亨利</t>
+    <t>The Stranger in Our Bed</t>
+  </si>
+  <si>
+    <t>V2 Escape from Hell</t>
+  </si>
+  <si>
+    <t>Old Henry</t>
   </si>
   <si>
     <t>致命感应</t>
@@ -1507,34 +1507,34 @@
     <t>黑夜传说</t>
   </si>
   <si>
-    <t>降灵日历</t>
-  </si>
-  <si>
-    <t>不洁净的血</t>
-  </si>
-  <si>
-    <t>逆时杀机</t>
-  </si>
-  <si>
-    <t>黑夜侵蚀世界</t>
-  </si>
-  <si>
-    <t>杀人镜头</t>
-  </si>
-  <si>
-    <t>绑架/失踪的男孩</t>
-  </si>
-  <si>
-    <t>危险止痛</t>
-  </si>
-  <si>
-    <t>狩猎季节</t>
-  </si>
-  <si>
-    <t>呼吸</t>
-  </si>
-  <si>
-    <t>痕迹</t>
+    <t>The Advent Calendar</t>
+  </si>
+  <si>
+    <t>The Breitner Commando</t>
+  </si>
+  <si>
+    <t>Silencio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Night Eats the World</t>
+  </si>
+  <si>
+    <t>Murder in the Lens</t>
+  </si>
+  <si>
+    <t>Boy Missing/Secuestro</t>
+  </si>
+  <si>
+    <t>Painkillers</t>
+  </si>
+  <si>
+    <t>Hunting Season</t>
+  </si>
+  <si>
+    <t>Last Breath</t>
+  </si>
+  <si>
+    <t>The Trace</t>
   </si>
 </sst>
 </file>
@@ -1543,9 +1543,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1591,7 +1591,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,6 +1614,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1612,9 +1673,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1622,6 +1682,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1629,7 +1705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,14 +1720,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1659,76 +1727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,18 +1749,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1773,7 +1761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,127 +1785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,7 +1803,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,8 +1940,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1951,6 +1966,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,205 +2034,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6481,8 +6481,8 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7075,19 +7075,19 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="16.8" spans="1:2">
       <c r="A73">
         <v>457955</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" ht="16.8" spans="1:2">
       <c r="A74">
         <v>527004</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>459</v>
       </c>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="466">
   <si>
     <t>编号</t>
   </si>
@@ -1303,15 +1303,27 @@
     <t>2024-12-31 19:27:03</t>
   </si>
   <si>
+    <t>尋她</t>
+  </si>
+  <si>
     <t>周处除三害</t>
   </si>
   <si>
+    <t>穿墙之弹</t>
+  </si>
+  <si>
     <t>热辣滚烫</t>
   </si>
   <si>
+    <t>珠光宝气</t>
+  </si>
+  <si>
     <t>沙丘2</t>
   </si>
   <si>
+    <t>扎克施</t>
+  </si>
+  <si>
     <t>哥斯拉大战金刚2：帝国崛起</t>
   </si>
   <si>
@@ -1345,7 +1357,33 @@
     <t>暴风</t>
   </si>
   <si>
-    <t>哆啦A梦：大雄的宇宙小战争2021</t>
+    <r>
+      <t>哆啦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梦：大雄的宇宙小战争</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2021</t>
+    </r>
   </si>
   <si>
     <t>杀破狼2</t>
@@ -1354,15 +1392,30 @@
     <t>老男孩猛龙过江</t>
   </si>
   <si>
-    <t>京城81号</t>
+    <r>
+      <t>京城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
   <si>
     <t>钢的琴</t>
   </si>
   <si>
-    <t>寻她</t>
-  </si>
-  <si>
     <t>宝贝计划</t>
   </si>
   <si>
@@ -1453,9 +1506,6 @@
     <t>The Contractor</t>
   </si>
   <si>
-    <t>穿墙之弹 （穿墙而行）</t>
-  </si>
-  <si>
     <t>艾娃</t>
   </si>
   <si>
@@ -1475,9 +1525,6 @@
   </si>
   <si>
     <t>暴风雪中的白鸟</t>
-  </si>
-  <si>
-    <t>珠光宝气</t>
   </si>
   <si>
     <t>生死交锋 （aka置之死地而后生）</t>
@@ -1543,9 +1590,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1591,12 +1638,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1604,11 +1660,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1628,48 +1684,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1682,30 +1706,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,16 +1729,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1749,7 +1796,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,13 +1898,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,25 +1928,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,121 +1970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,6 +1981,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1961,39 +2067,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2008,177 +2081,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2190,9 +2237,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2521,7 +2568,7 @@
   <sheetPr/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2532,13 +2579,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4300,13 +4347,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4350,13 +4397,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6481,8 +6528,8 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6507,628 +6554,652 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="3">
+    <row r="2" ht="16.8" spans="1:6">
+      <c r="A2">
+        <v>1133008</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="5">
         <v>1046090</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:6">
+      <c r="A3">
+        <v>747546</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1229349</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:6">
+      <c r="A4">
+        <v>96936</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="5">
+        <v>693134</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:6">
+      <c r="A5">
+        <v>791373</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="5">
+        <v>823464</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="5">
+        <v>1176574</v>
+      </c>
+      <c r="F6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="5">
+        <v>582311</v>
+      </c>
+      <c r="F7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="5">
+        <v>695721</v>
+      </c>
+      <c r="F8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9">
+        <v>923192</v>
+      </c>
+      <c r="F9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10">
+        <v>803266</v>
+      </c>
+      <c r="F10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11">
+        <v>423204</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12">
+        <v>1149485</v>
+      </c>
+      <c r="F12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13">
+        <v>1111737</v>
+      </c>
+      <c r="F13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14">
+        <v>1111644</v>
+      </c>
+      <c r="F14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15">
+        <v>846519</v>
+      </c>
+      <c r="F15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="5:6">
+      <c r="E16">
+        <v>782054</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17">
+        <v>331576</v>
+      </c>
+      <c r="F17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <v>289449</v>
+      </c>
+      <c r="F18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="5:6">
+      <c r="E19">
+        <v>293021</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <v>72245</v>
+      </c>
+      <c r="F20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="5:6">
+      <c r="E21">
+        <v>1133008</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:2">
-      <c r="A3" s="3">
-        <v>1229349</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:2">
-      <c r="A4" s="3">
-        <v>693134</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>25676</v>
+      </c>
+      <c r="F22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <v>72074</v>
+      </c>
+      <c r="F23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <v>382572</v>
+      </c>
+      <c r="F24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <v>14016</v>
+      </c>
+      <c r="F25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <v>96664</v>
+      </c>
+      <c r="F26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <v>791900</v>
+      </c>
+      <c r="F27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28">
+        <v>137409</v>
+      </c>
+      <c r="F28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="5:6">
+      <c r="E29">
+        <v>1093485</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="5:6">
+      <c r="E30">
+        <v>1091508</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="5:6">
+      <c r="E31">
+        <v>664412</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="5:6">
+      <c r="E32">
+        <v>1107387</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="5:6">
+      <c r="E33">
+        <v>1066298</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="5:6">
+      <c r="E34">
+        <v>741602</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="5:6">
+      <c r="E35">
+        <v>916224</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="5:6">
+      <c r="E36">
+        <v>827689</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="5:6">
+      <c r="E37">
+        <v>895435</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="5:6">
+      <c r="E38">
+        <v>1148812</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="5:6">
+      <c r="E39">
+        <v>1115379</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="5:6">
+      <c r="E40">
+        <v>1076500</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="5:6">
+      <c r="E41">
+        <v>661579</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="5:6">
+      <c r="E42">
+        <v>1211979</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="5:6">
+      <c r="E43">
+        <v>1183113</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="5:6">
+      <c r="E44">
+        <v>961381</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="5:6">
+      <c r="E45">
+        <v>606870</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="5:6">
+      <c r="E46">
+        <v>718919</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="5:6">
+      <c r="E47">
+        <v>930432</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="5:6">
+      <c r="E48">
+        <v>987507</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="5:6">
+      <c r="E49">
+        <v>715370</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="5:6">
+      <c r="E50">
+        <v>598212</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="5:6">
+      <c r="E51">
+        <v>628900</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="5:6">
+      <c r="E52">
+        <v>747546</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:2">
-      <c r="A5" s="3">
-        <v>823464</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>1176574</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="53" ht="16.8" spans="5:6">
+      <c r="E53">
+        <v>539885</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="5:6">
+      <c r="E54">
+        <v>582589</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="5:6">
+      <c r="E55">
+        <v>310307</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="5:6">
+      <c r="E56">
+        <v>340676</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="5:6">
+      <c r="E57">
+        <v>252164</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="5:6">
+      <c r="E58">
+        <v>157845</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="5:6">
+      <c r="E59">
+        <v>157825</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="5:6">
+      <c r="E60">
+        <v>96936</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>582311</v>
-      </c>
-      <c r="B7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>695721</v>
-      </c>
-      <c r="B8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>923192</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>803266</v>
-      </c>
-      <c r="B10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>423204</v>
-      </c>
-      <c r="B11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1149485</v>
-      </c>
-      <c r="B12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1111737</v>
-      </c>
-      <c r="B13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1111644</v>
-      </c>
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>846519</v>
-      </c>
-      <c r="B15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>782054</v>
-      </c>
-      <c r="B16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>331576</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>289449</v>
-      </c>
-      <c r="B18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>293021</v>
-      </c>
-      <c r="B19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>72245</v>
-      </c>
-      <c r="B20" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1133008</v>
-      </c>
-      <c r="B21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>25676</v>
-      </c>
-      <c r="B22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>72074</v>
-      </c>
-      <c r="B23" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>382572</v>
-      </c>
-      <c r="B24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>14016</v>
-      </c>
-      <c r="B25" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>96664</v>
-      </c>
-      <c r="B26" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>791900</v>
-      </c>
-      <c r="B27" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>137409</v>
-      </c>
-      <c r="B28" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="29" ht="16.8" spans="1:2">
-      <c r="A29">
-        <v>1093485</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" ht="16.8" spans="1:2">
-      <c r="A30">
-        <v>1091508</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" ht="16.8" spans="1:2">
-      <c r="A31">
-        <v>664412</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="32" ht="16.8" spans="1:2">
-      <c r="A32">
-        <v>1107387</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" ht="16.8" spans="1:2">
-      <c r="A33">
-        <v>1066298</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" ht="16.8" spans="1:2">
-      <c r="A34">
-        <v>741602</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="35" ht="16.8" spans="1:2">
-      <c r="A35">
-        <v>916224</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" ht="16.8" spans="1:2">
-      <c r="A36">
-        <v>827689</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="37" ht="16.8" spans="1:2">
-      <c r="A37">
-        <v>895435</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" ht="16.8" spans="1:2">
-      <c r="A38">
-        <v>1148812</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" ht="16.8" spans="1:2">
-      <c r="A39">
-        <v>1115379</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="40" ht="16.8" spans="1:2">
-      <c r="A40">
-        <v>1076500</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" ht="16.8" spans="1:2">
-      <c r="A41">
-        <v>661579</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" ht="16.8" spans="1:2">
-      <c r="A42">
-        <v>1211979</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" ht="16.8" spans="1:2">
-      <c r="A43">
-        <v>1183113</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="44" ht="16.8" spans="1:2">
-      <c r="A44">
-        <v>961381</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="45" ht="16.8" spans="1:2">
-      <c r="A45">
-        <v>606870</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" ht="16.8" spans="1:2">
-      <c r="A46">
-        <v>718919</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" ht="16.8" spans="1:2">
-      <c r="A47">
-        <v>930432</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" ht="16.8" spans="1:2">
-      <c r="A48">
-        <v>987507</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="49" ht="16.8" spans="1:2">
-      <c r="A49">
-        <v>715370</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="50" ht="16.8" spans="1:2">
-      <c r="A50">
-        <v>598212</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" ht="16.8" spans="1:2">
-      <c r="A51">
-        <v>628900</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="52" ht="16.8" spans="1:2">
-      <c r="A52">
-        <v>747546</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" ht="16.8" spans="1:2">
-      <c r="A53">
-        <v>539885</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="54" ht="16.8" spans="1:2">
-      <c r="A54">
-        <v>582589</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="55" ht="16.8" spans="1:2">
-      <c r="A55">
-        <v>310307</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" ht="16.8" spans="1:2">
-      <c r="A56">
-        <v>340676</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="57" ht="16.8" spans="1:2">
-      <c r="A57">
-        <v>252164</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" ht="16.8" spans="1:2">
-      <c r="A58">
-        <v>157845</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" ht="16.8" spans="1:2">
-      <c r="A59">
-        <v>157825</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" ht="16.8" spans="1:2">
-      <c r="A60">
-        <v>6093</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="61" ht="16.8" spans="1:2">
-      <c r="A61">
+    <row r="61" ht="16.8" spans="5:6">
+      <c r="E61">
         <v>10425</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="62" ht="16.8" spans="1:2">
-      <c r="A62">
+      <c r="F61" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="5:6">
+      <c r="E62">
         <v>2207</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="63" ht="16.8" spans="1:2">
-      <c r="A63">
+      <c r="F62" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="5:6">
+      <c r="E63">
         <v>993621</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="64" ht="16.8" spans="1:2">
-      <c r="A64">
+      <c r="F63" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="5:6">
+      <c r="E64">
         <v>672475</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" ht="16.8" spans="1:2">
-      <c r="A65">
+      <c r="F64" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="5:6">
+      <c r="E65">
         <v>785663</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" ht="16.8" spans="1:2">
-      <c r="A66">
+      <c r="F65" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="5:6">
+      <c r="E66">
         <v>619778</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="67" ht="16.8" spans="1:2">
-      <c r="A67">
+      <c r="F66" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="5:6">
+      <c r="E67">
         <v>791373</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="68" ht="16.8" spans="1:2">
-      <c r="A68">
+      <c r="F67" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="5:6">
+      <c r="E68">
         <v>293768</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
+      <c r="F68" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" ht="16.8" spans="5:6">
+      <c r="E69">
         <v>277</v>
       </c>
-      <c r="B69" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
+      <c r="F69" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="5:6">
+      <c r="E70">
         <v>762079</v>
       </c>
-      <c r="B70" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
+      <c r="F70" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" ht="16.8" spans="5:6">
+      <c r="E71">
         <v>582909</v>
       </c>
-      <c r="B71" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
+      <c r="F71" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="5:6">
+      <c r="E72">
         <v>543749</v>
       </c>
-      <c r="B72" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="73" ht="16.8" spans="1:2">
-      <c r="A73">
+      <c r="F72" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="5:6">
+      <c r="E73">
         <v>457955</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="74" ht="16.8" spans="1:2">
-      <c r="A74">
+      <c r="F73" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="5:6">
+      <c r="E74">
         <v>527004</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
+      <c r="F74" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="5:6">
+      <c r="E75">
         <v>403509</v>
       </c>
-      <c r="B75" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
+      <c r="F75" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="5:6">
+      <c r="E76">
         <v>524625</v>
       </c>
-      <c r="B76" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
+      <c r="F76" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="5:6">
+      <c r="E77">
         <v>50737</v>
       </c>
-      <c r="B77" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="78" ht="16.8" spans="1:2">
-      <c r="A78">
+      <c r="F77" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="5:6">
+      <c r="E78">
         <v>27957</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
+      <c r="F78" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" ht="16.8" spans="5:6">
+      <c r="E79">
         <v>438154</v>
       </c>
-      <c r="B79" t="s">
-        <v>464</v>
+      <c r="F79" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14220" activeTab="4"/>
+    <workbookView windowHeight="14220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="company" sheetId="3" r:id="rId3"/>
     <sheet name="movies" sheetId="2" r:id="rId4"/>
     <sheet name="movie" sheetId="5" r:id="rId5"/>
+    <sheet name="tvs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="553">
   <si>
     <t>编号</t>
   </si>
@@ -1358,6 +1359,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>哆啦</t>
     </r>
     <r>
@@ -1393,6 +1399,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>京城</t>
     </r>
     <r>
@@ -1583,6 +1594,267 @@
   <si>
     <t>The Trace</t>
   </si>
+  <si>
+    <t>serise_id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>季数</t>
+  </si>
+  <si>
+    <t>贝茨先生诉邮局</t>
+  </si>
+  <si>
+    <t>作秀公审 第二季</t>
+  </si>
+  <si>
+    <t>凯伦·皮里 第二季</t>
+  </si>
+  <si>
+    <t>塔楼 第三季</t>
+  </si>
+  <si>
+    <t>不眠 第二季</t>
+  </si>
+  <si>
+    <t>洪水之后</t>
+  </si>
+  <si>
+    <t>迷失海湾 第五季</t>
+  </si>
+  <si>
+    <t>格雷斯 第四季</t>
+  </si>
+  <si>
+    <t>迪莉娅的证词（原：直到我杀了你）</t>
+  </si>
+  <si>
+    <t>格雷斯 第三季</t>
+  </si>
+  <si>
+    <t>渎职</t>
+  </si>
+  <si>
+    <t>探案拍档 第四季</t>
+  </si>
+  <si>
+    <t>设得兰谜案 第七季</t>
+  </si>
+  <si>
+    <t>光环 第一季</t>
+  </si>
+  <si>
+    <t>山巅之城 第三季</t>
+  </si>
+  <si>
+    <t>仁医莎姆</t>
+  </si>
+  <si>
+    <t>超蓬勃：优步之战 第一季</t>
+  </si>
+  <si>
+    <t>法官大人 第二季</t>
+  </si>
+  <si>
+    <t>黄蜂 第一季</t>
+  </si>
+  <si>
+    <t>说出你的秘密</t>
+  </si>
+  <si>
+    <t>山巅之城 第二季</t>
+  </si>
+  <si>
+    <t>新阴阳魔界 第二季</t>
+  </si>
+  <si>
+    <t>波尔达克 第五季</t>
+  </si>
+  <si>
+    <t>重任在肩S5</t>
+  </si>
+  <si>
+    <t>山巅之城 第一季</t>
+  </si>
+  <si>
+    <t>韦恩 第一季</t>
+  </si>
+  <si>
+    <t>莱姆镇</t>
+  </si>
+  <si>
+    <t>新阴阳魔界 第一季</t>
+  </si>
+  <si>
+    <t>波尔达克 第四季</t>
+  </si>
+  <si>
+    <t>海豹六队 第二季</t>
+  </si>
+  <si>
+    <t>波尔达克 第三季</t>
+  </si>
+  <si>
+    <t>那时那处</t>
+  </si>
+  <si>
+    <t>海豹六队 第一季</t>
+  </si>
+  <si>
+    <t>重任在肩S4</t>
+  </si>
+  <si>
+    <t>弗兰肯斯坦传奇 第二季</t>
+  </si>
+  <si>
+    <t>暗物质 第三季</t>
+  </si>
+  <si>
+    <t>边隧谜案 第三季</t>
+  </si>
+  <si>
+    <t>罪恶的灵魂 第二季</t>
+  </si>
+  <si>
+    <t>贝奥武夫</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第四季</t>
+  </si>
+  <si>
+    <t>波尔达克 第二季</t>
+  </si>
+  <si>
+    <t>重任在肩S3</t>
+  </si>
+  <si>
+    <t>暗物质 第二季</t>
+  </si>
+  <si>
+    <t>边隧谜案 第二季</t>
+  </si>
+  <si>
+    <t>罪恶的灵魂 第一季</t>
+  </si>
+  <si>
+    <t>化身博士</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第三季</t>
+  </si>
+  <si>
+    <t>波尔达克 第一季</t>
+  </si>
+  <si>
+    <t>黑暗天使</t>
+  </si>
+  <si>
+    <t>弗兰肯斯坦传奇 第一季</t>
+  </si>
+  <si>
+    <t>堕落 第三季</t>
+  </si>
+  <si>
+    <t>真凶密码</t>
+  </si>
+  <si>
+    <t>超越时间线 第四季</t>
+  </si>
+  <si>
+    <t>暗物质 第一季</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第二季</t>
+  </si>
+  <si>
+    <t>重任在肩S2</t>
+  </si>
+  <si>
+    <t>堕落 第二季</t>
+  </si>
+  <si>
+    <t>奇妙人生</t>
+  </si>
+  <si>
+    <t>复生 第二季</t>
+  </si>
+  <si>
+    <t>乌托邦 第二季</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第一季</t>
+  </si>
+  <si>
+    <t>英伦魔法师</t>
+  </si>
+  <si>
+    <t>彭伯利谋杀案</t>
+  </si>
+  <si>
+    <t>堕落 第一季</t>
+  </si>
+  <si>
+    <t>复生 第一季</t>
+  </si>
+  <si>
+    <t>乌托邦 第一季</t>
+  </si>
+  <si>
+    <t>超越时间线 第三季</t>
+  </si>
+  <si>
+    <t>边隧谜案 第一季</t>
+  </si>
+  <si>
+    <t>重任在肩S1</t>
+  </si>
+  <si>
+    <t>演播时刻 第二季</t>
+  </si>
+  <si>
+    <t>超越时间线 第一季</t>
+  </si>
+  <si>
+    <t>超越时间线 第二季</t>
+  </si>
+  <si>
+    <t>演播时刻 第一季</t>
+  </si>
+  <si>
+    <t>军情五处 第十季</t>
+  </si>
+  <si>
+    <t>军情五处 第九季</t>
+  </si>
+  <si>
+    <t>安妮日记</t>
+  </si>
+  <si>
+    <t>军情五处 第八季</t>
+  </si>
+  <si>
+    <t>军情五处 第七季</t>
+  </si>
+  <si>
+    <t>军情五处 第六季</t>
+  </si>
+  <si>
+    <t>军情五处 第五季</t>
+  </si>
+  <si>
+    <t>军情五处 第四季</t>
+  </si>
+  <si>
+    <t>军情五处 第三季</t>
+  </si>
+  <si>
+    <t>军情五处 第二季</t>
+  </si>
+  <si>
+    <t>军情五处 第一季</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,20 +1862,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体-简"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1611,6 +1885,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1638,23 +1917,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,29 +1939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1713,7 +1954,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1734,52 +2059,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1787,24 +2066,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1820,7 +2081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,7 +2093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,7 +2111,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,73 +2237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,53 +2249,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2004,11 +2346,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,226 +2375,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2579,13 +2877,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4043,14 +4341,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="6" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="6">
+    <row r="135" s="8" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="8">
         <v>139</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4274,14 +4572,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="6" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="6">
+    <row r="156" s="8" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="8">
         <v>160</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4289,10 +4587,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4300,10 +4598,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4311,10 +4609,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="12" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4322,7 +4620,7 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C160" t="s">
@@ -4347,13 +4645,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4361,10 +4659,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4372,10 +4670,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4397,13 +4695,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4498,2022 +4796,2022 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>10009</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>85</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>10022</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>10083</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>79</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>10117</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>10161</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>94</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>10174</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>102</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>10190</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>10222</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>10225</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10226</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10227</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>10231</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>10232</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>10236</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>10239</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>10266</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>10300</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>10399</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>10427</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>10430</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>10453</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>10454</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>10463</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>10592</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
         <v>149</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>10595</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>10607</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>10646</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
         <v>13</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>10649</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
         <v>5</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>10650</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:6">
-      <c r="A31" s="7">
+    <row r="31" s="8" customFormat="1" spans="1:6">
+      <c r="A31" s="9">
         <v>10686</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
         <v>149</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>10734</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
         <v>146</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>10735</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>10737</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
         <v>118</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>10738</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
         <v>118</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>10758</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>10768</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
         <v>6</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>10772</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
         <v>146</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>10776</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
         <v>149</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>10791</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>10793</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>10820</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
         <v>6</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>10824</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
         <v>149</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>10826</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
         <v>5</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>10828</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
         <v>6</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>10838</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
         <v>2</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>10857</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>10868</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
         <v>149</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>10877</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
         <v>2</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>10930</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
         <v>149</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>11105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
         <v>149</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>11117</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
         <v>2</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>11123</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>11125</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
         <v>5</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>11159</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
         <v>146</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>11196</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
         <v>146</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>11203</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
         <v>2</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>11208</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>11250</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
         <v>118</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>11252</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
         <v>118</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>11253</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
         <v>118</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>11884</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>3</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>124</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>12254</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>3</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>118</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>15222</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>3</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>122</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>19065</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>3</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>20959</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>3</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>122</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>26539</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>3</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>122</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>34284</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>3</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>122</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>36717</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
         <v>3</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>122</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>37426</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <v>3</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>122</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>37678</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <v>3</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>122</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>38345</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <v>3</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>122</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>38455</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="3">
         <v>3</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <v>122</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>38695</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
         <v>3</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>122</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>38732</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>3</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>122</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>38865</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
         <v>3</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="3">
         <v>122</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>39709</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
         <v>3</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="3">
         <v>122</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>39743</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <v>3</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>122</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>41443</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
         <v>3</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>122</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>47125</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="3">
         <v>3</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>150</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>47259</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="3">
         <v>3</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>150</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="1">
+      <c r="A82" s="3">
         <v>47572</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>3</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>150</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="3" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1">
+      <c r="A83" s="3">
         <v>47618</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
         <v>3</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>150</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="1">
+      <c r="A84" s="3">
         <v>47678</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
         <v>3</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>150</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="3" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="1">
+      <c r="A85" s="3">
         <v>48183</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
         <v>3</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>22</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1">
+      <c r="A86" s="3">
         <v>48303</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
         <v>3</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>150</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1">
+      <c r="A87" s="3">
         <v>48365</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
         <v>3</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>150</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="1">
+      <c r="A88" s="3">
         <v>48565</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>3</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>150</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1">
+      <c r="A89" s="3">
         <v>48816</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
         <v>3</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>150</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="3" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="1">
+      <c r="A90" s="3">
         <v>48864</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
         <v>3</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>150</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1">
+      <c r="A91" s="3">
         <v>48919</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
         <v>3</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>150</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="1">
+      <c r="A92" s="3">
         <v>48955</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
         <v>3</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>150</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="1">
+      <c r="A93" s="3">
         <v>49009</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
         <v>3</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>150</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="1">
+      <c r="A94" s="3">
         <v>49039</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="3">
         <v>3</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="3">
         <v>150</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="1">
+      <c r="A95" s="3">
         <v>49071</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
         <v>3</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>150</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="3" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="1">
+      <c r="A96" s="3">
         <v>49551</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
         <v>3</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>2</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="1">
+      <c r="A97" s="3">
         <v>50038</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
         <v>3</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="3">
         <v>150</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1">
+      <c r="A98" s="3">
         <v>51577</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>3</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>150</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="1">
+      <c r="A99" s="3">
         <v>51835</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>3</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>150</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1">
+      <c r="A100" s="3">
         <v>52026</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
         <v>3</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>150</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1">
+      <c r="A101" s="3">
         <v>52459</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <v>3</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>150</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="3" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6528,29 +6826,29 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6558,13 +6856,13 @@
       <c r="A2">
         <v>1133008</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>1046090</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6572,13 +6870,13 @@
       <c r="A3">
         <v>747546</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>1229349</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6586,13 +6884,13 @@
       <c r="A4">
         <v>96936</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>693134</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6600,18 +6898,18 @@
       <c r="A5">
         <v>791373</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>823464</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>1176574</v>
       </c>
       <c r="F6" t="s">
@@ -6619,7 +6917,7 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>582311</v>
       </c>
       <c r="F7" t="s">
@@ -6627,7 +6925,7 @@
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>695721</v>
       </c>
       <c r="F8" t="s">
@@ -6694,7 +6992,7 @@
       <c r="E16">
         <v>782054</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6718,7 +7016,7 @@
       <c r="E19">
         <v>293021</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6734,7 +7032,7 @@
       <c r="E21">
         <v>1133008</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6798,7 +7096,7 @@
       <c r="E29">
         <v>1093485</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6806,7 +7104,7 @@
       <c r="E30">
         <v>1091508</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="6" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6814,7 +7112,7 @@
       <c r="E31">
         <v>664412</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="6" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6822,7 +7120,7 @@
       <c r="E32">
         <v>1107387</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="6" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6830,7 +7128,7 @@
       <c r="E33">
         <v>1066298</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="6" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6838,7 +7136,7 @@
       <c r="E34">
         <v>741602</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6846,7 +7144,7 @@
       <c r="E35">
         <v>916224</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="6" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6854,7 +7152,7 @@
       <c r="E36">
         <v>827689</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="6" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6862,7 +7160,7 @@
       <c r="E37">
         <v>895435</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="6" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6870,7 +7168,7 @@
       <c r="E38">
         <v>1148812</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="6" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6878,7 +7176,7 @@
       <c r="E39">
         <v>1115379</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="6" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6886,7 +7184,7 @@
       <c r="E40">
         <v>1076500</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="6" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6894,7 +7192,7 @@
       <c r="E41">
         <v>661579</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="6" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6902,7 +7200,7 @@
       <c r="E42">
         <v>1211979</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6910,7 +7208,7 @@
       <c r="E43">
         <v>1183113</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="6" t="s">
         <v>431</v>
       </c>
     </row>
@@ -6918,7 +7216,7 @@
       <c r="E44">
         <v>961381</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="6" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6926,7 +7224,7 @@
       <c r="E45">
         <v>606870</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6934,7 +7232,7 @@
       <c r="E46">
         <v>718919</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="6" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6942,7 +7240,7 @@
       <c r="E47">
         <v>930432</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="6" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6950,7 +7248,7 @@
       <c r="E48">
         <v>987507</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="6" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6958,7 +7256,7 @@
       <c r="E49">
         <v>715370</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6966,7 +7264,7 @@
       <c r="E50">
         <v>598212</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="6" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6974,7 +7272,7 @@
       <c r="E51">
         <v>628900</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="6" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6982,7 +7280,7 @@
       <c r="E52">
         <v>747546</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6990,7 +7288,7 @@
       <c r="E53">
         <v>539885</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="6" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6998,7 +7296,7 @@
       <c r="E54">
         <v>582589</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="6" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7006,7 +7304,7 @@
       <c r="E55">
         <v>310307</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="6" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7014,7 +7312,7 @@
       <c r="E56">
         <v>340676</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="6" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7022,7 +7320,7 @@
       <c r="E57">
         <v>252164</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="6" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7030,7 +7328,7 @@
       <c r="E58">
         <v>157845</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="6" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7038,7 +7336,7 @@
       <c r="E59">
         <v>157825</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="6" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7046,7 +7344,7 @@
       <c r="E60">
         <v>96936</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="6" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7054,7 +7352,7 @@
       <c r="E61">
         <v>10425</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="6" t="s">
         <v>447</v>
       </c>
     </row>
@@ -7062,7 +7360,7 @@
       <c r="E62">
         <v>2207</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="6" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7070,7 +7368,7 @@
       <c r="E63">
         <v>993621</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="6" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7078,7 +7376,7 @@
       <c r="E64">
         <v>672475</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="6" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7086,7 +7384,7 @@
       <c r="E65">
         <v>785663</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="6" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7094,7 +7392,7 @@
       <c r="E66">
         <v>619778</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="6" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7102,7 +7400,7 @@
       <c r="E67">
         <v>791373</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="6" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7110,7 +7408,7 @@
       <c r="E68">
         <v>293768</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="6" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7118,7 +7416,7 @@
       <c r="E69">
         <v>277</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="6" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7126,7 +7424,7 @@
       <c r="E70">
         <v>762079</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="6" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7134,7 +7432,7 @@
       <c r="E71">
         <v>582909</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="6" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7142,7 +7440,7 @@
       <c r="E72">
         <v>543749</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="6" t="s">
         <v>458</v>
       </c>
     </row>
@@ -7150,7 +7448,7 @@
       <c r="E73">
         <v>457955</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="6" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7158,7 +7456,7 @@
       <c r="E74">
         <v>527004</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="6" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7166,7 +7464,7 @@
       <c r="E75">
         <v>403509</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="6" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7174,7 +7472,7 @@
       <c r="E76">
         <v>524625</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="6" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7182,7 +7480,7 @@
       <c r="E77">
         <v>50737</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="6" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7190,7 +7488,7 @@
       <c r="E78">
         <v>27957</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="6" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7198,7 +7496,7 @@
       <c r="E79">
         <v>438154</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="6" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7206,4 +7504,970 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="30.46875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" ht="16.8" spans="1:3">
+      <c r="A2" s="2">
+        <v>241100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:3">
+      <c r="A3" s="2">
+        <v>137635</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:3">
+      <c r="A4" s="2">
+        <v>194636</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:3">
+      <c r="A5" s="2">
+        <v>138181</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:3">
+      <c r="A6" s="2">
+        <v>126167</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:3">
+      <c r="A7" s="2">
+        <v>241097</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:3">
+      <c r="A8" s="2">
+        <v>87773</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:3">
+      <c r="A9" s="2">
+        <v>120317</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:3">
+      <c r="A10" s="2">
+        <v>227496</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:3">
+      <c r="A11" s="2">
+        <v>120317</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:3">
+      <c r="A12" s="2">
+        <v>223389</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:3">
+      <c r="A13" s="2">
+        <v>99962</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:3">
+      <c r="A14" s="2">
+        <v>46923</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:3">
+      <c r="A15" s="2">
+        <v>52814</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:3">
+      <c r="A16" s="2">
+        <v>79618</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:3">
+      <c r="A17" s="2">
+        <v>125952</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:3">
+      <c r="A18" s="2">
+        <v>126301</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:3">
+      <c r="A19" s="2">
+        <v>86430</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:3">
+      <c r="A20" s="2">
+        <v>118357</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1883</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="1:3">
+      <c r="A21" s="2">
+        <v>117488</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:3">
+      <c r="A22" s="2">
+        <v>90452</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:3">
+      <c r="A23" s="2">
+        <v>79618</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:3">
+      <c r="A24" s="2">
+        <v>83135</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="1:3">
+      <c r="A25" s="2">
+        <v>62084</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:3">
+      <c r="A26" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:3">
+      <c r="A27" s="2">
+        <v>79618</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:3">
+      <c r="A28" s="2">
+        <v>84231</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:3">
+      <c r="A29" s="2">
+        <v>90254</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:3">
+      <c r="A30" s="2">
+        <v>83135</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:3">
+      <c r="A31" s="2">
+        <v>62084</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:3">
+      <c r="A32" s="2">
+        <v>66871</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:3">
+      <c r="A33" s="2">
+        <v>62084</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:3">
+      <c r="A34" s="2">
+        <v>70390</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:3">
+      <c r="A35" s="2">
+        <v>66871</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:3">
+      <c r="A36" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="1:3">
+      <c r="A37" s="2">
+        <v>64421</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:3">
+      <c r="A38" s="2">
+        <v>62425</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:3">
+      <c r="A39" s="2">
+        <v>56336</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:3">
+      <c r="A40" s="2">
+        <v>61239</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="1:3">
+      <c r="A41" s="2">
+        <v>64593</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:3">
+      <c r="A42" s="2">
+        <v>46643</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="1:3">
+      <c r="A43" s="2">
+        <v>62084</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="1:3">
+      <c r="A44" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="1:3">
+      <c r="A45" s="2">
+        <v>62425</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="1:3">
+      <c r="A46" s="2">
+        <v>56336</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="1:3">
+      <c r="A47" s="2">
+        <v>61239</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="1:3">
+      <c r="A48" s="2">
+        <v>47224</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="1:3">
+      <c r="A49" s="2">
+        <v>46643</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="1:3">
+      <c r="A50" s="2">
+        <v>62084</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="1:3">
+      <c r="A51" s="2">
+        <v>67961</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="1:3">
+      <c r="A52" s="2">
+        <v>64421</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:3">
+      <c r="A53" s="2">
+        <v>49010</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:3">
+      <c r="A54" s="2">
+        <v>62208</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:3">
+      <c r="A55" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:3">
+      <c r="A56" s="2">
+        <v>62425</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:3">
+      <c r="A57" s="2">
+        <v>46643</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:3">
+      <c r="A58" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:3">
+      <c r="A59" s="2">
+        <v>49010</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:3">
+      <c r="A60" s="2">
+        <v>295144</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:3">
+      <c r="A61" s="2">
+        <v>46746</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:3">
+      <c r="A62" s="2">
+        <v>46511</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:3">
+      <c r="A63" s="2">
+        <v>46643</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:3">
+      <c r="A64" s="2">
+        <v>62717</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:3">
+      <c r="A65" s="2">
+        <v>56484</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="1:3">
+      <c r="A66" s="2">
+        <v>49010</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:3">
+      <c r="A67" s="2">
+        <v>46746</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="1:3">
+      <c r="A68" s="2">
+        <v>46511</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="16.8" spans="1:3">
+      <c r="A69" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="1:3">
+      <c r="A70" s="2">
+        <v>56336</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="16.8" spans="1:3">
+      <c r="A71" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="1:3">
+      <c r="A72" s="2">
+        <v>39718</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="1:3">
+      <c r="A73" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="1:3">
+      <c r="A74" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="1:3">
+      <c r="A75" s="2">
+        <v>39718</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="1:3">
+      <c r="A76" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="1:3">
+      <c r="A77" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="1:3">
+      <c r="A78" s="2">
+        <v>28379</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="16.8" spans="1:3">
+      <c r="A79" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="16.8" spans="1:3">
+      <c r="A80" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C80" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" ht="16.8" spans="1:3">
+      <c r="A81" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C81" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" ht="16.8" spans="1:3">
+      <c r="A82" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" ht="16.8" spans="1:3">
+      <c r="A83" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" ht="16.8" spans="1:3">
+      <c r="A84" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" ht="16.8" spans="1:3">
+      <c r="A85" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" ht="16.8" spans="1:3">
+      <c r="A86" s="2">
+        <v>4046</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="555">
   <si>
     <t>编号</t>
   </si>
@@ -1607,78 +1607,159 @@
     <t>贝茨先生诉邮局</t>
   </si>
   <si>
+    <t>复生 第二季</t>
+  </si>
+  <si>
     <t>作秀公审 第二季</t>
   </si>
   <si>
+    <t>乌托邦 第二季</t>
+  </si>
+  <si>
     <t>凯伦·皮里 第二季</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第一季</t>
+  </si>
+  <si>
     <t>塔楼 第三季</t>
   </si>
   <si>
+    <t>英伦魔法师</t>
+  </si>
+  <si>
     <t>不眠 第二季</t>
   </si>
   <si>
+    <t>彭伯利谋杀案</t>
+  </si>
+  <si>
     <t>洪水之后</t>
   </si>
   <si>
+    <t>堕落 第一季</t>
+  </si>
+  <si>
     <t>迷失海湾 第五季</t>
   </si>
   <si>
+    <t>复生 第一季</t>
+  </si>
+  <si>
     <t>格雷斯 第四季</t>
   </si>
   <si>
+    <t>乌托邦 第一季</t>
+  </si>
+  <si>
     <t>迪莉娅的证词（原：直到我杀了你）</t>
   </si>
   <si>
+    <t>超越时间线 第三季</t>
+  </si>
+  <si>
     <t>格雷斯 第三季</t>
   </si>
   <si>
+    <t>边隧谜案 第一季</t>
+  </si>
+  <si>
     <t>渎职</t>
   </si>
   <si>
+    <t>重任在肩S1</t>
+  </si>
+  <si>
     <t>探案拍档 第四季</t>
   </si>
   <si>
+    <t>演播时刻 第二季</t>
+  </si>
+  <si>
     <t>设得兰谜案 第七季</t>
   </si>
   <si>
+    <t>超越时间线 第一季</t>
+  </si>
+  <si>
     <t>光环 第一季</t>
   </si>
   <si>
+    <t>超越时间线 第二季</t>
+  </si>
+  <si>
     <t>山巅之城 第三季</t>
   </si>
   <si>
+    <t>演播时刻 第一季</t>
+  </si>
+  <si>
     <t>仁医莎姆</t>
   </si>
   <si>
+    <t>军情五处 第十季</t>
+  </si>
+  <si>
     <t>超蓬勃：优步之战 第一季</t>
   </si>
   <si>
+    <t>军情五处 第九季</t>
+  </si>
+  <si>
     <t>法官大人 第二季</t>
   </si>
   <si>
+    <t>安妮日记</t>
+  </si>
+  <si>
+    <t>军情五处 第八季</t>
+  </si>
+  <si>
     <t>黄蜂 第一季</t>
   </si>
   <si>
+    <t>军情五处 第七季</t>
+  </si>
+  <si>
     <t>说出你的秘密</t>
   </si>
   <si>
+    <t>军情五处 第六季</t>
+  </si>
+  <si>
     <t>山巅之城 第二季</t>
   </si>
   <si>
+    <t>军情五处 第五季</t>
+  </si>
+  <si>
     <t>新阴阳魔界 第二季</t>
   </si>
   <si>
+    <t>军情五处 第四季</t>
+  </si>
+  <si>
     <t>波尔达克 第五季</t>
   </si>
   <si>
+    <t>军情五处 第三季</t>
+  </si>
+  <si>
     <t>重任在肩S5</t>
   </si>
   <si>
+    <t>军情五处 第二季</t>
+  </si>
+  <si>
     <t>山巅之城 第一季</t>
   </si>
   <si>
+    <t>军情五处 第一季</t>
+  </si>
+  <si>
     <t>韦恩 第一季</t>
   </si>
   <si>
@@ -1778,82 +1859,7 @@
     <t>奇妙人生</t>
   </si>
   <si>
-    <t>复生 第二季</t>
-  </si>
-  <si>
-    <t>乌托邦 第二季</t>
-  </si>
-  <si>
-    <t>塞尔福里奇先生 第一季</t>
-  </si>
-  <si>
-    <t>英伦魔法师</t>
-  </si>
-  <si>
-    <t>彭伯利谋杀案</t>
-  </si>
-  <si>
-    <t>堕落 第一季</t>
-  </si>
-  <si>
-    <t>复生 第一季</t>
-  </si>
-  <si>
-    <t>乌托邦 第一季</t>
-  </si>
-  <si>
-    <t>超越时间线 第三季</t>
-  </si>
-  <si>
-    <t>边隧谜案 第一季</t>
-  </si>
-  <si>
-    <t>重任在肩S1</t>
-  </si>
-  <si>
-    <t>演播时刻 第二季</t>
-  </si>
-  <si>
-    <t>超越时间线 第一季</t>
-  </si>
-  <si>
-    <t>超越时间线 第二季</t>
-  </si>
-  <si>
-    <t>演播时刻 第一季</t>
-  </si>
-  <si>
-    <t>军情五处 第十季</t>
-  </si>
-  <si>
-    <t>军情五处 第九季</t>
-  </si>
-  <si>
-    <t>安妮日记</t>
-  </si>
-  <si>
-    <t>军情五处 第八季</t>
-  </si>
-  <si>
-    <t>军情五处 第七季</t>
-  </si>
-  <si>
-    <t>军情五处 第六季</t>
-  </si>
-  <si>
-    <t>军情五处 第五季</t>
-  </si>
-  <si>
-    <t>军情五处 第四季</t>
-  </si>
-  <si>
-    <t>军情五处 第三季</t>
-  </si>
-  <si>
-    <t>军情五处 第二季</t>
-  </si>
-  <si>
-    <t>军情五处 第一季</t>
+    <t>？</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1869,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1923,11 +1929,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1938,6 +1943,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1953,52 +2036,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2008,30 +2045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2045,18 +2059,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2069,7 +2075,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2081,19 +2225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,73 +2237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,73 +2255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,17 +2302,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2326,11 +2326,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2347,16 +2353,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2378,37 +2384,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2417,106 +2417,112 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2529,13 +2535,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2877,13 +2883,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4645,13 +4651,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4695,13 +4701,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4796,602 +4802,602 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>10009</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>85</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>10022</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>10083</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>79</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>10117</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>10161</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>94</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>10174</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>102</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>10190</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>10222</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>10225</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10226</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>10227</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>10231</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>10232</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>10236</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>10239</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>10266</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>10300</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>10399</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>10427</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>10430</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>10453</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>10454</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>10463</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>10592</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
         <v>149</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>10595</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>10607</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
         <v>5</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>10646</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
         <v>13</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>10649</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>10650</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5416,1402 +5422,1402 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>10734</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
         <v>146</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>10735</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>10737</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
         <v>118</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>10738</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
         <v>118</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>10758</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>10768</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
         <v>6</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>10772</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
         <v>146</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>10776</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
         <v>149</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>10791</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>10793</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>10820</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
         <v>6</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>10824</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
         <v>149</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>10826</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
         <v>5</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>10828</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
         <v>6</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>10838</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>10857</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
         <v>2</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>10868</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
         <v>149</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>10877</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
         <v>2</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>10930</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
         <v>149</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>11105</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
         <v>149</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>11117</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
         <v>2</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>11123</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
         <v>2</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>11125</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
         <v>5</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>11159</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
         <v>146</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>11196</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
         <v>146</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>11203</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
         <v>2</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>11208</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
         <v>5</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>11250</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
         <v>118</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>11252</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
         <v>118</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>11253</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
         <v>118</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>11884</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>3</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
         <v>124</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>12254</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>3</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="4">
         <v>118</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>15222</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>3</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="4">
         <v>122</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>19065</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>3</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="4">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>20959</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>3</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="4">
         <v>122</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>26539</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>3</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <v>122</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>34284</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <v>3</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <v>122</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>36717</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>3</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <v>122</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>37426</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>3</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <v>122</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>37678</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>3</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <v>122</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>38345</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <v>3</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="4">
         <v>122</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>38455</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <v>3</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <v>122</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>38695</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <v>3</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <v>122</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>38732</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <v>3</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <v>122</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>38865</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <v>3</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <v>122</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>39709</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <v>3</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <v>122</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>39743</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <v>3</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <v>122</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>41443</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <v>3</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <v>122</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>47125</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="4">
         <v>3</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <v>150</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>47259</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <v>3</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <v>150</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>47572</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <v>3</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="4">
         <v>150</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>47618</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <v>3</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <v>150</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>47678</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <v>3</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <v>150</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>48183</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <v>3</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <v>22</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>48303</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <v>3</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <v>150</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>48365</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <v>3</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <v>150</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>48565</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <v>3</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="4">
         <v>150</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>48816</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <v>3</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="4">
         <v>150</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>48864</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <v>3</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <v>150</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="4" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>48919</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <v>3</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <v>150</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="4" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>48955</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <v>3</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="4">
         <v>150</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>49009</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <v>3</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="4">
         <v>150</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>49039</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <v>3</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <v>150</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>49071</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <v>3</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <v>150</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>49551</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <v>3</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <v>2</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>50038</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <v>3</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <v>150</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>51577</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <v>3</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <v>150</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>51835</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <v>3</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="4">
         <v>150</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>52026</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <v>3</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="4">
         <v>150</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>52459</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>3</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="4">
         <v>150</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="4" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6833,22 +6839,22 @@
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6856,7 +6862,7 @@
       <c r="A2">
         <v>1133008</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="7">
@@ -6876,7 +6882,7 @@
       <c r="E3" s="7">
         <v>1229349</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6890,7 +6896,7 @@
       <c r="E4" s="7">
         <v>693134</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6904,7 +6910,7 @@
       <c r="E5" s="7">
         <v>823464</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6992,7 +6998,7 @@
       <c r="E16">
         <v>782054</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7016,7 +7022,7 @@
       <c r="E19">
         <v>293021</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7032,7 +7038,7 @@
       <c r="E21">
         <v>1133008</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7509,13 +7515,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="30.46875" customWidth="1"/>
   </cols>
@@ -7531,7 +7537,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:3">
+    <row r="2" ht="16.8" spans="1:12">
       <c r="A2" s="2">
         <v>241100</v>
       </c>
@@ -7541,195 +7547,525 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:3">
+      <c r="E2" s="2">
+        <v>241100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>46746</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="2">
         <v>137635</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:3">
+      <c r="E3" s="2">
+        <v>137635</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>46511</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:12">
       <c r="A4" s="2">
         <v>194636</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:3">
+      <c r="E4" s="2">
+        <v>194636</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="2">
+        <v>46643</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="2">
         <v>138181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="16.8" spans="1:3">
+      <c r="E5" s="2">
+        <v>138181</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>62717</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
       <c r="A6" s="2">
         <v>126167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" ht="16.8" spans="1:3">
+      <c r="E6" s="2">
+        <v>126167</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>56484</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="2">
         <v>241097</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="16.8" spans="1:3">
+      <c r="E7" s="2">
+        <v>241097</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>49010</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:12">
       <c r="A8" s="2">
         <v>87773</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" ht="16.8" spans="1:3">
+      <c r="E8" s="2">
+        <v>87773</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>474</v>
+      </c>
+      <c r="J8" s="2">
+        <v>46746</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:12">
       <c r="A9" s="2">
         <v>120317</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" ht="16.8" spans="1:3">
+      <c r="E9" s="2">
+        <v>120317</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>46511</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:12">
       <c r="A10" s="2">
         <v>227496</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="16.8" spans="1:3">
+      <c r="E10" s="2">
+        <v>227496</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43020</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:12">
       <c r="A11" s="2">
         <v>120317</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" ht="16.8" spans="1:3">
+      <c r="E11" s="2">
+        <v>120317</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>56336</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:12">
       <c r="A12" s="2">
         <v>223389</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="16.8" spans="1:3">
+      <c r="E12" s="2">
+        <v>223389</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>43982</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:12">
       <c r="A13" s="2">
         <v>99962</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" ht="16.8" spans="1:3">
+      <c r="E13" s="2">
+        <v>99962</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>39718</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:12">
       <c r="A14" s="2">
         <v>46923</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" ht="16.8" spans="1:3">
+      <c r="E14" s="2">
+        <v>46923</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43020</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:12">
       <c r="A15" s="2">
         <v>52814</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" ht="16.8" spans="1:3">
+      <c r="E15" s="2">
+        <v>52814</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>43020</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:12">
       <c r="A16" s="2">
         <v>79618</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" ht="16.8" spans="1:3">
+      <c r="E16" s="2">
+        <v>79618</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>39718</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:12">
       <c r="A17" s="2">
         <v>125952</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" ht="16.8" spans="1:3">
+      <c r="E17" s="2">
+        <v>125952</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:12">
       <c r="A18" s="2">
         <v>126301</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" ht="16.8" spans="1:3">
+      <c r="E18" s="2">
+        <v>126301</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:12">
       <c r="A19" s="2">
         <v>86430</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" ht="16.8" spans="1:3">
+      <c r="E19" s="2">
+        <v>86430</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>28379</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:12">
       <c r="A20" s="2">
         <v>118357</v>
       </c>
@@ -7739,730 +8075,1408 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" ht="16.8" spans="1:3">
+      <c r="E20" s="2">
+        <v>118357</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1883</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="L20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="1:12">
       <c r="A21" s="2">
         <v>117488</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" ht="16.8" spans="1:3">
+      <c r="E21" s="2">
+        <v>117488</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:12">
       <c r="A22" s="2">
         <v>90452</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" ht="16.8" spans="1:3">
+      <c r="E22" s="2">
+        <v>90452</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:12">
       <c r="A23" s="2">
         <v>79618</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" ht="16.8" spans="1:3">
+      <c r="E23" s="2">
+        <v>79618</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:12">
       <c r="A24" s="2">
         <v>83135</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" ht="16.8" spans="1:3">
+      <c r="E24" s="2">
+        <v>83135</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="1:12">
       <c r="A25" s="2">
         <v>62084</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" ht="16.8" spans="1:3">
+      <c r="E25" s="2">
+        <v>62084</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:12">
       <c r="A26" s="2">
         <v>43982</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" ht="16.8" spans="1:3">
+      <c r="E26" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:12">
       <c r="A27" s="2">
         <v>79618</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" ht="16.8" spans="1:3">
+      <c r="E27" s="2">
+        <v>79618</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4046</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:7">
       <c r="A28" s="2">
         <v>84231</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" ht="16.8" spans="1:3">
+      <c r="E28" s="2">
+        <v>84231</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:7">
       <c r="A29" s="2">
         <v>90254</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" ht="16.8" spans="1:3">
+      <c r="E29" s="2">
+        <v>90254</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:7">
       <c r="A30" s="2">
         <v>83135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" ht="16.8" spans="1:3">
+      <c r="E30" s="2">
+        <v>83135</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:7">
       <c r="A31" s="2">
         <v>62084</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" ht="16.8" spans="1:3">
+      <c r="E31" s="2">
+        <v>62084</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:7">
       <c r="A32" s="2">
         <v>66871</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" ht="16.8" spans="1:3">
+      <c r="E32" s="2">
+        <v>66871</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:7">
       <c r="A33" s="2">
         <v>62084</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" ht="16.8" spans="1:3">
+      <c r="E33" s="2">
+        <v>62084</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:7">
       <c r="A34" s="2">
         <v>70390</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" ht="16.8" spans="1:3">
+      <c r="E34" s="2">
+        <v>70390</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:7">
       <c r="A35" s="2">
         <v>66871</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" ht="16.8" spans="1:3">
+      <c r="E35" s="2">
+        <v>66871</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:7">
       <c r="A36" s="2">
         <v>43982</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" ht="16.8" spans="1:3">
+      <c r="E36" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="1:7">
       <c r="A37" s="2">
         <v>64421</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" ht="16.8" spans="1:3">
+      <c r="E37" s="2">
+        <v>64421</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:7">
       <c r="A38" s="2">
         <v>62425</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" ht="16.8" spans="1:3">
+      <c r="E38" s="2">
+        <v>62425</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:7">
       <c r="A39" s="2">
         <v>56336</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" ht="16.8" spans="1:3">
+      <c r="E39" s="2">
+        <v>56336</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:7">
       <c r="A40" s="2">
         <v>61239</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" ht="16.8" spans="1:3">
+      <c r="E40" s="2">
+        <v>61239</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="1:7">
       <c r="A41" s="2">
         <v>64593</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" ht="16.8" spans="1:3">
+      <c r="E41" s="2">
+        <v>64593</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:7">
       <c r="A42" s="2">
         <v>46643</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" ht="16.8" spans="1:3">
+      <c r="E42" s="2">
+        <v>46643</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="1:7">
       <c r="A43" s="2">
         <v>62084</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" ht="16.8" spans="1:3">
+      <c r="E43" s="2">
+        <v>62084</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="1:7">
       <c r="A44" s="2">
         <v>43982</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" ht="16.8" spans="1:3">
+      <c r="E44" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="1:7">
       <c r="A45" s="2">
         <v>62425</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" ht="16.8" spans="1:3">
+      <c r="E45" s="2">
+        <v>62425</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="1:7">
       <c r="A46" s="2">
         <v>56336</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C46" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" ht="16.8" spans="1:3">
+      <c r="E46" s="2">
+        <v>56336</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="1:7">
       <c r="A47" s="2">
         <v>61239</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" ht="16.8" spans="1:3">
+      <c r="E47" s="2">
+        <v>61239</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="1:7">
       <c r="A48" s="2">
         <v>47224</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" ht="16.8" spans="1:3">
+      <c r="E48" s="2">
+        <v>47224</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="1:7">
       <c r="A49" s="2">
         <v>46643</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" ht="16.8" spans="1:3">
+      <c r="E49" s="2">
+        <v>46643</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="1:7">
       <c r="A50" s="2">
         <v>62084</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" ht="16.8" spans="1:3">
+      <c r="E50" s="2">
+        <v>62084</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="1:7">
       <c r="A51" s="2">
         <v>67961</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" ht="16.8" spans="1:3">
+      <c r="E51" s="2">
+        <v>67961</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="1:7">
       <c r="A52" s="2">
         <v>64421</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" ht="16.8" spans="1:3">
+      <c r="E52" s="2">
+        <v>64421</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:7">
       <c r="A53" s="2">
         <v>49010</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" ht="16.8" spans="1:3">
+      <c r="E53" s="2">
+        <v>49010</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:7">
       <c r="A54" s="2">
         <v>62208</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" ht="16.8" spans="1:3">
+      <c r="E54" s="2">
+        <v>62208</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:7">
       <c r="A55" s="2">
         <v>43020</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" ht="16.8" spans="1:3">
+      <c r="E55" s="2">
+        <v>43020</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:7">
       <c r="A56" s="2">
         <v>62425</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" ht="16.8" spans="1:3">
+      <c r="E56" s="2">
+        <v>62425</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:7">
       <c r="A57" s="2">
         <v>46643</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C57" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" ht="16.8" spans="1:3">
+      <c r="E57" s="2">
+        <v>46643</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:7">
       <c r="A58" s="2">
         <v>43982</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" ht="16.8" spans="1:3">
+      <c r="E58" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:7">
       <c r="A59" s="2">
         <v>49010</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" ht="16.8" spans="1:3">
+      <c r="E59" s="2">
+        <v>49010</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:8">
       <c r="A60" s="2">
         <v>295144</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" ht="16.8" spans="1:3">
+      <c r="E60" s="2">
+        <v>295144</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:7">
       <c r="A61" s="2">
         <v>46746</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" ht="16.8" spans="1:3">
+      <c r="E61" s="2">
+        <v>46746</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:7">
       <c r="A62" s="2">
         <v>46511</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" ht="16.8" spans="1:3">
+      <c r="E62" s="2">
+        <v>46511</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:7">
       <c r="A63" s="2">
         <v>46643</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>529</v>
+        <v>475</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" ht="16.8" spans="1:3">
+      <c r="E63" s="2">
+        <v>46643</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:7">
       <c r="A64" s="2">
         <v>62717</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" ht="16.8" spans="1:3">
+      <c r="E64" s="2">
+        <v>62717</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:7">
       <c r="A65" s="2">
         <v>56484</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" ht="16.8" spans="1:3">
+      <c r="E65" s="2">
+        <v>56484</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="1:7">
       <c r="A66" s="2">
         <v>49010</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" ht="16.8" spans="1:3">
+      <c r="E66" s="2">
+        <v>49010</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:7">
       <c r="A67" s="2">
         <v>46746</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" ht="16.8" spans="1:3">
+      <c r="E67" s="2">
+        <v>46746</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="1:7">
       <c r="A68" s="2">
         <v>46511</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" ht="16.8" spans="1:3">
+      <c r="E68" s="2">
+        <v>46511</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="16.8" spans="1:7">
       <c r="A69" s="2">
         <v>43020</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" ht="16.8" spans="1:3">
+      <c r="E69" s="2">
+        <v>43020</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="1:7">
       <c r="A70" s="2">
         <v>56336</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" ht="16.8" spans="1:3">
+      <c r="E70" s="2">
+        <v>56336</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="16.8" spans="1:7">
       <c r="A71" s="2">
         <v>43982</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" ht="16.8" spans="1:3">
+      <c r="E71" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="1:7">
       <c r="A72" s="2">
         <v>39718</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="C72" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" ht="16.8" spans="1:3">
+      <c r="E72" s="2">
+        <v>39718</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="1:7">
       <c r="A73" s="2">
         <v>43020</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" ht="16.8" spans="1:3">
+      <c r="E73" s="2">
+        <v>43020</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="1:7">
       <c r="A74" s="2">
         <v>43020</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" ht="16.8" spans="1:3">
+      <c r="E74" s="2">
+        <v>43020</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="1:7">
       <c r="A75" s="2">
         <v>39718</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" ht="16.8" spans="1:3">
+      <c r="E75" s="2">
+        <v>39718</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="1:7">
       <c r="A76" s="2">
         <v>4046</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" ht="16.8" spans="1:3">
+      <c r="E76" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="1:7">
       <c r="A77" s="2">
         <v>4046</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" ht="16.8" spans="1:3">
+      <c r="E77" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="1:7">
       <c r="A78" s="2">
         <v>28379</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" ht="16.8" spans="1:3">
+      <c r="E78" s="2">
+        <v>28379</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="16.8" spans="1:7">
       <c r="A79" s="2">
         <v>4046</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="C79" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" ht="16.8" spans="1:3">
+      <c r="E79" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G79" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="16.8" spans="1:7">
       <c r="A80" s="2">
         <v>4046</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" ht="16.8" spans="1:3">
+      <c r="E80" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" ht="16.8" spans="1:7">
       <c r="A81" s="2">
         <v>4046</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" ht="16.8" spans="1:3">
+      <c r="E81" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" ht="16.8" spans="1:7">
       <c r="A82" s="2">
         <v>4046</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="C82" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" ht="16.8" spans="1:3">
+      <c r="E82" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" ht="16.8" spans="1:7">
       <c r="A83" s="2">
         <v>4046</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="C83" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" ht="16.8" spans="1:3">
+      <c r="E83" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" ht="16.8" spans="1:7">
       <c r="A84" s="2">
         <v>4046</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" ht="16.8" spans="1:3">
+      <c r="E84" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" ht="16.8" spans="1:7">
       <c r="A85" s="2">
         <v>4046</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" ht="16.8" spans="1:3">
+      <c r="E85" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" ht="16.8" spans="1:7">
       <c r="A86" s="2">
         <v>4046</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4046</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G86" s="2">
         <v>1</v>
       </c>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1868,9 +1868,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1922,8 +1922,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1936,8 +1937,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1952,18 +1992,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1976,38 +2008,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2022,15 +2030,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2051,18 +2051,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2075,7 +2075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,31 +2105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,103 +2123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,7 +2147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,7 +2159,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,18 +2286,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2311,42 +2319,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2367,111 +2343,135 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2480,52 +2480,52 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7517,8 +7517,8 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7556,6 +7556,9 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" s="2">
         <v>46746</v>
       </c>
@@ -7585,6 +7588,9 @@
       <c r="G3" s="2">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3" s="2">
         <v>46511</v>
       </c>
@@ -7646,6 +7652,9 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5" s="2">
         <v>62717</v>
       </c>
@@ -7675,6 +7684,9 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6" s="2">
         <v>56484</v>
       </c>
@@ -7704,6 +7716,9 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7" s="2">
         <v>49010</v>
       </c>
@@ -7765,6 +7780,9 @@
       <c r="G9" s="2">
         <v>4</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9" s="2">
         <v>46511</v>
       </c>
@@ -7794,6 +7812,9 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10" s="2">
         <v>43020</v>
       </c>
@@ -7823,6 +7844,9 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11" s="2">
         <v>56336</v>
       </c>
@@ -7852,6 +7876,9 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12" s="2">
         <v>43982</v>
       </c>
@@ -7881,6 +7908,9 @@
       <c r="G13" s="2">
         <v>4</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13" s="2">
         <v>39718</v>
       </c>
@@ -7910,6 +7940,9 @@
       <c r="G14" s="2">
         <v>7</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" s="2">
         <v>43020</v>
       </c>
@@ -7939,6 +7972,9 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" s="2">
         <v>43020</v>
       </c>
@@ -7968,6 +8004,9 @@
       <c r="G16" s="2">
         <v>3</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="J16" s="2">
         <v>39718</v>
       </c>
@@ -7997,6 +8036,9 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17" s="2">
         <v>4046</v>
       </c>
@@ -8026,6 +8068,9 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18" s="2">
         <v>4046</v>
       </c>
@@ -8055,6 +8100,9 @@
       <c r="G19" s="2">
         <v>2</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19" s="2">
         <v>28379</v>
       </c>
@@ -8084,6 +8132,9 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20" s="2">
         <v>4046</v>
       </c>
@@ -8113,6 +8164,9 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21" s="2">
         <v>4046</v>
       </c>
@@ -8142,6 +8196,9 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22" s="2">
         <v>4046</v>
       </c>
@@ -8171,6 +8228,9 @@
       <c r="G23" s="2">
         <v>2</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
       <c r="J23" s="2">
         <v>4046</v>
       </c>
@@ -8200,6 +8260,9 @@
       <c r="G24" s="2">
         <v>2</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24" s="2">
         <v>4046</v>
       </c>
@@ -8229,6 +8292,9 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25" s="2">
         <v>4046</v>
       </c>
@@ -8258,6 +8324,9 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26" s="2">
         <v>4046</v>
       </c>
@@ -8287,6 +8356,9 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27" s="2">
         <v>4046</v>
       </c>
@@ -8297,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="16.8" spans="1:7">
+    <row r="28" ht="16.8" spans="1:9">
       <c r="A28" s="2">
         <v>84231</v>
       </c>
@@ -8316,8 +8388,11 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" ht="16.8" spans="1:7">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:9">
       <c r="A29" s="2">
         <v>90254</v>
       </c>
@@ -8336,8 +8411,11 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" ht="16.8" spans="1:7">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:9">
       <c r="A30" s="2">
         <v>83135</v>
       </c>
@@ -8356,8 +8434,11 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" ht="16.8" spans="1:7">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:9">
       <c r="A31" s="2">
         <v>62084</v>
       </c>
@@ -8376,8 +8457,11 @@
       <c r="G31" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" ht="16.8" spans="1:7">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:9">
       <c r="A32" s="2">
         <v>66871</v>
       </c>
@@ -8396,8 +8480,11 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" ht="16.8" spans="1:7">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:9">
       <c r="A33" s="2">
         <v>62084</v>
       </c>
@@ -8416,8 +8503,11 @@
       <c r="G33" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" ht="16.8" spans="1:7">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:9">
       <c r="A34" s="2">
         <v>70390</v>
       </c>
@@ -8434,6 +8524,9 @@
         <v>527</v>
       </c>
       <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
     </row>
@@ -8937,44 +9030,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" ht="16.8" spans="1:8">
+    <row r="60" ht="16.8" spans="1:7">
       <c r="A60" s="2">
-        <v>295144</v>
+        <v>46746</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2">
-        <v>295144</v>
+        <v>46746</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>554</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="1:7">
       <c r="A61" s="2">
-        <v>46746</v>
+        <v>46511</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="E61" s="2">
-        <v>46746</v>
+        <v>46511</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
@@ -8982,39 +9072,39 @@
     </row>
     <row r="62" ht="16.8" spans="1:7">
       <c r="A62" s="2">
-        <v>46511</v>
+        <v>46643</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>46511</v>
+        <v>46643</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="16.8" spans="1:7">
       <c r="A63" s="2">
-        <v>46643</v>
+        <v>62717</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="E63" s="2">
-        <v>46643</v>
+        <v>62717</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -9022,19 +9112,19 @@
     </row>
     <row r="64" ht="16.8" spans="1:7">
       <c r="A64" s="2">
-        <v>62717</v>
+        <v>56484</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>62717</v>
+        <v>56484</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -9042,19 +9132,19 @@
     </row>
     <row r="65" ht="16.8" spans="1:7">
       <c r="A65" s="2">
-        <v>56484</v>
+        <v>49010</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="E65" s="2">
-        <v>56484</v>
+        <v>49010</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -9062,19 +9152,19 @@
     </row>
     <row r="66" ht="16.8" spans="1:7">
       <c r="A66" s="2">
-        <v>49010</v>
+        <v>46746</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>49010</v>
+        <v>46746</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -9082,19 +9172,19 @@
     </row>
     <row r="67" ht="16.8" spans="1:7">
       <c r="A67" s="2">
-        <v>46746</v>
+        <v>46511</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>46746</v>
+        <v>46511</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -9102,59 +9192,59 @@
     </row>
     <row r="68" ht="16.8" spans="1:7">
       <c r="A68" s="2">
-        <v>46511</v>
+        <v>43020</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2">
-        <v>46511</v>
+        <v>43020</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="16.8" spans="1:7">
       <c r="A69" s="2">
-        <v>43020</v>
+        <v>56336</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>43020</v>
+        <v>56336</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="16.8" spans="1:7">
       <c r="A70" s="2">
-        <v>56336</v>
+        <v>43982</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="E70" s="2">
-        <v>56336</v>
+        <v>43982</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -9162,42 +9252,42 @@
     </row>
     <row r="71" ht="16.8" spans="1:7">
       <c r="A71" s="2">
-        <v>43982</v>
+        <v>39718</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2">
-        <v>43982</v>
+        <v>39718</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" ht="16.8" spans="1:7">
       <c r="A72" s="2">
-        <v>39718</v>
+        <v>43020</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>39718</v>
+        <v>43020</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="16.8" spans="1:7">
@@ -9205,56 +9295,56 @@
         <v>43020</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
         <v>43020</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" ht="16.8" spans="1:7">
       <c r="A74" s="2">
-        <v>43020</v>
+        <v>39718</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2">
-        <v>43020</v>
+        <v>39718</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="16.8" spans="1:7">
       <c r="A75" s="2">
-        <v>39718</v>
+        <v>4046</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
       </c>
       <c r="E75" s="2">
-        <v>39718</v>
+        <v>4046</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -9265,7 +9355,7 @@
         <v>4046</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -9274,7 +9364,7 @@
         <v>4046</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -9282,19 +9372,19 @@
     </row>
     <row r="77" ht="16.8" spans="1:7">
       <c r="A77" s="2">
-        <v>4046</v>
+        <v>28379</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="2">
-        <v>4046</v>
+        <v>28379</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -9302,22 +9392,22 @@
     </row>
     <row r="78" ht="16.8" spans="1:7">
       <c r="A78" s="2">
-        <v>28379</v>
+        <v>4046</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2">
-        <v>28379</v>
+        <v>4046</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="16.8" spans="1:7">
@@ -9325,19 +9415,19 @@
         <v>4046</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" s="2">
         <v>4046</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G79" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" ht="16.8" spans="1:7">
@@ -9345,19 +9435,19 @@
         <v>4046</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C80" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" s="2">
         <v>4046</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G80" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" ht="16.8" spans="1:7">
@@ -9365,19 +9455,19 @@
         <v>4046</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C81" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" s="2">
         <v>4046</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G81" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" ht="16.8" spans="1:7">
@@ -9385,19 +9475,19 @@
         <v>4046</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C82" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="2">
         <v>4046</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G82" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" ht="16.8" spans="1:7">
@@ -9405,19 +9495,19 @@
         <v>4046</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="2">
         <v>4046</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" ht="16.8" spans="1:7">
@@ -9425,19 +9515,19 @@
         <v>4046</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2">
         <v>4046</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" ht="16.8" spans="1:7">
@@ -9445,39 +9535,42 @@
         <v>4046</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2">
         <v>4046</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G85" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" ht="16.8" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" ht="16.8" spans="1:8">
       <c r="A86" s="2">
-        <v>4046</v>
+        <v>295144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
       </c>
       <c r="E86" s="2">
-        <v>4046</v>
+        <v>295144</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -7515,10 +7515,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -9530,7 +9530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" ht="16.8" spans="1:7">
+    <row r="85" ht="16.8" spans="1:15">
       <c r="A85" s="2">
         <v>4046</v>
       </c>
@@ -9549,27 +9549,25 @@
       <c r="G85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" ht="16.8" spans="1:8">
-      <c r="A86" s="2">
+      <c r="H85" s="2">
         <v>295144</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C86" s="2">
-        <v>1</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
         <v>295144</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G86" s="2">
-        <v>1</v>
-      </c>
-      <c r="H86" s="3" t="s">
+      <c r="N85" s="2">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3" t="s">
         <v>554</v>
       </c>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="555">
   <si>
     <t>编号</t>
   </si>
@@ -7515,15 +7515,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="30.46875" customWidth="1"/>
+    <col min="13" max="13" width="19.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
@@ -7611,15 +7612,6 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
-        <v>194636</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
       <c r="H4" t="s">
         <v>474</v>
       </c>
@@ -7643,15 +7635,6 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
-        <v>138181</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -7675,15 +7658,6 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>126167</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
@@ -7707,15 +7681,6 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>241097</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -7739,15 +7704,6 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
-        <v>87773</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
       <c r="H8" t="s">
         <v>474</v>
       </c>
@@ -7771,15 +7727,6 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
-        <v>120317</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -7803,15 +7750,6 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>227496</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
       <c r="I10">
         <v>1</v>
       </c>
@@ -7835,15 +7773,6 @@
       <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
-        <v>120317</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
       <c r="I11">
         <v>1</v>
       </c>
@@ -7867,15 +7796,6 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
-        <v>223389</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
       <c r="I12">
         <v>1</v>
       </c>
@@ -7899,15 +7819,6 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
-        <v>99962</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4</v>
-      </c>
       <c r="I13">
         <v>1</v>
       </c>
@@ -7931,15 +7842,6 @@
       <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="E14" s="2">
-        <v>46923</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G14" s="2">
-        <v>7</v>
-      </c>
       <c r="I14">
         <v>1</v>
       </c>
@@ -7963,15 +7865,6 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
-        <v>52814</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
       <c r="I15">
         <v>1</v>
       </c>
@@ -7995,15 +7888,6 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
-        <v>79618</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -8027,15 +7911,6 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
-        <v>125952</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -8059,15 +7934,6 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
-        <v>126301</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -8091,15 +7957,6 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
-        <v>86430</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -8123,15 +7980,6 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
-        <v>118357</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1883</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -8155,15 +8003,6 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>117488</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -8187,15 +8026,6 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
-        <v>90452</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
       <c r="I22">
         <v>1</v>
       </c>
@@ -8219,15 +8049,6 @@
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="2">
-        <v>79618</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -8251,15 +8072,6 @@
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="2">
-        <v>83135</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
       <c r="I24">
         <v>1</v>
       </c>
@@ -8283,15 +8095,6 @@
       <c r="C25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
-        <v>62084</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -8315,15 +8118,6 @@
       <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="2">
-        <v>43982</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
       <c r="I26">
         <v>1</v>
       </c>
@@ -8347,15 +8141,6 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
-        <v>79618</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
       <c r="I27">
         <v>1</v>
       </c>
@@ -8379,15 +8164,6 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
-        <v>84231</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
       <c r="I28">
         <v>1</v>
       </c>
@@ -8402,15 +8178,6 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2">
-        <v>90254</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -8425,15 +8192,6 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
-        <v>83135</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -8448,15 +8206,6 @@
       <c r="C31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="2">
-        <v>62084</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4</v>
-      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -8471,15 +8220,6 @@
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="E32" s="2">
-        <v>66871</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
       <c r="I32">
         <v>1</v>
       </c>
@@ -8494,15 +8234,6 @@
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
-        <v>62084</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G33" s="2">
-        <v>3</v>
-      </c>
       <c r="I33">
         <v>1</v>
       </c>
@@ -8517,20 +8248,11 @@
       <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
-        <v>70390</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="16.8" spans="1:7">
+    <row r="35" ht="16.8" spans="1:3">
       <c r="A35" s="2">
         <v>66871</v>
       </c>
@@ -8540,17 +8262,8 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
-        <v>66871</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="16.8" spans="1:7">
+    </row>
+    <row r="36" ht="16.8" spans="1:3">
       <c r="A36" s="2">
         <v>43982</v>
       </c>
@@ -8560,17 +8273,8 @@
       <c r="C36" s="2">
         <v>4</v>
       </c>
-      <c r="E36" s="2">
-        <v>43982</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" ht="16.8" spans="1:7">
+    </row>
+    <row r="37" ht="16.8" spans="1:3">
       <c r="A37" s="2">
         <v>64421</v>
       </c>
@@ -8580,17 +8284,8 @@
       <c r="C37" s="2">
         <v>2</v>
       </c>
-      <c r="E37" s="2">
-        <v>64421</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="16.8" spans="1:7">
+    </row>
+    <row r="38" ht="16.8" spans="1:3">
       <c r="A38" s="2">
         <v>62425</v>
       </c>
@@ -8600,17 +8295,8 @@
       <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="E38" s="2">
-        <v>62425</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" ht="16.8" spans="1:7">
+    </row>
+    <row r="39" ht="16.8" spans="1:3">
       <c r="A39" s="2">
         <v>56336</v>
       </c>
@@ -8620,17 +8306,8 @@
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
-        <v>56336</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" ht="16.8" spans="1:7">
+    </row>
+    <row r="40" ht="16.8" spans="1:3">
       <c r="A40" s="2">
         <v>61239</v>
       </c>
@@ -8640,17 +8317,8 @@
       <c r="C40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="2">
-        <v>61239</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="16.8" spans="1:7">
+    </row>
+    <row r="41" ht="16.8" spans="1:3">
       <c r="A41" s="2">
         <v>64593</v>
       </c>
@@ -8660,17 +8328,8 @@
       <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
-        <v>64593</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="16.8" spans="1:7">
+    </row>
+    <row r="42" ht="16.8" spans="1:3">
       <c r="A42" s="2">
         <v>46643</v>
       </c>
@@ -8680,17 +8339,8 @@
       <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="E42" s="2">
-        <v>46643</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" ht="16.8" spans="1:7">
+    </row>
+    <row r="43" ht="16.8" spans="1:3">
       <c r="A43" s="2">
         <v>62084</v>
       </c>
@@ -8700,17 +8350,8 @@
       <c r="C43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="2">
-        <v>62084</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" ht="16.8" spans="1:7">
+    </row>
+    <row r="44" ht="16.8" spans="1:3">
       <c r="A44" s="2">
         <v>43982</v>
       </c>
@@ -8720,17 +8361,8 @@
       <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="E44" s="2">
-        <v>43982</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" ht="16.8" spans="1:7">
+    </row>
+    <row r="45" ht="16.8" spans="1:3">
       <c r="A45" s="2">
         <v>62425</v>
       </c>
@@ -8740,17 +8372,8 @@
       <c r="C45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="2">
-        <v>62425</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" ht="16.8" spans="1:7">
+    </row>
+    <row r="46" ht="16.8" spans="1:3">
       <c r="A46" s="2">
         <v>56336</v>
       </c>
@@ -8760,17 +8383,8 @@
       <c r="C46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="2">
-        <v>56336</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" ht="16.8" spans="1:7">
+    </row>
+    <row r="47" ht="16.8" spans="1:3">
       <c r="A47" s="2">
         <v>61239</v>
       </c>
@@ -8780,17 +8394,8 @@
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
-        <v>61239</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="16.8" spans="1:7">
+    </row>
+    <row r="48" ht="16.8" spans="1:3">
       <c r="A48" s="2">
         <v>47224</v>
       </c>
@@ -8800,17 +8405,8 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
-        <v>47224</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="16.8" spans="1:7">
+    </row>
+    <row r="49" ht="16.8" spans="1:3">
       <c r="A49" s="2">
         <v>46643</v>
       </c>
@@ -8820,17 +8416,8 @@
       <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="E49" s="2">
-        <v>46643</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="G49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" ht="16.8" spans="1:7">
+    </row>
+    <row r="50" ht="16.8" spans="1:3">
       <c r="A50" s="2">
         <v>62084</v>
       </c>
@@ -8840,17 +8427,8 @@
       <c r="C50" s="2">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
-        <v>62084</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" ht="16.8" spans="1:7">
+    </row>
+    <row r="51" ht="16.8" spans="1:3">
       <c r="A51" s="2">
         <v>67961</v>
       </c>
@@ -8860,17 +8438,8 @@
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
-        <v>67961</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="16.8" spans="1:7">
+    </row>
+    <row r="52" ht="16.8" spans="1:3">
       <c r="A52" s="2">
         <v>64421</v>
       </c>
@@ -8880,17 +8449,8 @@
       <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
-        <v>64421</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="16.8" spans="1:7">
+    </row>
+    <row r="53" ht="16.8" spans="1:3">
       <c r="A53" s="2">
         <v>49010</v>
       </c>
@@ -8900,17 +8460,8 @@
       <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="E53" s="2">
-        <v>49010</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G53" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="16.8" spans="1:7">
+    </row>
+    <row r="54" ht="16.8" spans="1:3">
       <c r="A54" s="2">
         <v>62208</v>
       </c>
@@ -8920,17 +8471,8 @@
       <c r="C54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
-        <v>62208</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="16.8" spans="1:7">
+    </row>
+    <row r="55" ht="16.8" spans="1:3">
       <c r="A55" s="2">
         <v>43020</v>
       </c>
@@ -8940,17 +8482,8 @@
       <c r="C55" s="2">
         <v>4</v>
       </c>
-      <c r="E55" s="2">
-        <v>43020</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="G55" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" ht="16.8" spans="1:7">
+    </row>
+    <row r="56" ht="16.8" spans="1:3">
       <c r="A56" s="2">
         <v>62425</v>
       </c>
@@ -8960,17 +8493,8 @@
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="2">
-        <v>62425</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="16.8" spans="1:7">
+    </row>
+    <row r="57" ht="16.8" spans="1:3">
       <c r="A57" s="2">
         <v>46643</v>
       </c>
@@ -8980,17 +8504,8 @@
       <c r="C57" s="2">
         <v>2</v>
       </c>
-      <c r="E57" s="2">
-        <v>46643</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" ht="16.8" spans="1:7">
+    </row>
+    <row r="58" ht="16.8" spans="1:3">
       <c r="A58" s="2">
         <v>43982</v>
       </c>
@@ -9000,17 +8515,8 @@
       <c r="C58" s="2">
         <v>2</v>
       </c>
-      <c r="E58" s="2">
-        <v>43982</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" ht="16.8" spans="1:7">
+    </row>
+    <row r="59" ht="16.8" spans="1:3">
       <c r="A59" s="2">
         <v>49010</v>
       </c>
@@ -9020,17 +8526,8 @@
       <c r="C59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="2">
-        <v>49010</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" ht="16.8" spans="1:7">
+    </row>
+    <row r="60" ht="16.8" spans="1:3">
       <c r="A60" s="2">
         <v>46746</v>
       </c>
@@ -9040,17 +8537,8 @@
       <c r="C60" s="2">
         <v>2</v>
       </c>
-      <c r="E60" s="2">
-        <v>46746</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" ht="16.8" spans="1:7">
+    </row>
+    <row r="61" ht="16.8" spans="1:3">
       <c r="A61" s="2">
         <v>46511</v>
       </c>
@@ -9060,17 +8548,8 @@
       <c r="C61" s="2">
         <v>2</v>
       </c>
-      <c r="E61" s="2">
-        <v>46511</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" ht="16.8" spans="1:7">
+    </row>
+    <row r="62" ht="16.8" spans="1:3">
       <c r="A62" s="2">
         <v>46643</v>
       </c>
@@ -9080,17 +8559,8 @@
       <c r="C62" s="2">
         <v>1</v>
       </c>
-      <c r="E62" s="2">
-        <v>46643</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" ht="16.8" spans="1:7">
+    </row>
+    <row r="63" ht="16.8" spans="1:3">
       <c r="A63" s="2">
         <v>62717</v>
       </c>
@@ -9100,17 +8570,8 @@
       <c r="C63" s="2">
         <v>1</v>
       </c>
-      <c r="E63" s="2">
-        <v>62717</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="16.8" spans="1:7">
+    </row>
+    <row r="64" ht="16.8" spans="1:3">
       <c r="A64" s="2">
         <v>56484</v>
       </c>
@@ -9120,17 +8581,8 @@
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="E64" s="2">
-        <v>56484</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="16.8" spans="1:7">
+    </row>
+    <row r="65" ht="16.8" spans="1:3">
       <c r="A65" s="2">
         <v>49010</v>
       </c>
@@ -9140,17 +8592,8 @@
       <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="E65" s="2">
-        <v>49010</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" ht="16.8" spans="1:7">
+    </row>
+    <row r="66" ht="16.8" spans="1:3">
       <c r="A66" s="2">
         <v>46746</v>
       </c>
@@ -9160,17 +8603,8 @@
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="E66" s="2">
-        <v>46746</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="16.8" spans="1:7">
+    </row>
+    <row r="67" ht="16.8" spans="1:3">
       <c r="A67" s="2">
         <v>46511</v>
       </c>
@@ -9180,17 +8614,8 @@
       <c r="C67" s="2">
         <v>1</v>
       </c>
-      <c r="E67" s="2">
-        <v>46511</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" ht="16.8" spans="1:7">
+    </row>
+    <row r="68" ht="16.8" spans="1:3">
       <c r="A68" s="2">
         <v>43020</v>
       </c>
@@ -9200,17 +8625,8 @@
       <c r="C68" s="2">
         <v>3</v>
       </c>
-      <c r="E68" s="2">
-        <v>43020</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G68" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" ht="16.8" spans="1:7">
+    </row>
+    <row r="69" ht="16.8" spans="1:3">
       <c r="A69" s="2">
         <v>56336</v>
       </c>
@@ -9220,17 +8636,8 @@
       <c r="C69" s="2">
         <v>1</v>
       </c>
-      <c r="E69" s="2">
-        <v>56336</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" ht="16.8" spans="1:7">
+    </row>
+    <row r="70" ht="16.8" spans="1:3">
       <c r="A70" s="2">
         <v>43982</v>
       </c>
@@ -9240,17 +8647,8 @@
       <c r="C70" s="2">
         <v>1</v>
       </c>
-      <c r="E70" s="2">
-        <v>43982</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" ht="16.8" spans="1:7">
+    </row>
+    <row r="71" ht="16.8" spans="1:3">
       <c r="A71" s="2">
         <v>39718</v>
       </c>
@@ -9260,17 +8658,8 @@
       <c r="C71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="2">
-        <v>39718</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" ht="16.8" spans="1:7">
+    </row>
+    <row r="72" ht="16.8" spans="1:3">
       <c r="A72" s="2">
         <v>43020</v>
       </c>
@@ -9280,17 +8669,8 @@
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="E72" s="2">
-        <v>43020</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="16.8" spans="1:7">
+    </row>
+    <row r="73" ht="16.8" spans="1:3">
       <c r="A73" s="2">
         <v>43020</v>
       </c>
@@ -9300,17 +8680,8 @@
       <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="2">
-        <v>43020</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G73" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" ht="16.8" spans="1:7">
+    </row>
+    <row r="74" ht="16.8" spans="1:3">
       <c r="A74" s="2">
         <v>39718</v>
       </c>
@@ -9320,17 +8691,8 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="2">
-        <v>39718</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="16.8" spans="1:7">
+    </row>
+    <row r="75" ht="16.8" spans="1:3">
       <c r="A75" s="2">
         <v>4046</v>
       </c>
@@ -9338,19 +8700,10 @@
         <v>501</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="16.8" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="1:3">
       <c r="A76" s="2">
         <v>4046</v>
       </c>
@@ -9358,19 +8711,10 @@
         <v>503</v>
       </c>
       <c r="C76" s="2">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" ht="16.8" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="1:3">
       <c r="A77" s="2">
         <v>28379</v>
       </c>
@@ -9380,17 +8724,8 @@
       <c r="C77" s="2">
         <v>1</v>
       </c>
-      <c r="E77" s="2">
-        <v>28379</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" ht="16.8" spans="1:7">
+    </row>
+    <row r="78" ht="16.8" spans="1:3">
       <c r="A78" s="2">
         <v>4046</v>
       </c>
@@ -9400,17 +8735,8 @@
       <c r="C78" s="2">
         <v>8</v>
       </c>
-      <c r="E78" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G78" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" ht="16.8" spans="1:7">
+    </row>
+    <row r="79" ht="16.8" spans="1:3">
       <c r="A79" s="2">
         <v>4046</v>
       </c>
@@ -9420,17 +8746,8 @@
       <c r="C79" s="2">
         <v>7</v>
       </c>
-      <c r="E79" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G79" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" ht="16.8" spans="1:7">
+    </row>
+    <row r="80" ht="16.8" spans="1:3">
       <c r="A80" s="2">
         <v>4046</v>
       </c>
@@ -9440,17 +8757,8 @@
       <c r="C80" s="2">
         <v>6</v>
       </c>
-      <c r="E80" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G80" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" ht="16.8" spans="1:7">
+    </row>
+    <row r="81" ht="16.8" spans="1:3">
       <c r="A81" s="2">
         <v>4046</v>
       </c>
@@ -9460,17 +8768,8 @@
       <c r="C81" s="2">
         <v>5</v>
       </c>
-      <c r="E81" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G81" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" ht="16.8" spans="1:7">
+    </row>
+    <row r="82" ht="16.8" spans="1:3">
       <c r="A82" s="2">
         <v>4046</v>
       </c>
@@ -9480,17 +8779,8 @@
       <c r="C82" s="2">
         <v>4</v>
       </c>
-      <c r="E82" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G82" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" ht="16.8" spans="1:7">
+    </row>
+    <row r="83" ht="16.8" spans="1:3">
       <c r="A83" s="2">
         <v>4046</v>
       </c>
@@ -9500,17 +8790,8 @@
       <c r="C83" s="2">
         <v>3</v>
       </c>
-      <c r="E83" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G83" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" ht="16.8" spans="1:7">
+    </row>
+    <row r="84" ht="16.8" spans="1:3">
       <c r="A84" s="2">
         <v>4046</v>
       </c>
@@ -9518,15 +8799,6 @@
         <v>518</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
-      </c>
-      <c r="E84" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G84" s="2">
         <v>2</v>
       </c>
     </row>
@@ -9540,15 +8812,6 @@
       <c r="C85" s="2">
         <v>1</v>
       </c>
-      <c r="E85" s="2">
-        <v>4046</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="G85" s="2">
-        <v>1</v>
-      </c>
       <c r="H85" s="2">
         <v>295144</v>
       </c>
@@ -9569,6 +8832,1646 @@
       </c>
       <c r="O85" s="3" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="87" ht="16.8" spans="8:14">
+      <c r="H87" s="2">
+        <v>194636</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2</v>
+      </c>
+      <c r="L87" s="2">
+        <v>194636</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="N87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" ht="16.8" spans="8:14">
+      <c r="H88" s="2">
+        <v>138181</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J88" s="2">
+        <v>3</v>
+      </c>
+      <c r="L88" s="2">
+        <v>138181</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="N88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" ht="16.8" spans="8:14">
+      <c r="H89" s="2">
+        <v>126167</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J89" s="2">
+        <v>2</v>
+      </c>
+      <c r="L89" s="2">
+        <v>126167</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="N89" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" ht="16.8" spans="8:14">
+      <c r="H90" s="2">
+        <v>241097</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2">
+        <v>241097</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="16.8" spans="8:14">
+      <c r="H91" s="2">
+        <v>87773</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J91" s="2">
+        <v>5</v>
+      </c>
+      <c r="L91" s="2">
+        <v>87773</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N91" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="16.8" spans="8:14">
+      <c r="H92" s="2">
+        <v>120317</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J92" s="2">
+        <v>4</v>
+      </c>
+      <c r="L92" s="2">
+        <v>120317</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="N92" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="16.8" spans="8:14">
+      <c r="H93" s="2">
+        <v>227496</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2">
+        <v>227496</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="16.8" spans="8:14">
+      <c r="H94" s="2">
+        <v>120317</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J94" s="2">
+        <v>3</v>
+      </c>
+      <c r="L94" s="2">
+        <v>120317</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N94" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" ht="16.8" spans="8:14">
+      <c r="H95" s="2">
+        <v>223389</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="L95" s="2">
+        <v>223389</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" ht="16.8" spans="8:14">
+      <c r="H96" s="2">
+        <v>99962</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J96" s="2">
+        <v>4</v>
+      </c>
+      <c r="L96" s="2">
+        <v>99962</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N96" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="16.8" spans="8:14">
+      <c r="H97" s="2">
+        <v>46923</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="J97" s="2">
+        <v>7</v>
+      </c>
+      <c r="L97" s="2">
+        <v>46923</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N97" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" ht="16.8" spans="8:14">
+      <c r="H98" s="2">
+        <v>52814</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>52814</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="N98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="16.8" spans="8:14">
+      <c r="H99" s="2">
+        <v>79618</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J99" s="2">
+        <v>3</v>
+      </c>
+      <c r="L99" s="2">
+        <v>79618</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N99" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" ht="16.8" spans="8:14">
+      <c r="H100" s="2">
+        <v>125952</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2">
+        <v>125952</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="16.8" spans="8:14">
+      <c r="H101" s="2">
+        <v>126301</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="L101" s="2">
+        <v>126301</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="16.8" spans="8:14">
+      <c r="H102" s="2">
+        <v>86430</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="J102" s="2">
+        <v>2</v>
+      </c>
+      <c r="L102" s="2">
+        <v>86430</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="16.8" spans="8:14">
+      <c r="H103" s="2">
+        <v>118357</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1883</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="L103" s="2">
+        <v>118357</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1883</v>
+      </c>
+      <c r="N103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" ht="16.8" spans="8:14">
+      <c r="H104" s="2">
+        <v>117488</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="L104" s="2">
+        <v>117488</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="N104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="16.8" spans="8:14">
+      <c r="H105" s="2">
+        <v>90452</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2">
+        <v>90452</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="N105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" ht="16.8" spans="8:14">
+      <c r="H106" s="2">
+        <v>79618</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="L106" s="2">
+        <v>79618</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="N106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="16.8" spans="8:14">
+      <c r="H107" s="2">
+        <v>83135</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2</v>
+      </c>
+      <c r="L107" s="2">
+        <v>83135</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="16.8" spans="8:14">
+      <c r="H108" s="2">
+        <v>62084</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J108" s="2">
+        <v>5</v>
+      </c>
+      <c r="L108" s="2">
+        <v>62084</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N108" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" ht="16.8" spans="8:14">
+      <c r="H109" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J109" s="2">
+        <v>5</v>
+      </c>
+      <c r="L109" s="2">
+        <v>43982</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="N109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" ht="16.8" spans="8:14">
+      <c r="H110" s="2">
+        <v>79618</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2">
+        <v>79618</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="N110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="16.8" spans="8:14">
+      <c r="H111" s="2">
+        <v>84231</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+      <c r="L111" s="2">
+        <v>84231</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="N111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="16.8" spans="8:14">
+      <c r="H112" s="2">
+        <v>90254</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="L112" s="2">
+        <v>90254</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="N112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" ht="16.8" spans="8:14">
+      <c r="H113" s="2">
+        <v>83135</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="L113" s="2">
+        <v>83135</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="16.8" spans="8:14">
+      <c r="H114" s="2">
+        <v>62084</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J114" s="2">
+        <v>4</v>
+      </c>
+      <c r="L114" s="2">
+        <v>62084</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="N114" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" ht="16.8" spans="8:14">
+      <c r="H115" s="2">
+        <v>66871</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J115" s="2">
+        <v>2</v>
+      </c>
+      <c r="L115" s="2">
+        <v>66871</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="N115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="16.8" spans="8:14">
+      <c r="H116" s="2">
+        <v>62084</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J116" s="2">
+        <v>3</v>
+      </c>
+      <c r="L116" s="2">
+        <v>62084</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" ht="16.8" spans="8:14">
+      <c r="H117" s="2">
+        <v>70390</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="L117" s="2">
+        <v>70390</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="N117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="16.8" spans="8:14">
+      <c r="H118" s="2">
+        <v>66871</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="L118" s="2">
+        <v>66871</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="N118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="16.8" spans="8:14">
+      <c r="H119" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J119" s="2">
+        <v>4</v>
+      </c>
+      <c r="L119" s="2">
+        <v>43982</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N119" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" ht="16.8" spans="8:14">
+      <c r="H120" s="2">
+        <v>64421</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J120" s="2">
+        <v>2</v>
+      </c>
+      <c r="L120" s="2">
+        <v>64421</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N120" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" ht="16.8" spans="8:14">
+      <c r="H121" s="2">
+        <v>62425</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J121" s="2">
+        <v>3</v>
+      </c>
+      <c r="L121" s="2">
+        <v>62425</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="N121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" ht="16.8" spans="8:14">
+      <c r="H122" s="2">
+        <v>56336</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J122" s="2">
+        <v>3</v>
+      </c>
+      <c r="L122" s="2">
+        <v>56336</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="N122" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" ht="16.8" spans="8:14">
+      <c r="H123" s="2">
+        <v>61239</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J123" s="2">
+        <v>2</v>
+      </c>
+      <c r="L123" s="2">
+        <v>61239</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="N123" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="16.8" spans="8:14">
+      <c r="H124" s="2">
+        <v>64593</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2">
+        <v>64593</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="N124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="16.8" spans="8:14">
+      <c r="H125" s="2">
+        <v>46643</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J125" s="2">
+        <v>4</v>
+      </c>
+      <c r="L125" s="2">
+        <v>46643</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="N125" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" ht="16.8" spans="8:14">
+      <c r="H126" s="2">
+        <v>62084</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J126" s="2">
+        <v>2</v>
+      </c>
+      <c r="L126" s="2">
+        <v>62084</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="N126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="16.8" spans="8:14">
+      <c r="H127" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J127" s="2">
+        <v>3</v>
+      </c>
+      <c r="L127" s="2">
+        <v>43982</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="N127" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" ht="16.8" spans="8:14">
+      <c r="H128" s="2">
+        <v>62425</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J128" s="2">
+        <v>2</v>
+      </c>
+      <c r="L128" s="2">
+        <v>62425</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N128" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" ht="16.8" spans="8:14">
+      <c r="H129" s="2">
+        <v>56336</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J129" s="2">
+        <v>2</v>
+      </c>
+      <c r="L129" s="2">
+        <v>56336</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="N129" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="16.8" spans="8:14">
+      <c r="H130" s="2">
+        <v>61239</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="L130" s="2">
+        <v>61239</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="N130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="16.8" spans="8:14">
+      <c r="H131" s="2">
+        <v>47224</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1</v>
+      </c>
+      <c r="L131" s="2">
+        <v>47224</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="N131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="16.8" spans="8:14">
+      <c r="H132" s="2">
+        <v>46643</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J132" s="2">
+        <v>3</v>
+      </c>
+      <c r="L132" s="2">
+        <v>46643</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="N132" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" ht="16.8" spans="8:14">
+      <c r="H133" s="2">
+        <v>62084</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2">
+        <v>62084</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="16.8" spans="8:14">
+      <c r="H134" s="2">
+        <v>67961</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="2">
+        <v>67961</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" ht="16.8" spans="8:14">
+      <c r="H135" s="2">
+        <v>64421</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+      <c r="L135" s="2">
+        <v>64421</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="N135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" ht="16.8" spans="8:14">
+      <c r="H136" s="2">
+        <v>49010</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J136" s="2">
+        <v>3</v>
+      </c>
+      <c r="L136" s="2">
+        <v>49010</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N136" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" ht="16.8" spans="8:14">
+      <c r="H137" s="2">
+        <v>62208</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2">
+        <v>62208</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="16.8" spans="8:14">
+      <c r="H138" s="2">
+        <v>43020</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J138" s="2">
+        <v>4</v>
+      </c>
+      <c r="L138" s="2">
+        <v>43020</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="N138" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" ht="16.8" spans="8:14">
+      <c r="H139" s="2">
+        <v>62425</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J139" s="2">
+        <v>1</v>
+      </c>
+      <c r="L139" s="2">
+        <v>62425</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="16.8" spans="8:14">
+      <c r="H140" s="2">
+        <v>46643</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J140" s="2">
+        <v>2</v>
+      </c>
+      <c r="L140" s="2">
+        <v>46643</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="N140" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" ht="16.8" spans="8:14">
+      <c r="H141" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J141" s="2">
+        <v>2</v>
+      </c>
+      <c r="L141" s="2">
+        <v>43982</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="N141" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" ht="16.8" spans="8:14">
+      <c r="H142" s="2">
+        <v>49010</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J142" s="2">
+        <v>2</v>
+      </c>
+      <c r="L142" s="2">
+        <v>49010</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="N142" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" ht="16.8" spans="8:14">
+      <c r="H143" s="2">
+        <v>46746</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2</v>
+      </c>
+      <c r="L143" s="2">
+        <v>46746</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N143" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" ht="16.8" spans="8:14">
+      <c r="H144" s="2">
+        <v>46511</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J144" s="2">
+        <v>2</v>
+      </c>
+      <c r="L144" s="2">
+        <v>46511</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N144" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" ht="16.8" spans="8:14">
+      <c r="H145" s="2">
+        <v>46643</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J145" s="2">
+        <v>1</v>
+      </c>
+      <c r="L145" s="2">
+        <v>46643</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="N145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" ht="16.8" spans="8:14">
+      <c r="H146" s="2">
+        <v>62717</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+      <c r="L146" s="2">
+        <v>62717</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="N146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="16.8" spans="8:14">
+      <c r="H147" s="2">
+        <v>56484</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+      <c r="L147" s="2">
+        <v>56484</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="N147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" ht="16.8" spans="8:14">
+      <c r="H148" s="2">
+        <v>49010</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="L148" s="2">
+        <v>49010</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" ht="16.8" spans="8:14">
+      <c r="H149" s="2">
+        <v>46746</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1</v>
+      </c>
+      <c r="L149" s="2">
+        <v>46746</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="N149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" ht="16.8" spans="8:14">
+      <c r="H150" s="2">
+        <v>46511</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1</v>
+      </c>
+      <c r="L150" s="2">
+        <v>46511</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" ht="16.8" spans="8:14">
+      <c r="H151" s="2">
+        <v>43020</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J151" s="2">
+        <v>3</v>
+      </c>
+      <c r="L151" s="2">
+        <v>43020</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" ht="16.8" spans="8:14">
+      <c r="H152" s="2">
+        <v>56336</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J152" s="2">
+        <v>1</v>
+      </c>
+      <c r="L152" s="2">
+        <v>56336</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" ht="16.8" spans="8:14">
+      <c r="H153" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J153" s="2">
+        <v>1</v>
+      </c>
+      <c r="L153" s="2">
+        <v>43982</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" ht="16.8" spans="8:14">
+      <c r="H154" s="2">
+        <v>39718</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J154" s="2">
+        <v>2</v>
+      </c>
+      <c r="L154" s="2">
+        <v>39718</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N154" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" ht="16.8" spans="8:14">
+      <c r="H155" s="2">
+        <v>43020</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J155" s="2">
+        <v>1</v>
+      </c>
+      <c r="L155" s="2">
+        <v>43020</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="N155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="16.8" spans="8:14">
+      <c r="H156" s="2">
+        <v>43020</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J156" s="2">
+        <v>2</v>
+      </c>
+      <c r="L156" s="2">
+        <v>43020</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N156" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" ht="16.8" spans="8:14">
+      <c r="H157" s="2">
+        <v>39718</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+      <c r="L157" s="2">
+        <v>39718</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" ht="16.8" spans="8:14">
+      <c r="H158" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J158" s="2">
+        <v>1</v>
+      </c>
+      <c r="L158" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="N158" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" ht="16.8" spans="8:14">
+      <c r="H159" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+      <c r="L159" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N159" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" ht="16.8" spans="8:14">
+      <c r="H160" s="2">
+        <v>28379</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="L160" s="2">
+        <v>28379</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="N160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" ht="16.8" spans="8:14">
+      <c r="H161" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J161" s="2">
+        <v>8</v>
+      </c>
+      <c r="L161" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N161" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" ht="16.8" spans="8:14">
+      <c r="H162" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J162" s="2">
+        <v>7</v>
+      </c>
+      <c r="L162" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="N162" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" ht="16.8" spans="8:14">
+      <c r="H163" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J163" s="2">
+        <v>6</v>
+      </c>
+      <c r="L163" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="N163" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" ht="16.8" spans="8:14">
+      <c r="H164" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J164" s="2">
+        <v>5</v>
+      </c>
+      <c r="L164" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="N164" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" ht="16.8" spans="8:14">
+      <c r="H165" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J165" s="2">
+        <v>4</v>
+      </c>
+      <c r="L165" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="N165" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" ht="16.8" spans="8:14">
+      <c r="H166" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J166" s="2">
+        <v>3</v>
+      </c>
+      <c r="L166" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="N166" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" ht="16.8" spans="8:14">
+      <c r="H167" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J167" s="2">
+        <v>2</v>
+      </c>
+      <c r="L167" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="N167" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" ht="16.8" spans="8:14">
+      <c r="H168" s="2">
+        <v>4046</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J168" s="2">
+        <v>1</v>
+      </c>
+      <c r="L168" s="2">
+        <v>4046</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="N168" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="14220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="562">
   <si>
     <t>编号</t>
   </si>
@@ -1607,82 +1607,82 @@
     <t>凯伦·皮里 第二季</t>
   </si>
   <si>
+    <t>贝茨先生诉邮局</t>
+  </si>
+  <si>
+    <t>复生 第二季</t>
+  </si>
+  <si>
+    <t>塔楼 第三季</t>
+  </si>
+  <si>
+    <t>作秀公审 第二季</t>
+  </si>
+  <si>
+    <t>乌托邦 第二季</t>
+  </si>
+  <si>
+    <t>不眠 第二季</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第一季</t>
+  </si>
+  <si>
+    <t>洪水之后</t>
+  </si>
+  <si>
+    <t>英伦魔法师</t>
+  </si>
+  <si>
+    <t>迷失海湾 第五季</t>
+  </si>
+  <si>
+    <t>彭伯利谋杀案</t>
+  </si>
+  <si>
+    <t>格雷斯 第四季</t>
+  </si>
+  <si>
+    <t>堕落 第一季</t>
+  </si>
+  <si>
+    <t>迪莉娅的证词（原：直到我杀了你）</t>
+  </si>
+  <si>
+    <t>复生 第一季</t>
+  </si>
+  <si>
+    <t>格雷斯 第三季</t>
+  </si>
+  <si>
+    <t>乌托邦 第一季</t>
+  </si>
+  <si>
+    <t>渎职</t>
+  </si>
+  <si>
+    <t>超越时间线 第三季</t>
+  </si>
+  <si>
+    <t>探案拍档 第四季</t>
+  </si>
+  <si>
+    <t>边隧谜案 第一季</t>
+  </si>
+  <si>
+    <t>设得兰谜案 第七季</t>
+  </si>
+  <si>
+    <t>重任在肩S1</t>
+  </si>
+  <si>
+    <t>光环 第一季</t>
+  </si>
+  <si>
     <t>演播时刻 第二季</t>
-  </si>
-  <si>
-    <t>贝茨先生诉邮局</t>
-  </si>
-  <si>
-    <t>复生 第二季</t>
-  </si>
-  <si>
-    <t>塔楼 第三季</t>
-  </si>
-  <si>
-    <t>作秀公审 第二季</t>
-  </si>
-  <si>
-    <t>乌托邦 第二季</t>
-  </si>
-  <si>
-    <t>不眠 第二季</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>塞尔福里奇先生 第一季</t>
-  </si>
-  <si>
-    <t>洪水之后</t>
-  </si>
-  <si>
-    <t>英伦魔法师</t>
-  </si>
-  <si>
-    <t>迷失海湾 第五季</t>
-  </si>
-  <si>
-    <t>彭伯利谋杀案</t>
-  </si>
-  <si>
-    <t>格雷斯 第四季</t>
-  </si>
-  <si>
-    <t>堕落 第一季</t>
-  </si>
-  <si>
-    <t>迪莉娅的证词（原：直到我杀了你）</t>
-  </si>
-  <si>
-    <t>复生 第一季</t>
-  </si>
-  <si>
-    <t>格雷斯 第三季</t>
-  </si>
-  <si>
-    <t>乌托邦 第一季</t>
-  </si>
-  <si>
-    <t>渎职</t>
-  </si>
-  <si>
-    <t>超越时间线 第三季</t>
-  </si>
-  <si>
-    <t>探案拍档 第四季</t>
-  </si>
-  <si>
-    <t>边隧谜案 第一季</t>
-  </si>
-  <si>
-    <t>设得兰谜案 第七季</t>
-  </si>
-  <si>
-    <t>重任在肩S1</t>
-  </si>
-  <si>
-    <t>光环 第一季</t>
   </si>
   <si>
     <t>山巅之城 第三季</t>
@@ -2240,9 +2240,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2302,31 +2302,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2339,17 +2322,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,17 +2348,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2386,15 +2361,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2410,12 +2386,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2438,10 +2415,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2466,13 +2466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,13 +2490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,13 +2502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2520,7 +2520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,7 +2538,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,103 +2634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,17 +2672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2717,27 +2708,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2758,135 +2732,161 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2895,22 +2895,22 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2923,14 +2923,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3278,13 +3278,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5046,13 +5046,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5096,13 +5096,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7227,7 +7227,7 @@
   <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7265,7 +7265,7 @@
       <c r="A3" s="12">
         <v>1229349</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       <c r="A4" s="12">
         <v>693134</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       <c r="A5" s="12">
         <v>823464</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       <c r="A16">
         <v>782054</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
       <c r="A19">
         <v>293021</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       <c r="A21">
         <v>1133008</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       <c r="A80">
         <v>295144</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7896,8 +7896,8 @@
   <sheetPr/>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7917,2974 +7917,3703 @@
       <c r="C1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="5">
         <v>194636</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:22">
       <c r="A2" s="4">
+        <v>194636</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>241100</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>46746</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>138181</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:22">
+      <c r="A3" s="4">
+        <v>138181</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>137635</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>46511</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>126167</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:22">
+      <c r="A4" s="4">
+        <v>126167</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="4">
+        <v>46643</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5">
+        <v>241097</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:22">
+      <c r="A5" s="4">
+        <v>241097</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>62717</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>87773</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="V5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:22">
+      <c r="A6" s="4">
+        <v>87773</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>56484</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>120317</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="V6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:22">
+      <c r="A7" s="4">
+        <v>120317</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>49010</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
         <v>227496</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>241100</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="U7" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:22">
+      <c r="A8" s="4">
+        <v>227496</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" s="4">
+        <v>46746</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>120317</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="V8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:22">
+      <c r="A9" s="4">
+        <v>120317</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>46511</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>223389</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:22">
+      <c r="A10" s="4">
+        <v>223389</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>476</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43020</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
+      <c r="T10" s="5">
+        <v>99962</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="V10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:22">
+      <c r="A11" s="4">
+        <v>99962</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>56336</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>46923</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="V11" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:22">
+      <c r="A12" s="4">
+        <v>46923</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43982</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>52814</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:22">
+      <c r="A13" s="4">
+        <v>52814</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>39718</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="T13" s="5">
+        <v>79618</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="V13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:22">
+      <c r="A14" s="4">
+        <v>79618</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43020</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>125952</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:22">
+      <c r="A15" s="4">
+        <v>125952</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>43020</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2</v>
+      </c>
+      <c r="T15" s="5">
+        <v>126301</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:22">
+      <c r="A16" s="4">
+        <v>126301</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>39718</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>86430</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="V16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:22">
+      <c r="A17" s="4">
+        <v>86430</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>118357</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1883</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:22">
+      <c r="A18" s="4">
+        <v>118357</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1883</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5">
+        <v>117488</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:22">
+      <c r="A19" s="4">
+        <v>117488</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>28379</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>90452</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:22">
+      <c r="A20" s="4">
+        <v>90452</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="L20" s="4">
+        <v>8</v>
+      </c>
+      <c r="T20" s="5">
+        <v>79618</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="V20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="1:22">
+      <c r="A21" s="4">
+        <v>79618</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="L21" s="4">
+        <v>7</v>
+      </c>
+      <c r="T21" s="5">
+        <v>83135</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="V21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:22">
+      <c r="A22" s="4">
+        <v>83135</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="L22" s="4">
+        <v>6</v>
+      </c>
+      <c r="T22" s="5">
+        <v>62084</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="V22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:22">
+      <c r="A23" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+      <c r="T23" s="5">
+        <v>43982</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="V23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:22">
+      <c r="A24" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="L24" s="4">
+        <v>4</v>
+      </c>
+      <c r="T24" s="5">
+        <v>79618</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="1:22">
+      <c r="A25" s="4">
+        <v>79618</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3</v>
+      </c>
+      <c r="T25" s="5">
+        <v>84231</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:22">
+      <c r="A26" s="4">
+        <v>84231</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="T26" s="5">
+        <v>90254</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="V26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:22">
+      <c r="A27" s="4">
+        <v>90254</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>4046</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <v>83135</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:22">
+      <c r="A28" s="4">
+        <v>83135</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <v>62084</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="V28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:22">
+      <c r="A29" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <v>66871</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="V29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:22">
+      <c r="A30" s="4">
+        <v>66871</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <v>62084</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="V30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:22">
+      <c r="A31" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>70390</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:22">
+      <c r="A32" s="4">
+        <v>70390</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>66871</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:22">
+      <c r="A33" s="4">
+        <v>66871</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>43982</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="V33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:22">
+      <c r="A34" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="5">
+        <v>64421</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="V34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:22">
+      <c r="A35" s="4">
+        <v>64421</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="T35" s="5">
+        <v>62425</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="V35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:22">
+      <c r="A36" s="4">
+        <v>62425</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="T36" s="5">
+        <v>56336</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="V36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="1:22">
+      <c r="A37" s="4">
+        <v>56336</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3</v>
+      </c>
+      <c r="T37" s="5">
+        <v>61239</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="V37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:22">
+      <c r="A38" s="4">
+        <v>61239</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="T38" s="5">
+        <v>64593</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:22">
+      <c r="A39" s="4">
+        <v>64593</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="5">
+        <v>46643</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="V39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:22">
+      <c r="A40" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="T40" s="5">
+        <v>62084</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="V40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="1:22">
+      <c r="A41" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2</v>
+      </c>
+      <c r="T41" s="5">
+        <v>43982</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="V41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:22">
+      <c r="A42" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3</v>
+      </c>
+      <c r="T42" s="5">
+        <v>62425</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="V42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="1:22">
+      <c r="A43" s="4">
+        <v>62425</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2</v>
+      </c>
+      <c r="T43" s="5">
+        <v>56336</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="V43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="1:22">
+      <c r="A44" s="4">
+        <v>56336</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="T44" s="5">
+        <v>61239</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="1:22">
+      <c r="A45" s="4">
+        <v>61239</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="T45" s="5">
+        <v>47224</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="V45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="1:22">
+      <c r="A46" s="4">
+        <v>47224</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="T46" s="5">
+        <v>46643</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="V46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="1:22">
+      <c r="A47" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="T47" s="5">
+        <v>62084</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="V47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="1:22">
+      <c r="A48" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>476</v>
+      </c>
+      <c r="T48" s="5">
+        <v>67961</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="V48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="1:22">
+      <c r="A49" s="4">
+        <v>67961</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="T49" s="5">
+        <v>64421</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="V49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="1:22">
+      <c r="A50" s="4">
+        <v>64421</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="T50" s="5">
+        <v>49010</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="V50" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="1:22">
+      <c r="A51" s="4">
+        <v>49010</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="T51" s="5">
+        <v>62208</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="V51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="1:22">
+      <c r="A52" s="4">
+        <v>62208</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="T52" s="5">
+        <v>43020</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="V52" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:22">
+      <c r="A53" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4</v>
+      </c>
+      <c r="T53" s="5">
+        <v>62425</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="V53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:22">
+      <c r="A54" s="4">
+        <v>62425</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="T54" s="5">
+        <v>46643</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="V54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:22">
+      <c r="A55" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="T55" s="5">
+        <v>43982</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="V55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:22">
+      <c r="A56" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="T56" s="5">
+        <v>49010</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="V56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:22">
+      <c r="A57" s="4">
+        <v>49010</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="T57" s="5">
+        <v>46746</v>
+      </c>
+      <c r="U57" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="V57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:22">
+      <c r="A58" s="4">
         <v>46746</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="B58" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" s="4">
         <v>2</v>
       </c>
-      <c r="T2" s="6">
-        <v>138181</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="T58" s="5">
+        <v>46511</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="V58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:22">
+      <c r="A59" s="4">
+        <v>46511</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2</v>
+      </c>
+      <c r="T59" s="5">
+        <v>46643</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:22">
+      <c r="A60" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="T60" s="5">
+        <v>62717</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="V60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:22">
+      <c r="A61" s="4">
+        <v>62717</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="T61" s="5">
+        <v>56484</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="V61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:22">
+      <c r="A62" s="4">
+        <v>56484</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="T62" s="5">
+        <v>49010</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="V62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:22">
+      <c r="A63" s="4">
+        <v>49010</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="T63" s="5">
+        <v>46746</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="V63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:22">
+      <c r="A64" s="4">
+        <v>46746</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="T64" s="5">
+        <v>46511</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="V64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:22">
+      <c r="A65" s="4">
+        <v>46511</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="T65" s="5">
+        <v>43020</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="V65" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="5:22">
-      <c r="E3" s="5">
-        <v>137635</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="G3" s="5">
+    <row r="66" ht="16.8" spans="1:22">
+      <c r="A66" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="T66" s="5">
+        <v>56336</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="V66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:22">
+      <c r="A67" s="4">
+        <v>56336</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="T67" s="5">
+        <v>43982</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="V67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="1:22">
+      <c r="A68" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="T68" s="5">
+        <v>39718</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="V68" s="4">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>46511</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="L3" s="5">
+    </row>
+    <row r="69" ht="16.8" spans="1:22">
+      <c r="A69" s="4">
+        <v>39718</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C69" s="4">
         <v>2</v>
       </c>
-      <c r="T3" s="6">
-        <v>126167</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="T69" s="5">
+        <v>43020</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="V69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="1:22">
+      <c r="A70" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="T70" s="5">
+        <v>43020</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="V70" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="8:22">
-      <c r="H4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J4" s="5">
-        <v>46643</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>241097</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.8" spans="9:22">
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>62717</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>87773</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="V5" s="5">
+    <row r="71" ht="16.8" spans="1:22">
+      <c r="A71" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2</v>
+      </c>
+      <c r="T71" s="5">
+        <v>39718</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="V71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="1:22">
+      <c r="A72" s="4">
+        <v>39718</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="T72" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="V72" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="1:22">
+      <c r="A73" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="T73" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="V73" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="1:22">
+      <c r="A74" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="T74" s="5">
+        <v>28379</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="1:22">
+      <c r="A75" s="4">
+        <v>28379</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="T75" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="V75" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="1:22">
+      <c r="A76" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C76" s="4">
+        <v>8</v>
+      </c>
+      <c r="T76" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="V76" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="1:22">
+      <c r="A77" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C77" s="4">
+        <v>7</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="T77" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="V77" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="1:22">
+      <c r="A78" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C78" s="4">
+        <v>6</v>
+      </c>
+      <c r="T78" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="V78" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="8:22">
-      <c r="H6" t="s">
-        <v>477</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>56484</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
-        <v>120317</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="V6" s="5">
+    <row r="79" ht="16.8" spans="1:22">
+      <c r="A79" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C79" s="4">
+        <v>5</v>
+      </c>
+      <c r="T79" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="V79" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="9:22">
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>49010</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>227496</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="16.8" spans="8:22">
-      <c r="H8" t="s">
-        <v>477</v>
-      </c>
-      <c r="J8" s="5">
-        <v>46746</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>120317</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="V8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="16.8" spans="9:22">
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>46511</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>223389</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="V9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="16.8" spans="8:22">
-      <c r="H10" t="s">
-        <v>477</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>43020</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3</v>
-      </c>
-      <c r="T10" s="6">
-        <v>99962</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="V10" s="5">
+    <row r="80" ht="17" spans="1:22">
+      <c r="A80" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C80" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" ht="16.8" spans="9:22">
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>56336</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>46923</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="V11" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="16.8" spans="9:22">
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>43982</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6">
-        <v>52814</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="V12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="16.8" spans="9:22">
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>39718</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
-      <c r="T13" s="6">
-        <v>79618</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="V13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="16.8" spans="9:22">
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>43020</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6">
-        <v>125952</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="V14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="16.8" spans="9:22">
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>43020</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2</v>
-      </c>
-      <c r="T15" s="6">
-        <v>126301</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="V15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="16.8" spans="9:22">
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>39718</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6">
-        <v>86430</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="V16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="16.8" spans="9:22">
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6">
-        <v>118357</v>
-      </c>
-      <c r="U17" s="5">
-        <v>1883</v>
-      </c>
-      <c r="V17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="16.8" spans="9:22">
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="T18" s="6">
-        <v>117488</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="V18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="16.8" spans="9:22">
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>28379</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="T19" s="6">
-        <v>90452</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="V19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="16.8" spans="9:22">
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="L20" s="5">
-        <v>8</v>
-      </c>
-      <c r="T20" s="6">
-        <v>79618</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="V20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="16.8" spans="9:22">
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="L21" s="5">
-        <v>7</v>
-      </c>
-      <c r="T21" s="6">
-        <v>83135</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="V21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" ht="16.8" spans="9:22">
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="L22" s="5">
-        <v>6</v>
-      </c>
-      <c r="T22" s="6">
-        <v>62084</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="V22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" ht="16.8" spans="9:22">
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="L23" s="5">
-        <v>5</v>
-      </c>
-      <c r="T23" s="6">
-        <v>43982</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="V23" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" ht="16.8" spans="9:22">
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="L24" s="5">
-        <v>4</v>
-      </c>
-      <c r="T24" s="6">
-        <v>79618</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="V24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="16.8" spans="9:22">
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="L25" s="5">
-        <v>3</v>
-      </c>
-      <c r="T25" s="6">
-        <v>84231</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="V25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="16.8" spans="9:22">
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="L26" s="5">
-        <v>2</v>
-      </c>
-      <c r="T26" s="6">
-        <v>90254</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="V26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="16.8" spans="9:22">
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="T27" s="6">
-        <v>83135</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="V27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="16.8" spans="9:22">
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="T28" s="6">
-        <v>62084</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="V28" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" ht="16.8" spans="9:22">
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="T29" s="6">
-        <v>66871</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="V29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="16.8" spans="9:22">
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="T30" s="6">
-        <v>62084</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="V30" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="16.8" spans="9:22">
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="T31" s="6">
-        <v>70390</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="V31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="16.8" spans="9:22">
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="T32" s="6">
-        <v>66871</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="V32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="16.8" spans="9:22">
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="T33" s="6">
-        <v>43982</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="V33" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="16.8" spans="9:22">
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="T34" s="6">
-        <v>64421</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="V34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="16.8" spans="20:22">
-      <c r="T35" s="6">
-        <v>62425</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="V35" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" ht="16.8" spans="20:22">
-      <c r="T36" s="6">
-        <v>56336</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="V36" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" ht="16.8" spans="20:22">
-      <c r="T37" s="6">
-        <v>61239</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="V37" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="16.8" spans="20:22">
-      <c r="T38" s="6">
-        <v>64593</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="V38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="16.8" spans="20:22">
-      <c r="T39" s="6">
-        <v>46643</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="V39" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" ht="16.8" spans="20:22">
-      <c r="T40" s="6">
-        <v>62084</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="V40" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="16.8" spans="20:22">
-      <c r="T41" s="6">
-        <v>43982</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="V41" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" ht="16.8" spans="20:22">
-      <c r="T42" s="6">
-        <v>62425</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="V42" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" ht="16.8" spans="20:22">
-      <c r="T43" s="6">
-        <v>56336</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="V43" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" ht="16.8" spans="20:22">
-      <c r="T44" s="6">
-        <v>61239</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="V44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" ht="16.8" spans="20:22">
-      <c r="T45" s="6">
-        <v>47224</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="V45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="16.8" spans="20:22">
-      <c r="T46" s="6">
-        <v>46643</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="V46" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" ht="16.8" spans="20:22">
-      <c r="T47" s="6">
-        <v>62084</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="V47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="16.8" spans="8:22">
-      <c r="H48" t="s">
-        <v>477</v>
-      </c>
-      <c r="T48" s="6">
-        <v>67961</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="V48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="16.8" spans="20:22">
-      <c r="T49" s="6">
-        <v>64421</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="V49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" ht="16.8" spans="20:22">
-      <c r="T50" s="6">
-        <v>49010</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="V50" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" ht="16.8" spans="20:22">
-      <c r="T51" s="6">
-        <v>62208</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="V51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="16.8" spans="20:22">
-      <c r="T52" s="6">
-        <v>43020</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="V52" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" ht="16.8" spans="20:22">
-      <c r="T53" s="6">
-        <v>62425</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="V53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="16.8" spans="20:22">
-      <c r="T54" s="6">
-        <v>46643</v>
-      </c>
-      <c r="U54" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="V54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" ht="16.8" spans="20:22">
-      <c r="T55" s="6">
-        <v>43982</v>
-      </c>
-      <c r="U55" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="V55" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" ht="16.8" spans="20:22">
-      <c r="T56" s="6">
-        <v>49010</v>
-      </c>
-      <c r="U56" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="V56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" ht="16.8" spans="20:22">
-      <c r="T57" s="6">
-        <v>46746</v>
-      </c>
-      <c r="U57" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="V57" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" ht="16.8" spans="20:22">
-      <c r="T58" s="6">
-        <v>46511</v>
-      </c>
-      <c r="U58" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="V58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" ht="16.8" spans="20:22">
-      <c r="T59" s="6">
-        <v>46643</v>
-      </c>
-      <c r="U59" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="V59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="16.8" spans="20:22">
-      <c r="T60" s="6">
-        <v>62717</v>
-      </c>
-      <c r="U60" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="V60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" ht="16.8" spans="20:22">
-      <c r="T61" s="6">
-        <v>56484</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="V61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" ht="16.8" spans="20:22">
-      <c r="T62" s="6">
-        <v>49010</v>
-      </c>
-      <c r="U62" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="V62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" ht="16.8" spans="20:22">
-      <c r="T63" s="6">
-        <v>46746</v>
-      </c>
-      <c r="U63" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="V63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="16.8" spans="20:22">
-      <c r="T64" s="6">
-        <v>46511</v>
-      </c>
-      <c r="U64" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="V64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="16.8" spans="20:22">
-      <c r="T65" s="6">
-        <v>43020</v>
-      </c>
-      <c r="U65" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="V65" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" ht="16.8" spans="20:22">
-      <c r="T66" s="6">
-        <v>56336</v>
-      </c>
-      <c r="U66" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="V66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="16.8" spans="20:22">
-      <c r="T67" s="6">
-        <v>43982</v>
-      </c>
-      <c r="U67" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="V67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" ht="16.8" spans="20:22">
-      <c r="T68" s="6">
-        <v>39718</v>
-      </c>
-      <c r="U68" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="V68" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" ht="16.8" spans="20:22">
-      <c r="T69" s="6">
-        <v>43020</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="V69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" ht="16.8" spans="20:22">
-      <c r="T70" s="6">
-        <v>43020</v>
-      </c>
-      <c r="U70" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="V70" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" ht="16.8" spans="20:22">
-      <c r="T71" s="6">
-        <v>39718</v>
-      </c>
-      <c r="U71" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="V71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" ht="16.8" spans="20:22">
-      <c r="T72" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U72" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="V72" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" ht="16.8" spans="20:22">
-      <c r="T73" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U73" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="V73" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" ht="16.8" spans="20:22">
-      <c r="T74" s="6">
-        <v>28379</v>
-      </c>
-      <c r="U74" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="V74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="16.8" spans="20:22">
-      <c r="T75" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U75" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V75" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" ht="16.8" spans="20:22">
-      <c r="T76" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U76" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="V76" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" ht="16.8" spans="6:22">
-      <c r="F77" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="T77" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U77" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="V77" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" ht="16.8" spans="20:22">
-      <c r="T78" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U78" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="V78" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" ht="16.8" spans="20:22">
-      <c r="T79" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U79" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="V79" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" ht="17" spans="6:22">
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>554</v>
       </c>
       <c r="G80">
         <v>227496</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="M80" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N80" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="T80" s="6">
+      <c r="T80" s="5">
         <v>4046</v>
       </c>
-      <c r="U80" s="5" t="s">
+      <c r="U80" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="V80" s="5">
+      <c r="V80" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="81" ht="16.8" spans="9:22">
+    <row r="81" ht="16.8" spans="1:22">
+      <c r="A81" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C81" s="4">
+        <v>3</v>
+      </c>
       <c r="I81" t="s">
         <v>560</v>
       </c>
-      <c r="T81" s="6">
+      <c r="T81" s="5">
         <v>4046</v>
       </c>
-      <c r="U81" s="5" t="s">
+      <c r="U81" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="V81" s="5">
+      <c r="V81" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="82" ht="16.8" spans="20:22">
-      <c r="T82" s="6">
+    <row r="82" ht="16.8" spans="1:22">
+      <c r="A82" s="4">
         <v>4046</v>
       </c>
-      <c r="U82" s="5" t="s">
+      <c r="B82" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2</v>
+      </c>
+      <c r="T82" s="5">
+        <v>4046</v>
+      </c>
+      <c r="U82" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="V82" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="16.8" spans="20:22">
-      <c r="T83" s="4">
+      <c r="V82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="16.8" spans="1:22">
+      <c r="A83" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="T83" s="9">
         <v>39718</v>
       </c>
-      <c r="U83" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="V83" s="4">
+      <c r="U83" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="V83" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="16.8" spans="8:15">
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>295144</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="J85" s="5">
-        <v>1</v>
-      </c>
-      <c r="L85" s="5">
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
         <v>295144</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="N85" s="5">
-        <v>1</v>
-      </c>
-      <c r="O85" s="8" t="s">
+      <c r="N85" s="4">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="87" ht="16.8" spans="8:14">
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <v>194636</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="4">
         <v>2</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="4">
         <v>194636</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="N87" s="5">
+      <c r="N87" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="88" ht="16.8" spans="8:14">
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <v>138181</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="J88" s="5">
+      <c r="I88" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J88" s="4">
         <v>3</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="4">
         <v>138181</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="N88" s="5">
+      <c r="M88" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="N88" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="89" ht="16.8" spans="8:14">
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <v>126167</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J89" s="5">
+      <c r="I89" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J89" s="4">
         <v>2</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="4">
         <v>126167</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="N89" s="5">
+      <c r="M89" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="N89" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="90" ht="16.8" spans="8:14">
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <v>241097</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I90" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="L90" s="4">
+        <v>241097</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="16.8" spans="8:14">
+      <c r="H91" s="4">
+        <v>87773</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J91" s="4">
+        <v>5</v>
+      </c>
+      <c r="L91" s="4">
+        <v>87773</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="N91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="16.8" spans="8:14">
+      <c r="H92" s="4">
+        <v>120317</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J92" s="4">
+        <v>4</v>
+      </c>
+      <c r="L92" s="4">
+        <v>120317</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="N92" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="16.8" spans="8:14">
+      <c r="H93" s="4">
+        <v>227496</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="L93" s="4">
+        <v>227496</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="16.8" spans="8:14">
+      <c r="H94" s="4">
+        <v>120317</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J94" s="4">
+        <v>3</v>
+      </c>
+      <c r="L94" s="4">
+        <v>120317</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="N94" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" ht="16.8" spans="8:14">
+      <c r="H95" s="4">
+        <v>223389</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="L95" s="4">
+        <v>223389</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" ht="16.8" spans="8:14">
+      <c r="H96" s="4">
+        <v>99962</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J96" s="4">
+        <v>4</v>
+      </c>
+      <c r="L96" s="4">
+        <v>99962</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N96" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="16.8" spans="8:14">
+      <c r="H97" s="4">
+        <v>46923</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J97" s="4">
+        <v>7</v>
+      </c>
+      <c r="L97" s="4">
+        <v>46923</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N97" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" ht="16.8" spans="8:14">
+      <c r="H98" s="4">
+        <v>52814</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="L98" s="4">
+        <v>52814</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="N98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="16.8" spans="8:14">
+      <c r="H99" s="4">
+        <v>79618</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J99" s="4">
+        <v>3</v>
+      </c>
+      <c r="L99" s="4">
+        <v>79618</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="N99" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" ht="16.8" spans="8:14">
+      <c r="H100" s="4">
+        <v>125952</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="L100" s="4">
+        <v>125952</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="N100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="16.8" spans="8:14">
+      <c r="H101" s="4">
+        <v>126301</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="L101" s="4">
+        <v>126301</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="N101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="16.8" spans="8:14">
+      <c r="H102" s="4">
+        <v>86430</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J102" s="4">
+        <v>2</v>
+      </c>
+      <c r="L102" s="4">
+        <v>86430</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="N102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="16.8" spans="8:14">
+      <c r="H103" s="4">
+        <v>118357</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1883</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="L103" s="4">
+        <v>118357</v>
+      </c>
+      <c r="M103" s="4">
+        <v>1883</v>
+      </c>
+      <c r="N103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" ht="16.8" spans="8:14">
+      <c r="H104" s="4">
+        <v>117488</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+      <c r="L104" s="4">
+        <v>117488</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="N104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="16.8" spans="8:14">
+      <c r="H105" s="4">
+        <v>90452</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="L105" s="4">
+        <v>90452</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="N105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" ht="16.8" spans="8:14">
+      <c r="H106" s="4">
+        <v>79618</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="L106" s="4">
+        <v>79618</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="N106" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="16.8" spans="8:14">
+      <c r="H107" s="4">
+        <v>83135</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="L107" s="4">
+        <v>83135</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N107" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="16.8" spans="8:14">
+      <c r="H108" s="4">
+        <v>62084</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="J108" s="4">
+        <v>5</v>
+      </c>
+      <c r="L108" s="4">
+        <v>62084</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="N108" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" ht="16.8" spans="8:14">
+      <c r="H109" s="4">
+        <v>43982</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J109" s="4">
+        <v>5</v>
+      </c>
+      <c r="L109" s="4">
+        <v>43982</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N109" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" ht="16.8" spans="8:14">
+      <c r="H110" s="4">
+        <v>79618</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1</v>
+      </c>
+      <c r="L110" s="4">
+        <v>79618</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="N110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="16.8" spans="8:14">
+      <c r="H111" s="4">
+        <v>84231</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J111" s="4">
+        <v>1</v>
+      </c>
+      <c r="L111" s="4">
+        <v>84231</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="N111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="16.8" spans="8:14">
+      <c r="H112" s="4">
+        <v>90254</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="L112" s="4">
+        <v>90254</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="N112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" ht="16.8" spans="8:14">
+      <c r="H113" s="4">
+        <v>83135</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+      <c r="L113" s="4">
+        <v>83135</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="N113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="16.8" spans="8:14">
+      <c r="H114" s="4">
+        <v>62084</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J114" s="4">
+        <v>4</v>
+      </c>
+      <c r="L114" s="4">
+        <v>62084</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="N114" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" ht="16.8" spans="8:14">
+      <c r="H115" s="4">
+        <v>66871</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="J115" s="4">
+        <v>2</v>
+      </c>
+      <c r="L115" s="4">
+        <v>66871</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="N115" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="16.8" spans="8:14">
+      <c r="H116" s="4">
+        <v>62084</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J116" s="4">
+        <v>3</v>
+      </c>
+      <c r="L116" s="4">
+        <v>62084</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="N116" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" ht="16.8" spans="8:14">
+      <c r="H117" s="4">
+        <v>70390</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="L117" s="4">
+        <v>70390</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="N117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="16.8" spans="8:14">
+      <c r="H118" s="4">
+        <v>66871</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="L118" s="4">
+        <v>66871</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="N118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="16.8" spans="8:14">
+      <c r="H119" s="4">
+        <v>43982</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J119" s="4">
+        <v>4</v>
+      </c>
+      <c r="L119" s="4">
+        <v>43982</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="N119" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" ht="16.8" spans="8:14">
+      <c r="H120" s="4">
+        <v>64421</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="J120" s="4">
+        <v>2</v>
+      </c>
+      <c r="L120" s="4">
+        <v>64421</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N120" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" ht="16.8" spans="8:14">
+      <c r="H121" s="4">
+        <v>62425</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="J121" s="4">
+        <v>3</v>
+      </c>
+      <c r="L121" s="4">
+        <v>62425</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="N121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" ht="16.8" spans="8:14">
+      <c r="H122" s="4">
+        <v>56336</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="J122" s="4">
+        <v>3</v>
+      </c>
+      <c r="L122" s="4">
+        <v>56336</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="N122" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" ht="16.8" spans="8:14">
+      <c r="H123" s="4">
+        <v>61239</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="J123" s="4">
+        <v>2</v>
+      </c>
+      <c r="L123" s="4">
+        <v>61239</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="N123" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="16.8" spans="8:14">
+      <c r="H124" s="4">
+        <v>64593</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="L124" s="4">
+        <v>64593</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="N124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="16.8" spans="8:14">
+      <c r="H125" s="4">
+        <v>46643</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="J125" s="4">
+        <v>4</v>
+      </c>
+      <c r="L125" s="4">
+        <v>46643</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="N125" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" ht="16.8" spans="8:14">
+      <c r="H126" s="4">
+        <v>62084</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="J126" s="4">
+        <v>2</v>
+      </c>
+      <c r="L126" s="4">
+        <v>62084</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="N126" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="16.8" spans="8:14">
+      <c r="H127" s="4">
+        <v>43982</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="J127" s="4">
+        <v>3</v>
+      </c>
+      <c r="L127" s="4">
+        <v>43982</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="N127" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" ht="16.8" spans="8:14">
+      <c r="H128" s="4">
+        <v>62425</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="J128" s="4">
+        <v>2</v>
+      </c>
+      <c r="L128" s="4">
+        <v>62425</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="N128" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" ht="16.8" spans="8:14">
+      <c r="H129" s="4">
+        <v>56336</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J129" s="4">
+        <v>2</v>
+      </c>
+      <c r="L129" s="4">
+        <v>56336</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="N129" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="16.8" spans="8:14">
+      <c r="H130" s="4">
+        <v>61239</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="J130" s="4">
+        <v>1</v>
+      </c>
+      <c r="L130" s="4">
+        <v>61239</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="N130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="16.8" spans="8:14">
+      <c r="H131" s="4">
+        <v>47224</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J131" s="4">
+        <v>1</v>
+      </c>
+      <c r="L131" s="4">
+        <v>47224</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="N131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="16.8" spans="8:14">
+      <c r="H132" s="4">
+        <v>46643</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="J132" s="4">
+        <v>3</v>
+      </c>
+      <c r="L132" s="4">
+        <v>46643</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" ht="16.8" spans="8:14">
+      <c r="H133" s="4">
+        <v>62084</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J133" s="4">
+        <v>1</v>
+      </c>
+      <c r="L133" s="4">
+        <v>62084</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="N133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="16.8" spans="8:14">
+      <c r="H134" s="4">
+        <v>67961</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="J134" s="4">
+        <v>1</v>
+      </c>
+      <c r="L134" s="4">
+        <v>67961</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="N134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" ht="16.8" spans="8:14">
+      <c r="H135" s="4">
+        <v>64421</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="J135" s="4">
+        <v>1</v>
+      </c>
+      <c r="L135" s="4">
+        <v>64421</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="N135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" ht="16.8" spans="8:14">
+      <c r="H136" s="4">
+        <v>49010</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="J136" s="4">
+        <v>3</v>
+      </c>
+      <c r="L136" s="4">
+        <v>49010</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="N136" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" ht="16.8" spans="8:14">
+      <c r="H137" s="4">
+        <v>62208</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="J137" s="4">
+        <v>1</v>
+      </c>
+      <c r="L137" s="4">
+        <v>62208</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="N137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="16.8" spans="8:14">
+      <c r="H138" s="4">
+        <v>43020</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="J138" s="4">
+        <v>4</v>
+      </c>
+      <c r="L138" s="4">
+        <v>43020</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="N138" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" ht="16.8" spans="8:14">
+      <c r="H139" s="4">
+        <v>62425</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="J139" s="4">
+        <v>1</v>
+      </c>
+      <c r="L139" s="4">
+        <v>62425</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="N139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="16.8" spans="8:14">
+      <c r="H140" s="4">
+        <v>46643</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="J140" s="4">
+        <v>2</v>
+      </c>
+      <c r="L140" s="4">
+        <v>46643</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="N140" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" ht="16.8" spans="8:14">
+      <c r="H141" s="4">
+        <v>43982</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="J141" s="4">
+        <v>2</v>
+      </c>
+      <c r="L141" s="4">
+        <v>43982</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N141" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" ht="16.8" spans="8:14">
+      <c r="H142" s="4">
+        <v>49010</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="J142" s="4">
+        <v>2</v>
+      </c>
+      <c r="L142" s="4">
+        <v>49010</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="N142" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" ht="16.8" spans="8:14">
+      <c r="H143" s="4">
+        <v>46746</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J143" s="4">
+        <v>2</v>
+      </c>
+      <c r="L143" s="4">
+        <v>46746</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="N143" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" ht="16.8" spans="8:14">
+      <c r="H144" s="4">
+        <v>46511</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J144" s="4">
+        <v>2</v>
+      </c>
+      <c r="L144" s="4">
+        <v>46511</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="N144" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" ht="16.8" spans="8:14">
+      <c r="H145" s="4">
+        <v>46643</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J145" s="4">
+        <v>1</v>
+      </c>
+      <c r="L145" s="4">
+        <v>46643</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="N145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" ht="16.8" spans="8:14">
+      <c r="H146" s="4">
+        <v>62717</v>
+      </c>
+      <c r="I146" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="J90" s="5">
-        <v>1</v>
-      </c>
-      <c r="L90" s="5">
-        <v>241097</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="J146" s="4">
+        <v>1</v>
+      </c>
+      <c r="L146" s="4">
+        <v>62717</v>
+      </c>
+      <c r="M146" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="N90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="16.8" spans="8:14">
-      <c r="H91" s="5">
-        <v>87773</v>
-      </c>
-      <c r="I91" s="5" t="s">
+      <c r="N146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="16.8" spans="8:14">
+      <c r="H147" s="4">
+        <v>56484</v>
+      </c>
+      <c r="I147" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J147" s="4">
+        <v>1</v>
+      </c>
+      <c r="L147" s="4">
+        <v>56484</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="N147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" ht="16.8" spans="8:14">
+      <c r="H148" s="4">
+        <v>49010</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J148" s="4">
+        <v>1</v>
+      </c>
+      <c r="L148" s="4">
+        <v>49010</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="N148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" ht="16.8" spans="8:14">
+      <c r="H149" s="4">
+        <v>46746</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J149" s="4">
+        <v>1</v>
+      </c>
+      <c r="L149" s="4">
+        <v>46746</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="N149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" ht="16.8" spans="8:14">
+      <c r="H150" s="4">
+        <v>46511</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="J150" s="4">
+        <v>1</v>
+      </c>
+      <c r="L150" s="4">
+        <v>46511</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="N150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" ht="16.8" spans="8:14">
+      <c r="H151" s="4">
+        <v>43020</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="J151" s="4">
+        <v>3</v>
+      </c>
+      <c r="L151" s="4">
+        <v>43020</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="N151" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" ht="16.8" spans="8:14">
+      <c r="H152" s="4">
+        <v>56336</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J152" s="4">
+        <v>1</v>
+      </c>
+      <c r="L152" s="4">
+        <v>56336</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="N152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" ht="16.8" spans="8:14">
+      <c r="H153" s="4">
+        <v>43982</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="J153" s="4">
+        <v>1</v>
+      </c>
+      <c r="L153" s="4">
+        <v>43982</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="N153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" ht="16.8" spans="8:14">
+      <c r="H154" s="4">
+        <v>39718</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J154" s="4">
+        <v>2</v>
+      </c>
+      <c r="L154" s="4">
+        <v>39718</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="N154" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" ht="16.8" spans="8:14">
+      <c r="H155" s="4">
+        <v>43020</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="J155" s="4">
+        <v>1</v>
+      </c>
+      <c r="L155" s="4">
+        <v>43020</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="N155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="16.8" spans="8:14">
+      <c r="H156" s="4">
+        <v>43020</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J156" s="4">
+        <v>2</v>
+      </c>
+      <c r="L156" s="4">
+        <v>43020</v>
+      </c>
+      <c r="M156" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="N156" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" ht="16.8" spans="8:14">
+      <c r="H157" s="4">
+        <v>39718</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="J157" s="4">
+        <v>1</v>
+      </c>
+      <c r="L157" s="4">
+        <v>39718</v>
+      </c>
+      <c r="M157" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="N157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" ht="16.8" spans="8:14">
+      <c r="H158" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="J158" s="4">
+        <v>1</v>
+      </c>
+      <c r="L158" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="N158" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" ht="16.8" spans="8:14">
+      <c r="H159" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J159" s="4">
+        <v>1</v>
+      </c>
+      <c r="L159" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="N159" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" ht="16.8" spans="8:14">
+      <c r="H160" s="4">
+        <v>28379</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J160" s="4">
+        <v>1</v>
+      </c>
+      <c r="L160" s="4">
+        <v>28379</v>
+      </c>
+      <c r="M160" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="N160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" ht="16.8" spans="8:14">
+      <c r="H161" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J161" s="4">
+        <v>8</v>
+      </c>
+      <c r="L161" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="N161" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" ht="16.8" spans="8:14">
+      <c r="H162" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J162" s="4">
+        <v>7</v>
+      </c>
+      <c r="L162" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M162" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="N162" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" ht="16.8" spans="8:14">
+      <c r="H163" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J163" s="4">
+        <v>6</v>
+      </c>
+      <c r="L163" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M163" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="N163" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" ht="16.8" spans="8:14">
+      <c r="H164" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J164" s="4">
         <v>5</v>
       </c>
-      <c r="L91" s="5">
-        <v>87773</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="N91" s="5">
+      <c r="L164" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M164" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="N164" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="16.8" spans="8:14">
-      <c r="H92" s="5">
-        <v>120317</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="J92" s="5">
+    <row r="165" ht="16.8" spans="8:14">
+      <c r="H165" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J165" s="4">
         <v>4</v>
       </c>
-      <c r="L92" s="5">
-        <v>120317</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="N92" s="5">
+      <c r="L165" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="N165" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="93" ht="16.8" spans="8:14">
-      <c r="H93" s="5">
-        <v>227496</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="J93" s="5">
-        <v>1</v>
-      </c>
-      <c r="L93" s="5">
-        <v>227496</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="N93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="16.8" spans="8:14">
-      <c r="H94" s="5">
-        <v>120317</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="J94" s="5">
+    <row r="166" ht="16.8" spans="8:14">
+      <c r="H166" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J166" s="4">
         <v>3</v>
       </c>
-      <c r="L94" s="5">
-        <v>120317</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="N94" s="5">
+      <c r="L166" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="N166" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="95" ht="16.8" spans="8:14">
-      <c r="H95" s="5">
-        <v>223389</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="J95" s="5">
-        <v>1</v>
-      </c>
-      <c r="L95" s="5">
-        <v>223389</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="N95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="16.8" spans="8:14">
-      <c r="H96" s="5">
-        <v>99962</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J96" s="5">
-        <v>4</v>
-      </c>
-      <c r="L96" s="5">
-        <v>99962</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="N96" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" ht="16.8" spans="8:14">
-      <c r="H97" s="5">
-        <v>46923</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="J97" s="5">
-        <v>7</v>
-      </c>
-      <c r="L97" s="5">
-        <v>46923</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="N97" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" ht="16.8" spans="8:14">
-      <c r="H98" s="5">
-        <v>52814</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="J98" s="5">
-        <v>1</v>
-      </c>
-      <c r="L98" s="5">
-        <v>52814</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="N98" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" ht="16.8" spans="8:14">
-      <c r="H99" s="5">
-        <v>79618</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="J99" s="5">
-        <v>3</v>
-      </c>
-      <c r="L99" s="5">
-        <v>79618</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="N99" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" ht="16.8" spans="8:14">
-      <c r="H100" s="5">
-        <v>125952</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="J100" s="5">
-        <v>1</v>
-      </c>
-      <c r="L100" s="5">
-        <v>125952</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="N100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" ht="16.8" spans="8:14">
-      <c r="H101" s="5">
-        <v>126301</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="J101" s="5">
-        <v>1</v>
-      </c>
-      <c r="L101" s="5">
-        <v>126301</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="N101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" ht="16.8" spans="8:14">
-      <c r="H102" s="5">
-        <v>86430</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="J102" s="5">
+    <row r="167" ht="16.8" spans="8:14">
+      <c r="H167" s="4">
+        <v>4046</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="J167" s="4">
         <v>2</v>
       </c>
-      <c r="L102" s="5">
-        <v>86430</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="N102" s="5">
+      <c r="L167" s="4">
+        <v>4046</v>
+      </c>
+      <c r="M167" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="N167" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="103" ht="16.8" spans="8:14">
-      <c r="H103" s="5">
-        <v>118357</v>
-      </c>
-      <c r="I103" s="5">
-        <v>1883</v>
-      </c>
-      <c r="J103" s="5">
-        <v>1</v>
-      </c>
-      <c r="L103" s="5">
-        <v>118357</v>
-      </c>
-      <c r="M103" s="5">
-        <v>1883</v>
-      </c>
-      <c r="N103" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" ht="16.8" spans="8:14">
-      <c r="H104" s="5">
-        <v>117488</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="J104" s="5">
-        <v>1</v>
-      </c>
-      <c r="L104" s="5">
-        <v>117488</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="N104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" ht="16.8" spans="8:14">
-      <c r="H105" s="5">
-        <v>90452</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="J105" s="5">
-        <v>1</v>
-      </c>
-      <c r="L105" s="5">
-        <v>90452</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="N105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" ht="16.8" spans="8:14">
-      <c r="H106" s="5">
-        <v>79618</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="J106" s="5">
-        <v>2</v>
-      </c>
-      <c r="L106" s="5">
-        <v>79618</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="N106" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" ht="16.8" spans="8:14">
-      <c r="H107" s="5">
-        <v>83135</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="J107" s="5">
-        <v>2</v>
-      </c>
-      <c r="L107" s="5">
-        <v>83135</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="N107" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" ht="16.8" spans="8:14">
-      <c r="H108" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="J108" s="5">
-        <v>5</v>
-      </c>
-      <c r="L108" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="N108" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" ht="16.8" spans="8:14">
-      <c r="H109" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="J109" s="5">
-        <v>5</v>
-      </c>
-      <c r="L109" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="N109" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" ht="16.8" spans="8:14">
-      <c r="H110" s="5">
-        <v>79618</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="J110" s="5">
-        <v>1</v>
-      </c>
-      <c r="L110" s="5">
-        <v>79618</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="N110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" ht="16.8" spans="8:14">
-      <c r="H111" s="5">
-        <v>84231</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="J111" s="5">
-        <v>1</v>
-      </c>
-      <c r="L111" s="5">
-        <v>84231</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="N111" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" ht="16.8" spans="8:14">
-      <c r="H112" s="5">
-        <v>90254</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="L112" s="5">
-        <v>90254</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="N112" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="16.8" spans="8:14">
-      <c r="H113" s="5">
-        <v>83135</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="J113" s="5">
-        <v>1</v>
-      </c>
-      <c r="L113" s="5">
-        <v>83135</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="N113" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" ht="16.8" spans="8:14">
-      <c r="H114" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="J114" s="5">
-        <v>4</v>
-      </c>
-      <c r="L114" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="N114" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" ht="16.8" spans="8:14">
-      <c r="H115" s="5">
-        <v>66871</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="J115" s="5">
-        <v>2</v>
-      </c>
-      <c r="L115" s="5">
-        <v>66871</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="N115" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" ht="16.8" spans="8:14">
-      <c r="H116" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="J116" s="5">
-        <v>3</v>
-      </c>
-      <c r="L116" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M116" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="N116" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" ht="16.8" spans="8:14">
-      <c r="H117" s="5">
-        <v>70390</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="J117" s="5">
-        <v>1</v>
-      </c>
-      <c r="L117" s="5">
-        <v>70390</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="N117" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" ht="16.8" spans="8:14">
-      <c r="H118" s="5">
-        <v>66871</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="J118" s="5">
-        <v>1</v>
-      </c>
-      <c r="L118" s="5">
-        <v>66871</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="N118" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" ht="16.8" spans="8:14">
-      <c r="H119" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="J119" s="5">
-        <v>4</v>
-      </c>
-      <c r="L119" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="N119" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" ht="16.8" spans="8:14">
-      <c r="H120" s="5">
-        <v>64421</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="J120" s="5">
-        <v>2</v>
-      </c>
-      <c r="L120" s="5">
-        <v>64421</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="N120" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" ht="16.8" spans="8:14">
-      <c r="H121" s="5">
-        <v>62425</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="J121" s="5">
-        <v>3</v>
-      </c>
-      <c r="L121" s="5">
-        <v>62425</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="N121" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" ht="16.8" spans="8:14">
-      <c r="H122" s="5">
-        <v>56336</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J122" s="5">
-        <v>3</v>
-      </c>
-      <c r="L122" s="5">
-        <v>56336</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="N122" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" ht="16.8" spans="8:14">
-      <c r="H123" s="5">
-        <v>61239</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="J123" s="5">
-        <v>2</v>
-      </c>
-      <c r="L123" s="5">
-        <v>61239</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="N123" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" ht="16.8" spans="8:14">
-      <c r="H124" s="5">
-        <v>64593</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="J124" s="5">
-        <v>1</v>
-      </c>
-      <c r="L124" s="5">
-        <v>64593</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="N124" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" ht="16.8" spans="8:14">
-      <c r="H125" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="J125" s="5">
-        <v>4</v>
-      </c>
-      <c r="L125" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="N125" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" ht="16.8" spans="8:14">
-      <c r="H126" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="J126" s="5">
-        <v>2</v>
-      </c>
-      <c r="L126" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="N126" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" ht="16.8" spans="8:14">
-      <c r="H127" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J127" s="5">
-        <v>3</v>
-      </c>
-      <c r="L127" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M127" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="N127" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" ht="16.8" spans="8:14">
-      <c r="H128" s="5">
-        <v>62425</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J128" s="5">
-        <v>2</v>
-      </c>
-      <c r="L128" s="5">
-        <v>62425</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="N128" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" ht="16.8" spans="8:14">
-      <c r="H129" s="5">
-        <v>56336</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="J129" s="5">
-        <v>2</v>
-      </c>
-      <c r="L129" s="5">
-        <v>56336</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="N129" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" ht="16.8" spans="8:14">
-      <c r="H130" s="5">
-        <v>61239</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J130" s="5">
-        <v>1</v>
-      </c>
-      <c r="L130" s="5">
-        <v>61239</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="N130" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" ht="16.8" spans="8:14">
-      <c r="H131" s="5">
-        <v>47224</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J131" s="5">
-        <v>1</v>
-      </c>
-      <c r="L131" s="5">
-        <v>47224</v>
-      </c>
-      <c r="M131" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="N131" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" ht="16.8" spans="8:14">
-      <c r="H132" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J132" s="5">
-        <v>3</v>
-      </c>
-      <c r="L132" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="N132" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" ht="16.8" spans="8:14">
-      <c r="H133" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J133" s="5">
-        <v>1</v>
-      </c>
-      <c r="L133" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M133" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="N133" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" ht="16.8" spans="8:14">
-      <c r="H134" s="5">
-        <v>67961</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J134" s="5">
-        <v>1</v>
-      </c>
-      <c r="L134" s="5">
-        <v>67961</v>
-      </c>
-      <c r="M134" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="N134" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" ht="16.8" spans="8:14">
-      <c r="H135" s="5">
-        <v>64421</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J135" s="5">
-        <v>1</v>
-      </c>
-      <c r="L135" s="5">
-        <v>64421</v>
-      </c>
-      <c r="M135" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="N135" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" ht="16.8" spans="8:14">
-      <c r="H136" s="5">
-        <v>49010</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J136" s="5">
-        <v>3</v>
-      </c>
-      <c r="L136" s="5">
-        <v>49010</v>
-      </c>
-      <c r="M136" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="N136" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" ht="16.8" spans="8:14">
-      <c r="H137" s="5">
-        <v>62208</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J137" s="5">
-        <v>1</v>
-      </c>
-      <c r="L137" s="5">
-        <v>62208</v>
-      </c>
-      <c r="M137" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="N137" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" ht="16.8" spans="8:14">
-      <c r="H138" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J138" s="5">
-        <v>4</v>
-      </c>
-      <c r="L138" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="N138" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" ht="16.8" spans="8:14">
-      <c r="H139" s="5">
-        <v>62425</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J139" s="5">
-        <v>1</v>
-      </c>
-      <c r="L139" s="5">
-        <v>62425</v>
-      </c>
-      <c r="M139" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="N139" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" ht="16.8" spans="8:14">
-      <c r="H140" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J140" s="5">
-        <v>2</v>
-      </c>
-      <c r="L140" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M140" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="N140" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" ht="16.8" spans="8:14">
-      <c r="H141" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="J141" s="5">
-        <v>2</v>
-      </c>
-      <c r="L141" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M141" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="N141" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" ht="16.8" spans="8:14">
-      <c r="H142" s="5">
-        <v>49010</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="J142" s="5">
-        <v>2</v>
-      </c>
-      <c r="L142" s="5">
-        <v>49010</v>
-      </c>
-      <c r="M142" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="N142" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" ht="16.8" spans="8:14">
-      <c r="H143" s="5">
-        <v>46746</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="J143" s="5">
-        <v>2</v>
-      </c>
-      <c r="L143" s="5">
-        <v>46746</v>
-      </c>
-      <c r="M143" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="N143" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" ht="16.8" spans="8:14">
-      <c r="H144" s="5">
-        <v>46511</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="J144" s="5">
-        <v>2</v>
-      </c>
-      <c r="L144" s="5">
-        <v>46511</v>
-      </c>
-      <c r="M144" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="N144" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" ht="16.8" spans="8:14">
-      <c r="H145" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="J145" s="5">
-        <v>1</v>
-      </c>
-      <c r="L145" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="N145" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" ht="16.8" spans="8:14">
-      <c r="H146" s="5">
-        <v>62717</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="J146" s="5">
-        <v>1</v>
-      </c>
-      <c r="L146" s="5">
-        <v>62717</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="N146" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" ht="16.8" spans="8:14">
-      <c r="H147" s="5">
-        <v>56484</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J147" s="5">
-        <v>1</v>
-      </c>
-      <c r="L147" s="5">
-        <v>56484</v>
-      </c>
-      <c r="M147" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="N147" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" ht="16.8" spans="8:14">
-      <c r="H148" s="5">
-        <v>49010</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="J148" s="5">
-        <v>1</v>
-      </c>
-      <c r="L148" s="5">
-        <v>49010</v>
-      </c>
-      <c r="M148" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="N148" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" ht="16.8" spans="8:14">
-      <c r="H149" s="5">
-        <v>46746</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="J149" s="5">
-        <v>1</v>
-      </c>
-      <c r="L149" s="5">
-        <v>46746</v>
-      </c>
-      <c r="M149" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="N149" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" ht="16.8" spans="8:14">
-      <c r="H150" s="5">
-        <v>46511</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="J150" s="5">
-        <v>1</v>
-      </c>
-      <c r="L150" s="5">
-        <v>46511</v>
-      </c>
-      <c r="M150" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="N150" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" ht="16.8" spans="8:14">
-      <c r="H151" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="J151" s="5">
-        <v>3</v>
-      </c>
-      <c r="L151" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M151" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="N151" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" ht="16.8" spans="8:14">
-      <c r="H152" s="5">
-        <v>56336</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="J152" s="5">
-        <v>1</v>
-      </c>
-      <c r="L152" s="5">
-        <v>56336</v>
-      </c>
-      <c r="M152" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="N152" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" ht="16.8" spans="8:14">
-      <c r="H153" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="J153" s="5">
-        <v>1</v>
-      </c>
-      <c r="L153" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M153" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="N153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" ht="16.8" spans="8:14">
-      <c r="H154" s="5">
-        <v>39718</v>
-      </c>
-      <c r="I154" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J154" s="5">
-        <v>2</v>
-      </c>
-      <c r="L154" s="5">
-        <v>39718</v>
-      </c>
-      <c r="M154" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="N154" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" ht="16.8" spans="8:14">
-      <c r="H155" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="J155" s="5">
-        <v>1</v>
-      </c>
-      <c r="L155" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M155" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="N155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" ht="16.8" spans="8:14">
-      <c r="H156" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="J156" s="5">
-        <v>2</v>
-      </c>
-      <c r="L156" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M156" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="N156" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" ht="16.8" spans="8:14">
-      <c r="H157" s="5">
-        <v>39718</v>
-      </c>
-      <c r="I157" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="J157" s="5">
-        <v>1</v>
-      </c>
-      <c r="L157" s="5">
-        <v>39718</v>
-      </c>
-      <c r="M157" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="N157" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" ht="16.8" spans="8:14">
-      <c r="H158" s="5">
+    <row r="168" ht="16.8" spans="8:14">
+      <c r="H168" s="4">
         <v>4046</v>
       </c>
-      <c r="I158" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="J158" s="5">
-        <v>1</v>
-      </c>
-      <c r="L158" s="5">
+      <c r="I168" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J168" s="4">
+        <v>1</v>
+      </c>
+      <c r="L168" s="4">
         <v>4046</v>
       </c>
-      <c r="M158" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="N158" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" ht="16.8" spans="8:14">
-      <c r="H159" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="J159" s="5">
-        <v>1</v>
-      </c>
-      <c r="L159" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M159" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N159" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" ht="16.8" spans="8:14">
-      <c r="H160" s="5">
-        <v>28379</v>
-      </c>
-      <c r="I160" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="J160" s="5">
-        <v>1</v>
-      </c>
-      <c r="L160" s="5">
-        <v>28379</v>
-      </c>
-      <c r="M160" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N160" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" ht="16.8" spans="8:14">
-      <c r="H161" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="J161" s="5">
-        <v>8</v>
-      </c>
-      <c r="L161" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M161" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="N161" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" ht="16.8" spans="8:14">
-      <c r="H162" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J162" s="5">
-        <v>7</v>
-      </c>
-      <c r="L162" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M162" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="N162" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" ht="16.8" spans="8:14">
-      <c r="H163" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="J163" s="5">
-        <v>6</v>
-      </c>
-      <c r="L163" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M163" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="N163" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" ht="16.8" spans="8:14">
-      <c r="H164" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="J164" s="5">
-        <v>5</v>
-      </c>
-      <c r="L164" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M164" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="N164" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" ht="16.8" spans="8:14">
-      <c r="H165" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="J165" s="5">
-        <v>4</v>
-      </c>
-      <c r="L165" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M165" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="N165" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" ht="16.8" spans="8:14">
-      <c r="H166" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="J166" s="5">
-        <v>3</v>
-      </c>
-      <c r="L166" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M166" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="N166" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" ht="16.8" spans="8:14">
-      <c r="H167" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="J167" s="5">
-        <v>2</v>
-      </c>
-      <c r="L167" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M167" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="N167" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" ht="16.8" spans="8:14">
-      <c r="H168" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I168" s="5" t="s">
+      <c r="M168" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="J168" s="5">
-        <v>1</v>
-      </c>
-      <c r="L168" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M168" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="N168" s="5">
+      <c r="N168" s="4">
         <v>1</v>
       </c>
     </row>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -7907,7 +7907,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7945,7 +7945,10 @@
         <v>470</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>4046</v>
       </c>
       <c r="E2" s="5">
         <v>241100</v>
@@ -7986,7 +7989,10 @@
         <v>474</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4046</v>
       </c>
       <c r="E3" s="5">
         <v>137635</v>
@@ -8029,6 +8035,9 @@
       <c r="C4" s="4">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>4046</v>
+      </c>
       <c r="H4" t="s">
         <v>479</v>
       </c>
@@ -8061,6 +8070,9 @@
       <c r="C5" s="4">
         <v>7</v>
       </c>
+      <c r="D5">
+        <v>4046</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -8093,6 +8105,9 @@
       <c r="C6" s="4">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>4046</v>
+      </c>
       <c r="H6" t="s">
         <v>479</v>
       </c>
@@ -8128,6 +8143,9 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>4046</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -8160,6 +8178,9 @@
       <c r="C8" s="4">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>4046</v>
+      </c>
       <c r="H8" t="s">
         <v>479</v>
       </c>
@@ -8192,6 +8213,9 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>4046</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -8224,6 +8248,9 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
+      <c r="D10">
+        <v>28379</v>
+      </c>
       <c r="H10" t="s">
         <v>479</v>
       </c>
@@ -8259,6 +8286,9 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>39718</v>
+      </c>
       <c r="I11">
         <v>1</v>
       </c>
@@ -8291,6 +8321,9 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>39718</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
@@ -8323,6 +8356,9 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
+      <c r="D13">
+        <v>43020</v>
+      </c>
       <c r="I13">
         <v>1</v>
       </c>
@@ -8355,6 +8391,9 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>43020</v>
+      </c>
       <c r="I14">
         <v>1</v>
       </c>
@@ -8387,6 +8426,9 @@
       <c r="C15" s="4">
         <v>4</v>
       </c>
+      <c r="D15">
+        <v>43020</v>
+      </c>
       <c r="I15">
         <v>1</v>
       </c>
@@ -8419,6 +8461,9 @@
       <c r="C16" s="4">
         <v>3</v>
       </c>
+      <c r="D16">
+        <v>43982</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -8451,6 +8496,9 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>46511</v>
+      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -8483,6 +8531,9 @@
       <c r="C18" s="4">
         <v>2</v>
       </c>
+      <c r="D18">
+        <v>46511</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -8515,6 +8566,9 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
+      <c r="D19">
+        <v>46643</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -8547,6 +8601,9 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
+      <c r="D20">
+        <v>46746</v>
+      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -8579,6 +8636,9 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
+      <c r="D21">
+        <v>46746</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -8611,6 +8671,9 @@
       <c r="C22" s="4">
         <v>2</v>
       </c>
+      <c r="D22">
+        <v>49010</v>
+      </c>
       <c r="I22">
         <v>1</v>
       </c>
@@ -8643,6 +8706,9 @@
       <c r="C23" s="4">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>61239</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -8675,6 +8741,9 @@
       <c r="C24" s="4">
         <v>2</v>
       </c>
+      <c r="D24">
+        <v>56336</v>
+      </c>
       <c r="I24">
         <v>1</v>
       </c>
@@ -8707,6 +8776,9 @@
       <c r="C25" s="4">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>43982</v>
+      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -8739,6 +8811,9 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
+      <c r="D26">
+        <v>56484</v>
+      </c>
       <c r="I26">
         <v>1</v>
       </c>
@@ -8771,6 +8846,9 @@
       <c r="C27" s="4">
         <v>3</v>
       </c>
+      <c r="D27">
+        <v>49010</v>
+      </c>
       <c r="I27">
         <v>1</v>
       </c>
@@ -8803,6 +8881,9 @@
       <c r="C28" s="4">
         <v>2</v>
       </c>
+      <c r="D28">
+        <v>46643</v>
+      </c>
       <c r="I28">
         <v>1</v>
       </c>
@@ -8826,6 +8907,9 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>46643</v>
+      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -8849,6 +8933,9 @@
       <c r="C30" s="4">
         <v>2</v>
       </c>
+      <c r="D30">
+        <v>62084</v>
+      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -8872,6 +8959,9 @@
       <c r="C31" s="4">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>62208</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -8895,6 +8985,9 @@
       <c r="C32" s="4">
         <v>7</v>
       </c>
+      <c r="D32">
+        <v>62425</v>
+      </c>
       <c r="I32">
         <v>1</v>
       </c>
@@ -8918,6 +9011,9 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>62717</v>
+      </c>
       <c r="I33">
         <v>1</v>
       </c>
@@ -8941,6 +9037,9 @@
       <c r="C34" s="4">
         <v>3</v>
       </c>
+      <c r="D34">
+        <v>43020</v>
+      </c>
       <c r="I34">
         <v>1</v>
       </c>
@@ -8964,6 +9063,9 @@
       <c r="C35" s="4">
         <v>2</v>
       </c>
+      <c r="D35">
+        <v>47224</v>
+      </c>
       <c r="T35" s="6">
         <v>62425</v>
       </c>
@@ -8984,6 +9086,9 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
+      <c r="D36">
+        <v>64421</v>
+      </c>
       <c r="T36" s="6">
         <v>56336</v>
       </c>
@@ -9004,6 +9109,9 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
+      <c r="D37">
+        <v>64593</v>
+      </c>
       <c r="T37" s="6">
         <v>61239</v>
       </c>
@@ -9024,6 +9132,9 @@
       <c r="C38" s="4">
         <v>3</v>
       </c>
+      <c r="D38">
+        <v>43982</v>
+      </c>
       <c r="T38" s="6">
         <v>64593</v>
       </c>
@@ -9044,6 +9155,9 @@
       <c r="C39" s="4">
         <v>2</v>
       </c>
+      <c r="D39">
+        <v>49010</v>
+      </c>
       <c r="T39" s="6">
         <v>46643</v>
       </c>
@@ -9064,6 +9178,9 @@
       <c r="C40" s="4">
         <v>1</v>
       </c>
+      <c r="D40">
+        <v>46643</v>
+      </c>
       <c r="T40" s="6">
         <v>62084</v>
       </c>
@@ -9084,6 +9201,9 @@
       <c r="C41" s="4">
         <v>1</v>
       </c>
+      <c r="D41">
+        <v>56336</v>
+      </c>
       <c r="T41" s="6">
         <v>43982</v>
       </c>
@@ -9104,6 +9224,9 @@
       <c r="C42" s="4">
         <v>2</v>
       </c>
+      <c r="D42">
+        <v>61239</v>
+      </c>
       <c r="T42" s="6">
         <v>62425</v>
       </c>
@@ -9124,6 +9247,9 @@
       <c r="C43" s="4">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>62425</v>
+      </c>
       <c r="T43" s="6">
         <v>56336</v>
       </c>
@@ -9144,6 +9270,9 @@
       <c r="C44" s="4">
         <v>5</v>
       </c>
+      <c r="D44">
+        <v>66871</v>
+      </c>
       <c r="T44" s="6">
         <v>61239</v>
       </c>
@@ -9164,6 +9293,9 @@
       <c r="C45" s="4">
         <v>4</v>
       </c>
+      <c r="D45">
+        <v>62084</v>
+      </c>
       <c r="T45" s="6">
         <v>47224</v>
       </c>
@@ -9184,6 +9316,9 @@
       <c r="C46" s="4">
         <v>3</v>
       </c>
+      <c r="D46">
+        <v>67961</v>
+      </c>
       <c r="T46" s="6">
         <v>46643</v>
       </c>
@@ -9204,6 +9339,9 @@
       <c r="C47" s="4">
         <v>2</v>
       </c>
+      <c r="D47">
+        <v>70390</v>
+      </c>
       <c r="T47" s="6">
         <v>62084</v>
       </c>
@@ -9224,6 +9362,9 @@
       <c r="C48" s="4">
         <v>1</v>
       </c>
+      <c r="D48">
+        <v>43982</v>
+      </c>
       <c r="H48" t="s">
         <v>479</v>
       </c>
@@ -9247,6 +9388,9 @@
       <c r="C49" s="4">
         <v>1</v>
       </c>
+      <c r="D49">
+        <v>62425</v>
+      </c>
       <c r="T49" s="6">
         <v>64421</v>
       </c>
@@ -9267,6 +9411,9 @@
       <c r="C50" s="4">
         <v>3</v>
       </c>
+      <c r="D50">
+        <v>62084</v>
+      </c>
       <c r="T50" s="6">
         <v>49010</v>
       </c>
@@ -9287,6 +9434,9 @@
       <c r="C51" s="4">
         <v>2</v>
       </c>
+      <c r="D51">
+        <v>64421</v>
+      </c>
       <c r="T51" s="6">
         <v>62208</v>
       </c>
@@ -9307,6 +9457,9 @@
       <c r="C52" s="4">
         <v>1</v>
       </c>
+      <c r="D52">
+        <v>56336</v>
+      </c>
       <c r="T52" s="6">
         <v>43020</v>
       </c>
@@ -9327,6 +9480,9 @@
       <c r="C53" s="4">
         <v>1</v>
       </c>
+      <c r="D53">
+        <v>66871</v>
+      </c>
       <c r="T53" s="6">
         <v>62425</v>
       </c>
@@ -9347,6 +9503,9 @@
       <c r="C54" s="4">
         <v>2</v>
       </c>
+      <c r="D54">
+        <v>79618</v>
+      </c>
       <c r="T54" s="6">
         <v>46643</v>
       </c>
@@ -9367,6 +9526,9 @@
       <c r="C55" s="4">
         <v>1</v>
       </c>
+      <c r="D55">
+        <v>62084</v>
+      </c>
       <c r="T55" s="6">
         <v>43982</v>
       </c>
@@ -9387,6 +9549,9 @@
       <c r="C56" s="4">
         <v>1</v>
       </c>
+      <c r="D56">
+        <v>52814</v>
+      </c>
       <c r="T56" s="6">
         <v>49010</v>
       </c>
@@ -9407,6 +9572,9 @@
       <c r="C57" s="4">
         <v>2</v>
       </c>
+      <c r="D57">
+        <v>83135</v>
+      </c>
       <c r="T57" s="6">
         <v>46746</v>
       </c>
@@ -9427,6 +9595,9 @@
       <c r="C58" s="4">
         <v>1</v>
       </c>
+      <c r="D58">
+        <v>84231</v>
+      </c>
       <c r="T58" s="6">
         <v>46511</v>
       </c>
@@ -9447,6 +9618,9 @@
       <c r="C59" s="4">
         <v>1</v>
       </c>
+      <c r="D59">
+        <v>43982</v>
+      </c>
       <c r="T59" s="6">
         <v>46643</v>
       </c>
@@ -9467,6 +9641,9 @@
       <c r="C60" s="4">
         <v>1</v>
       </c>
+      <c r="D60">
+        <v>90254</v>
+      </c>
       <c r="T60" s="6">
         <v>62717</v>
       </c>
@@ -9487,6 +9664,9 @@
       <c r="C61" s="4">
         <v>3</v>
       </c>
+      <c r="D61">
+        <v>90452</v>
+      </c>
       <c r="T61" s="6">
         <v>56484</v>
       </c>
@@ -9507,6 +9687,9 @@
       <c r="C62" s="4">
         <v>2</v>
       </c>
+      <c r="D62">
+        <v>62084</v>
+      </c>
       <c r="T62" s="6">
         <v>49010</v>
       </c>
@@ -9527,6 +9710,9 @@
       <c r="C63" s="4">
         <v>1</v>
       </c>
+      <c r="D63">
+        <v>83135</v>
+      </c>
       <c r="T63" s="6">
         <v>46746</v>
       </c>
@@ -9547,6 +9733,9 @@
       <c r="C64" s="4">
         <v>2</v>
       </c>
+      <c r="D64">
+        <v>79618</v>
+      </c>
       <c r="T64" s="6">
         <v>46511</v>
       </c>
@@ -9567,6 +9756,9 @@
       <c r="C65" s="4">
         <v>1</v>
       </c>
+      <c r="D65">
+        <v>117488</v>
+      </c>
       <c r="T65" s="6">
         <v>43020</v>
       </c>
@@ -9587,6 +9779,9 @@
       <c r="C66" s="4">
         <v>1</v>
       </c>
+      <c r="D66">
+        <v>118357</v>
+      </c>
       <c r="T66" s="6">
         <v>56336</v>
       </c>
@@ -9607,6 +9802,9 @@
       <c r="C67" s="4">
         <v>2</v>
       </c>
+      <c r="D67">
+        <v>125952</v>
+      </c>
       <c r="T67" s="6">
         <v>43982</v>
       </c>
@@ -9627,6 +9825,9 @@
       <c r="C68" s="4">
         <v>1</v>
       </c>
+      <c r="D68">
+        <v>126301</v>
+      </c>
       <c r="T68" s="6">
         <v>39718</v>
       </c>
@@ -9647,6 +9848,9 @@
       <c r="C69" s="4">
         <v>1</v>
       </c>
+      <c r="D69">
+        <v>79618</v>
+      </c>
       <c r="T69" s="6">
         <v>43020</v>
       </c>
@@ -9667,6 +9871,9 @@
       <c r="C70" s="4">
         <v>4</v>
       </c>
+      <c r="D70">
+        <v>46923</v>
+      </c>
       <c r="T70" s="6">
         <v>43020</v>
       </c>
@@ -9687,6 +9894,9 @@
       <c r="C71" s="4">
         <v>1</v>
       </c>
+      <c r="D71">
+        <v>86430</v>
+      </c>
       <c r="T71" s="6">
         <v>39718</v>
       </c>
@@ -9707,6 +9917,9 @@
       <c r="C72" s="4">
         <v>1</v>
       </c>
+      <c r="D72">
+        <v>120317</v>
+      </c>
       <c r="T72" s="6">
         <v>4046</v>
       </c>
@@ -9727,6 +9940,9 @@
       <c r="C73" s="4">
         <v>4</v>
       </c>
+      <c r="D73">
+        <v>223389</v>
+      </c>
       <c r="T73" s="6">
         <v>4046</v>
       </c>
@@ -9747,6 +9963,9 @@
       <c r="C74" s="4">
         <v>3</v>
       </c>
+      <c r="D74">
+        <v>227496</v>
+      </c>
       <c r="T74" s="6">
         <v>28379</v>
       </c>
@@ -9767,6 +9986,9 @@
       <c r="C75" s="4">
         <v>1</v>
       </c>
+      <c r="D75">
+        <v>126167</v>
+      </c>
       <c r="T75" s="6">
         <v>4046</v>
       </c>
@@ -9787,6 +10009,9 @@
       <c r="C76" s="4">
         <v>2</v>
       </c>
+      <c r="D76">
+        <v>241097</v>
+      </c>
       <c r="T76" s="6">
         <v>4046</v>
       </c>
@@ -9807,6 +10032,9 @@
       <c r="C77" s="4">
         <v>1</v>
       </c>
+      <c r="D77">
+        <v>241100</v>
+      </c>
       <c r="F77" s="9" t="s">
         <v>553</v>
       </c>
@@ -9830,6 +10058,9 @@
       <c r="C78" s="4">
         <v>3</v>
       </c>
+      <c r="D78">
+        <v>138181</v>
+      </c>
       <c r="T78" s="6">
         <v>4046</v>
       </c>
@@ -9850,6 +10081,9 @@
       <c r="C79" s="4">
         <v>2</v>
       </c>
+      <c r="D79">
+        <v>120317</v>
+      </c>
       <c r="T79" s="6">
         <v>4046</v>
       </c>
@@ -9869,6 +10103,9 @@
       </c>
       <c r="C80" s="4">
         <v>1</v>
+      </c>
+      <c r="D80">
+        <v>99962</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>554</v>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="564">
   <si>
     <t>编号</t>
   </si>
@@ -2234,6 +2234,35 @@
     <t>194636, 126167, 87773, 227496, 47224,295144</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作秀公审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二季</t>
+    </r>
+  </si>
+  <si>
     <t>？</t>
   </si>
 </sst>
@@ -2248,7 +2277,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2451,6 +2480,18 @@
       <sz val="10.5"/>
       <color rgb="FFF5AB35"/>
       <name val="Monaco"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7907,7 +7948,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8249,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>28379</v>
+        <v>4046</v>
       </c>
       <c r="H10" t="s">
         <v>479</v>
@@ -8287,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>39718</v>
+        <v>4046</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -8322,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>39718</v>
+        <v>28379</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -8357,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>43020</v>
+        <v>39718</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -8392,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>43020</v>
+        <v>39718</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -8462,7 +8503,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>43982</v>
+        <v>43020</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8497,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>46511</v>
+        <v>43020</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -8532,7 +8573,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>46511</v>
+        <v>43020</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -8567,7 +8608,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>46643</v>
+        <v>43982</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -8602,7 +8643,7 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>46746</v>
+        <v>43982</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -8637,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>46746</v>
+        <v>43982</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -8672,7 +8713,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>49010</v>
+        <v>43982</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -8707,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>61239</v>
+        <v>43982</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -8742,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>56336</v>
+        <v>46511</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -8777,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>43982</v>
+        <v>46511</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -8812,7 +8853,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>56484</v>
+        <v>46643</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8847,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>49010</v>
+        <v>46643</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -8934,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>62084</v>
+        <v>46746</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -8960,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>62208</v>
+        <v>46746</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -8986,7 +9027,7 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>62425</v>
+        <v>46923</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -9012,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>62717</v>
+        <v>47224</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -9038,7 +9079,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>43020</v>
+        <v>49010</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -9064,7 +9105,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>47224</v>
+        <v>49010</v>
       </c>
       <c r="T35" s="6">
         <v>62425</v>
@@ -9087,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>64421</v>
+        <v>49010</v>
       </c>
       <c r="T36" s="6">
         <v>56336</v>
@@ -9110,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>64593</v>
+        <v>52814</v>
       </c>
       <c r="T37" s="6">
         <v>61239</v>
@@ -9133,7 +9174,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>43982</v>
+        <v>56336</v>
       </c>
       <c r="T38" s="6">
         <v>64593</v>
@@ -9156,7 +9197,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>49010</v>
+        <v>56336</v>
       </c>
       <c r="T39" s="6">
         <v>46643</v>
@@ -9179,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>46643</v>
+        <v>56336</v>
       </c>
       <c r="T40" s="6">
         <v>62084</v>
@@ -9202,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>56336</v>
+        <v>56484</v>
       </c>
       <c r="T41" s="6">
         <v>43982</v>
@@ -9248,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>62425</v>
+        <v>61239</v>
       </c>
       <c r="T43" s="6">
         <v>56336</v>
@@ -9271,7 +9312,7 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>66871</v>
+        <v>62084</v>
       </c>
       <c r="T44" s="6">
         <v>61239</v>
@@ -9317,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>67961</v>
+        <v>62084</v>
       </c>
       <c r="T46" s="6">
         <v>46643</v>
@@ -9340,7 +9381,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>70390</v>
+        <v>62084</v>
       </c>
       <c r="T47" s="6">
         <v>62084</v>
@@ -9363,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>43982</v>
+        <v>62084</v>
       </c>
       <c r="H48" t="s">
         <v>479</v>
@@ -9389,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>62425</v>
+        <v>62208</v>
       </c>
       <c r="T49" s="6">
         <v>64421</v>
@@ -9412,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>62084</v>
+        <v>62425</v>
       </c>
       <c r="T50" s="6">
         <v>49010</v>
@@ -9435,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>64421</v>
+        <v>62425</v>
       </c>
       <c r="T51" s="6">
         <v>62208</v>
@@ -9458,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>56336</v>
+        <v>62425</v>
       </c>
       <c r="T52" s="6">
         <v>43020</v>
@@ -9481,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>66871</v>
+        <v>62717</v>
       </c>
       <c r="T53" s="6">
         <v>62425</v>
@@ -9504,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>79618</v>
+        <v>64421</v>
       </c>
       <c r="T54" s="6">
         <v>46643</v>
@@ -9527,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>62084</v>
+        <v>64421</v>
       </c>
       <c r="T55" s="6">
         <v>43982</v>
@@ -9550,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>52814</v>
+        <v>64593</v>
       </c>
       <c r="T56" s="6">
         <v>49010</v>
@@ -9573,7 +9614,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>83135</v>
+        <v>66871</v>
       </c>
       <c r="T57" s="6">
         <v>46746</v>
@@ -9596,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>84231</v>
+        <v>66871</v>
       </c>
       <c r="T58" s="6">
         <v>46511</v>
@@ -9619,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>43982</v>
+        <v>67961</v>
       </c>
       <c r="T59" s="6">
         <v>46643</v>
@@ -9642,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>90254</v>
+        <v>70390</v>
       </c>
       <c r="T60" s="6">
         <v>62717</v>
@@ -9665,7 +9706,7 @@
         <v>3</v>
       </c>
       <c r="D61">
-        <v>90452</v>
+        <v>79618</v>
       </c>
       <c r="T61" s="6">
         <v>56484</v>
@@ -9688,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>62084</v>
+        <v>79618</v>
       </c>
       <c r="T62" s="6">
         <v>49010</v>
@@ -9711,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>83135</v>
+        <v>79618</v>
       </c>
       <c r="T63" s="6">
         <v>46746</v>
@@ -9734,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>79618</v>
+        <v>83135</v>
       </c>
       <c r="T64" s="6">
         <v>46511</v>
@@ -9757,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>117488</v>
+        <v>83135</v>
       </c>
       <c r="T65" s="6">
         <v>43020</v>
@@ -9780,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>118357</v>
+        <v>84231</v>
       </c>
       <c r="T66" s="6">
         <v>56336</v>
@@ -9803,7 +9844,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>125952</v>
+        <v>86430</v>
       </c>
       <c r="T67" s="6">
         <v>43982</v>
@@ -9826,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>126301</v>
+        <v>90254</v>
       </c>
       <c r="T68" s="6">
         <v>39718</v>
@@ -9849,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>79618</v>
+        <v>90452</v>
       </c>
       <c r="T69" s="6">
         <v>43020</v>
@@ -9872,7 +9913,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>46923</v>
+        <v>99962</v>
       </c>
       <c r="T70" s="6">
         <v>43020</v>
@@ -9895,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>86430</v>
+        <v>117488</v>
       </c>
       <c r="T71" s="6">
         <v>39718</v>
@@ -9918,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>120317</v>
+        <v>118357</v>
       </c>
       <c r="T72" s="6">
         <v>4046</v>
@@ -9941,7 +9982,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>223389</v>
+        <v>120317</v>
       </c>
       <c r="T73" s="6">
         <v>4046</v>
@@ -9964,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>227496</v>
+        <v>120317</v>
       </c>
       <c r="T74" s="6">
         <v>28379</v>
@@ -9987,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>126167</v>
+        <v>125952</v>
       </c>
       <c r="T75" s="6">
         <v>4046</v>
@@ -10010,7 +10051,7 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>241097</v>
+        <v>126167</v>
       </c>
       <c r="T76" s="6">
         <v>4046</v>
@@ -10033,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>241100</v>
+        <v>126301</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>553</v>
@@ -10073,16 +10114,16 @@
     </row>
     <row r="79" ht="16.8" spans="1:22">
       <c r="A79" s="4">
-        <v>194636</v>
+        <v>223389</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="C79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>120317</v>
+        <v>223389</v>
       </c>
       <c r="T79" s="6">
         <v>4046</v>
@@ -10096,16 +10137,16 @@
     </row>
     <row r="80" ht="17" spans="1:22">
       <c r="A80" s="4">
-        <v>223389</v>
+        <v>227496</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>99962</v>
+        <v>227496</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>554</v>
@@ -10140,13 +10181,16 @@
     </row>
     <row r="81" ht="16.8" spans="1:22">
       <c r="A81" s="4">
-        <v>227496</v>
+        <v>241097</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
+      </c>
+      <c r="D81">
+        <v>241097</v>
       </c>
       <c r="I81" t="s">
         <v>561</v>
@@ -10162,14 +10206,17 @@
       </c>
     </row>
     <row r="82" ht="16.8" spans="1:22">
-      <c r="A82" s="4">
-        <v>241097</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
+      <c r="A82" s="7">
+        <v>241100</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>241100</v>
       </c>
       <c r="T82" s="6">
         <v>4046</v>
@@ -10183,13 +10230,13 @@
     </row>
     <row r="83" ht="16.8" spans="1:22">
       <c r="A83" s="7">
-        <v>241100</v>
+        <v>137635</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="C83" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T83" s="12">
         <v>39718</v>
@@ -10221,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="O85" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" ht="16.8" spans="8:14">

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="562">
   <si>
     <t>编号</t>
   </si>
@@ -1610,250 +1610,10 @@
     <t>军情五处 第十季</t>
   </si>
   <si>
-    <t>贝茨先生诉邮局</t>
-  </si>
-  <si>
-    <t>复生 第二季</t>
-  </si>
-  <si>
     <t>塔楼 第三季</t>
   </si>
   <si>
     <t>军情五处 第九季</t>
-  </si>
-  <si>
-    <t>作秀公审 第二季</t>
-  </si>
-  <si>
-    <t>乌托邦 第二季</t>
-  </si>
-  <si>
-    <t>不眠 第二季</t>
-  </si>
-  <si>
-    <t>军情五处 第八季</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>塞尔福里奇先生 第一季</t>
-  </si>
-  <si>
-    <t>洪水之后</t>
-  </si>
-  <si>
-    <t>军情五处 第七季</t>
-  </si>
-  <si>
-    <t>英伦魔法师</t>
-  </si>
-  <si>
-    <t>迷失海湾 第五季</t>
-  </si>
-  <si>
-    <t>军情五处 第六季</t>
-  </si>
-  <si>
-    <t>彭伯利谋杀案</t>
-  </si>
-  <si>
-    <t>格雷斯 第四季</t>
-  </si>
-  <si>
-    <t>军情五处 第五季</t>
-  </si>
-  <si>
-    <t>堕落 第一季</t>
-  </si>
-  <si>
-    <t>迪莉娅的证词（原：直到我杀了你）</t>
-  </si>
-  <si>
-    <t>军情五处 第四季</t>
-  </si>
-  <si>
-    <t>复生 第一季</t>
-  </si>
-  <si>
-    <t>格雷斯 第三季</t>
-  </si>
-  <si>
-    <t>军情五处 第三季</t>
-  </si>
-  <si>
-    <t>乌托邦 第一季</t>
-  </si>
-  <si>
-    <t>渎职</t>
-  </si>
-  <si>
-    <t>军情五处 第二季</t>
-  </si>
-  <si>
-    <t>超越时间线 第三季</t>
-  </si>
-  <si>
-    <t>探案拍档 第四季</t>
-  </si>
-  <si>
-    <t>军情五处 第一季</t>
-  </si>
-  <si>
-    <t>边隧谜案 第一季</t>
-  </si>
-  <si>
-    <t>设得兰谜案 第七季</t>
-  </si>
-  <si>
-    <t>安妮日记</t>
-  </si>
-  <si>
-    <t>重任在肩S1</t>
-  </si>
-  <si>
-    <t>光环 第一季</t>
-  </si>
-  <si>
-    <t>演播时刻 第二季</t>
-  </si>
-  <si>
-    <t>山巅之城 第三季</t>
-  </si>
-  <si>
-    <t>演播时刻 第一季</t>
-  </si>
-  <si>
-    <t>超越时间线 第一季</t>
-  </si>
-  <si>
-    <t>仁医莎姆</t>
-  </si>
-  <si>
-    <t>超越时间线 第四季</t>
-  </si>
-  <si>
-    <t>超越时间线 第二季</t>
-  </si>
-  <si>
-    <t>超蓬勃：优步之战 第一季</t>
-  </si>
-  <si>
-    <t>法官大人 第二季</t>
-  </si>
-  <si>
-    <t>黄蜂 第一季</t>
-  </si>
-  <si>
-    <t>重任在肩S5</t>
-  </si>
-  <si>
-    <t>说出你的秘密</t>
-  </si>
-  <si>
-    <t>重任在肩S4</t>
-  </si>
-  <si>
-    <t>山巅之城 第二季</t>
-  </si>
-  <si>
-    <t>重任在肩S3</t>
-  </si>
-  <si>
-    <t>新阴阳魔界 第二季</t>
-  </si>
-  <si>
-    <t>重任在肩S2</t>
-  </si>
-  <si>
-    <t>波尔达克 第五季</t>
-  </si>
-  <si>
-    <t>山巅之城 第一季</t>
-  </si>
-  <si>
-    <t>韦恩 第一季</t>
-  </si>
-  <si>
-    <t>塞尔福里奇先生 第四季</t>
-  </si>
-  <si>
-    <t>莱姆镇</t>
-  </si>
-  <si>
-    <t>塞尔福里奇先生 第三季</t>
-  </si>
-  <si>
-    <t>新阴阳魔界 第一季</t>
-  </si>
-  <si>
-    <t>塞尔福里奇先生 第二季</t>
-  </si>
-  <si>
-    <t>波尔达克 第四季</t>
-  </si>
-  <si>
-    <t>海豹六队 第二季</t>
-  </si>
-  <si>
-    <t>波尔达克 第三季</t>
-  </si>
-  <si>
-    <t>那时那处</t>
-  </si>
-  <si>
-    <t>海豹六队 第一季</t>
-  </si>
-  <si>
-    <t>化身博士</t>
-  </si>
-  <si>
-    <t>堕落 第三季</t>
-  </si>
-  <si>
-    <t>弗兰肯斯坦传奇 第二季</t>
-  </si>
-  <si>
-    <t>堕落 第二季</t>
-  </si>
-  <si>
-    <t>暗物质 第三季</t>
-  </si>
-  <si>
-    <t>边隧谜案 第三季</t>
-  </si>
-  <si>
-    <t>罪恶的灵魂 第二季</t>
-  </si>
-  <si>
-    <t>贝奥武夫</t>
-  </si>
-  <si>
-    <t>边隧谜案 第二季</t>
-  </si>
-  <si>
-    <t>波尔达克 第二季</t>
-  </si>
-  <si>
-    <t>暗物质 第二季</t>
-  </si>
-  <si>
-    <t>罪恶的灵魂 第一季</t>
-  </si>
-  <si>
-    <t>波尔达克 第一季</t>
-  </si>
-  <si>
-    <t>黑暗天使</t>
-  </si>
-  <si>
-    <t>真凶密码</t>
-  </si>
-  <si>
-    <t>弗兰肯斯坦传奇 第一季</t>
-  </si>
-  <si>
-    <t>暗物质 第一季</t>
   </si>
   <si>
     <r>
@@ -2119,6 +1879,24 @@
     </r>
   </si>
   <si>
+    <t>不眠 第二季</t>
+  </si>
+  <si>
+    <t>军情五处 第八季</t>
+  </si>
+  <si>
+    <t>洪水之后</t>
+  </si>
+  <si>
+    <t>军情五处 第七季</t>
+  </si>
+  <si>
+    <t>迷失海湾 第五季</t>
+  </si>
+  <si>
+    <t>军情五处 第六季</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2231,7 +2009,223 @@
     <t>194636 凯伦·皮里 第二季</t>
   </si>
   <si>
+    <t>格雷斯 第四季</t>
+  </si>
+  <si>
+    <t>军情五处 第五季</t>
+  </si>
+  <si>
     <t>194636, 126167, 87773, 227496, 47224,295144</t>
+  </si>
+  <si>
+    <t>迪莉娅的证词（原：直到我杀了你）</t>
+  </si>
+  <si>
+    <t>军情五处 第四季</t>
+  </si>
+  <si>
+    <t>格雷斯 第三季</t>
+  </si>
+  <si>
+    <t>军情五处 第三季</t>
+  </si>
+  <si>
+    <t>渎职</t>
+  </si>
+  <si>
+    <t>军情五处 第二季</t>
+  </si>
+  <si>
+    <t>探案拍档 第四季</t>
+  </si>
+  <si>
+    <t>军情五处 第一季</t>
+  </si>
+  <si>
+    <t>设得兰谜案 第七季</t>
+  </si>
+  <si>
+    <t>安妮日记</t>
+  </si>
+  <si>
+    <t>光环 第一季</t>
+  </si>
+  <si>
+    <t>演播时刻 第二季</t>
+  </si>
+  <si>
+    <t>山巅之城 第三季</t>
+  </si>
+  <si>
+    <t>演播时刻 第一季</t>
+  </si>
+  <si>
+    <t>仁医莎姆</t>
+  </si>
+  <si>
+    <t>超越时间线 第四季</t>
+  </si>
+  <si>
+    <t>超蓬勃：优步之战 第一季</t>
+  </si>
+  <si>
+    <t>超越时间线 第三季</t>
+  </si>
+  <si>
+    <t>法官大人 第二季</t>
+  </si>
+  <si>
+    <t>超越时间线 第一季</t>
+  </si>
+  <si>
+    <t>超越时间线 第二季</t>
+  </si>
+  <si>
+    <t>黄蜂 第一季</t>
+  </si>
+  <si>
+    <t>重任在肩S5</t>
+  </si>
+  <si>
+    <t>说出你的秘密</t>
+  </si>
+  <si>
+    <t>重任在肩S4</t>
+  </si>
+  <si>
+    <t>山巅之城 第二季</t>
+  </si>
+  <si>
+    <t>重任在肩S3</t>
+  </si>
+  <si>
+    <t>新阴阳魔界 第二季</t>
+  </si>
+  <si>
+    <t>重任在肩S2</t>
+  </si>
+  <si>
+    <t>波尔达克 第五季</t>
+  </si>
+  <si>
+    <t>重任在肩S1</t>
+  </si>
+  <si>
+    <t>乌托邦 第二季</t>
+  </si>
+  <si>
+    <t>山巅之城 第一季</t>
+  </si>
+  <si>
+    <t>乌托邦 第一季</t>
+  </si>
+  <si>
+    <t>韦恩 第一季</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第四季</t>
+  </si>
+  <si>
+    <t>莱姆镇</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第三季</t>
+  </si>
+  <si>
+    <t>新阴阳魔界 第一季</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第二季</t>
+  </si>
+  <si>
+    <t>波尔达克 第四季</t>
+  </si>
+  <si>
+    <t>塞尔福里奇先生 第一季</t>
+  </si>
+  <si>
+    <t>海豹六队 第二季</t>
+  </si>
+  <si>
+    <t>复生 第二季</t>
+  </si>
+  <si>
+    <t>波尔达克 第三季</t>
+  </si>
+  <si>
+    <t>复生 第一季</t>
+  </si>
+  <si>
+    <t>那时那处</t>
+  </si>
+  <si>
+    <t>海豹六队 第一季</t>
+  </si>
+  <si>
+    <t>化身博士</t>
+  </si>
+  <si>
+    <t>堕落 第三季</t>
+  </si>
+  <si>
+    <t>弗兰肯斯坦传奇 第二季</t>
+  </si>
+  <si>
+    <t>堕落 第二季</t>
+  </si>
+  <si>
+    <t>暗物质 第三季</t>
+  </si>
+  <si>
+    <t>堕落 第一季</t>
+  </si>
+  <si>
+    <t>边隧谜案 第三季</t>
+  </si>
+  <si>
+    <t>罪恶的灵魂 第二季</t>
+  </si>
+  <si>
+    <t>贝奥武夫</t>
+  </si>
+  <si>
+    <t>边隧谜案 第二季</t>
+  </si>
+  <si>
+    <t>边隧谜案 第一季</t>
+  </si>
+  <si>
+    <t>波尔达克 第二季</t>
+  </si>
+  <si>
+    <t>彭伯利谋杀案</t>
+  </si>
+  <si>
+    <t>暗物质 第二季</t>
+  </si>
+  <si>
+    <t>罪恶的灵魂 第一季</t>
+  </si>
+  <si>
+    <t>波尔达克 第一季</t>
+  </si>
+  <si>
+    <t>黑暗天使</t>
+  </si>
+  <si>
+    <t>真凶密码</t>
+  </si>
+  <si>
+    <t>弗兰肯斯坦传奇 第一季</t>
+  </si>
+  <si>
+    <t>暗物质 第一季</t>
+  </si>
+  <si>
+    <t>英伦魔法师</t>
+  </si>
+  <si>
+    <t>贝茨先生诉邮局</t>
   </si>
   <si>
     <r>
@@ -2340,16 +2334,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,29 +2374,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2418,16 +2404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,15 +2427,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2462,16 +2449,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2504,13 +2498,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,13 +2600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2540,43 +2630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2588,13 +2648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2606,85 +2672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2718,36 +2712,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2793,6 +2757,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2802,163 +2790,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2968,17 +2962,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3329,13 +3319,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4793,14 +4783,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" s="17" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A135" s="17">
+    <row r="135" s="15" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A135" s="15">
         <v>139</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5024,14 +5014,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" s="17" customFormat="1" ht="14.4" spans="1:3">
-      <c r="A156" s="17">
+    <row r="156" s="15" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A156" s="15">
         <v>160</v>
       </c>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5039,10 +5029,10 @@
       <c r="A157">
         <v>161</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="17" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5050,10 +5040,10 @@
       <c r="A158">
         <v>162</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5061,10 +5051,10 @@
       <c r="A159">
         <v>163</v>
       </c>
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5072,7 +5062,7 @@
       <c r="A160">
         <v>164</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="19" t="s">
         <v>160</v>
       </c>
       <c r="C160" t="s">
@@ -5097,13 +5087,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5111,10 +5101,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5122,10 +5112,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5147,13 +5137,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5248,2022 +5238,2022 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>10009</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
         <v>85</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>10022</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>10083</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
         <v>79</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>10117</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>10161</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
         <v>94</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>10174</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
         <v>102</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>10190</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>10222</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>10225</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10226</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>10227</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>10231</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>10232</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
         <v>2</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>10236</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>10239</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
         <v>2</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>10266</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
         <v>5</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>10300</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>10399</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>10427</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
         <v>5</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>10430</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>10453</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
         <v>2</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>10454</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
         <v>2</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>10463</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
         <v>5</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>10592</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
         <v>149</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>10595</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
         <v>6</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>10607</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
         <v>5</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>10646</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
         <v>13</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>10649</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
         <v>5</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>10650</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="13">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
         <v>5</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" spans="1:6">
-      <c r="A31" s="18">
+    <row r="31" s="15" customFormat="1" spans="1:6">
+      <c r="A31" s="16">
         <v>10686</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="18">
-        <v>1</v>
-      </c>
-      <c r="D31" s="18">
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
         <v>149</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>10734</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="13">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
         <v>146</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>10735</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="13">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
         <v>2</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>10737</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="13">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
         <v>118</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>10738</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="13">
-        <v>1</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
         <v>118</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>10758</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
         <v>2</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>10768</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="13">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
         <v>6</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>10772</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="13">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
         <v>146</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>10776</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="13">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
         <v>149</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13">
+      <c r="A40" s="11">
         <v>10791</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="13">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11">
         <v>2</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13">
+      <c r="A41" s="11">
         <v>10793</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="13">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
         <v>2</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13">
+      <c r="A42" s="11">
         <v>10820</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="13">
-        <v>1</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11">
         <v>6</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13">
+      <c r="A43" s="11">
         <v>10824</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11">
         <v>149</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="13">
+      <c r="A44" s="11">
         <v>10826</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="13">
-        <v>1</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
         <v>5</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="13">
+      <c r="A45" s="11">
         <v>10828</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="13">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11">
         <v>6</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="13">
+      <c r="A46" s="11">
         <v>10838</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13">
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
         <v>2</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13">
+      <c r="A47" s="11">
         <v>10857</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="13">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11">
         <v>2</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="13">
+      <c r="A48" s="11">
         <v>10868</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="13">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11">
         <v>149</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="13">
+      <c r="A49" s="11">
         <v>10877</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13">
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
         <v>2</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13">
+      <c r="A50" s="11">
         <v>10930</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="13">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13">
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
         <v>149</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13">
+      <c r="A51" s="11">
         <v>11105</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
         <v>149</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="13">
+      <c r="A52" s="11">
         <v>11117</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C52" s="13">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
         <v>2</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="13">
+      <c r="A53" s="11">
         <v>11123</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="13">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13">
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
         <v>2</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13">
+      <c r="A54" s="11">
         <v>11125</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
         <v>5</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="11" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="13">
+      <c r="A55" s="11">
         <v>11159</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
         <v>146</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13">
+      <c r="A56" s="11">
         <v>11196</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C56" s="13">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
         <v>146</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="11" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="13">
+      <c r="A57" s="11">
         <v>11203</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="13">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13">
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11">
         <v>2</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="13">
+      <c r="A58" s="11">
         <v>11208</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="13">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13">
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11">
         <v>5</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="13">
+      <c r="A59" s="11">
         <v>11250</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C59" s="13">
-        <v>1</v>
-      </c>
-      <c r="D59" s="13">
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11">
         <v>118</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="13">
+      <c r="A60" s="11">
         <v>11252</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="13">
-        <v>1</v>
-      </c>
-      <c r="D60" s="13">
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11">
         <v>118</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="13">
+      <c r="A61" s="11">
         <v>11253</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="13">
-        <v>1</v>
-      </c>
-      <c r="D61" s="13">
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11">
         <v>118</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="11" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="13">
+      <c r="A62" s="11">
         <v>11884</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="11">
         <v>3</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="11">
         <v>124</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="13">
+      <c r="A63" s="11">
         <v>12254</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="11">
         <v>3</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="11">
         <v>118</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="13">
+      <c r="A64" s="11">
         <v>15222</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="11">
         <v>3</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="11">
         <v>122</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="13">
+      <c r="A65" s="11">
         <v>19065</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="11">
         <v>3</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="11">
         <v>2</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="13">
+      <c r="A66" s="11">
         <v>20959</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <v>3</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="11">
         <v>122</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="13">
+      <c r="A67" s="11">
         <v>26539</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="11">
         <v>3</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="11">
         <v>122</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="13">
+      <c r="A68" s="11">
         <v>34284</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="11">
         <v>3</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="11">
         <v>122</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="13">
+      <c r="A69" s="11">
         <v>36717</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="11">
         <v>3</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="11">
         <v>122</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="13">
+      <c r="A70" s="11">
         <v>37426</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="11">
         <v>3</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="11">
         <v>122</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="13">
+      <c r="A71" s="11">
         <v>37678</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="11">
         <v>3</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="11">
         <v>122</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="13">
+      <c r="A72" s="11">
         <v>38345</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="11">
         <v>3</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="11">
         <v>122</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="13">
+      <c r="A73" s="11">
         <v>38455</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="11">
         <v>3</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="11">
         <v>122</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="13">
+      <c r="A74" s="11">
         <v>38695</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="11">
         <v>3</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="11">
         <v>122</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="13">
+      <c r="A75" s="11">
         <v>38732</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="11">
         <v>3</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="11">
         <v>122</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="13">
+      <c r="A76" s="11">
         <v>38865</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="11">
         <v>3</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="11">
         <v>122</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="13">
+      <c r="A77" s="11">
         <v>39709</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="11">
         <v>3</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="11">
         <v>122</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="13">
+      <c r="A78" s="11">
         <v>39743</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="11">
         <v>3</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="11">
         <v>122</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="13">
+      <c r="A79" s="11">
         <v>41443</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="11">
         <v>3</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="11">
         <v>122</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="13">
+      <c r="A80" s="11">
         <v>47125</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="11">
         <v>3</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="11">
         <v>150</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="11" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="13">
+      <c r="A81" s="11">
         <v>47259</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="11">
         <v>3</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="11">
         <v>150</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="13">
+      <c r="A82" s="11">
         <v>47572</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="11">
         <v>3</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="11">
         <v>150</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="11" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="13">
+      <c r="A83" s="11">
         <v>47618</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="11">
         <v>3</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="11">
         <v>150</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="13">
+      <c r="A84" s="11">
         <v>47678</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="11">
         <v>3</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="11">
         <v>150</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="13">
+      <c r="A85" s="11">
         <v>48183</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="11">
         <v>3</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="11">
         <v>22</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="13">
+      <c r="A86" s="11">
         <v>48303</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="11">
         <v>3</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="11">
         <v>150</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="11" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="13">
+      <c r="A87" s="11">
         <v>48365</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="11">
         <v>3</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="11">
         <v>150</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="13">
+      <c r="A88" s="11">
         <v>48565</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="11">
         <v>3</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="11">
         <v>150</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="13">
+      <c r="A89" s="11">
         <v>48816</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="11">
         <v>3</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="11">
         <v>150</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="11" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="13">
+      <c r="A90" s="11">
         <v>48864</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="11">
         <v>3</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="11">
         <v>150</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="13">
+      <c r="A91" s="11">
         <v>48919</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="11">
         <v>3</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="11">
         <v>150</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="13">
+      <c r="A92" s="11">
         <v>48955</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="11">
         <v>3</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="11">
         <v>150</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="11" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="13">
+      <c r="A93" s="11">
         <v>49009</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="11">
         <v>3</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="11">
         <v>150</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="13">
+      <c r="A94" s="11">
         <v>49039</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="11">
         <v>3</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="11">
         <v>150</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="11" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="13">
+      <c r="A95" s="11">
         <v>49071</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="11">
         <v>3</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="11">
         <v>150</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="11" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="13">
+      <c r="A96" s="11">
         <v>49551</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="11">
         <v>3</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="11">
         <v>2</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="13">
+      <c r="A97" s="11">
         <v>50038</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="11">
         <v>3</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="11">
         <v>150</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="11" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="13">
+      <c r="A98" s="11">
         <v>51577</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="11">
         <v>3</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="11">
         <v>150</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="11" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="13">
+      <c r="A99" s="11">
         <v>51835</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="11">
         <v>3</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="11">
         <v>150</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="11" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="13">
+      <c r="A100" s="11">
         <v>52026</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="11">
         <v>3</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="11">
         <v>150</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E100" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="11" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="13">
+      <c r="A101" s="11">
         <v>52459</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="11">
         <v>3</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="11">
         <v>150</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="E101" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="11" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7278,66 +7268,66 @@
   <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="17" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1046090</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="1:2">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>1229349</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="1:2">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>693134</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:2">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>823464</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>1176574</v>
       </c>
       <c r="B6" t="s">
@@ -7345,7 +7335,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>582311</v>
       </c>
       <c r="B7" t="s">
@@ -7353,7 +7343,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>695721</v>
       </c>
       <c r="B8" t="s">
@@ -7420,7 +7410,7 @@
       <c r="A16">
         <v>782054</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7444,7 +7434,7 @@
       <c r="A19">
         <v>293021</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7460,7 +7450,7 @@
       <c r="A21">
         <v>1133008</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7524,7 +7514,7 @@
       <c r="A29">
         <v>1093485</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7532,7 +7522,7 @@
       <c r="A30">
         <v>1091508</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7540,7 +7530,7 @@
       <c r="A31">
         <v>664412</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7548,7 +7538,7 @@
       <c r="A32">
         <v>1107387</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7556,7 +7546,7 @@
       <c r="A33">
         <v>1066298</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7564,7 +7554,7 @@
       <c r="A34">
         <v>741602</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7572,7 +7562,7 @@
       <c r="A35">
         <v>916224</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7580,7 +7570,7 @@
       <c r="A36">
         <v>827689</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7588,7 +7578,7 @@
       <c r="A37">
         <v>895435</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7596,7 +7586,7 @@
       <c r="A38">
         <v>1148812</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7604,7 +7594,7 @@
       <c r="A39">
         <v>1115379</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7612,7 +7602,7 @@
       <c r="A40">
         <v>1076500</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7620,7 +7610,7 @@
       <c r="A41">
         <v>661579</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7628,7 +7618,7 @@
       <c r="A42">
         <v>1211979</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7636,7 +7626,7 @@
       <c r="A43">
         <v>1183113</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7644,7 +7634,7 @@
       <c r="A44">
         <v>961381</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7652,7 +7642,7 @@
       <c r="A45">
         <v>606870</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7660,7 +7650,7 @@
       <c r="A46">
         <v>718919</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7668,7 +7658,7 @@
       <c r="A47">
         <v>930432</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7676,7 +7666,7 @@
       <c r="A48">
         <v>987507</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7684,7 +7674,7 @@
       <c r="A49">
         <v>715370</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7692,7 +7682,7 @@
       <c r="A50">
         <v>598212</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7700,7 +7690,7 @@
       <c r="A51">
         <v>628900</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7708,7 +7698,7 @@
       <c r="A52">
         <v>747546</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7716,7 +7706,7 @@
       <c r="A53">
         <v>539885</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7724,7 +7714,7 @@
       <c r="A54">
         <v>582589</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7732,7 +7722,7 @@
       <c r="A55">
         <v>310307</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7740,7 +7730,7 @@
       <c r="A56">
         <v>340676</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7748,7 +7738,7 @@
       <c r="A57">
         <v>252164</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7756,7 +7746,7 @@
       <c r="A58">
         <v>157845</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7764,7 +7754,7 @@
       <c r="A59">
         <v>157825</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7772,7 +7762,7 @@
       <c r="A60">
         <v>96936</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7780,7 +7770,7 @@
       <c r="A61">
         <v>10425</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7788,7 +7778,7 @@
       <c r="A62">
         <v>2207</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="14" t="s">
         <v>447</v>
       </c>
     </row>
@@ -7796,7 +7786,7 @@
       <c r="A63">
         <v>993621</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="14" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7804,7 +7794,7 @@
       <c r="A64">
         <v>672475</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7812,7 +7802,7 @@
       <c r="A65">
         <v>785663</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="14" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7820,7 +7810,7 @@
       <c r="A66">
         <v>619778</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="14" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7828,7 +7818,7 @@
       <c r="A67">
         <v>791373</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7836,7 +7826,7 @@
       <c r="A68">
         <v>293768</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7844,7 +7834,7 @@
       <c r="A69">
         <v>277</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="14" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7852,7 +7842,7 @@
       <c r="A70">
         <v>762079</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="14" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7860,7 +7850,7 @@
       <c r="A71">
         <v>582909</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="14" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7868,7 +7858,7 @@
       <c r="A72">
         <v>543749</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="14" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7876,7 +7866,7 @@
       <c r="A73">
         <v>457955</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="14" t="s">
         <v>458</v>
       </c>
     </row>
@@ -7884,7 +7874,7 @@
       <c r="A74">
         <v>527004</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="14" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7892,7 +7882,7 @@
       <c r="A75">
         <v>403509</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="14" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7900,7 +7890,7 @@
       <c r="A76">
         <v>524625</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="14" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7908,7 +7898,7 @@
       <c r="A77">
         <v>50737</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="14" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7916,7 +7906,7 @@
       <c r="A78">
         <v>27957</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7924,7 +7914,7 @@
       <c r="A79">
         <v>438154</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7932,7 +7922,7 @@
       <c r="A80">
         <v>295144</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="6" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7945,10 +7935,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7968,13 +7958,13 @@
       <c r="C1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="8">
         <v>194636</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="4">
         <v>2</v>
       </c>
     </row>
@@ -7988,37 +7978,15 @@
       <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>4046</v>
-      </c>
-      <c r="E2" s="5">
-        <v>241100</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="T2" s="8">
+        <v>138181</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>46746</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2</v>
-      </c>
-      <c r="T2" s="6">
-        <v>138181</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>3</v>
       </c>
     </row>
@@ -8027,42 +7995,23 @@
         <v>4046</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C3" s="4">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>4046</v>
-      </c>
-      <c r="E3" s="5">
-        <v>137635</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>46511</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2</v>
-      </c>
-      <c r="T3" s="6">
+        <v>473</v>
+      </c>
+      <c r="T3" s="8">
         <v>126167</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="U3" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="V3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -8071,33 +8020,19 @@
         <v>4046</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>4046</v>
-      </c>
-      <c r="H4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J4" s="5">
-        <v>46643</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="D4"/>
+      <c r="T4" s="8">
         <v>241097</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="V4" s="5">
+      <c r="U4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="V4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8106,71 +8041,61 @@
         <v>4046</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>4046</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>62717</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="D5"/>
+      <c r="T5" s="8">
         <v>87773</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="V5" s="5">
+      <c r="U5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="V5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:22">
+    <row r="6" ht="17" spans="1:22">
       <c r="A6" s="4">
         <v>4046</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>4046</v>
-      </c>
-      <c r="H6" t="s">
-        <v>479</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>56484</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="D6"/>
+      <c r="F6" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="T6" s="8">
         <v>120317</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>4</v>
       </c>
     </row>
@@ -8184,28 +8109,17 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>4046</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>49010</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="D7"/>
+      <c r="I7" t="s">
         <v>489</v>
       </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
+      <c r="T7" s="8">
         <v>227496</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8219,28 +8133,14 @@
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>4046</v>
-      </c>
-      <c r="H8" t="s">
-        <v>479</v>
-      </c>
-      <c r="J8" s="5">
-        <v>46746</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="D8"/>
+      <c r="T8" s="8">
+        <v>120317</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>120317</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>3</v>
       </c>
     </row>
@@ -8249,33 +8149,19 @@
         <v>4046</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>4046</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>46511</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
+      <c r="D9"/>
+      <c r="T9" s="8">
         <v>223389</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="V9" s="5">
+      <c r="U9" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="V9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8284,36 +8170,19 @@
         <v>4046</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>4046</v>
-      </c>
-      <c r="H10" t="s">
-        <v>479</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>43020</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="D10"/>
+      <c r="T10" s="8">
         <v>99962</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="V10" s="5">
+      <c r="U10" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="V10" s="4">
         <v>4</v>
       </c>
     </row>
@@ -8322,33 +8191,19 @@
         <v>4046</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>4046</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>56336</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
+      <c r="D11"/>
+      <c r="T11" s="8">
         <v>46923</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="U11" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="V11" s="4">
         <v>7</v>
       </c>
     </row>
@@ -8357,33 +8212,19 @@
         <v>28379</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>28379</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>43982</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="D12"/>
+      <c r="T12" s="8">
         <v>52814</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="U12" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="V12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8392,33 +8233,19 @@
         <v>39718</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>39718</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>39718</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="D13"/>
+      <c r="T13" s="8">
         <v>79618</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="U13" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="V13" s="4">
         <v>3</v>
       </c>
     </row>
@@ -8427,33 +8254,19 @@
         <v>39718</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>39718</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>43020</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="D14"/>
+      <c r="T14" s="8">
         <v>125952</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="V14" s="5">
+      <c r="U14" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="V14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8462,33 +8275,19 @@
         <v>43020</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>43020</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>43020</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2</v>
-      </c>
-      <c r="T15" s="6">
+      <c r="D15"/>
+      <c r="T15" s="8">
         <v>126301</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="V15" s="5">
+      <c r="U15" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="V15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8497,33 +8296,19 @@
         <v>43020</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>43020</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>39718</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="D16"/>
+      <c r="T16" s="8">
+        <v>86430</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6">
-        <v>86430</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="V16" s="5">
+      <c r="V16" s="4">
         <v>2</v>
       </c>
     </row>
@@ -8537,28 +8322,14 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>43020</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="D17"/>
+      <c r="T17" s="8">
         <v>118357</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <v>1883</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8567,33 +8338,19 @@
         <v>43020</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>43020</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="D18"/>
+      <c r="T18" s="8">
         <v>117488</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="V18" s="5">
+      <c r="U18" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="V18" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8602,33 +8359,19 @@
         <v>43982</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>43982</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>28379</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="D19"/>
+      <c r="T19" s="8">
         <v>90452</v>
       </c>
-      <c r="U19" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="V19" s="5">
+      <c r="U19" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="V19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8637,33 +8380,19 @@
         <v>43982</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>43982</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="L20" s="5">
-        <v>8</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="D20"/>
+      <c r="T20" s="8">
         <v>79618</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="V20" s="5">
+      <c r="U20" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="V20" s="4">
         <v>2</v>
       </c>
     </row>
@@ -8672,33 +8401,19 @@
         <v>43982</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>43982</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="L21" s="5">
-        <v>7</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="D21"/>
+      <c r="T21" s="8">
         <v>83135</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="V21" s="5">
+      <c r="U21" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="V21" s="4">
         <v>2</v>
       </c>
     </row>
@@ -8707,33 +8422,19 @@
         <v>43982</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>43982</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="L22" s="5">
-        <v>6</v>
-      </c>
-      <c r="T22" s="6">
+      <c r="D22"/>
+      <c r="T22" s="8">
         <v>62084</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="V22" s="5">
+      <c r="U22" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="V22" s="4">
         <v>5</v>
       </c>
     </row>
@@ -8742,33 +8443,19 @@
         <v>43982</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23"/>
+      <c r="T23" s="8">
         <v>43982</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L23" s="5">
-        <v>5</v>
-      </c>
-      <c r="T23" s="6">
-        <v>43982</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="V23" s="5">
+      <c r="U23" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="V23" s="4">
         <v>5</v>
       </c>
     </row>
@@ -8777,33 +8464,19 @@
         <v>46511</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>46511</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="L24" s="5">
-        <v>4</v>
-      </c>
-      <c r="T24" s="6">
+      <c r="D24"/>
+      <c r="T24" s="8">
         <v>79618</v>
       </c>
-      <c r="U24" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="V24" s="5">
+      <c r="U24" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="V24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8812,33 +8485,19 @@
         <v>46511</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>46511</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="L25" s="5">
-        <v>3</v>
-      </c>
-      <c r="T25" s="6">
+      <c r="D25"/>
+      <c r="T25" s="8">
         <v>84231</v>
       </c>
-      <c r="U25" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="V25" s="5">
+      <c r="U25" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="V25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8847,33 +8506,19 @@
         <v>46643</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>46643</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="L26" s="5">
-        <v>2</v>
-      </c>
-      <c r="T26" s="6">
+      <c r="D26"/>
+      <c r="T26" s="8">
         <v>90254</v>
       </c>
-      <c r="U26" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="V26" s="5">
+      <c r="U26" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="V26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8882,33 +8527,19 @@
         <v>46643</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>46643</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>4046</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="T27" s="6">
+      <c r="D27"/>
+      <c r="T27" s="8">
         <v>83135</v>
       </c>
-      <c r="U27" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="V27" s="5">
+      <c r="U27" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="V27" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8917,24 +8548,19 @@
         <v>46643</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>46643</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="T28" s="6">
+      <c r="D28"/>
+      <c r="T28" s="8">
         <v>62084</v>
       </c>
-      <c r="U28" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="V28" s="5">
+      <c r="U28" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="V28" s="4">
         <v>4</v>
       </c>
     </row>
@@ -8943,24 +8569,19 @@
         <v>46643</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>46643</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="T29" s="6">
+      <c r="D29"/>
+      <c r="T29" s="8">
         <v>66871</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="4">
         <v>2</v>
       </c>
     </row>
@@ -8969,24 +8590,19 @@
         <v>46746</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>46746</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="T30" s="6">
+      <c r="D30"/>
+      <c r="T30" s="8">
         <v>62084</v>
       </c>
-      <c r="U30" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="V30" s="5">
+      <c r="U30" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="V30" s="4">
         <v>3</v>
       </c>
     </row>
@@ -8995,24 +8611,19 @@
         <v>46746</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>46746</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="T31" s="6">
+      <c r="D31"/>
+      <c r="T31" s="8">
         <v>70390</v>
       </c>
-      <c r="U31" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="V31" s="5">
+      <c r="U31" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="V31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9021,24 +8632,19 @@
         <v>46923</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C32" s="4">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>46923</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="T32" s="6">
+      <c r="D32"/>
+      <c r="T32" s="8">
         <v>66871</v>
       </c>
-      <c r="U32" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="V32" s="5">
+      <c r="U32" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="V32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9047,24 +8653,19 @@
         <v>47224</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>47224</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="T33" s="6">
+      <c r="D33"/>
+      <c r="T33" s="8">
         <v>43982</v>
       </c>
-      <c r="U33" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="V33" s="5">
+      <c r="U33" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="V33" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9073,24 +8674,19 @@
         <v>49010</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>49010</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="T34" s="6">
+      <c r="D34"/>
+      <c r="T34" s="8">
         <v>64421</v>
       </c>
-      <c r="U34" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="V34" s="5">
+      <c r="U34" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="V34" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9099,21 +8695,19 @@
         <v>49010</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="D35">
-        <v>49010</v>
-      </c>
-      <c r="T35" s="6">
+      <c r="D35"/>
+      <c r="T35" s="8">
         <v>62425</v>
       </c>
-      <c r="U35" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="V35" s="5">
+      <c r="U35" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="V35" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9122,21 +8716,19 @@
         <v>49010</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>49010</v>
-      </c>
-      <c r="T36" s="6">
+      <c r="D36"/>
+      <c r="T36" s="8">
         <v>56336</v>
       </c>
-      <c r="U36" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="V36" s="5">
+      <c r="U36" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="V36" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9145,21 +8737,19 @@
         <v>52814</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>52814</v>
-      </c>
-      <c r="T37" s="6">
+      <c r="D37"/>
+      <c r="T37" s="8">
         <v>61239</v>
       </c>
-      <c r="U37" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="V37" s="5">
+      <c r="U37" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="V37" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9168,21 +8758,19 @@
         <v>56336</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>56336</v>
-      </c>
-      <c r="T38" s="6">
+      <c r="D38"/>
+      <c r="T38" s="8">
         <v>64593</v>
       </c>
-      <c r="U38" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="V38" s="5">
+      <c r="U38" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="V38" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9191,21 +8779,19 @@
         <v>56336</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>56336</v>
-      </c>
-      <c r="T39" s="6">
+      <c r="D39"/>
+      <c r="T39" s="8">
         <v>46643</v>
       </c>
-      <c r="U39" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="V39" s="5">
+      <c r="U39" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="V39" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9214,21 +8800,19 @@
         <v>56336</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40">
-        <v>56336</v>
-      </c>
-      <c r="T40" s="6">
+      <c r="D40"/>
+      <c r="T40" s="8">
         <v>62084</v>
       </c>
-      <c r="U40" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="V40" s="5">
+      <c r="U40" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="V40" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9237,21 +8821,19 @@
         <v>56484</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>56484</v>
-      </c>
-      <c r="T41" s="6">
+      <c r="D41"/>
+      <c r="T41" s="8">
         <v>43982</v>
       </c>
-      <c r="U41" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="V41" s="5">
+      <c r="U41" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="V41" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9260,21 +8842,19 @@
         <v>61239</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
-      <c r="D42">
-        <v>61239</v>
-      </c>
-      <c r="T42" s="6">
+      <c r="D42"/>
+      <c r="T42" s="8">
         <v>62425</v>
       </c>
-      <c r="U42" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="V42" s="5">
+      <c r="U42" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="V42" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9283,21 +8863,19 @@
         <v>61239</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43"/>
+      <c r="T43" s="8">
+        <v>56336</v>
+      </c>
+      <c r="U43" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>61239</v>
-      </c>
-      <c r="T43" s="6">
-        <v>56336</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="V43" s="5">
+      <c r="V43" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9306,21 +8884,19 @@
         <v>62084</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C44" s="4">
         <v>5</v>
       </c>
-      <c r="D44">
-        <v>62084</v>
-      </c>
-      <c r="T44" s="6">
+      <c r="D44"/>
+      <c r="T44" s="8">
         <v>61239</v>
       </c>
-      <c r="U44" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="V44" s="5">
+      <c r="U44" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="V44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9329,21 +8905,19 @@
         <v>62084</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>62084</v>
-      </c>
-      <c r="T45" s="6">
+      <c r="D45"/>
+      <c r="T45" s="8">
         <v>47224</v>
       </c>
-      <c r="U45" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="V45" s="5">
+      <c r="U45" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="V45" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9352,21 +8926,19 @@
         <v>62084</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
       </c>
-      <c r="D46">
-        <v>62084</v>
-      </c>
-      <c r="T46" s="6">
+      <c r="D46"/>
+      <c r="T46" s="8">
         <v>46643</v>
       </c>
-      <c r="U46" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="V46" s="5">
+      <c r="U46" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="V46" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9375,21 +8947,19 @@
         <v>62084</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="D47"/>
+      <c r="T47" s="8">
         <v>62084</v>
       </c>
-      <c r="T47" s="6">
-        <v>62084</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="V47" s="5">
+      <c r="U47" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="V47" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9398,24 +8968,19 @@
         <v>62084</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
-      <c r="D48">
-        <v>62084</v>
-      </c>
-      <c r="H48" t="s">
-        <v>479</v>
-      </c>
-      <c r="T48" s="6">
+      <c r="D48"/>
+      <c r="T48" s="8">
         <v>67961</v>
       </c>
-      <c r="U48" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="V48" s="5">
+      <c r="U48" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="V48" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9424,21 +8989,19 @@
         <v>62208</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49">
-        <v>62208</v>
-      </c>
-      <c r="T49" s="6">
+      <c r="D49"/>
+      <c r="T49" s="8">
         <v>64421</v>
       </c>
-      <c r="U49" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="V49" s="5">
+      <c r="U49" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="V49" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9447,21 +9010,19 @@
         <v>62425</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C50" s="4">
         <v>3</v>
       </c>
-      <c r="D50">
-        <v>62425</v>
-      </c>
-      <c r="T50" s="6">
+      <c r="D50"/>
+      <c r="T50" s="8">
         <v>49010</v>
       </c>
-      <c r="U50" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="V50" s="5">
+      <c r="U50" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="V50" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9470,21 +9031,19 @@
         <v>62425</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C51" s="4">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>62425</v>
-      </c>
-      <c r="T51" s="6">
+      <c r="D51"/>
+      <c r="T51" s="8">
         <v>62208</v>
       </c>
-      <c r="U51" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="V51" s="5">
+      <c r="U51" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="V51" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9493,21 +9052,19 @@
         <v>62425</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
       </c>
-      <c r="D52">
-        <v>62425</v>
-      </c>
-      <c r="T52" s="6">
+      <c r="D52"/>
+      <c r="T52" s="8">
         <v>43020</v>
       </c>
-      <c r="U52" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="V52" s="5">
+      <c r="U52" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="V52" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9516,21 +9073,19 @@
         <v>62717</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
-      <c r="D53">
-        <v>62717</v>
-      </c>
-      <c r="T53" s="6">
+      <c r="D53"/>
+      <c r="T53" s="8">
         <v>62425</v>
       </c>
-      <c r="U53" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="V53" s="5">
+      <c r="U53" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="V53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9539,21 +9094,19 @@
         <v>64421</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>64421</v>
-      </c>
-      <c r="T54" s="6">
+      <c r="D54"/>
+      <c r="T54" s="8">
         <v>46643</v>
       </c>
-      <c r="U54" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="V54" s="5">
+      <c r="U54" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="V54" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9562,21 +9115,19 @@
         <v>64421</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55">
-        <v>64421</v>
-      </c>
-      <c r="T55" s="6">
+      <c r="D55"/>
+      <c r="T55" s="8">
         <v>43982</v>
       </c>
-      <c r="U55" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="V55" s="5">
+      <c r="U55" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="V55" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9585,21 +9136,19 @@
         <v>64593</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56">
-        <v>64593</v>
-      </c>
-      <c r="T56" s="6">
+      <c r="D56"/>
+      <c r="T56" s="8">
         <v>49010</v>
       </c>
-      <c r="U56" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="V56" s="5">
+      <c r="U56" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="V56" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9613,16 +9162,14 @@
       <c r="C57" s="4">
         <v>2</v>
       </c>
-      <c r="D57">
-        <v>66871</v>
-      </c>
-      <c r="T57" s="6">
+      <c r="D57"/>
+      <c r="T57" s="8">
         <v>46746</v>
       </c>
-      <c r="U57" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="V57" s="5">
+      <c r="U57" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="V57" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9631,21 +9178,19 @@
         <v>66871</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
-      <c r="D58">
-        <v>66871</v>
-      </c>
-      <c r="T58" s="6">
+      <c r="D58"/>
+      <c r="T58" s="8">
         <v>46511</v>
       </c>
-      <c r="U58" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="V58" s="5">
+      <c r="U58" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="V58" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9654,21 +9199,19 @@
         <v>67961</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59">
-        <v>67961</v>
-      </c>
-      <c r="T59" s="6">
+      <c r="D59"/>
+      <c r="T59" s="8">
         <v>46643</v>
       </c>
-      <c r="U59" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="V59" s="5">
+      <c r="U59" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="V59" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9677,21 +9220,19 @@
         <v>70390</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
-      <c r="D60">
-        <v>70390</v>
-      </c>
-      <c r="T60" s="6">
+      <c r="D60"/>
+      <c r="T60" s="8">
         <v>62717</v>
       </c>
-      <c r="U60" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="V60" s="5">
+      <c r="U60" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="V60" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9700,21 +9241,19 @@
         <v>79618</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
       </c>
-      <c r="D61">
-        <v>79618</v>
-      </c>
-      <c r="T61" s="6">
+      <c r="D61"/>
+      <c r="T61" s="8">
         <v>56484</v>
       </c>
-      <c r="U61" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="V61" s="5">
+      <c r="U61" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="V61" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9723,21 +9262,19 @@
         <v>79618</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C62" s="4">
         <v>2</v>
       </c>
-      <c r="D62">
-        <v>79618</v>
-      </c>
-      <c r="T62" s="6">
+      <c r="D62"/>
+      <c r="T62" s="8">
         <v>49010</v>
       </c>
-      <c r="U62" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="V62" s="5">
+      <c r="U62" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="V62" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9746,21 +9283,19 @@
         <v>79618</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
       </c>
-      <c r="D63">
-        <v>79618</v>
-      </c>
-      <c r="T63" s="6">
+      <c r="D63"/>
+      <c r="T63" s="8">
         <v>46746</v>
       </c>
-      <c r="U63" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="V63" s="5">
+      <c r="U63" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="V63" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9769,21 +9304,19 @@
         <v>83135</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D64">
-        <v>83135</v>
-      </c>
-      <c r="T64" s="6">
+      <c r="D64"/>
+      <c r="T64" s="8">
         <v>46511</v>
       </c>
-      <c r="U64" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="V64" s="5">
+      <c r="U64" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="V64" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9792,21 +9325,19 @@
         <v>83135</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
       </c>
-      <c r="D65">
-        <v>83135</v>
-      </c>
-      <c r="T65" s="6">
+      <c r="D65"/>
+      <c r="T65" s="8">
         <v>43020</v>
       </c>
-      <c r="U65" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="V65" s="5">
+      <c r="U65" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="V65" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9815,21 +9346,19 @@
         <v>84231</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
-      <c r="D66">
-        <v>84231</v>
-      </c>
-      <c r="T66" s="6">
+      <c r="D66"/>
+      <c r="T66" s="8">
         <v>56336</v>
       </c>
-      <c r="U66" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="V66" s="5">
+      <c r="U66" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="V66" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9838,21 +9367,19 @@
         <v>86430</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D67">
-        <v>86430</v>
-      </c>
-      <c r="T67" s="6">
+      <c r="D67"/>
+      <c r="T67" s="8">
         <v>43982</v>
       </c>
-      <c r="U67" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="V67" s="5">
+      <c r="U67" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="V67" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9861,21 +9388,19 @@
         <v>90254</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
       </c>
-      <c r="D68">
-        <v>90254</v>
-      </c>
-      <c r="T68" s="6">
+      <c r="D68"/>
+      <c r="T68" s="8">
         <v>39718</v>
       </c>
-      <c r="U68" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="V68" s="5">
+      <c r="U68" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="V68" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9884,21 +9409,19 @@
         <v>90452</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
       </c>
-      <c r="D69">
-        <v>90452</v>
-      </c>
-      <c r="T69" s="6">
+      <c r="D69"/>
+      <c r="T69" s="8">
         <v>43020</v>
       </c>
-      <c r="U69" s="5" t="s">
+      <c r="U69" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V69" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9907,21 +9430,19 @@
         <v>99962</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C70" s="4">
         <v>4</v>
       </c>
-      <c r="D70">
-        <v>99962</v>
-      </c>
-      <c r="T70" s="6">
+      <c r="D70"/>
+      <c r="T70" s="8">
         <v>43020</v>
       </c>
-      <c r="U70" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="V70" s="5">
+      <c r="U70" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="V70" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9930,21 +9451,19 @@
         <v>117488</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
-      <c r="D71">
-        <v>117488</v>
-      </c>
-      <c r="T71" s="6">
+      <c r="D71"/>
+      <c r="T71" s="8">
         <v>39718</v>
       </c>
-      <c r="U71" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V71" s="5">
+      <c r="U71" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="V71" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9958,16 +9477,14 @@
       <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72">
-        <v>118357</v>
-      </c>
-      <c r="T72" s="6">
+      <c r="D72"/>
+      <c r="T72" s="8">
         <v>4046</v>
       </c>
-      <c r="U72" s="5" t="s">
+      <c r="U72" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="V72" s="5">
+      <c r="V72" s="4">
         <v>10</v>
       </c>
     </row>
@@ -9981,16 +9498,14 @@
       <c r="C73" s="4">
         <v>4</v>
       </c>
-      <c r="D73">
-        <v>120317</v>
-      </c>
-      <c r="T73" s="6">
+      <c r="D73"/>
+      <c r="T73" s="8">
         <v>4046</v>
       </c>
-      <c r="U73" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="V73" s="5">
+      <c r="U73" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V73" s="4">
         <v>9</v>
       </c>
     </row>
@@ -9999,21 +9514,19 @@
         <v>120317</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
       </c>
-      <c r="D74">
-        <v>120317</v>
-      </c>
-      <c r="T74" s="6">
+      <c r="D74"/>
+      <c r="T74" s="8">
         <v>28379</v>
       </c>
-      <c r="U74" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="V74" s="5">
+      <c r="U74" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="V74" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10022,21 +9535,19 @@
         <v>125952</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75">
-        <v>125952</v>
-      </c>
-      <c r="T75" s="6">
+      <c r="D75"/>
+      <c r="T75" s="8">
         <v>4046</v>
       </c>
-      <c r="U75" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="V75" s="5">
+      <c r="U75" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="V75" s="4">
         <v>8</v>
       </c>
     </row>
@@ -10045,21 +9556,19 @@
         <v>126167</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D76">
-        <v>126167</v>
-      </c>
-      <c r="T76" s="6">
+      <c r="D76"/>
+      <c r="T76" s="8">
         <v>4046</v>
       </c>
-      <c r="U76" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="V76" s="5">
+      <c r="U76" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="V76" s="4">
         <v>7</v>
       </c>
     </row>
@@ -10068,24 +9577,19 @@
         <v>126301</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
       </c>
-      <c r="D77">
-        <v>126301</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="T77" s="6">
+      <c r="D77"/>
+      <c r="T77" s="8">
         <v>4046</v>
       </c>
-      <c r="U77" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="V77" s="5">
+      <c r="U77" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="V77" s="4">
         <v>6</v>
       </c>
     </row>
@@ -10094,21 +9598,19 @@
         <v>138181</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
       </c>
-      <c r="D78">
-        <v>138181</v>
-      </c>
-      <c r="T78" s="6">
+      <c r="D78"/>
+      <c r="T78" s="8">
         <v>4046</v>
       </c>
-      <c r="U78" s="5" t="s">
+      <c r="U78" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="V78" s="5">
+      <c r="V78" s="4">
         <v>5</v>
       </c>
     </row>
@@ -10117,25 +9619,23 @@
         <v>223389</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>223389</v>
-      </c>
-      <c r="T79" s="6">
+      <c r="D79"/>
+      <c r="T79" s="8">
         <v>4046</v>
       </c>
-      <c r="U79" s="5" t="s">
+      <c r="U79" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="V79" s="5">
+      <c r="V79" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="80" ht="17" spans="1:22">
+    <row r="80" ht="16.8" spans="1:22">
       <c r="A80" s="4">
         <v>227496</v>
       </c>
@@ -10145,37 +9645,14 @@
       <c r="C80" s="4">
         <v>1</v>
       </c>
-      <c r="D80">
-        <v>227496</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="P80" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="T80" s="6">
+      <c r="D80"/>
+      <c r="T80" s="8">
         <v>4046</v>
       </c>
-      <c r="U80" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="V80" s="5">
+      <c r="U80" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="V80" s="4">
         <v>3</v>
       </c>
     </row>
@@ -10184,1731 +9661,66 @@
         <v>241097</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
-      <c r="D81">
-        <v>241097</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="D81"/>
+      <c r="T81" s="8">
+        <v>4046</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="V81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" ht="16.8" spans="1:22">
+      <c r="A82" s="9">
+        <v>241100</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="D82"/>
+      <c r="T82" s="8">
+        <v>4046</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="V82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="16.8" spans="1:22">
+      <c r="A83" s="9">
+        <v>137635</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+      <c r="T83" s="10">
+        <v>39718</v>
+      </c>
+      <c r="U83" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="V83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="16.8" spans="15:15">
+      <c r="O85" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="T81" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U81" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="V81" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" ht="16.8" spans="1:22">
-      <c r="A82" s="7">
-        <v>241100</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C82" s="8">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>241100</v>
-      </c>
-      <c r="T82" s="6">
-        <v>4046</v>
-      </c>
-      <c r="U82" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="V82" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="16.8" spans="1:22">
-      <c r="A83" s="7">
-        <v>137635</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C83" s="8">
-        <v>2</v>
-      </c>
-      <c r="T83" s="12">
-        <v>39718</v>
-      </c>
-      <c r="U83" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="V83" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="16.8" spans="8:15">
-      <c r="H85" s="5">
-        <v>295144</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="J85" s="5">
-        <v>1</v>
-      </c>
-      <c r="L85" s="5">
-        <v>295144</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="N85" s="5">
-        <v>1</v>
-      </c>
-      <c r="O85" s="10" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="87" ht="16.8" spans="8:14">
-      <c r="H87" s="5">
-        <v>194636</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="J87" s="5">
-        <v>2</v>
-      </c>
-      <c r="L87" s="5">
-        <v>194636</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="N87" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" ht="16.8" spans="8:14">
-      <c r="H88" s="5">
-        <v>138181</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="J88" s="5">
-        <v>3</v>
-      </c>
-      <c r="L88" s="5">
-        <v>138181</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="N88" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" ht="16.8" spans="8:14">
-      <c r="H89" s="5">
-        <v>126167</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J89" s="5">
-        <v>2</v>
-      </c>
-      <c r="L89" s="5">
-        <v>126167</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="N89" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" ht="16.8" spans="8:14">
-      <c r="H90" s="5">
-        <v>241097</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="J90" s="5">
-        <v>1</v>
-      </c>
-      <c r="L90" s="5">
-        <v>241097</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="N90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="16.8" spans="8:14">
-      <c r="H91" s="5">
-        <v>87773</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="J91" s="5">
-        <v>5</v>
-      </c>
-      <c r="L91" s="5">
-        <v>87773</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="N91" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" ht="16.8" spans="8:14">
-      <c r="H92" s="5">
-        <v>120317</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="J92" s="5">
-        <v>4</v>
-      </c>
-      <c r="L92" s="5">
-        <v>120317</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="N92" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" ht="16.8" spans="8:14">
-      <c r="H93" s="5">
-        <v>227496</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="J93" s="5">
-        <v>1</v>
-      </c>
-      <c r="L93" s="5">
-        <v>227496</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="N93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="16.8" spans="8:14">
-      <c r="H94" s="5">
-        <v>120317</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="J94" s="5">
-        <v>3</v>
-      </c>
-      <c r="L94" s="5">
-        <v>120317</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="N94" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" ht="16.8" spans="8:14">
-      <c r="H95" s="5">
-        <v>223389</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="J95" s="5">
-        <v>1</v>
-      </c>
-      <c r="L95" s="5">
-        <v>223389</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="N95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="16.8" spans="8:14">
-      <c r="H96" s="5">
-        <v>99962</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="J96" s="5">
-        <v>4</v>
-      </c>
-      <c r="L96" s="5">
-        <v>99962</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="N96" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" ht="16.8" spans="8:14">
-      <c r="H97" s="5">
-        <v>46923</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="J97" s="5">
-        <v>7</v>
-      </c>
-      <c r="L97" s="5">
-        <v>46923</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="N97" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" ht="16.8" spans="8:14">
-      <c r="H98" s="5">
-        <v>52814</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="J98" s="5">
-        <v>1</v>
-      </c>
-      <c r="L98" s="5">
-        <v>52814</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="N98" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" ht="16.8" spans="8:14">
-      <c r="H99" s="5">
-        <v>79618</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="J99" s="5">
-        <v>3</v>
-      </c>
-      <c r="L99" s="5">
-        <v>79618</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="N99" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" ht="16.8" spans="8:14">
-      <c r="H100" s="5">
-        <v>125952</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J100" s="5">
-        <v>1</v>
-      </c>
-      <c r="L100" s="5">
-        <v>125952</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="N100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" ht="16.8" spans="8:14">
-      <c r="H101" s="5">
-        <v>126301</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="J101" s="5">
-        <v>1</v>
-      </c>
-      <c r="L101" s="5">
-        <v>126301</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="N101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" ht="16.8" spans="8:14">
-      <c r="H102" s="5">
-        <v>86430</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="J102" s="5">
-        <v>2</v>
-      </c>
-      <c r="L102" s="5">
-        <v>86430</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="N102" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" ht="16.8" spans="8:14">
-      <c r="H103" s="5">
-        <v>118357</v>
-      </c>
-      <c r="I103" s="5">
-        <v>1883</v>
-      </c>
-      <c r="J103" s="5">
-        <v>1</v>
-      </c>
-      <c r="L103" s="5">
-        <v>118357</v>
-      </c>
-      <c r="M103" s="5">
-        <v>1883</v>
-      </c>
-      <c r="N103" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" ht="16.8" spans="8:14">
-      <c r="H104" s="5">
-        <v>117488</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="J104" s="5">
-        <v>1</v>
-      </c>
-      <c r="L104" s="5">
-        <v>117488</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="N104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" ht="16.8" spans="8:14">
-      <c r="H105" s="5">
-        <v>90452</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="J105" s="5">
-        <v>1</v>
-      </c>
-      <c r="L105" s="5">
-        <v>90452</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="N105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" ht="16.8" spans="8:14">
-      <c r="H106" s="5">
-        <v>79618</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="J106" s="5">
-        <v>2</v>
-      </c>
-      <c r="L106" s="5">
-        <v>79618</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="N106" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" ht="16.8" spans="8:14">
-      <c r="H107" s="5">
-        <v>83135</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="J107" s="5">
-        <v>2</v>
-      </c>
-      <c r="L107" s="5">
-        <v>83135</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="N107" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" ht="16.8" spans="8:14">
-      <c r="H108" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="J108" s="5">
-        <v>5</v>
-      </c>
-      <c r="L108" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="N108" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" ht="16.8" spans="8:14">
-      <c r="H109" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="J109" s="5">
-        <v>5</v>
-      </c>
-      <c r="L109" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="N109" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" ht="16.8" spans="8:14">
-      <c r="H110" s="5">
-        <v>79618</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="J110" s="5">
-        <v>1</v>
-      </c>
-      <c r="L110" s="5">
-        <v>79618</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="N110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" ht="16.8" spans="8:14">
-      <c r="H111" s="5">
-        <v>84231</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="J111" s="5">
-        <v>1</v>
-      </c>
-      <c r="L111" s="5">
-        <v>84231</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="N111" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" ht="16.8" spans="8:14">
-      <c r="H112" s="5">
-        <v>90254</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="L112" s="5">
-        <v>90254</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="N112" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="16.8" spans="8:14">
-      <c r="H113" s="5">
-        <v>83135</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="J113" s="5">
-        <v>1</v>
-      </c>
-      <c r="L113" s="5">
-        <v>83135</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="N113" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" ht="16.8" spans="8:14">
-      <c r="H114" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="J114" s="5">
-        <v>4</v>
-      </c>
-      <c r="L114" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="N114" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" ht="16.8" spans="8:14">
-      <c r="H115" s="5">
-        <v>66871</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J115" s="5">
-        <v>2</v>
-      </c>
-      <c r="L115" s="5">
-        <v>66871</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="N115" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" ht="16.8" spans="8:14">
-      <c r="H116" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="J116" s="5">
-        <v>3</v>
-      </c>
-      <c r="L116" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M116" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="N116" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" ht="16.8" spans="8:14">
-      <c r="H117" s="5">
-        <v>70390</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="J117" s="5">
-        <v>1</v>
-      </c>
-      <c r="L117" s="5">
-        <v>70390</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="N117" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" ht="16.8" spans="8:14">
-      <c r="H118" s="5">
-        <v>66871</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="J118" s="5">
-        <v>1</v>
-      </c>
-      <c r="L118" s="5">
-        <v>66871</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="N118" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" ht="16.8" spans="8:14">
-      <c r="H119" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="J119" s="5">
-        <v>4</v>
-      </c>
-      <c r="L119" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="N119" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" ht="16.8" spans="8:14">
-      <c r="H120" s="5">
-        <v>64421</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J120" s="5">
-        <v>2</v>
-      </c>
-      <c r="L120" s="5">
-        <v>64421</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="N120" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" ht="16.8" spans="8:14">
-      <c r="H121" s="5">
-        <v>62425</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J121" s="5">
-        <v>3</v>
-      </c>
-      <c r="L121" s="5">
-        <v>62425</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="N121" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" ht="16.8" spans="8:14">
-      <c r="H122" s="5">
-        <v>56336</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J122" s="5">
-        <v>3</v>
-      </c>
-      <c r="L122" s="5">
-        <v>56336</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="N122" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" ht="16.8" spans="8:14">
-      <c r="H123" s="5">
-        <v>61239</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J123" s="5">
-        <v>2</v>
-      </c>
-      <c r="L123" s="5">
-        <v>61239</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="N123" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" ht="16.8" spans="8:14">
-      <c r="H124" s="5">
-        <v>64593</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J124" s="5">
-        <v>1</v>
-      </c>
-      <c r="L124" s="5">
-        <v>64593</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="N124" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" ht="16.8" spans="8:14">
-      <c r="H125" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="J125" s="5">
-        <v>4</v>
-      </c>
-      <c r="L125" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="N125" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" ht="16.8" spans="8:14">
-      <c r="H126" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J126" s="5">
-        <v>2</v>
-      </c>
-      <c r="L126" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="N126" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" ht="16.8" spans="8:14">
-      <c r="H127" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="J127" s="5">
-        <v>3</v>
-      </c>
-      <c r="L127" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M127" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="N127" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" ht="16.8" spans="8:14">
-      <c r="H128" s="5">
-        <v>62425</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="J128" s="5">
-        <v>2</v>
-      </c>
-      <c r="L128" s="5">
-        <v>62425</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="N128" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" ht="16.8" spans="8:14">
-      <c r="H129" s="5">
-        <v>56336</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J129" s="5">
-        <v>2</v>
-      </c>
-      <c r="L129" s="5">
-        <v>56336</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="N129" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" ht="16.8" spans="8:14">
-      <c r="H130" s="5">
-        <v>61239</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J130" s="5">
-        <v>1</v>
-      </c>
-      <c r="L130" s="5">
-        <v>61239</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="N130" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" ht="16.8" spans="8:14">
-      <c r="H131" s="5">
-        <v>47224</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="J131" s="5">
-        <v>1</v>
-      </c>
-      <c r="L131" s="5">
-        <v>47224</v>
-      </c>
-      <c r="M131" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="N131" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" ht="16.8" spans="8:14">
-      <c r="H132" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="J132" s="5">
-        <v>3</v>
-      </c>
-      <c r="L132" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="N132" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" ht="16.8" spans="8:14">
-      <c r="H133" s="5">
-        <v>62084</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J133" s="5">
-        <v>1</v>
-      </c>
-      <c r="L133" s="5">
-        <v>62084</v>
-      </c>
-      <c r="M133" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="N133" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" ht="16.8" spans="8:14">
-      <c r="H134" s="5">
-        <v>67961</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J134" s="5">
-        <v>1</v>
-      </c>
-      <c r="L134" s="5">
-        <v>67961</v>
-      </c>
-      <c r="M134" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="N134" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" ht="16.8" spans="8:14">
-      <c r="H135" s="5">
-        <v>64421</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="J135" s="5">
-        <v>1</v>
-      </c>
-      <c r="L135" s="5">
-        <v>64421</v>
-      </c>
-      <c r="M135" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="N135" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" ht="16.8" spans="8:14">
-      <c r="H136" s="5">
-        <v>49010</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J136" s="5">
-        <v>3</v>
-      </c>
-      <c r="L136" s="5">
-        <v>49010</v>
-      </c>
-      <c r="M136" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="N136" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" ht="16.8" spans="8:14">
-      <c r="H137" s="5">
-        <v>62208</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="J137" s="5">
-        <v>1</v>
-      </c>
-      <c r="L137" s="5">
-        <v>62208</v>
-      </c>
-      <c r="M137" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="N137" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" ht="16.8" spans="8:14">
-      <c r="H138" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="J138" s="5">
-        <v>4</v>
-      </c>
-      <c r="L138" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="N138" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" ht="16.8" spans="8:14">
-      <c r="H139" s="5">
-        <v>62425</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="J139" s="5">
-        <v>1</v>
-      </c>
-      <c r="L139" s="5">
-        <v>62425</v>
-      </c>
-      <c r="M139" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="N139" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" ht="16.8" spans="8:14">
-      <c r="H140" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="J140" s="5">
-        <v>2</v>
-      </c>
-      <c r="L140" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M140" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="N140" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" ht="16.8" spans="8:14">
-      <c r="H141" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="J141" s="5">
-        <v>2</v>
-      </c>
-      <c r="L141" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M141" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="N141" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" ht="16.8" spans="8:14">
-      <c r="H142" s="5">
-        <v>49010</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="J142" s="5">
-        <v>2</v>
-      </c>
-      <c r="L142" s="5">
-        <v>49010</v>
-      </c>
-      <c r="M142" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="N142" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" ht="16.8" spans="8:14">
-      <c r="H143" s="5">
-        <v>46746</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="J143" s="5">
-        <v>2</v>
-      </c>
-      <c r="L143" s="5">
-        <v>46746</v>
-      </c>
-      <c r="M143" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="N143" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" ht="16.8" spans="8:14">
-      <c r="H144" s="5">
-        <v>46511</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J144" s="5">
-        <v>2</v>
-      </c>
-      <c r="L144" s="5">
-        <v>46511</v>
-      </c>
-      <c r="M144" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="N144" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" ht="16.8" spans="8:14">
-      <c r="H145" s="5">
-        <v>46643</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="J145" s="5">
-        <v>1</v>
-      </c>
-      <c r="L145" s="5">
-        <v>46643</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="N145" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" ht="16.8" spans="8:14">
-      <c r="H146" s="5">
-        <v>62717</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="J146" s="5">
-        <v>1</v>
-      </c>
-      <c r="L146" s="5">
-        <v>62717</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="N146" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" ht="16.8" spans="8:14">
-      <c r="H147" s="5">
-        <v>56484</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="J147" s="5">
-        <v>1</v>
-      </c>
-      <c r="L147" s="5">
-        <v>56484</v>
-      </c>
-      <c r="M147" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="N147" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" ht="16.8" spans="8:14">
-      <c r="H148" s="5">
-        <v>49010</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="J148" s="5">
-        <v>1</v>
-      </c>
-      <c r="L148" s="5">
-        <v>49010</v>
-      </c>
-      <c r="M148" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="N148" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" ht="16.8" spans="8:14">
-      <c r="H149" s="5">
-        <v>46746</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="J149" s="5">
-        <v>1</v>
-      </c>
-      <c r="L149" s="5">
-        <v>46746</v>
-      </c>
-      <c r="M149" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="N149" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" ht="16.8" spans="8:14">
-      <c r="H150" s="5">
-        <v>46511</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="J150" s="5">
-        <v>1</v>
-      </c>
-      <c r="L150" s="5">
-        <v>46511</v>
-      </c>
-      <c r="M150" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="N150" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" ht="16.8" spans="8:14">
-      <c r="H151" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="J151" s="5">
-        <v>3</v>
-      </c>
-      <c r="L151" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M151" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="N151" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" ht="16.8" spans="8:14">
-      <c r="H152" s="5">
-        <v>56336</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="J152" s="5">
-        <v>1</v>
-      </c>
-      <c r="L152" s="5">
-        <v>56336</v>
-      </c>
-      <c r="M152" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="N152" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" ht="16.8" spans="8:14">
-      <c r="H153" s="5">
-        <v>43982</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="J153" s="5">
-        <v>1</v>
-      </c>
-      <c r="L153" s="5">
-        <v>43982</v>
-      </c>
-      <c r="M153" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" ht="16.8" spans="8:14">
-      <c r="H154" s="5">
-        <v>39718</v>
-      </c>
-      <c r="I154" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="J154" s="5">
-        <v>2</v>
-      </c>
-      <c r="L154" s="5">
-        <v>39718</v>
-      </c>
-      <c r="M154" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="N154" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" ht="16.8" spans="8:14">
-      <c r="H155" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="J155" s="5">
-        <v>1</v>
-      </c>
-      <c r="L155" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M155" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="N155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" ht="16.8" spans="8:14">
-      <c r="H156" s="5">
-        <v>43020</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="J156" s="5">
-        <v>2</v>
-      </c>
-      <c r="L156" s="5">
-        <v>43020</v>
-      </c>
-      <c r="M156" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="N156" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" ht="16.8" spans="8:14">
-      <c r="H157" s="5">
-        <v>39718</v>
-      </c>
-      <c r="I157" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="J157" s="5">
-        <v>1</v>
-      </c>
-      <c r="L157" s="5">
-        <v>39718</v>
-      </c>
-      <c r="M157" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="N157" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" ht="16.8" spans="8:14">
-      <c r="H158" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I158" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J158" s="5">
-        <v>1</v>
-      </c>
-      <c r="L158" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M158" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="N158" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" ht="16.8" spans="8:14">
-      <c r="H159" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J159" s="5">
-        <v>1</v>
-      </c>
-      <c r="L159" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M159" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="N159" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" ht="16.8" spans="8:14">
-      <c r="H160" s="5">
-        <v>28379</v>
-      </c>
-      <c r="I160" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="J160" s="5">
-        <v>1</v>
-      </c>
-      <c r="L160" s="5">
-        <v>28379</v>
-      </c>
-      <c r="M160" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="N160" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" ht="16.8" spans="8:14">
-      <c r="H161" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="J161" s="5">
-        <v>8</v>
-      </c>
-      <c r="L161" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M161" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="N161" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" ht="16.8" spans="8:14">
-      <c r="H162" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J162" s="5">
-        <v>7</v>
-      </c>
-      <c r="L162" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M162" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="N162" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" ht="16.8" spans="8:14">
-      <c r="H163" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="J163" s="5">
-        <v>6</v>
-      </c>
-      <c r="L163" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M163" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="N163" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" ht="16.8" spans="8:14">
-      <c r="H164" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="J164" s="5">
-        <v>5</v>
-      </c>
-      <c r="L164" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M164" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="N164" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" ht="16.8" spans="8:14">
-      <c r="H165" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J165" s="5">
-        <v>4</v>
-      </c>
-      <c r="L165" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M165" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="N165" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" ht="16.8" spans="8:14">
-      <c r="H166" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="J166" s="5">
-        <v>3</v>
-      </c>
-      <c r="L166" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M166" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="N166" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" ht="16.8" spans="8:14">
-      <c r="H167" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="J167" s="5">
-        <v>2</v>
-      </c>
-      <c r="L167" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M167" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="N167" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" ht="16.8" spans="8:14">
-      <c r="H168" s="5">
-        <v>4046</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="J168" s="5">
-        <v>1</v>
-      </c>
-      <c r="L168" s="5">
-        <v>4046</v>
-      </c>
-      <c r="M168" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="N168" s="5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14220" activeTab="5"/>
+    <workbookView windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -1607,13 +1607,10 @@
     <t>凯伦·皮里 第二季</t>
   </si>
   <si>
+    <t>塔楼 第三季</t>
+  </si>
+  <si>
     <t>军情五处 第十季</t>
-  </si>
-  <si>
-    <t>塔楼 第三季</t>
-  </si>
-  <si>
-    <t>军情五处 第九季</t>
   </si>
   <si>
     <r>
@@ -1882,19 +1879,19 @@
     <t>不眠 第二季</t>
   </si>
   <si>
+    <t>军情五处 第九季</t>
+  </si>
+  <si>
+    <t>洪水之后</t>
+  </si>
+  <si>
     <t>军情五处 第八季</t>
   </si>
   <si>
-    <t>洪水之后</t>
+    <t>迷失海湾 第五季</t>
   </si>
   <si>
     <t>军情五处 第七季</t>
-  </si>
-  <si>
-    <t>迷失海湾 第五季</t>
-  </si>
-  <si>
-    <t>军情五处 第六季</t>
   </si>
   <si>
     <r>
@@ -2012,177 +2009,180 @@
     <t>格雷斯 第四季</t>
   </si>
   <si>
+    <t>军情五处 第六季</t>
+  </si>
+  <si>
+    <t>194636, 126167, 87773, 227496, 47224,295144</t>
+  </si>
+  <si>
+    <t>迪莉娅的证词（原：直到我杀了你）</t>
+  </si>
+  <si>
     <t>军情五处 第五季</t>
   </si>
   <si>
-    <t>194636, 126167, 87773, 227496, 47224,295144</t>
-  </si>
-  <si>
-    <t>迪莉娅的证词（原：直到我杀了你）</t>
+    <t>格雷斯 第三季</t>
   </si>
   <si>
     <t>军情五处 第四季</t>
   </si>
   <si>
-    <t>格雷斯 第三季</t>
+    <t>渎职</t>
   </si>
   <si>
     <t>军情五处 第三季</t>
   </si>
   <si>
-    <t>渎职</t>
+    <t>探案拍档 第四季</t>
   </si>
   <si>
     <t>军情五处 第二季</t>
   </si>
   <si>
-    <t>探案拍档 第四季</t>
+    <t>设得兰谜案 第七季</t>
   </si>
   <si>
     <t>军情五处 第一季</t>
   </si>
   <si>
-    <t>设得兰谜案 第七季</t>
+    <t>光环 第一季</t>
   </si>
   <si>
     <t>安妮日记</t>
   </si>
   <si>
-    <t>光环 第一季</t>
+    <t>山巅之城 第三季</t>
   </si>
   <si>
     <t>演播时刻 第二季</t>
   </si>
   <si>
-    <t>山巅之城 第三季</t>
+    <t>仁医莎姆</t>
   </si>
   <si>
     <t>演播时刻 第一季</t>
   </si>
   <si>
-    <t>仁医莎姆</t>
+    <t>超蓬勃：优步之战 第一季</t>
   </si>
   <si>
     <t>超越时间线 第四季</t>
   </si>
   <si>
-    <t>超蓬勃：优步之战 第一季</t>
+    <t>法官大人 第二季</t>
   </si>
   <si>
     <t>超越时间线 第三季</t>
   </si>
   <si>
-    <t>法官大人 第二季</t>
-  </si>
-  <si>
     <t>超越时间线 第一季</t>
   </si>
   <si>
+    <t>黄蜂 第一季</t>
+  </si>
+  <si>
     <t>超越时间线 第二季</t>
   </si>
   <si>
-    <t>黄蜂 第一季</t>
+    <t>说出你的秘密</t>
   </si>
   <si>
     <t>重任在肩S5</t>
   </si>
   <si>
-    <t>说出你的秘密</t>
+    <t>山巅之城 第二季</t>
   </si>
   <si>
     <t>重任在肩S4</t>
   </si>
   <si>
-    <t>山巅之城 第二季</t>
+    <t>新阴阳魔界 第二季</t>
   </si>
   <si>
     <t>重任在肩S3</t>
   </si>
   <si>
-    <t>新阴阳魔界 第二季</t>
+    <t>波尔达克 第五季</t>
   </si>
   <si>
     <t>重任在肩S2</t>
   </si>
   <si>
-    <t>波尔达克 第五季</t>
-  </si>
-  <si>
     <t>重任在肩S1</t>
   </si>
   <si>
+    <t>山巅之城 第一季</t>
+  </si>
+  <si>
     <t>乌托邦 第二季</t>
   </si>
   <si>
-    <t>山巅之城 第一季</t>
+    <t>韦恩 第一季</t>
   </si>
   <si>
     <t>乌托邦 第一季</t>
   </si>
   <si>
-    <t>韦恩 第一季</t>
+    <t>莱姆镇</t>
   </si>
   <si>
     <t>塞尔福里奇先生 第四季</t>
   </si>
   <si>
-    <t>莱姆镇</t>
+    <t>新阴阳魔界 第一季</t>
   </si>
   <si>
     <t>塞尔福里奇先生 第三季</t>
   </si>
   <si>
-    <t>新阴阳魔界 第一季</t>
+    <t>波尔达克 第四季</t>
   </si>
   <si>
     <t>塞尔福里奇先生 第二季</t>
   </si>
   <si>
-    <t>波尔达克 第四季</t>
+    <t>海豹六队 第二季</t>
   </si>
   <si>
     <t>塞尔福里奇先生 第一季</t>
   </si>
   <si>
-    <t>海豹六队 第二季</t>
+    <t>波尔达克 第三季</t>
   </si>
   <si>
     <t>复生 第二季</t>
   </si>
   <si>
-    <t>波尔达克 第三季</t>
+    <t>那时那处</t>
   </si>
   <si>
     <t>复生 第一季</t>
   </si>
   <si>
-    <t>那时那处</t>
-  </si>
-  <si>
     <t>海豹六队 第一季</t>
   </si>
   <si>
     <t>化身博士</t>
   </si>
   <si>
+    <t>弗兰肯斯坦传奇 第二季</t>
+  </si>
+  <si>
     <t>堕落 第三季</t>
   </si>
   <si>
-    <t>弗兰肯斯坦传奇 第二季</t>
+    <t>暗物质 第三季</t>
   </si>
   <si>
     <t>堕落 第二季</t>
   </si>
   <si>
-    <t>暗物质 第三季</t>
+    <t>边隧谜案 第三季</t>
   </si>
   <si>
     <t>堕落 第一季</t>
   </si>
   <si>
-    <t>边隧谜案 第三季</t>
-  </si>
-  <si>
     <t>罪恶的灵魂 第二季</t>
   </si>
   <si>
@@ -2192,12 +2192,12 @@
     <t>边隧谜案 第二季</t>
   </si>
   <si>
+    <t>波尔达克 第二季</t>
+  </si>
+  <si>
     <t>边隧谜案 第一季</t>
   </si>
   <si>
-    <t>波尔达克 第二季</t>
-  </si>
-  <si>
     <t>彭伯利谋杀案</t>
   </si>
   <si>
@@ -2213,10 +2213,10 @@
     <t>黑暗天使</t>
   </si>
   <si>
+    <t>弗兰肯斯坦传奇 第一季</t>
+  </si>
+  <si>
     <t>真凶密码</t>
-  </si>
-  <si>
-    <t>弗兰肯斯坦传奇 第一季</t>
   </si>
   <si>
     <t>暗物质 第一季</t>
@@ -2266,8 +2266,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2335,14 +2335,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,9 +2379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2373,26 +2395,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2404,8 +2410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2426,24 +2433,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2457,15 +2463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2498,7 +2498,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,175 +2678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,22 +2720,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2757,9 +2766,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2779,173 +2790,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7266,10 +7266,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7294,635 +7294,640 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:2">
-      <c r="A2" s="13">
-        <v>1046090</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>387</v>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4858</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="1:2">
       <c r="A3" s="13">
-        <v>1229349</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>388</v>
+        <v>1046090</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="4" ht="16.8" spans="1:2">
       <c r="A4" s="13">
-        <v>693134</v>
+        <v>1229349</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:2">
       <c r="A5" s="13">
+        <v>693134</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:2">
+      <c r="A6" s="13">
         <v>823464</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13">
-        <v>1176574</v>
-      </c>
-      <c r="B6" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13">
-        <v>582311</v>
+        <v>1176574</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="13">
+        <v>582311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13">
         <v>695721</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>923192</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>803266</v>
+        <v>923192</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>423204</v>
+        <v>803266</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1149485</v>
+        <v>423204</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1111737</v>
+        <v>1149485</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>1111644</v>
+        <v>1111737</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
+        <v>1111644</v>
+      </c>
+      <c r="B15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>846519</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:2">
-      <c r="A16">
+    <row r="17" ht="17" spans="1:2">
+      <c r="A17">
         <v>782054</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>331576</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
+        <v>331576</v>
+      </c>
+      <c r="B18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>289449</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="1:2">
-      <c r="A19">
+    <row r="20" ht="17" spans="1:2">
+      <c r="A20">
         <v>293021</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>72245</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="1:2">
-      <c r="A21">
+    <row r="22" ht="16.8" spans="1:2">
+      <c r="A22">
         <v>1133008</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>25676</v>
-      </c>
-      <c r="B22" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>72074</v>
+        <v>25676</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>382572</v>
+        <v>72074</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>14016</v>
+        <v>382572</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>96664</v>
+        <v>14016</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>791900</v>
+        <v>96664</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
+        <v>791900</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>137409</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="29" ht="16.8" spans="1:2">
-      <c r="A29">
-        <v>1093485</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="30" ht="16.8" spans="1:2">
       <c r="A30">
-        <v>1091508</v>
+        <v>1093485</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" ht="16.8" spans="1:2">
       <c r="A31">
-        <v>664412</v>
+        <v>1091508</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" ht="16.8" spans="1:2">
       <c r="A32">
-        <v>1107387</v>
+        <v>664412</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" ht="16.8" spans="1:2">
       <c r="A33">
-        <v>1066298</v>
+        <v>1107387</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" ht="16.8" spans="1:2">
       <c r="A34">
-        <v>741602</v>
+        <v>1066298</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" ht="16.8" spans="1:2">
       <c r="A35">
-        <v>916224</v>
+        <v>741602</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" ht="16.8" spans="1:2">
       <c r="A36">
-        <v>827689</v>
+        <v>916224</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" ht="16.8" spans="1:2">
       <c r="A37">
-        <v>895435</v>
+        <v>827689</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" ht="16.8" spans="1:2">
       <c r="A38">
-        <v>1148812</v>
+        <v>895435</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" ht="16.8" spans="1:2">
       <c r="A39">
-        <v>1115379</v>
+        <v>1148812</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" ht="16.8" spans="1:2">
       <c r="A40">
-        <v>1076500</v>
+        <v>1115379</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" ht="16.8" spans="1:2">
       <c r="A41">
-        <v>661579</v>
+        <v>1076500</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" ht="16.8" spans="1:2">
       <c r="A42">
-        <v>1211979</v>
+        <v>661579</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" ht="16.8" spans="1:2">
       <c r="A43">
-        <v>1183113</v>
+        <v>1211979</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="1:2">
       <c r="A44">
-        <v>961381</v>
+        <v>1183113</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" ht="16.8" spans="1:2">
       <c r="A45">
-        <v>606870</v>
+        <v>961381</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" ht="16.8" spans="1:2">
       <c r="A46">
-        <v>718919</v>
+        <v>606870</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" ht="16.8" spans="1:2">
       <c r="A47">
-        <v>930432</v>
+        <v>718919</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" ht="16.8" spans="1:2">
       <c r="A48">
-        <v>987507</v>
+        <v>930432</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" ht="16.8" spans="1:2">
       <c r="A49">
-        <v>715370</v>
+        <v>987507</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="1:2">
       <c r="A50">
-        <v>598212</v>
+        <v>715370</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" ht="16.8" spans="1:2">
       <c r="A51">
-        <v>628900</v>
+        <v>598212</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" ht="16.8" spans="1:2">
       <c r="A52">
-        <v>747546</v>
+        <v>628900</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" ht="16.8" spans="1:2">
       <c r="A53">
-        <v>539885</v>
+        <v>747546</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" ht="16.8" spans="1:2">
       <c r="A54">
-        <v>582589</v>
+        <v>539885</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" ht="16.8" spans="1:2">
       <c r="A55">
-        <v>310307</v>
+        <v>582589</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" ht="16.8" spans="1:2">
       <c r="A56">
-        <v>340676</v>
+        <v>310307</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" ht="16.8" spans="1:2">
       <c r="A57">
-        <v>252164</v>
+        <v>340676</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" ht="16.8" spans="1:2">
       <c r="A58">
-        <v>157845</v>
+        <v>252164</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" ht="16.8" spans="1:2">
       <c r="A59">
-        <v>157825</v>
+        <v>157845</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" ht="16.8" spans="1:2">
       <c r="A60">
-        <v>96936</v>
+        <v>157825</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="1:2">
       <c r="A61">
-        <v>10425</v>
+        <v>96936</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" ht="16.8" spans="1:2">
       <c r="A62">
-        <v>2207</v>
+        <v>10425</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" ht="16.8" spans="1:2">
       <c r="A63">
-        <v>993621</v>
+        <v>2207</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" ht="16.8" spans="1:2">
       <c r="A64">
-        <v>672475</v>
+        <v>993621</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" ht="16.8" spans="1:2">
       <c r="A65">
-        <v>785663</v>
+        <v>672475</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" ht="16.8" spans="1:2">
       <c r="A66">
-        <v>619778</v>
+        <v>785663</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" ht="16.8" spans="1:2">
       <c r="A67">
-        <v>791373</v>
+        <v>619778</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" ht="16.8" spans="1:2">
       <c r="A68">
-        <v>293768</v>
+        <v>791373</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" ht="16.8" spans="1:2">
       <c r="A69">
-        <v>277</v>
+        <v>293768</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" ht="16.8" spans="1:2">
       <c r="A70">
-        <v>762079</v>
+        <v>277</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" ht="16.8" spans="1:2">
       <c r="A71">
-        <v>582909</v>
+        <v>762079</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" ht="16.8" spans="1:2">
       <c r="A72">
-        <v>543749</v>
+        <v>582909</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" ht="16.8" spans="1:2">
       <c r="A73">
-        <v>457955</v>
+        <v>543749</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" ht="16.8" spans="1:2">
       <c r="A74">
-        <v>527004</v>
+        <v>457955</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" ht="16.8" spans="1:2">
       <c r="A75">
-        <v>403509</v>
+        <v>527004</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" ht="16.8" spans="1:2">
       <c r="A76">
-        <v>524625</v>
+        <v>403509</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" ht="16.8" spans="1:2">
       <c r="A77">
-        <v>50737</v>
+        <v>524625</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" ht="16.8" spans="1:2">
       <c r="A78">
-        <v>27957</v>
+        <v>50737</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" ht="16.8" spans="1:2">
       <c r="A79">
-        <v>438154</v>
+        <v>27957</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" ht="16.8" spans="1:2">
       <c r="A80">
+        <v>438154</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" ht="16.8" spans="1:2">
+      <c r="A81">
         <v>295144</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7938,7 +7943,7 @@
   <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7970,21 +7975,16 @@
     </row>
     <row r="2" ht="16.8" spans="1:22">
       <c r="A2" s="4">
-        <v>4046</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>62505</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
       <c r="T2" s="8">
         <v>138181</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V2" s="4">
         <v>3</v>
@@ -7995,21 +7995,19 @@
         <v>4046</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="T3" s="8">
         <v>126167</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V3" s="4">
         <v>2</v>
@@ -8020,17 +8018,16 @@
         <v>4046</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4"/>
+        <v>9</v>
+      </c>
       <c r="T4" s="8">
         <v>241097</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V4" s="4">
         <v>1</v>
@@ -8041,17 +8038,16 @@
         <v>4046</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" s="4">
-        <v>7</v>
-      </c>
-      <c r="D5"/>
+        <v>8</v>
+      </c>
       <c r="T5" s="8">
         <v>87773</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V5" s="4">
         <v>5</v>
@@ -8062,38 +8058,37 @@
         <v>4046</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6"/>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="P6" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="T6" s="8">
         <v>120317</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V6" s="4">
         <v>4</v>
@@ -8104,20 +8099,19 @@
         <v>4046</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
         <v>488</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7"/>
-      <c r="I7" t="s">
-        <v>489</v>
       </c>
       <c r="T7" s="8">
         <v>227496</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
@@ -8128,17 +8122,16 @@
         <v>4046</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8"/>
+        <v>5</v>
+      </c>
       <c r="T8" s="8">
         <v>120317</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V8" s="4">
         <v>3</v>
@@ -8149,17 +8142,16 @@
         <v>4046</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9"/>
+        <v>4</v>
+      </c>
       <c r="T9" s="8">
         <v>223389</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V9" s="4">
         <v>1</v>
@@ -8170,17 +8162,16 @@
         <v>4046</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10"/>
+        <v>3</v>
+      </c>
       <c r="T10" s="8">
         <v>99962</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V10" s="4">
         <v>4</v>
@@ -8191,17 +8182,16 @@
         <v>4046</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11"/>
+        <v>2</v>
+      </c>
       <c r="T11" s="8">
         <v>46923</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V11" s="4">
         <v>7</v>
@@ -8209,20 +8199,19 @@
     </row>
     <row r="12" ht="16.8" spans="1:22">
       <c r="A12" s="4">
-        <v>28379</v>
+        <v>4046</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12"/>
       <c r="T12" s="8">
         <v>52814</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V12" s="4">
         <v>1</v>
@@ -8230,20 +8219,19 @@
     </row>
     <row r="13" ht="16.8" spans="1:22">
       <c r="A13" s="4">
-        <v>39718</v>
+        <v>28379</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13"/>
+        <v>1</v>
+      </c>
       <c r="T13" s="8">
         <v>79618</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V13" s="4">
         <v>3</v>
@@ -8254,17 +8242,16 @@
         <v>39718</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14"/>
+        <v>2</v>
+      </c>
       <c r="T14" s="8">
         <v>125952</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V14" s="4">
         <v>1</v>
@@ -8272,20 +8259,19 @@
     </row>
     <row r="15" ht="16.8" spans="1:22">
       <c r="A15" s="4">
-        <v>43020</v>
+        <v>39718</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C15" s="4">
-        <v>4</v>
-      </c>
-      <c r="D15"/>
+        <v>1</v>
+      </c>
       <c r="T15" s="8">
         <v>126301</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V15" s="4">
         <v>1</v>
@@ -8296,17 +8282,16 @@
         <v>43020</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16"/>
+        <v>4</v>
+      </c>
       <c r="T16" s="8">
         <v>86430</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V16" s="4">
         <v>2</v>
@@ -8317,12 +8302,11 @@
         <v>43020</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17"/>
+        <v>3</v>
+      </c>
       <c r="T17" s="8">
         <v>118357</v>
       </c>
@@ -8338,17 +8322,16 @@
         <v>43020</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18"/>
+        <v>1</v>
+      </c>
       <c r="T18" s="8">
         <v>117488</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V18" s="4">
         <v>1</v>
@@ -8356,20 +8339,19 @@
     </row>
     <row r="19" ht="16.8" spans="1:22">
       <c r="A19" s="4">
-        <v>43982</v>
+        <v>43020</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19"/>
+        <v>2</v>
+      </c>
       <c r="T19" s="8">
         <v>90452</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V19" s="4">
         <v>1</v>
@@ -8380,17 +8362,16 @@
         <v>43982</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20"/>
+        <v>5</v>
+      </c>
       <c r="T20" s="8">
         <v>79618</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V20" s="4">
         <v>2</v>
@@ -8401,17 +8382,16 @@
         <v>43982</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21"/>
+        <v>4</v>
+      </c>
       <c r="T21" s="8">
         <v>83135</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="V21" s="4">
         <v>2</v>
@@ -8422,17 +8402,16 @@
         <v>43982</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22"/>
+        <v>3</v>
+      </c>
       <c r="T22" s="8">
         <v>62084</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V22" s="4">
         <v>5</v>
@@ -8443,17 +8422,16 @@
         <v>43982</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23"/>
+        <v>2</v>
+      </c>
       <c r="T23" s="8">
         <v>43982</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="V23" s="4">
         <v>5</v>
@@ -8461,20 +8439,19 @@
     </row>
     <row r="24" ht="16.8" spans="1:22">
       <c r="A24" s="4">
-        <v>46511</v>
+        <v>43982</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24"/>
+        <v>1</v>
+      </c>
       <c r="T24" s="8">
         <v>79618</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V24" s="4">
         <v>1</v>
@@ -8485,17 +8462,16 @@
         <v>46511</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25"/>
+        <v>2</v>
+      </c>
       <c r="T25" s="8">
         <v>84231</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V25" s="4">
         <v>1</v>
@@ -8503,20 +8479,19 @@
     </row>
     <row r="26" ht="16.8" spans="1:22">
       <c r="A26" s="4">
-        <v>46643</v>
+        <v>46511</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26"/>
+        <v>1</v>
+      </c>
       <c r="T26" s="8">
         <v>90254</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V26" s="4">
         <v>1</v>
@@ -8527,17 +8502,16 @@
         <v>46643</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C27" s="4">
-        <v>3</v>
-      </c>
-      <c r="D27"/>
+        <v>4</v>
+      </c>
       <c r="T27" s="8">
         <v>83135</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V27" s="4">
         <v>1</v>
@@ -8548,17 +8522,16 @@
         <v>46643</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28"/>
+        <v>3</v>
+      </c>
       <c r="T28" s="8">
         <v>62084</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V28" s="4">
         <v>4</v>
@@ -8569,17 +8542,16 @@
         <v>46643</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29"/>
+        <v>2</v>
+      </c>
       <c r="T29" s="8">
         <v>66871</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V29" s="4">
         <v>2</v>
@@ -8587,20 +8559,19 @@
     </row>
     <row r="30" ht="16.8" spans="1:22">
       <c r="A30" s="4">
-        <v>46746</v>
+        <v>46643</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30"/>
+        <v>1</v>
+      </c>
       <c r="T30" s="8">
         <v>62084</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V30" s="4">
         <v>3</v>
@@ -8611,17 +8582,16 @@
         <v>46746</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31"/>
+        <v>2</v>
+      </c>
       <c r="T31" s="8">
         <v>70390</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V31" s="4">
         <v>1</v>
@@ -8629,15 +8599,14 @@
     </row>
     <row r="32" ht="16.8" spans="1:22">
       <c r="A32" s="4">
-        <v>46923</v>
+        <v>46746</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="C32" s="4">
-        <v>7</v>
-      </c>
-      <c r="D32"/>
+        <v>1</v>
+      </c>
       <c r="T32" s="8">
         <v>66871</v>
       </c>
@@ -8650,20 +8619,19 @@
     </row>
     <row r="33" ht="16.8" spans="1:22">
       <c r="A33" s="4">
-        <v>47224</v>
+        <v>46923</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33"/>
+        <v>7</v>
+      </c>
       <c r="T33" s="8">
         <v>43982</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="V33" s="4">
         <v>4</v>
@@ -8671,20 +8639,19 @@
     </row>
     <row r="34" ht="16.8" spans="1:22">
       <c r="A34" s="4">
-        <v>49010</v>
+        <v>47224</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C34" s="4">
-        <v>3</v>
-      </c>
-      <c r="D34"/>
+        <v>1</v>
+      </c>
       <c r="T34" s="8">
         <v>64421</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V34" s="4">
         <v>2</v>
@@ -8695,17 +8662,16 @@
         <v>49010</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35"/>
+        <v>3</v>
+      </c>
       <c r="T35" s="8">
         <v>62425</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V35" s="4">
         <v>3</v>
@@ -8716,17 +8682,16 @@
         <v>49010</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36"/>
+        <v>2</v>
+      </c>
       <c r="T36" s="8">
         <v>56336</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V36" s="4">
         <v>3</v>
@@ -8734,15 +8699,14 @@
     </row>
     <row r="37" ht="16.8" spans="1:22">
       <c r="A37" s="4">
-        <v>52814</v>
+        <v>49010</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37"/>
       <c r="T37" s="8">
         <v>61239</v>
       </c>
@@ -8755,15 +8719,14 @@
     </row>
     <row r="38" ht="16.8" spans="1:22">
       <c r="A38" s="4">
-        <v>56336</v>
+        <v>52814</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38"/>
+        <v>1</v>
+      </c>
       <c r="T38" s="8">
         <v>64593</v>
       </c>
@@ -8779,17 +8742,16 @@
         <v>56336</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C39" s="4">
-        <v>2</v>
-      </c>
-      <c r="D39"/>
+        <v>3</v>
+      </c>
       <c r="T39" s="8">
         <v>46643</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V39" s="4">
         <v>4</v>
@@ -8800,17 +8762,16 @@
         <v>56336</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40"/>
+        <v>2</v>
+      </c>
       <c r="T40" s="8">
         <v>62084</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V40" s="4">
         <v>2</v>
@@ -8818,20 +8779,19 @@
     </row>
     <row r="41" ht="16.8" spans="1:22">
       <c r="A41" s="4">
-        <v>56484</v>
+        <v>56336</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41"/>
       <c r="T41" s="8">
         <v>43982</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="V41" s="4">
         <v>3</v>
@@ -8839,15 +8799,14 @@
     </row>
     <row r="42" ht="16.8" spans="1:22">
       <c r="A42" s="4">
-        <v>61239</v>
+        <v>56484</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C42" s="4">
-        <v>2</v>
-      </c>
-      <c r="D42"/>
+        <v>1</v>
+      </c>
       <c r="T42" s="8">
         <v>62425</v>
       </c>
@@ -8863,12 +8822,11 @@
         <v>61239</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43"/>
+        <v>2</v>
+      </c>
       <c r="T43" s="8">
         <v>56336</v>
       </c>
@@ -8881,15 +8839,14 @@
     </row>
     <row r="44" ht="16.8" spans="1:22">
       <c r="A44" s="4">
-        <v>62084</v>
+        <v>61239</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="C44" s="4">
-        <v>5</v>
-      </c>
-      <c r="D44"/>
+        <v>1</v>
+      </c>
       <c r="T44" s="8">
         <v>61239</v>
       </c>
@@ -8905,12 +8862,11 @@
         <v>62084</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C45" s="4">
-        <v>4</v>
-      </c>
-      <c r="D45"/>
+        <v>5</v>
+      </c>
       <c r="T45" s="8">
         <v>47224</v>
       </c>
@@ -8926,17 +8882,16 @@
         <v>62084</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C46" s="4">
-        <v>3</v>
-      </c>
-      <c r="D46"/>
+        <v>4</v>
+      </c>
       <c r="T46" s="8">
         <v>46643</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V46" s="4">
         <v>3</v>
@@ -8947,12 +8902,11 @@
         <v>62084</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47"/>
+        <v>3</v>
+      </c>
       <c r="T47" s="8">
         <v>62084</v>
       </c>
@@ -8968,12 +8922,11 @@
         <v>62084</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48"/>
+        <v>2</v>
+      </c>
       <c r="T48" s="8">
         <v>67961</v>
       </c>
@@ -8986,20 +8939,19 @@
     </row>
     <row r="49" ht="16.8" spans="1:22">
       <c r="A49" s="4">
-        <v>62208</v>
+        <v>62084</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49"/>
       <c r="T49" s="8">
         <v>64421</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="V49" s="4">
         <v>1</v>
@@ -9007,20 +8959,19 @@
     </row>
     <row r="50" ht="16.8" spans="1:22">
       <c r="A50" s="4">
-        <v>62425</v>
+        <v>62208</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C50" s="4">
-        <v>3</v>
-      </c>
-      <c r="D50"/>
+        <v>1</v>
+      </c>
       <c r="T50" s="8">
         <v>49010</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V50" s="4">
         <v>3</v>
@@ -9031,17 +8982,16 @@
         <v>62425</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C51" s="4">
-        <v>2</v>
-      </c>
-      <c r="D51"/>
+        <v>3</v>
+      </c>
       <c r="T51" s="8">
         <v>62208</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="V51" s="4">
         <v>1</v>
@@ -9052,17 +9002,16 @@
         <v>62425</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52"/>
+        <v>2</v>
+      </c>
       <c r="T52" s="8">
         <v>43020</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="V52" s="4">
         <v>4</v>
@@ -9070,15 +9019,14 @@
     </row>
     <row r="53" ht="16.8" spans="1:22">
       <c r="A53" s="4">
-        <v>62717</v>
+        <v>62425</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
-      <c r="D53"/>
       <c r="T53" s="8">
         <v>62425</v>
       </c>
@@ -9091,20 +9039,19 @@
     </row>
     <row r="54" ht="16.8" spans="1:22">
       <c r="A54" s="4">
-        <v>64421</v>
+        <v>62717</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C54" s="4">
-        <v>2</v>
-      </c>
-      <c r="D54"/>
+        <v>1</v>
+      </c>
       <c r="T54" s="8">
         <v>46643</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="V54" s="4">
         <v>2</v>
@@ -9115,17 +9062,16 @@
         <v>64421</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C55" s="4">
-        <v>1</v>
-      </c>
-      <c r="D55"/>
+        <v>2</v>
+      </c>
       <c r="T55" s="8">
         <v>43982</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="V55" s="4">
         <v>2</v>
@@ -9133,20 +9079,19 @@
     </row>
     <row r="56" ht="16.8" spans="1:22">
       <c r="A56" s="4">
-        <v>64593</v>
+        <v>64421</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56"/>
       <c r="T56" s="8">
         <v>49010</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="V56" s="4">
         <v>2</v>
@@ -9154,20 +9099,19 @@
     </row>
     <row r="57" ht="16.8" spans="1:22">
       <c r="A57" s="4">
-        <v>66871</v>
+        <v>64593</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="C57" s="4">
-        <v>2</v>
-      </c>
-      <c r="D57"/>
+        <v>1</v>
+      </c>
       <c r="T57" s="8">
         <v>46746</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V57" s="4">
         <v>2</v>
@@ -9178,17 +9122,16 @@
         <v>66871</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58"/>
+        <v>2</v>
+      </c>
       <c r="T58" s="8">
         <v>46511</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="V58" s="4">
         <v>2</v>
@@ -9196,20 +9139,19 @@
     </row>
     <row r="59" ht="16.8" spans="1:22">
       <c r="A59" s="4">
-        <v>67961</v>
+        <v>66871</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59"/>
       <c r="T59" s="8">
         <v>46643</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="V59" s="4">
         <v>1</v>
@@ -9217,15 +9159,14 @@
     </row>
     <row r="60" ht="16.8" spans="1:22">
       <c r="A60" s="4">
-        <v>70390</v>
+        <v>67961</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
-      <c r="D60"/>
       <c r="T60" s="8">
         <v>62717</v>
       </c>
@@ -9238,15 +9179,14 @@
     </row>
     <row r="61" ht="16.8" spans="1:22">
       <c r="A61" s="4">
-        <v>79618</v>
+        <v>70390</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="C61" s="4">
-        <v>3</v>
-      </c>
-      <c r="D61"/>
+        <v>1</v>
+      </c>
       <c r="T61" s="8">
         <v>56484</v>
       </c>
@@ -9262,17 +9202,16 @@
         <v>79618</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C62" s="4">
-        <v>2</v>
-      </c>
-      <c r="D62"/>
+        <v>3</v>
+      </c>
       <c r="T62" s="8">
         <v>49010</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V62" s="4">
         <v>1</v>
@@ -9283,17 +9222,16 @@
         <v>79618</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63"/>
+        <v>2</v>
+      </c>
       <c r="T63" s="8">
         <v>46746</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="V63" s="4">
         <v>1</v>
@@ -9301,20 +9239,19 @@
     </row>
     <row r="64" ht="16.8" spans="1:22">
       <c r="A64" s="4">
-        <v>83135</v>
+        <v>79618</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C64" s="4">
-        <v>2</v>
-      </c>
-      <c r="D64"/>
+        <v>1</v>
+      </c>
       <c r="T64" s="8">
         <v>46511</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="V64" s="4">
         <v>1</v>
@@ -9325,17 +9262,16 @@
         <v>83135</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65"/>
+        <v>2</v>
+      </c>
       <c r="T65" s="8">
         <v>43020</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V65" s="4">
         <v>3</v>
@@ -9343,20 +9279,19 @@
     </row>
     <row r="66" ht="16.8" spans="1:22">
       <c r="A66" s="4">
-        <v>84231</v>
+        <v>83135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
-      <c r="D66"/>
       <c r="T66" s="8">
         <v>56336</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="V66" s="4">
         <v>1</v>
@@ -9364,15 +9299,14 @@
     </row>
     <row r="67" ht="16.8" spans="1:22">
       <c r="A67" s="4">
-        <v>86430</v>
+        <v>84231</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67"/>
+        <v>1</v>
+      </c>
       <c r="T67" s="8">
         <v>43982</v>
       </c>
@@ -9385,20 +9319,19 @@
     </row>
     <row r="68" ht="16.8" spans="1:22">
       <c r="A68" s="4">
-        <v>90254</v>
+        <v>86430</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="C68" s="4">
-        <v>1</v>
-      </c>
-      <c r="D68"/>
+        <v>2</v>
+      </c>
       <c r="T68" s="8">
         <v>39718</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V68" s="4">
         <v>2</v>
@@ -9406,15 +9339,14 @@
     </row>
     <row r="69" ht="16.8" spans="1:22">
       <c r="A69" s="4">
-        <v>90452</v>
+        <v>90254</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
       </c>
-      <c r="D69"/>
       <c r="T69" s="8">
         <v>43020</v>
       </c>
@@ -9427,20 +9359,19 @@
     </row>
     <row r="70" ht="16.8" spans="1:22">
       <c r="A70" s="4">
-        <v>99962</v>
+        <v>90452</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C70" s="4">
-        <v>4</v>
-      </c>
-      <c r="D70"/>
+        <v>1</v>
+      </c>
       <c r="T70" s="8">
         <v>43020</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V70" s="4">
         <v>2</v>
@@ -9448,20 +9379,19 @@
     </row>
     <row r="71" ht="16.8" spans="1:22">
       <c r="A71" s="4">
-        <v>117488</v>
+        <v>99962</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C71" s="4">
-        <v>1</v>
-      </c>
-      <c r="D71"/>
+        <v>4</v>
+      </c>
       <c r="T71" s="8">
         <v>39718</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="V71" s="4">
         <v>1</v>
@@ -9469,20 +9399,19 @@
     </row>
     <row r="72" ht="16.8" spans="1:22">
       <c r="A72" s="4">
-        <v>118357</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1883</v>
+        <v>117488</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72"/>
       <c r="T72" s="8">
         <v>4046</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="V72" s="4">
         <v>10</v>
@@ -9490,20 +9419,19 @@
     </row>
     <row r="73" ht="16.8" spans="1:22">
       <c r="A73" s="4">
-        <v>120317</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>487</v>
+        <v>118357</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1883</v>
       </c>
       <c r="C73" s="4">
-        <v>4</v>
-      </c>
-      <c r="D73"/>
+        <v>1</v>
+      </c>
       <c r="T73" s="8">
         <v>4046</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="V73" s="4">
         <v>9</v>
@@ -9514,17 +9442,16 @@
         <v>120317</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C74" s="4">
-        <v>3</v>
-      </c>
-      <c r="D74"/>
+        <v>4</v>
+      </c>
       <c r="T74" s="8">
         <v>28379</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="V74" s="4">
         <v>1</v>
@@ -9532,20 +9459,19 @@
     </row>
     <row r="75" ht="16.8" spans="1:22">
       <c r="A75" s="4">
-        <v>125952</v>
+        <v>120317</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C75" s="4">
-        <v>1</v>
-      </c>
-      <c r="D75"/>
+        <v>3</v>
+      </c>
       <c r="T75" s="8">
         <v>4046</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V75" s="4">
         <v>8</v>
@@ -9553,20 +9479,19 @@
     </row>
     <row r="76" ht="16.8" spans="1:22">
       <c r="A76" s="4">
-        <v>126167</v>
+        <v>125952</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="C76" s="4">
-        <v>2</v>
-      </c>
-      <c r="D76"/>
+        <v>1</v>
+      </c>
       <c r="T76" s="8">
         <v>4046</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V76" s="4">
         <v>7</v>
@@ -9574,20 +9499,19 @@
     </row>
     <row r="77" ht="16.8" spans="1:22">
       <c r="A77" s="4">
-        <v>126301</v>
+        <v>126167</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C77" s="4">
-        <v>1</v>
-      </c>
-      <c r="D77"/>
+        <v>2</v>
+      </c>
       <c r="T77" s="8">
         <v>4046</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="V77" s="4">
         <v>6</v>
@@ -9595,20 +9519,19 @@
     </row>
     <row r="78" ht="16.8" spans="1:22">
       <c r="A78" s="4">
-        <v>138181</v>
+        <v>126301</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="C78" s="4">
-        <v>3</v>
-      </c>
-      <c r="D78"/>
+        <v>1</v>
+      </c>
       <c r="T78" s="8">
         <v>4046</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="V78" s="4">
         <v>5</v>
@@ -9616,20 +9539,19 @@
     </row>
     <row r="79" ht="16.8" spans="1:22">
       <c r="A79" s="4">
-        <v>223389</v>
+        <v>138181</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="C79" s="4">
-        <v>1</v>
-      </c>
-      <c r="D79"/>
+        <v>3</v>
+      </c>
       <c r="T79" s="8">
         <v>4046</v>
       </c>
       <c r="U79" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V79" s="4">
         <v>4</v>
@@ -9637,20 +9559,19 @@
     </row>
     <row r="80" ht="16.8" spans="1:22">
       <c r="A80" s="4">
-        <v>227496</v>
+        <v>223389</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
       </c>
-      <c r="D80"/>
       <c r="T80" s="8">
         <v>4046</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V80" s="4">
         <v>3</v>
@@ -9658,41 +9579,39 @@
     </row>
     <row r="81" ht="16.8" spans="1:22">
       <c r="A81" s="4">
-        <v>241097</v>
+        <v>227496</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
-      <c r="D81"/>
       <c r="T81" s="8">
         <v>4046</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V81" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="82" ht="16.8" spans="1:22">
-      <c r="A82" s="9">
-        <v>241100</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="C82" s="10">
-        <v>1</v>
-      </c>
-      <c r="D82"/>
+      <c r="A82" s="4">
+        <v>241097</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
       <c r="T82" s="8">
         <v>4046</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V82" s="4">
         <v>1</v>
@@ -9700,22 +9619,33 @@
     </row>
     <row r="83" ht="16.8" spans="1:22">
       <c r="A83" s="9">
-        <v>137635</v>
+        <v>241100</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C83" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T83" s="10">
         <v>39718</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V83" s="10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="16.8" spans="1:3">
+      <c r="A84" s="9">
+        <v>137635</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C84" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="85" ht="16.8" spans="15:15">

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16440" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -7268,8 +7268,8 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>4858</v>
+        <v>76341</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="1:2">
@@ -7942,8 +7942,8 @@
   <sheetPr/>
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -7269,7 +7269,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>76341</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="1:2">

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14220" activeTab="4"/>
+    <workbookView windowHeight="17120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -2266,10 +2266,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2335,6 +2335,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2342,7 +2365,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,31 +2417,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2388,14 +2442,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2418,54 +2464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2498,7 +2498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,18 +2516,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2540,7 +2528,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,7 +2606,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,67 +2660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2636,49 +2678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2725,6 +2725,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2740,11 +2749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2774,178 +2804,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7266,10 +7266,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7929,6 +7929,2461 @@
       </c>
       <c r="B81" s="6" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>891549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>269378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>495978</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>633226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>427185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>1101410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>156627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>76341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>20533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>9697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>259695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>786892</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>116741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>257211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>700348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>781008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>55922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>740581</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>27576</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>11412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>340023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>9659</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>223702</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>302401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>326723</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>405775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>333377</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>696196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>49237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>659258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>38363</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>232679</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>48572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>413452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>429238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>796255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>25473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>482053</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>72455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>86651</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>209504</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>12193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>9778</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>407448</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>692242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>689478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>503936</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>522330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>763099</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>164316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>1026380</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>440502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>1178046</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>1178053</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>653584</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>201847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>353433</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>778663</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>84450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>14806</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>360734</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>264068</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>51010</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>31286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>121537</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>130853</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>355204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>184322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>395948</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>304357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>277710</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>282984</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>375098</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>162903</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>51402</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>159154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>10663</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>10642</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>18925</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>390061</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>371445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>768797</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>246252</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>228194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>79777</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>1150962</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>392788</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>160588</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>394537</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>728784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>440404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>998686</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>373723</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>1027889</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>365254</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>603955</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>1005078</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>934946</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>933674</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>403200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>1154173</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>417909</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>1165337</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>938859</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>1154178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>1013867</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>270691</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>1080428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>1166674</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>728752</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>872906</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>1029599</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>59440</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>667538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>333484</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>589754</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>584850</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>924763</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>256968</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>714351</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>470458</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>536251</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>87018</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>245154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>10105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>35569</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>631939</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>19972</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>79699</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>427342</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>47050</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>11474</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>997270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>496495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>9929</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>78482</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>338763</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>29110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>358759</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>83099</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>132001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>886820</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>616567</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>9369</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>146026</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>79155</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>500145</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>57258</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>460663</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>87906</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>327760</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>128899</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>980083</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>284991</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>1103170</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>598014</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>67396</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>11047</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>283322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>726664</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>731249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>789578</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>109104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>491633</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>52939</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>251287</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>238033</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>104316</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>132008</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>112545</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>139017</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>136741</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>146381</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>314946</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>90323</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>12165</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>296098</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>200505</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>10858</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>301348</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>257087</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>485894</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>653610</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>166816</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>82096</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>322519</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>14202</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>56823</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>193873</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>14757</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>318961</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>910778</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>642738</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>239563</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>863054</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>37080</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>371006</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>276839</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>11929</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>432301</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>503758</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>41479</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>39314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>87492</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>476335</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>1121069</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>339987</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>82693</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>351044</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>67377</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>508747</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>1060336</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>970948</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>432647</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>29731</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>152795</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>68964</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>375785</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>438373</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>398338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>273374</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>596289</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>241664</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>513302</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>672183</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>993280</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>82848</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>443124</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>895966</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>458253</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>425148</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>514439</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>923526</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>431279</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>36888</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>399174</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>34297</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>331986</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>468224</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>380876</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>15189</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>73723</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>100042</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>77950</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>378236</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>339380</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>10535</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>433694</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>418879</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>227973</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>550618</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>736774</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>433709</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>428762</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>492616</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>399440</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>14066</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>686919</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>75311</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>498062</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>421948</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>255929</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>211287</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>1192555</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>542824</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>451335</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>444101</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>374331</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>436769</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>22683</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>945804</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>696918</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>1075536</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>58518</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>290271</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>520596</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>285311</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>161417</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>284689</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>278925</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>374214</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>489567</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>933491</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>22443</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>125400</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>272749</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>1108872</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>535845</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>524348</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>527776</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>606243</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>87428</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>470878</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>725729</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>564898</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>49519</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>529203</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>252838</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>695809</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>780238</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>973702</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>963467</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>808573</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>910858</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>680382</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>1013589</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>723860</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>416777</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>25803</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>506927</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>129430</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>540710</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>74181</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>239728</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>98609</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>476339</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>77109</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>399961</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>492066</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>106224</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>89994</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>200715</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>465976</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>49040</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>790547</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>465619</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>11181</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>198507</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>142826</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>143394</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>311307</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>114586</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>29166</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>520466</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>505529</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>114592</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>1090650</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>444586</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>81246</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>1019982</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>40157</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>731862</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>50166</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>791007</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>843248</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>877181</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>87073</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>521777</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>525946</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>26803</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>531513</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>390051</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>575958</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>244088</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>595671</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>585244</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>664767</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>487297</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>382614</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>618344</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>446893</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>454458</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>359724</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>27236</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>18693</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>401359</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>49352</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>61083</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>568994</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>22166</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>670404</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>838154</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>701527</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>682426</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>104768</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>699511</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>1148679</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>18095</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>1121878</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>1182772</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>18609</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>72213</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>716728</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>124545</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>177578</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>352996</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>96688</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>130774</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>23721</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>596204</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>202093</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>140783</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>872537</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>547017</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>13075</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>18683</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>206277</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>434358</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>565341</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>396920</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>707886</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>586458</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>520318</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>336807</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>459595</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>447869</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>479259</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>615466</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>754310</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>720432</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>468308</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>1000505</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>714687</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>355045</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>221453</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>414235</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>382539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>1154074</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>886259</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>963316</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>36583</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>604578</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>14711</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>525661</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>718558</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>46837</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>767377</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>387578</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>21846</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>546975</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>361065</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>358511</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>474354</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>15925</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>515056</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>385400</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>491450</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>54271</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>86440</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>338353</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>730585</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>305795</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>95865</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>128884</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>270836</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>461054</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>575417</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>606443</v>
       </c>
     </row>
   </sheetData>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17120" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="14900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -7268,7 +7268,7 @@
   <sheetPr/>
   <dimension ref="A1:F573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -10395,10 +10395,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V614"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -12108,8 +12108,2653 @@
         <v>561</v>
       </c>
     </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>189739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>189740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>304548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>205478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>206914</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>192045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>201371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>164753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>162813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>367084</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>66230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>83429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>106374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>180981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>329452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>50706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>50707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>61362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>71756</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>74729</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>77379</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>142396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>63599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>72724</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>84188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>99023</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>323269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>31497</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>99205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>64614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>68934</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>78512</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>89967</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>70862</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>70807</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>98800</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>98801</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>111414</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>52804</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>106584</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>124641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>166998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>227924</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>87718</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>92224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>105744</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>135536</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>135839</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>112736</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>180125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>339508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>131802</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>293886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>141023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>98129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>106145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>17990</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>152153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>61854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>59891</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>66224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>78511</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>88227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>160427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>55057</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>55058</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>62091</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>367453</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>54605</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>54602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>54603</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>54604</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>86912</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>209411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>76435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>50921</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>50922</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>50923</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>62891</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>76318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>54809</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>54810</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>85193</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>181225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>62412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>72709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>293565</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>97750</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>55146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>63281</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>68865</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>76885</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>110097</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>132083</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>159821</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>73015</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>60368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>77471</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>82037</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>106956</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>121669</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>166878</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>55087</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>62990</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>76054</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>102300</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>26474</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>26475</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>26476</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>26477</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>26478</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>142924</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>56339</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>56338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>22583</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>311205</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>24380</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>16651</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>239353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>94984</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>118829</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>63132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>94591</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>54813</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>77814</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>103197</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>124640</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>150611</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>106338</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>106339</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>130510</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>83541</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>99968</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>120325</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>106690</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>74032</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>85796</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>191105</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>31178</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>199911</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>182106</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>129519</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>366515</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>140772</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>114353</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>166688</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>120614</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>188180</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>160113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>33464</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>298591</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>243066</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>142786</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>90409</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>188962</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>153971</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>98170</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>9731</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>9730</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>14047</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>14041</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>14042</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>324476</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>96659</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>133661</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>214737</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>75140</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>64560</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>64291</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>76909</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>112186</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>68119</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>168631</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>183321</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>63741</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>200266</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>149220</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>151974</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>150530</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>114604</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>154862</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>200600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>347784</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>151359</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>50924</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>50925</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>187181</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>124605</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>84057</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>105425</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>140314</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>212997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>76596</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>51964</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>51965</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>63871</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>96276</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>124320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>331809</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>239206</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>35341</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>35339</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>35340</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>283979</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>172565</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>156727</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>109655</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>60940</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>67994</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>86551</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>99346</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>112768</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>7133</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>75021</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>25217</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>25218</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>25219</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>25220</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>25221</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>114280</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>114282</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>174775</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>244894</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>91625</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>87929</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>78693</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>115281</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>77680</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>83248</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>115216</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>163313</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>160403</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>62090</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>71881</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>81266</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>107971</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>97215</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>118857</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>138688</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>172796</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>236115</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>320429</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>85756</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>62021</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>70251</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>83285</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>63917</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>66052</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>83079</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>97305</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>142239</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>193594</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>286816</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>320489</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>77815</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>164076</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>172701</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>64752</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>71964</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>69023</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>76476</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>88859</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>99218</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>103660</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>119735</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>212320</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>318711</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>47381</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>47378</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>47379</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>47380</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>47382</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>47383</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>125392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>213225</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>181501</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>104010</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>113390</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>134985</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>103758</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>143761</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>210417</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>101749</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>85712</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>124476</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>7629</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>7625</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>7623</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>9297</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>9304</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>9303</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>9302</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>9307</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>158194</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>81616</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>302337</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>215486</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>154500</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>212469</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>71652</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>71653</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>122650</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>120376</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>186458</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>320398</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>242500</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>323525</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>132693</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>201745</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>300364</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>326767</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>301414</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>333067</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>122144</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>144457</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>189800</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>336757</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>305596</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>17652</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>82407</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>101550</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>26480</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>26481</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>288005</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>14044</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>14045</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>14046</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>106628</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>60229</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>190113</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>190114</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>112277</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>356262</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>286924</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>73651</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>69635</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>79720</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>99857</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>110408</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>165228</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>214858</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>60230</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>64777</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>74905</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>111912</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>91812</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>158354</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>199289</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>290646</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>54671</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>75154</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>301847</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>350202</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>119562</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>25080</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>25082</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>209301</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>13881</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>13874</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>13873</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>13876</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>13878</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>13877</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>13875</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>13879</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>127521</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>43163</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>178135</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>305405</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>210002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>217397</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>58965</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>64371</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>61011</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>61012</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>104202</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>96440</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>47422</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>65691</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>126675</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>68626</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>113970</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>166922</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>93381</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>109588</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>118490</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>168762</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>213043</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>213959</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>356828</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>74875</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>302731</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>334559</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>111829</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>191330</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>134931</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>86007</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>320456</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>78258</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>104209</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>77088</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>337433</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>320893</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>333953</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>355719</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>323143</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>308640</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>113677</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>68638</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>98895</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>128116</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>293172</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>126995</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>329772</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>174217</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>157707</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>62389</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>317157</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>158351</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>243546</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>332297</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>359468</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>45206</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>61790</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>76076</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>112723</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>324760</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>60916</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>67115</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>77858</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>239947</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>326632</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>121794</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>134932</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>156777</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>17192</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>106719</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>171049</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>62904</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>62905</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>179015</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>243425</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>140137</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>176140</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>205097</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>362799</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>243495</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>74331</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>85133</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>108815</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>142451</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>213012</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>355963</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>52590</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>52591</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>53214</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>62855</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>218262</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>9479</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>167337</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>191883</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>167212</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>339521</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>339523</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C82">
+  <sortState ref="A86:A614">
     <sortCondition ref="A82"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -10398,7 +10398,7 @@
   <dimension ref="A1:V614"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -12110,2647 +12110,2647 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>189739</v>
+        <v>122790</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>189740</v>
+        <v>122790</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>304548</v>
+        <v>208066</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>205478</v>
+        <v>130955</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>206914</v>
+        <v>131714</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>192045</v>
+        <v>124096</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>201371</v>
+        <v>128705</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>164753</v>
+        <v>111028</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>162813</v>
+        <v>109872</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>367084</v>
+        <v>240220</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>66230</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>83429</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>106374</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>180981</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>329452</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>50706</v>
+        <v>39276</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>50707</v>
+        <v>39276</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>61362</v>
+        <v>39276</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>71756</v>
+        <v>39276</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>74729</v>
+        <v>65650</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>77379</v>
+        <v>66604</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>142396</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>3768</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>3767</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>63599</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>72724</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>84188</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>99023</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>323269</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>31497</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>99205</v>
+        <v>77041</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>64614</v>
+        <v>13868</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>68934</v>
+        <v>63351</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>78512</v>
+        <v>63351</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>89967</v>
+        <v>63351</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>70862</v>
+        <v>63764</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>70807</v>
+        <v>63764</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>98800</v>
+        <v>63764</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>98801</v>
+        <v>63764</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>111414</v>
+        <v>63764</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>52804</v>
+        <v>43348</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>106584</v>
+        <v>80968</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>124641</v>
+        <v>80968</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>166998</v>
+        <v>80968</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>227924</v>
+        <v>71411</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>87718</v>
+        <v>71411</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>92224</v>
+        <v>71411</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>105744</v>
+        <v>71411</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>135536</v>
+        <v>95281</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>135839</v>
+        <v>95467</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>112736</v>
+        <v>84112</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>180125</v>
+        <v>118241</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>339508</v>
+        <v>225784</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>131802</v>
+        <v>93324</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>293886</v>
+        <v>202065</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>141023</v>
+        <v>97970</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>98129</v>
+        <v>76498</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>106145</v>
+        <v>76498</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>4689</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>4690</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>4691</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>4692</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>4693</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>4694</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>17990</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>152153</v>
+        <v>104108</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>61854</v>
+        <v>47640</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>59891</v>
+        <v>47640</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>66224</v>
+        <v>47640</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>78511</v>
+        <v>47640</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>88227</v>
+        <v>47640</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>160427</v>
+        <v>108279</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>55057</v>
+        <v>46896</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>55058</v>
+        <v>46896</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>62091</v>
+        <v>46896</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>367453</v>
+        <v>240396</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>54605</v>
+        <v>46296</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>54602</v>
+        <v>46296</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>54603</v>
+        <v>46296</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>54604</v>
+        <v>46296</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>86912</v>
+        <v>49258</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>209411</v>
+        <v>132846</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>76435</v>
+        <v>66276</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>50921</v>
+        <v>39551</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>50922</v>
+        <v>39551</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>50923</v>
+        <v>39551</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>62891</v>
+        <v>39551</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>76318</v>
+        <v>39551</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>54809</v>
+        <v>46638</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>54810</v>
+        <v>46638</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>85193</v>
+        <v>46638</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>181225</v>
+        <v>61244</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>62412</v>
+        <v>61244</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>72709</v>
+        <v>61244</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>293565</v>
+        <v>61244</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>97750</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>55146</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>63281</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>68865</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>76885</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>5426</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>5424</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>5425</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>110097</v>
+        <v>82700</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>132083</v>
+        <v>82700</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>159821</v>
+        <v>82700</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>73015</v>
+        <v>60699</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>60368</v>
+        <v>60699</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>77471</v>
+        <v>60699</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>82037</v>
+        <v>68708</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>106956</v>
+        <v>68708</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>121669</v>
+        <v>68708</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>166878</v>
+        <v>112169</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>55087</v>
+        <v>46973</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>62990</v>
+        <v>46973</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>76054</v>
+        <v>46973</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>102300</v>
+        <v>46973</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>26474</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>26475</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>26476</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>26477</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>26478</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>142924</v>
+        <v>99136</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>56339</v>
+        <v>53296</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>56338</v>
+        <v>53296</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>22583</v>
+        <v>11918</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>311205</v>
+        <v>211617</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>24380</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>16651</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>239353</v>
+        <v>74956</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>94984</v>
+        <v>74956</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>118829</v>
+        <v>86803</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>63132</v>
+        <v>61526</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>94591</v>
+        <v>74778</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>54813</v>
+        <v>46647</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>77814</v>
+        <v>66788</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>103197</v>
+        <v>66788</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>124640</v>
+        <v>66788</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>150611</v>
+        <v>66788</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>106338</v>
+        <v>80865</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>106339</v>
+        <v>80865</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>130510</v>
+        <v>80865</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>83541</v>
+        <v>69470</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>99968</v>
+        <v>69470</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>120325</v>
+        <v>69470</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>106690</v>
+        <v>81024</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>74032</v>
+        <v>65368</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>85796</v>
+        <v>65368</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>191105</v>
+        <v>123597</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>31178</v>
+        <v>21315</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>199911</v>
+        <v>127896</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>182106</v>
+        <v>119046</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>129519</v>
+        <v>92209</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>366515</v>
+        <v>239923</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>140772</v>
+        <v>97790</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>114353</v>
+        <v>84956</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>166688</v>
+        <v>112038</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>120614</v>
+        <v>87673</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>188180</v>
+        <v>87673</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>160113</v>
+        <v>108087</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>33464</v>
+        <v>23473</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>298591</v>
+        <v>204780</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>243066</v>
+        <v>157199</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>142786</v>
+        <v>99071</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>90409</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>188962</v>
+        <v>105009</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>153971</v>
+        <v>105009</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>98170</v>
+        <v>76521</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>9731</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>9729</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>9728</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>9730</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>14047</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>14041</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>14042</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>324476</v>
+        <v>75758</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>96659</v>
+        <v>75758</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>133661</v>
+        <v>75758</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>214737</v>
+        <v>75758</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>75140</v>
+        <v>54866</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>64560</v>
+        <v>54866</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>64291</v>
+        <v>54866</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>76909</v>
+        <v>54866</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>112186</v>
+        <v>54866</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>68119</v>
+        <v>63054</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>168631</v>
+        <v>63054</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>183321</v>
+        <v>119559</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>63741</v>
+        <v>15129</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>200266</v>
+        <v>128118</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>149220</v>
+        <v>102647</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>151974</v>
+        <v>104022</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>150530</v>
+        <v>103328</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>114604</v>
+        <v>85036</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>154862</v>
+        <v>105344</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>200600</v>
+        <v>105344</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>347784</v>
+        <v>230065</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>151359</v>
+        <v>103711</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>50924</v>
+        <v>39553</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>50925</v>
+        <v>39553</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>187181</v>
+        <v>121395</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>124605</v>
+        <v>89628</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>84057</v>
+        <v>69740</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>105425</v>
+        <v>69740</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>140314</v>
+        <v>69740</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>212997</v>
+        <v>69740</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>76596</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>51964</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>51965</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>63871</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>96276</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>124320</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>331809</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>239206</v>
+        <v>155204</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>35341</v>
+        <v>25117</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>35339</v>
+        <v>25117</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>35340</v>
+        <v>25117</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>283979</v>
+        <v>195530</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>172565</v>
+        <v>114799</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>156727</v>
+        <v>82509</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>109655</v>
+        <v>82509</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>60940</v>
+        <v>60866</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>67994</v>
+        <v>60866</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>86551</v>
+        <v>60866</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>99346</v>
+        <v>60866</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>112768</v>
+        <v>60866</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>7135</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>7132</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>7133</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>7134</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>7136</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>75021</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>25217</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>25218</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>25219</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>25220</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>25221</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>114280</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>114282</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>174775</v>
+        <v>115829</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>244894</v>
+        <v>158133</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>91625</v>
+        <v>57287</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>87929</v>
+        <v>57287</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>78693</v>
+        <v>67178</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>115281</v>
+        <v>67178</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>77680</v>
+        <v>66732</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>83248</v>
+        <v>66732</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>115216</v>
+        <v>66732</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>163313</v>
+        <v>66732</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>160403</v>
+        <v>108262</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>3627</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>3624</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>3625</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>3626</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>3628</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>62090</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>71881</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>81266</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>107971</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>97215</v>
+        <v>76016</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>118857</v>
+        <v>76016</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>138688</v>
+        <v>76016</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>172796</v>
+        <v>76016</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>236115</v>
+        <v>76016</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>320429</v>
+        <v>76016</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>85756</v>
+        <v>70541</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>3695</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>3693</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>3694</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>3696</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>62021</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>70251</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>83285</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>63917</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>66052</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>83079</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>97305</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>142239</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>193594</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>286816</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>320489</v>
+        <v>61746</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>5853</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>5845</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>5846</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>5847</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>5848</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>5849</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>5850</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>77815</v>
+        <v>66789</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>164076</v>
+        <v>110641</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>172701</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>64752</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>71964</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>69023</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>76476</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>88859</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>99218</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>103660</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>119735</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>212320</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>318711</v>
+        <v>61956</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>47381</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>47378</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>47379</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>47380</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>47382</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>47383</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>125392</v>
+        <v>90033</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>213225</v>
+        <v>90033</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>181501</v>
+        <v>118777</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>104010</v>
+        <v>79679</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>113390</v>
+        <v>79679</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>134985</v>
+        <v>79679</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>103758</v>
+        <v>79491</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>143761</v>
+        <v>99636</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>210417</v>
+        <v>133298</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>101749</v>
+        <v>70523</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>85712</v>
+        <v>70523</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>124476</v>
+        <v>70523</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>7629</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>7625</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>7623</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>7628</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>7627</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>7626</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>9309</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>9299</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>9300</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>9297</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>9298</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>9304</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>9308</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>9303</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>9302</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>9305</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>9307</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>9301</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>9306</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>158194</v>
+        <v>68507</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>81616</v>
+        <v>68507</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>302337</v>
+        <v>206799</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>215486</v>
+        <v>136283</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>154500</v>
+        <v>105214</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>212469</v>
+        <v>105214</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>71652</v>
+        <v>64273</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>71653</v>
+        <v>64273</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>122650</v>
+        <v>64273</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>120376</v>
+        <v>87542</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>186458</v>
+        <v>87542</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>320398</v>
+        <v>87542</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>242500</v>
+        <v>156898</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>323525</v>
+        <v>156898</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>132693</v>
+        <v>93822</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>201745</v>
+        <v>128904</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>300364</v>
+        <v>128904</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>326767</v>
+        <v>206324</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>301414</v>
+        <v>206324</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>333067</v>
+        <v>222559</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>122144</v>
+        <v>88401</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>144457</v>
+        <v>88401</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>189800</v>
+        <v>88401</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>336757</v>
+        <v>88401</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>305596</v>
+        <v>208691</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>17652</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>82407</v>
+        <v>46896</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>101550</v>
+        <v>46896</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>26480</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>26481</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>288005</v>
+        <v>67107</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>14044</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>14045</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>14046</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>106628</v>
+        <v>62127</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>5852</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>60229</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>190113</v>
+        <v>123028</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>190114</v>
+        <v>123028</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>112277</v>
+        <v>83885</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>356262</v>
+        <v>234487</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>286924</v>
+        <v>197190</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>73651</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>69635</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>79720</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>99857</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>110408</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>165228</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>214858</v>
+        <v>63639</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>60230</v>
+        <v>54671</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>64777</v>
+        <v>54671</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>74905</v>
+        <v>54671</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>111912</v>
+        <v>83685</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>91812</v>
+        <v>73467</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>158354</v>
+        <v>107116</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>199289</v>
+        <v>107116</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>290646</v>
+        <v>199920</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>54671</v>
+        <v>46423</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>75154</v>
+        <v>65816</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>301847</v>
+        <v>206558</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>350202</v>
+        <v>87166</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>119562</v>
+        <v>87166</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>25080</v>
+        <v>13871</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>25082</v>
+        <v>13871</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>209301</v>
+        <v>132814</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>13881</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>13874</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>13873</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>13876</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>13878</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>13877</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>13875</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>13880</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>13879</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>127521</v>
+        <v>91024</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>43163</v>
+        <v>31672</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>178135</v>
+        <v>117411</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>305405</v>
+        <v>208559</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>210002</v>
+        <v>133114</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>217397</v>
+        <v>137387</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>58965</v>
+        <v>57825</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>64371</v>
+        <v>60877</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>61011</v>
+        <v>60877</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>61012</v>
+        <v>60877</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>104202</v>
+        <v>60877</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>96440</v>
+        <v>60877</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>47422</v>
+        <v>36449</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>65691</v>
+        <v>62285</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>126675</v>
+        <v>46639</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>68626</v>
+        <v>46639</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>113970</v>
+        <v>46639</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>166922</v>
+        <v>46639</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>93381</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>109588</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>118490</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>168762</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>213043</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>213959</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>356828</v>
+        <v>74204</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>74875</v>
+        <v>65708</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>302731</v>
+        <v>65708</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>334559</v>
+        <v>223313</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>111829</v>
+        <v>83639</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>191330</v>
+        <v>83639</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>134931</v>
+        <v>70637</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>86007</v>
+        <v>70637</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>320456</v>
+        <v>216523</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>78258</v>
+        <v>66992</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>104209</v>
+        <v>66504</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>77088</v>
+        <v>66504</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>43249</v>
+        <v>31747</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>337433</v>
+        <v>216742</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>320893</v>
+        <v>216742</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>333953</v>
+        <v>222974</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>355719</v>
+        <v>234216</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>323143</v>
+        <v>217807</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>308640</v>
+        <v>210235</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>113677</v>
+        <v>63247</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>68638</v>
+        <v>63247</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>98895</v>
+        <v>63247</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>128116</v>
+        <v>63247</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>293172</v>
+        <v>63247</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>1211</v>
+        <v>411</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>126995</v>
+        <v>90795</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>329772</v>
+        <v>90795</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>174217</v>
+        <v>115568</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>157707</v>
+        <v>106702</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>62389</v>
+        <v>61231</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>317157</v>
+        <v>214823</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1371</v>
+        <v>484</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>1373</v>
+        <v>484</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>1374</v>
+        <v>484</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1378</v>
+        <v>484</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>1377</v>
+        <v>484</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>1375</v>
+        <v>484</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>1376</v>
+        <v>484</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>1380</v>
+        <v>484</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1379</v>
+        <v>484</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>158351</v>
+        <v>107113</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>243546</v>
+        <v>107113</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>332297</v>
+        <v>107113</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>359468</v>
+        <v>107113</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>45205</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>45203</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>45204</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>45206</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>61790</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>76076</v>
+        <v>66153</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>112723</v>
+        <v>66153</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>324760</v>
+        <v>66153</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>60916</v>
+        <v>60129</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>67115</v>
+        <v>60129</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>77858</v>
+        <v>60129</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>43717</v>
+        <v>32368</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>43719</v>
+        <v>32368</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>43718</v>
+        <v>32368</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>239947</v>
+        <v>155594</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>326632</v>
+        <v>219378</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>121794</v>
+        <v>88239</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>134932</v>
+        <v>88239</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>156777</v>
+        <v>88239</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>17192</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>106719</v>
+        <v>81049</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>171049</v>
+        <v>61431</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>62904</v>
+        <v>61431</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>62905</v>
+        <v>61431</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>179015</v>
+        <v>61431</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>243425</v>
+        <v>157372</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>140137</v>
+        <v>97405</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>176140</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>205097</v>
+        <v>130766</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>362799</v>
+        <v>238126</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>243495</v>
+        <v>157411</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>74331</v>
+        <v>65494</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>85133</v>
+        <v>65494</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>108815</v>
+        <v>65494</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>142451</v>
+        <v>65494</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>213012</v>
+        <v>65494</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>355963</v>
+        <v>65494</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>52590</v>
+        <v>43125</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>52591</v>
+        <v>43125</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>53214</v>
+        <v>44037</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>62855</v>
+        <v>44037</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>218262</v>
+        <v>137902</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>9479</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>9481</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>9482</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>167337</v>
+        <v>112440</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>191883</v>
+        <v>124069</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>167212</v>
+        <v>112356</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>339521</v>
+        <v>112356</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>339523</v>
+        <v>112356</v>
       </c>
     </row>
   </sheetData>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14900" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -7268,8 +7268,8 @@
   <sheetPr/>
   <dimension ref="A1:F573"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>8810</v>
+        <v>738652</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="1:2">
@@ -10397,8 +10397,8 @@
   <sheetPr/>
   <dimension ref="A1:V614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14900" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -6931,8 +6931,8 @@
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8359375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6959,119 +6959,31 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>978592</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:1">
-      <c r="A3">
-        <v>961381</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:1">
-      <c r="A4">
-        <v>606870</v>
-      </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:1">
-      <c r="A5">
-        <v>718919</v>
-      </c>
-    </row>
-    <row r="6" ht="16.8" spans="1:1">
-      <c r="A6">
-        <v>930432</v>
-      </c>
-    </row>
-    <row r="7" ht="16.8" spans="1:1">
-      <c r="A7">
-        <v>987507</v>
-      </c>
-    </row>
-    <row r="8" ht="16.8" spans="1:1">
-      <c r="A8">
-        <v>715370</v>
-      </c>
-    </row>
-    <row r="9" ht="16.8" spans="1:1">
-      <c r="A9">
-        <v>598212</v>
-      </c>
-    </row>
-    <row r="10" ht="16.8" spans="1:1">
-      <c r="A10">
-        <v>628900</v>
-      </c>
-    </row>
-    <row r="11" ht="16.8" spans="1:1">
-      <c r="A11">
-        <v>993621</v>
-      </c>
-    </row>
-    <row r="12" ht="16.8" spans="1:1">
-      <c r="A12">
-        <v>672475</v>
-      </c>
-    </row>
-    <row r="13" ht="16.8" spans="1:1">
-      <c r="A13">
-        <v>785663</v>
-      </c>
-    </row>
-    <row r="14" ht="16.8" spans="1:1">
-      <c r="A14">
-        <v>576920</v>
-      </c>
-    </row>
-    <row r="15" ht="16.8" spans="1:1">
-      <c r="A15">
-        <v>762079</v>
-      </c>
-    </row>
-    <row r="16" ht="16.8" spans="1:1">
-      <c r="A16">
-        <v>582909</v>
-      </c>
-    </row>
-    <row r="17" ht="16.8" spans="1:1">
-      <c r="A17">
-        <v>543749</v>
-      </c>
-    </row>
-    <row r="18" ht="16.8" spans="1:1">
-      <c r="A18">
-        <v>524625</v>
-      </c>
-    </row>
-    <row r="19" ht="16.8" spans="1:1">
-      <c r="A19">
-        <v>457955</v>
-      </c>
-    </row>
-    <row r="20" ht="16.8" spans="1:1">
-      <c r="A20">
-        <v>527004</v>
-      </c>
-    </row>
-    <row r="21" ht="16.8" spans="1:1">
-      <c r="A21">
-        <v>438154</v>
-      </c>
-    </row>
-    <row r="22" ht="16.8" spans="1:1">
-      <c r="A22">
-        <v>403509</v>
-      </c>
-    </row>
-    <row r="23" ht="16.8" spans="1:1">
-      <c r="A23">
-        <v>50737</v>
-      </c>
-    </row>
-    <row r="24" ht="16.8" spans="1:1">
-      <c r="A24">
-        <v>27957</v>
-      </c>
-    </row>
+        <v>295144</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8"/>
+    <row r="4" ht="16.8"/>
+    <row r="5" ht="16.8"/>
+    <row r="6" ht="16.8"/>
+    <row r="7" ht="16.8"/>
+    <row r="8" ht="16.8"/>
+    <row r="9" ht="16.8"/>
+    <row r="10" ht="16.8"/>
+    <row r="11" ht="16.8"/>
+    <row r="12" ht="16.8"/>
+    <row r="13" ht="16.8"/>
+    <row r="14" ht="16.8"/>
+    <row r="15" ht="16.8"/>
+    <row r="16" ht="16.8"/>
+    <row r="17" ht="16.8"/>
+    <row r="18" ht="16.8"/>
+    <row r="19" ht="16.8"/>
+    <row r="20" ht="16.8"/>
+    <row r="21" ht="16.8"/>
+    <row r="22" ht="16.8"/>
+    <row r="23" ht="16.8"/>
+    <row r="24" ht="16.8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -7083,8 +6995,8 @@
   <sheetPr/>
   <dimension ref="A1:V640"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14900" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="14900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="companys" sheetId="1" r:id="rId1"/>
@@ -6931,7 +6931,7 @@
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6995,8 +6995,8 @@
   <sheetPr/>
   <dimension ref="A1:V640"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="2" ht="16.8" spans="1:22">
       <c r="A2">
-        <v>52814</v>
+        <v>202065</v>
       </c>
       <c r="B2" t="s">
         <v>391</v>

--- a/docs/movies.xlsx
+++ b/docs/movies.xlsx
@@ -1314,9 +1314,6 @@
   </si>
   <si>
     <t>凯伦·皮里 第二季</t>
-  </si>
-  <si>
-    <t>光环 第一季</t>
   </si>
   <si>
     <t>塔楼 第三季</t>
@@ -1588,19 +1585,10 @@
     <t>不眠 第二季</t>
   </si>
   <si>
-    <t>黄蜂 第一季</t>
-  </si>
-  <si>
     <t>洪水之后</t>
   </si>
   <si>
-    <t>那时那处</t>
-  </si>
-  <si>
     <t>迷失海湾 第五季</t>
-  </si>
-  <si>
-    <t>奇妙人生</t>
   </si>
   <si>
     <r>
@@ -1718,124 +1706,136 @@
     <t>格雷斯 第四季</t>
   </si>
   <si>
+    <t>194636, 126167, 87773, 227496, 47224,295144</t>
+  </si>
+  <si>
+    <t>迪莉娅的证词（原：直到我杀了你）</t>
+  </si>
+  <si>
+    <t>格雷斯 第三季</t>
+  </si>
+  <si>
+    <t>渎职</t>
+  </si>
+  <si>
+    <t>探案拍档 第四季</t>
+  </si>
+  <si>
+    <t>光环 第一季</t>
+  </si>
+  <si>
+    <t>设得兰谜案 第七季</t>
+  </si>
+  <si>
+    <t>黄蜂 第一季</t>
+  </si>
+  <si>
+    <t>山巅之城 第三季</t>
+  </si>
+  <si>
+    <t>那时那处</t>
+  </si>
+  <si>
+    <t>仁医莎姆</t>
+  </si>
+  <si>
+    <t>奇妙人生</t>
+  </si>
+  <si>
+    <t>超蓬勃：优步之战 第一季</t>
+  </si>
+  <si>
     <t>英伦魔法师</t>
   </si>
   <si>
-    <t>194636, 126167, 87773, 227496, 47224,295144</t>
-  </si>
-  <si>
-    <t>迪莉娅的证词（原：直到我杀了你）</t>
+    <t>法官大人 第二季</t>
   </si>
   <si>
     <t>安妮日记</t>
   </si>
   <si>
-    <t>格雷斯 第三季</t>
-  </si>
-  <si>
     <t>贝奥武夫</t>
   </si>
   <si>
-    <t>渎职</t>
-  </si>
-  <si>
     <t>化身博士</t>
   </si>
   <si>
-    <t>探案拍档 第四季</t>
+    <t>说出你的秘密</t>
   </si>
   <si>
     <t>黑暗天使</t>
   </si>
   <si>
-    <t>设得兰谜案 第七季</t>
+    <t>山巅之城 第二季</t>
   </si>
   <si>
     <t>海豹六队 第一季</t>
   </si>
   <si>
+    <t>新阴阳魔界 第二季</t>
+  </si>
+  <si>
     <t>弗兰肯斯坦传奇 第一季</t>
   </si>
   <si>
-    <t>山巅之城 第三季</t>
+    <t>波尔达克 第五季</t>
   </si>
   <si>
     <t>罪恶的灵魂 第一季</t>
   </si>
   <si>
-    <t>仁医莎姆</t>
+    <t>重任在肩S5</t>
   </si>
   <si>
     <t>罪恶的灵魂 第二季</t>
   </si>
   <si>
-    <t>超蓬勃：优步之战 第一季</t>
+    <t>山巅之城 第一季</t>
   </si>
   <si>
     <t>塞尔福里奇先生 第一季</t>
   </si>
   <si>
-    <t>法官大人 第二季</t>
+    <t>韦恩 第一季</t>
   </si>
   <si>
     <t>塞尔福里奇先生 第二季</t>
   </si>
   <si>
+    <t>莱姆镇</t>
+  </si>
+  <si>
     <t>塞尔福里奇先生 第三季</t>
   </si>
   <si>
+    <t>新阴阳魔界 第一季</t>
+  </si>
+  <si>
     <t>塞尔福里奇先生 第四季</t>
   </si>
   <si>
-    <t>说出你的秘密</t>
+    <t>波尔达克 第四季</t>
   </si>
   <si>
     <t>重任在肩S1</t>
   </si>
   <si>
-    <t>山巅之城 第二季</t>
+    <t>海豹六队 第二季</t>
   </si>
   <si>
     <t>重任在肩S2</t>
   </si>
   <si>
-    <t>新阴阳魔界 第二季</t>
+    <t>波尔达克 第三季</t>
   </si>
   <si>
     <t>重任在肩S4</t>
   </si>
   <si>
-    <t>波尔达克 第五季</t>
-  </si>
-  <si>
     <t>波尔达克 第一季</t>
   </si>
   <si>
-    <t>重任在肩S5</t>
-  </si>
-  <si>
     <t>波尔达克 第二季</t>
-  </si>
-  <si>
-    <t>山巅之城 第一季</t>
-  </si>
-  <si>
-    <t>波尔达克 第三季</t>
-  </si>
-  <si>
-    <t>韦恩 第一季</t>
-  </si>
-  <si>
-    <t>波尔达克 第四季</t>
-  </si>
-  <si>
-    <t>莱姆镇</t>
-  </si>
-  <si>
-    <t>新阴阳魔界 第一季</t>
-  </si>
-  <si>
-    <t>海豹六队 第二季</t>
   </si>
   <si>
     <t>弗兰肯斯坦传奇 第二季</t>
@@ -1965,6 +1965,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFF8F8F2"/>
       <name val="Monaco"/>
@@ -1974,13 +1981,6 @@
       <sz val="11"/>
       <name val="宋体-简"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2493,13 +2493,13 @@
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2559,13 +2559,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2583,7 +2583,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2598,7 +2598,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2629,18 +2629,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2982,13 +2982,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4750,13 +4750,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4800,13 +4800,13 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6993,10 +6993,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V640"/>
+  <dimension ref="A1:P640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7006,7 +7006,7 @@
     <col min="13" max="13" width="19.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:22">
+    <row r="1" ht="16.8" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>387</v>
       </c>
@@ -7016,1353 +7016,1184 @@
       <c r="C1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="T1" s="8">
+    </row>
+    <row r="2" ht="16.8" spans="1:3">
+      <c r="A2" s="4">
         <v>194636</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="V1" s="7">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:22">
-      <c r="A2">
+    <row r="3" ht="16.8" spans="1:6">
+      <c r="A3" s="4">
+        <v>138181</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:3">
+      <c r="A4" s="4">
+        <v>126167</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:3">
+      <c r="A5" s="4">
+        <v>241097</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:16">
+      <c r="A6" s="4">
+        <v>87773</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:9">
+      <c r="A7" s="4">
+        <v>120317</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:3">
+      <c r="A8" s="4">
+        <v>227496</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:3">
+      <c r="A9" s="4">
+        <v>120317</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:3">
+      <c r="A10" s="4">
+        <v>223389</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:15">
+      <c r="A11" s="4">
+        <v>99962</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11">
         <v>202065</v>
       </c>
-      <c r="B2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="8">
-        <v>138181</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="V2" s="7">
+      <c r="N11" t="s">
+        <v>409</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:15">
+      <c r="A12" s="4">
+        <v>46923</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>118357</v>
+      </c>
+      <c r="N12">
+        <v>1883</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:15">
+      <c r="A13" s="4">
+        <v>52814</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>117488</v>
+      </c>
+      <c r="N13" t="s">
+        <v>411</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:15">
+      <c r="A14" s="4">
+        <v>79618</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:22">
-      <c r="A3">
+      <c r="M14">
+        <v>70390</v>
+      </c>
+      <c r="N14" t="s">
+        <v>413</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:15">
+      <c r="A15" s="4">
+        <v>125952</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>295144</v>
+      </c>
+      <c r="N15" t="s">
+        <v>415</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:15">
+      <c r="A16" s="4">
+        <v>126301</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62717</v>
+      </c>
+      <c r="N16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:15">
+      <c r="A17" s="4">
+        <v>86430</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>28379</v>
+      </c>
+      <c r="N17" t="s">
+        <v>419</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:15">
+      <c r="A18" s="4">
         <v>118357</v>
       </c>
-      <c r="B3">
+      <c r="B18" s="5">
         <v>1883</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="T3" s="8">
-        <v>126167</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="V3" s="7">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>64593</v>
+      </c>
+      <c r="N18" t="s">
+        <v>420</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:15">
+      <c r="A19" s="4">
+        <v>117488</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>47224</v>
+      </c>
+      <c r="N19" t="s">
+        <v>421</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:15">
+      <c r="A20" s="4">
+        <v>90452</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>67961</v>
+      </c>
+      <c r="N20" t="s">
+        <v>423</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="1:15">
+      <c r="A21" s="4">
+        <v>79618</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:22">
-      <c r="A4">
-        <v>117488</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="8">
-        <v>241097</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:22">
-      <c r="A5">
+      <c r="M21">
+        <v>66871</v>
+      </c>
+      <c r="N21" t="s">
+        <v>425</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:15">
+      <c r="A22" s="4">
+        <v>83135</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>64421</v>
+      </c>
+      <c r="N22" t="s">
+        <v>427</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:15">
+      <c r="A23" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>61239</v>
+      </c>
+      <c r="N23" t="s">
+        <v>429</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:15">
+      <c r="A24" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>61239</v>
+      </c>
+      <c r="N24" t="s">
+        <v>431</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="1:15">
+      <c r="A25" s="4">
+        <v>79618</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>46643</v>
+      </c>
+      <c r="N25" t="s">
+        <v>433</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:15">
+      <c r="A26" s="4">
+        <v>84231</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46643</v>
+      </c>
+      <c r="N26" t="s">
+        <v>435</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:15">
+      <c r="A27" s="4">
+        <v>90254</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>46643</v>
+      </c>
+      <c r="N27" t="s">
+        <v>437</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:15">
+      <c r="A28" s="4">
+        <v>83135</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>46643</v>
+      </c>
+      <c r="N28" t="s">
+        <v>439</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:15">
+      <c r="A29" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>43982</v>
+      </c>
+      <c r="N29" t="s">
+        <v>441</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:15">
+      <c r="A30" s="4">
+        <v>66871</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>43982</v>
+      </c>
+      <c r="N30" t="s">
+        <v>443</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:15">
+      <c r="A31" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>43982</v>
+      </c>
+      <c r="N31" t="s">
+        <v>445</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:15">
+      <c r="A32" s="4">
         <v>70390</v>
       </c>
-      <c r="B5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="8">
-        <v>87773</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="V5" s="7">
+      <c r="B32" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>62084</v>
+      </c>
+      <c r="N32" t="s">
+        <v>446</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:15">
+      <c r="A33" s="4">
+        <v>66871</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>62084</v>
+      </c>
+      <c r="N33" t="s">
+        <v>447</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:15">
+      <c r="A34" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>62084</v>
+      </c>
+      <c r="N34" t="s">
+        <v>444</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:15">
+      <c r="A35" s="4">
+        <v>64421</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>62084</v>
+      </c>
+      <c r="N35" t="s">
+        <v>440</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:15">
+      <c r="A36" s="4">
+        <v>62425</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>62084</v>
+      </c>
+      <c r="N36" t="s">
+        <v>428</v>
+      </c>
+      <c r="O36">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:22">
-      <c r="A6">
-        <v>295144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="T6" s="8">
-        <v>120317</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="V6" s="7">
+    <row r="37" ht="16.8" spans="1:3">
+      <c r="A37" s="4">
+        <v>56336</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:3">
+      <c r="A38" s="4">
+        <v>61239</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:3">
+      <c r="A39" s="4">
+        <v>64593</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:3">
+      <c r="A40" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C40" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:22">
-      <c r="A7">
+    <row r="41" ht="16.8" spans="1:3">
+      <c r="A41" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:3">
+      <c r="A42" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="1:3">
+      <c r="A43" s="4">
+        <v>62425</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="1:3">
+      <c r="A44" s="4">
+        <v>56336</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="1:3">
+      <c r="A45" s="4">
+        <v>61239</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="1:3">
+      <c r="A46" s="4">
+        <v>47224</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="1:3">
+      <c r="A47" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="1:3">
+      <c r="A48" s="4">
+        <v>62084</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="1:3">
+      <c r="A49" s="4">
+        <v>67961</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="1:3">
+      <c r="A50" s="4">
+        <v>64421</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="1:3">
+      <c r="A51" s="4">
+        <v>49010</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="1:3">
+      <c r="A52" s="4">
+        <v>62208</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:3">
+      <c r="A53" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:3">
+      <c r="A54" s="4">
+        <v>62425</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:3">
+      <c r="A55" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:3">
+      <c r="A56" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:3">
+      <c r="A57" s="4">
+        <v>49010</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:3">
+      <c r="A58" s="4">
+        <v>46746</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:3">
+      <c r="A59" s="4">
+        <v>46511</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:3">
+      <c r="A60" s="4">
+        <v>46643</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:3">
+      <c r="A61" s="4">
         <v>62717</v>
       </c>
-      <c r="B7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>409</v>
-      </c>
-      <c r="T7" s="8">
-        <v>227496</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="16.8" spans="1:22">
-      <c r="A8">
+      <c r="B61" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:3">
+      <c r="A62" s="4">
+        <v>56484</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:3">
+      <c r="A63" s="4">
+        <v>49010</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:3">
+      <c r="A64" s="4">
+        <v>46746</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:3">
+      <c r="A65" s="4">
+        <v>46511</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="1:3">
+      <c r="A66" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:3">
+      <c r="A67" s="4">
+        <v>56336</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="1:3">
+      <c r="A68" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="16.8" spans="1:3">
+      <c r="A69" s="4">
+        <v>39718</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="1:3">
+      <c r="A70" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="16.8" spans="1:3">
+      <c r="A71" s="4">
+        <v>43020</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="1:3">
+      <c r="A72" s="4">
+        <v>39718</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="1:3">
+      <c r="A73" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C73" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="1:3">
+      <c r="A74" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C74" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="1:3">
+      <c r="A75" s="4">
         <v>28379</v>
       </c>
-      <c r="B8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="T8" s="8">
-        <v>120317</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="V8" s="7">
+      <c r="B75" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="1:3">
+      <c r="A76" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C76" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="1:3">
+      <c r="A77" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C77" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="1:3">
+      <c r="A78" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C78" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" ht="16.8" spans="1:3">
+      <c r="A79" s="4">
+        <v>4046</v>
+      </c>
+ 